--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>WBRBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3629000</v>
+        <v>3839300</v>
       </c>
       <c r="E8" s="3">
-        <v>3425400</v>
+        <v>3660700</v>
       </c>
       <c r="F8" s="3">
-        <v>3265300</v>
+        <v>3455400</v>
       </c>
       <c r="G8" s="3">
-        <v>3263600</v>
+        <v>3293800</v>
       </c>
       <c r="H8" s="3">
-        <v>3112300</v>
+        <v>3292200</v>
       </c>
       <c r="I8" s="3">
-        <v>2923900</v>
+        <v>3139500</v>
       </c>
       <c r="J8" s="3">
+        <v>2949500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2586400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2248300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2356700</v>
+        <v>2449500</v>
       </c>
       <c r="E9" s="3">
-        <v>2298900</v>
+        <v>2377300</v>
       </c>
       <c r="F9" s="3">
-        <v>2208300</v>
+        <v>2319000</v>
       </c>
       <c r="G9" s="3">
-        <v>2226500</v>
+        <v>2227700</v>
       </c>
       <c r="H9" s="3">
-        <v>2178200</v>
+        <v>2246000</v>
       </c>
       <c r="I9" s="3">
-        <v>2072300</v>
+        <v>2197200</v>
       </c>
       <c r="J9" s="3">
+        <v>2090400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1823800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1527600</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1272300</v>
+        <v>1389800</v>
       </c>
       <c r="E10" s="3">
-        <v>1126500</v>
+        <v>1283400</v>
       </c>
       <c r="F10" s="3">
-        <v>1056900</v>
+        <v>1136400</v>
       </c>
       <c r="G10" s="3">
-        <v>1037100</v>
+        <v>1066200</v>
       </c>
       <c r="H10" s="3">
-        <v>934100</v>
+        <v>1046200</v>
       </c>
       <c r="I10" s="3">
-        <v>851600</v>
+        <v>942300</v>
       </c>
       <c r="J10" s="3">
+        <v>859000</v>
+      </c>
+      <c r="K10" s="3">
         <v>762600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>720700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11800</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
-        <v>17100</v>
+        <v>11900</v>
       </c>
       <c r="F14" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G14" s="3">
         <v>7900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5800</v>
       </c>
-      <c r="H14" s="3">
-        <v>293100</v>
-      </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>295700</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>57900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-36000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>65900</v>
+        <v>86100</v>
       </c>
       <c r="E15" s="3">
-        <v>96200</v>
+        <v>66500</v>
       </c>
       <c r="F15" s="3">
-        <v>70400</v>
+        <v>97100</v>
       </c>
       <c r="G15" s="3">
-        <v>58800</v>
+        <v>71000</v>
       </c>
       <c r="H15" s="3">
-        <v>59400</v>
+        <v>59300</v>
       </c>
       <c r="I15" s="3">
-        <v>63100</v>
+        <v>60000</v>
       </c>
       <c r="J15" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K15" s="3">
         <v>68100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>58000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3368200</v>
+        <v>3439300</v>
       </c>
       <c r="E17" s="3">
-        <v>3229300</v>
+        <v>3397600</v>
       </c>
       <c r="F17" s="3">
-        <v>3056000</v>
+        <v>3257600</v>
       </c>
       <c r="G17" s="3">
-        <v>3085400</v>
+        <v>3082800</v>
       </c>
       <c r="H17" s="3">
-        <v>3295300</v>
+        <v>3112400</v>
       </c>
       <c r="I17" s="3">
-        <v>2852900</v>
+        <v>3324100</v>
       </c>
       <c r="J17" s="3">
+        <v>2877800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2610200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2204300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>260800</v>
+        <v>399900</v>
       </c>
       <c r="E18" s="3">
-        <v>196100</v>
+        <v>263100</v>
       </c>
       <c r="F18" s="3">
-        <v>209200</v>
+        <v>197800</v>
       </c>
       <c r="G18" s="3">
-        <v>178200</v>
+        <v>211100</v>
       </c>
       <c r="H18" s="3">
-        <v>-183100</v>
+        <v>179800</v>
       </c>
       <c r="I18" s="3">
-        <v>71000</v>
+        <v>-184700</v>
       </c>
       <c r="J18" s="3">
+        <v>71600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-23800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5500</v>
       </c>
-      <c r="F20" s="3">
-        <v>4300</v>
-      </c>
       <c r="G20" s="3">
-        <v>-6800</v>
+        <v>4400</v>
       </c>
       <c r="H20" s="3">
-        <v>13700</v>
+        <v>-6900</v>
       </c>
       <c r="I20" s="3">
-        <v>-4300</v>
+        <v>13800</v>
       </c>
       <c r="J20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K20" s="3">
         <v>51500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>71500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>464000</v>
+        <v>655300</v>
       </c>
       <c r="E21" s="3">
-        <v>410100</v>
+        <v>466400</v>
       </c>
       <c r="F21" s="3">
-        <v>423900</v>
+        <v>412000</v>
       </c>
       <c r="G21" s="3">
-        <v>392700</v>
+        <v>425900</v>
       </c>
       <c r="H21" s="3">
-        <v>54200</v>
+        <v>394300</v>
       </c>
       <c r="I21" s="3">
-        <v>284400</v>
+        <v>52900</v>
       </c>
       <c r="J21" s="3">
+        <v>285100</v>
+      </c>
+      <c r="K21" s="3">
         <v>241700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>331500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44500</v>
+        <v>43200</v>
       </c>
       <c r="E22" s="3">
-        <v>42500</v>
+        <v>44900</v>
       </c>
       <c r="F22" s="3">
-        <v>39500</v>
+        <v>42900</v>
       </c>
       <c r="G22" s="3">
-        <v>53900</v>
+        <v>39800</v>
       </c>
       <c r="H22" s="3">
-        <v>67000</v>
+        <v>54400</v>
       </c>
       <c r="I22" s="3">
-        <v>70100</v>
+        <v>67600</v>
       </c>
       <c r="J22" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K22" s="3">
         <v>67400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>214500</v>
+        <v>349200</v>
       </c>
       <c r="E23" s="3">
-        <v>159100</v>
+        <v>216400</v>
       </c>
       <c r="F23" s="3">
-        <v>174100</v>
+        <v>160500</v>
       </c>
       <c r="G23" s="3">
-        <v>117500</v>
+        <v>175600</v>
       </c>
       <c r="H23" s="3">
-        <v>-236400</v>
+        <v>118500</v>
       </c>
       <c r="I23" s="3">
+        <v>-238500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-39700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>55700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53200</v>
+        <v>58200</v>
       </c>
       <c r="E24" s="3">
+        <v>53700</v>
+      </c>
+      <c r="F24" s="3">
         <v>4700</v>
       </c>
-      <c r="F24" s="3">
-        <v>47500</v>
-      </c>
       <c r="G24" s="3">
-        <v>40900</v>
+        <v>47900</v>
       </c>
       <c r="H24" s="3">
-        <v>15700</v>
+        <v>41200</v>
       </c>
       <c r="I24" s="3">
-        <v>5200</v>
+        <v>15900</v>
       </c>
       <c r="J24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K24" s="3">
         <v>4800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>161300</v>
+        <v>291000</v>
       </c>
       <c r="E26" s="3">
-        <v>154400</v>
+        <v>162700</v>
       </c>
       <c r="F26" s="3">
-        <v>126600</v>
+        <v>155800</v>
       </c>
       <c r="G26" s="3">
-        <v>76700</v>
+        <v>127700</v>
       </c>
       <c r="H26" s="3">
-        <v>-252200</v>
+        <v>77300</v>
       </c>
       <c r="I26" s="3">
-        <v>-8600</v>
+        <v>-254400</v>
       </c>
       <c r="J26" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-44500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46300</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>146600</v>
+        <v>275900</v>
       </c>
       <c r="E27" s="3">
-        <v>135200</v>
+        <v>147900</v>
       </c>
       <c r="F27" s="3">
-        <v>90000</v>
+        <v>136400</v>
       </c>
       <c r="G27" s="3">
-        <v>40100</v>
+        <v>90800</v>
       </c>
       <c r="H27" s="3">
-        <v>-287300</v>
+        <v>40500</v>
       </c>
       <c r="I27" s="3">
-        <v>-42800</v>
+        <v>-289800</v>
       </c>
       <c r="J27" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-77200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-4300</v>
-      </c>
       <c r="G32" s="3">
-        <v>6800</v>
+        <v>-4400</v>
       </c>
       <c r="H32" s="3">
-        <v>-13700</v>
+        <v>6900</v>
       </c>
       <c r="I32" s="3">
-        <v>4300</v>
+        <v>-13800</v>
       </c>
       <c r="J32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-51500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-71500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>146600</v>
+        <v>275900</v>
       </c>
       <c r="E33" s="3">
-        <v>135200</v>
+        <v>147900</v>
       </c>
       <c r="F33" s="3">
-        <v>90000</v>
+        <v>136400</v>
       </c>
       <c r="G33" s="3">
-        <v>40100</v>
+        <v>90800</v>
       </c>
       <c r="H33" s="3">
-        <v>-287300</v>
+        <v>40500</v>
       </c>
       <c r="I33" s="3">
-        <v>-42800</v>
+        <v>-289800</v>
       </c>
       <c r="J33" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-77200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>146600</v>
+        <v>275900</v>
       </c>
       <c r="E35" s="3">
-        <v>135200</v>
+        <v>147900</v>
       </c>
       <c r="F35" s="3">
-        <v>90000</v>
+        <v>136400</v>
       </c>
       <c r="G35" s="3">
-        <v>40100</v>
+        <v>90800</v>
       </c>
       <c r="H35" s="3">
-        <v>-287300</v>
+        <v>40500</v>
       </c>
       <c r="I35" s="3">
-        <v>-42800</v>
+        <v>-289800</v>
       </c>
       <c r="J35" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-77200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>179100</v>
+        <v>142900</v>
       </c>
       <c r="E41" s="3">
-        <v>185800</v>
+        <v>181000</v>
       </c>
       <c r="F41" s="3">
-        <v>216300</v>
+        <v>187800</v>
       </c>
       <c r="G41" s="3">
-        <v>170100</v>
+        <v>218600</v>
       </c>
       <c r="H41" s="3">
-        <v>302200</v>
+        <v>171900</v>
       </c>
       <c r="I41" s="3">
-        <v>545400</v>
+        <v>305400</v>
       </c>
       <c r="J41" s="3">
+        <v>551200</v>
+      </c>
+      <c r="K41" s="3">
         <v>266000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1167700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>47000</v>
+        <v>40300</v>
       </c>
       <c r="E42" s="3">
-        <v>86800</v>
+        <v>47500</v>
       </c>
       <c r="F42" s="3">
-        <v>57900</v>
+        <v>87700</v>
       </c>
       <c r="G42" s="3">
-        <v>64200</v>
+        <v>58500</v>
       </c>
       <c r="H42" s="3">
-        <v>68000</v>
+        <v>64800</v>
       </c>
       <c r="I42" s="3">
-        <v>100400</v>
+        <v>68700</v>
       </c>
       <c r="J42" s="3">
+        <v>101500</v>
+      </c>
+      <c r="K42" s="3">
         <v>79600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>100300</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>343000</v>
+        <v>361000</v>
       </c>
       <c r="E43" s="3">
-        <v>325800</v>
+        <v>346700</v>
       </c>
       <c r="F43" s="3">
-        <v>288800</v>
+        <v>329300</v>
       </c>
       <c r="G43" s="3">
-        <v>287500</v>
+        <v>291900</v>
       </c>
       <c r="H43" s="3">
-        <v>333900</v>
+        <v>290600</v>
       </c>
       <c r="I43" s="3">
-        <v>309200</v>
+        <v>337500</v>
       </c>
       <c r="J43" s="3">
+        <v>312500</v>
+      </c>
+      <c r="K43" s="3">
         <v>296800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>203800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>836300</v>
+        <v>918400</v>
       </c>
       <c r="E44" s="3">
-        <v>814300</v>
+        <v>845300</v>
       </c>
       <c r="F44" s="3">
-        <v>788800</v>
+        <v>823000</v>
       </c>
       <c r="G44" s="3">
-        <v>827100</v>
+        <v>797200</v>
       </c>
       <c r="H44" s="3">
-        <v>770100</v>
+        <v>836000</v>
       </c>
       <c r="I44" s="3">
-        <v>731300</v>
+        <v>778400</v>
       </c>
       <c r="J44" s="3">
+        <v>739200</v>
+      </c>
+      <c r="K44" s="3">
         <v>766600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>674800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>25000</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>22300</v>
+        <v>25300</v>
       </c>
       <c r="G45" s="3">
-        <v>15000</v>
+        <v>22600</v>
       </c>
       <c r="H45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J45" s="3">
         <v>14500</v>
       </c>
-      <c r="I45" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1405400</v>
+        <v>1462600</v>
       </c>
       <c r="E46" s="3">
-        <v>1437700</v>
+        <v>1420500</v>
       </c>
       <c r="F46" s="3">
-        <v>1374100</v>
+        <v>1453100</v>
       </c>
       <c r="G46" s="3">
-        <v>1363800</v>
+        <v>1388900</v>
       </c>
       <c r="H46" s="3">
-        <v>1488700</v>
+        <v>1378500</v>
       </c>
       <c r="I46" s="3">
-        <v>1700600</v>
+        <v>1504700</v>
       </c>
       <c r="J46" s="3">
+        <v>1718900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1426800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1570600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>57700</v>
+        <v>57800</v>
       </c>
       <c r="E47" s="3">
-        <v>30800</v>
+        <v>58300</v>
       </c>
       <c r="F47" s="3">
-        <v>30200</v>
+        <v>31200</v>
       </c>
       <c r="G47" s="3">
-        <v>25400</v>
+        <v>30500</v>
       </c>
       <c r="H47" s="3">
-        <v>23300</v>
+        <v>25700</v>
       </c>
       <c r="I47" s="3">
-        <v>34400</v>
+        <v>23500</v>
       </c>
       <c r="J47" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K47" s="3">
         <v>37700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>161400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1803200</v>
+        <v>2153500</v>
       </c>
       <c r="E48" s="3">
-        <v>1743100</v>
+        <v>1822600</v>
       </c>
       <c r="F48" s="3">
-        <v>1812200</v>
+        <v>1761800</v>
       </c>
       <c r="G48" s="3">
-        <v>1873700</v>
+        <v>1831700</v>
       </c>
       <c r="H48" s="3">
-        <v>1891800</v>
+        <v>1893900</v>
       </c>
       <c r="I48" s="3">
-        <v>1912300</v>
+        <v>1912100</v>
       </c>
       <c r="J48" s="3">
+        <v>1932900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2069000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4133600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>782600</v>
+        <v>843900</v>
       </c>
       <c r="E49" s="3">
-        <v>758600</v>
+        <v>791000</v>
       </c>
       <c r="F49" s="3">
-        <v>758100</v>
+        <v>766800</v>
       </c>
       <c r="G49" s="3">
-        <v>770200</v>
+        <v>766300</v>
       </c>
       <c r="H49" s="3">
-        <v>762900</v>
+        <v>778400</v>
       </c>
       <c r="I49" s="3">
-        <v>925500</v>
+        <v>771100</v>
       </c>
       <c r="J49" s="3">
+        <v>935400</v>
+      </c>
+      <c r="K49" s="3">
         <v>968500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1595300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>60900</v>
+        <v>68500</v>
       </c>
       <c r="E52" s="3">
-        <v>48400</v>
+        <v>61500</v>
       </c>
       <c r="F52" s="3">
-        <v>19100</v>
+        <v>48900</v>
       </c>
       <c r="G52" s="3">
-        <v>20300</v>
+        <v>19300</v>
       </c>
       <c r="H52" s="3">
-        <v>39700</v>
+        <v>20500</v>
       </c>
       <c r="I52" s="3">
-        <v>51200</v>
+        <v>40100</v>
       </c>
       <c r="J52" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K52" s="3">
         <v>43400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4109700</v>
+        <v>4586300</v>
       </c>
       <c r="E54" s="3">
-        <v>4018500</v>
+        <v>4153900</v>
       </c>
       <c r="F54" s="3">
-        <v>3993600</v>
+        <v>4061700</v>
       </c>
       <c r="G54" s="3">
-        <v>4053400</v>
+        <v>4036500</v>
       </c>
       <c r="H54" s="3">
-        <v>4206400</v>
+        <v>4097000</v>
       </c>
       <c r="I54" s="3">
-        <v>4624100</v>
+        <v>4251600</v>
       </c>
       <c r="J54" s="3">
+        <v>4673800</v>
+      </c>
+      <c r="K54" s="3">
         <v>4545400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4685100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>358900</v>
+        <v>373400</v>
       </c>
       <c r="E57" s="3">
-        <v>353000</v>
+        <v>362800</v>
       </c>
       <c r="F57" s="3">
-        <v>332400</v>
+        <v>356800</v>
       </c>
       <c r="G57" s="3">
-        <v>303400</v>
+        <v>336000</v>
       </c>
       <c r="H57" s="3">
-        <v>313900</v>
+        <v>306700</v>
       </c>
       <c r="I57" s="3">
-        <v>294600</v>
+        <v>317200</v>
       </c>
       <c r="J57" s="3">
+        <v>297800</v>
+      </c>
+      <c r="K57" s="3">
         <v>278000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>442200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>139300</v>
+        <v>510700</v>
       </c>
       <c r="E58" s="3">
-        <v>352200</v>
+        <v>140800</v>
       </c>
       <c r="F58" s="3">
-        <v>439100</v>
+        <v>355900</v>
       </c>
       <c r="G58" s="3">
-        <v>263400</v>
+        <v>443800</v>
       </c>
       <c r="H58" s="3">
-        <v>441500</v>
+        <v>266200</v>
       </c>
       <c r="I58" s="3">
-        <v>319400</v>
+        <v>446200</v>
       </c>
       <c r="J58" s="3">
+        <v>322800</v>
+      </c>
+      <c r="K58" s="3">
         <v>63800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>987600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>375000</v>
+        <v>401000</v>
       </c>
       <c r="E59" s="3">
-        <v>333000</v>
+        <v>379100</v>
       </c>
       <c r="F59" s="3">
-        <v>303800</v>
+        <v>336600</v>
       </c>
       <c r="G59" s="3">
-        <v>321300</v>
+        <v>307100</v>
       </c>
       <c r="H59" s="3">
-        <v>322700</v>
+        <v>324800</v>
       </c>
       <c r="I59" s="3">
-        <v>310200</v>
+        <v>326200</v>
       </c>
       <c r="J59" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K59" s="3">
         <v>335000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>231300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>873300</v>
+        <v>1285100</v>
       </c>
       <c r="E60" s="3">
-        <v>1038200</v>
+        <v>882700</v>
       </c>
       <c r="F60" s="3">
-        <v>1075300</v>
+        <v>1049400</v>
       </c>
       <c r="G60" s="3">
-        <v>888100</v>
+        <v>1086900</v>
       </c>
       <c r="H60" s="3">
-        <v>1078100</v>
+        <v>897700</v>
       </c>
       <c r="I60" s="3">
-        <v>924300</v>
+        <v>1089700</v>
       </c>
       <c r="J60" s="3">
+        <v>934200</v>
+      </c>
+      <c r="K60" s="3">
         <v>676700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>946200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>780200</v>
+        <v>639500</v>
       </c>
       <c r="E61" s="3">
-        <v>542400</v>
+        <v>788600</v>
       </c>
       <c r="F61" s="3">
-        <v>528600</v>
+        <v>548200</v>
       </c>
       <c r="G61" s="3">
-        <v>557300</v>
+        <v>534300</v>
       </c>
       <c r="H61" s="3">
-        <v>611100</v>
+        <v>563300</v>
       </c>
       <c r="I61" s="3">
-        <v>918100</v>
+        <v>617600</v>
       </c>
       <c r="J61" s="3">
+        <v>927900</v>
+      </c>
+      <c r="K61" s="3">
         <v>942900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>603200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>327100</v>
+        <v>356900</v>
       </c>
       <c r="E62" s="3">
-        <v>339400</v>
+        <v>330600</v>
       </c>
       <c r="F62" s="3">
-        <v>359500</v>
+        <v>343000</v>
       </c>
       <c r="G62" s="3">
-        <v>352500</v>
+        <v>363400</v>
       </c>
       <c r="H62" s="3">
-        <v>336100</v>
+        <v>356300</v>
       </c>
       <c r="I62" s="3">
-        <v>306700</v>
+        <v>339700</v>
       </c>
       <c r="J62" s="3">
+        <v>310000</v>
+      </c>
+      <c r="K62" s="3">
         <v>330500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>387900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1981200</v>
+        <v>2282400</v>
       </c>
       <c r="E66" s="3">
-        <v>1945800</v>
+        <v>2002500</v>
       </c>
       <c r="F66" s="3">
-        <v>1985200</v>
+        <v>1966700</v>
       </c>
       <c r="G66" s="3">
-        <v>1817800</v>
+        <v>2006600</v>
       </c>
       <c r="H66" s="3">
-        <v>2044200</v>
+        <v>1837300</v>
       </c>
       <c r="I66" s="3">
-        <v>2151100</v>
+        <v>2066200</v>
       </c>
       <c r="J66" s="3">
+        <v>2174200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1953800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1835600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2015700</v>
+        <v>2222700</v>
       </c>
       <c r="E72" s="3">
-        <v>1933500</v>
+        <v>2037400</v>
       </c>
       <c r="F72" s="3">
-        <v>1836900</v>
+        <v>1954300</v>
       </c>
       <c r="G72" s="3">
-        <v>1792800</v>
+        <v>1856700</v>
       </c>
       <c r="H72" s="3">
-        <v>1759200</v>
+        <v>1812100</v>
       </c>
       <c r="I72" s="3">
-        <v>1829400</v>
+        <v>1778100</v>
       </c>
       <c r="J72" s="3">
+        <v>1849100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2183900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2222600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2128500</v>
+        <v>2303900</v>
       </c>
       <c r="E76" s="3">
-        <v>2072700</v>
+        <v>2151300</v>
       </c>
       <c r="F76" s="3">
-        <v>2008400</v>
+        <v>2095000</v>
       </c>
       <c r="G76" s="3">
-        <v>2235700</v>
+        <v>2030000</v>
       </c>
       <c r="H76" s="3">
-        <v>2162200</v>
+        <v>2259700</v>
       </c>
       <c r="I76" s="3">
-        <v>2473000</v>
+        <v>2185500</v>
       </c>
       <c r="J76" s="3">
+        <v>2499600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2591600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2849500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>146600</v>
+        <v>275900</v>
       </c>
       <c r="E81" s="3">
-        <v>135200</v>
+        <v>147900</v>
       </c>
       <c r="F81" s="3">
-        <v>90000</v>
+        <v>136400</v>
       </c>
       <c r="G81" s="3">
-        <v>40100</v>
+        <v>90800</v>
       </c>
       <c r="H81" s="3">
-        <v>-287300</v>
+        <v>40500</v>
       </c>
       <c r="I81" s="3">
-        <v>-42800</v>
+        <v>-289800</v>
       </c>
       <c r="J81" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-77200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>204700</v>
+        <v>264700</v>
       </c>
       <c r="E83" s="3">
-        <v>208200</v>
+        <v>206500</v>
       </c>
       <c r="F83" s="3">
-        <v>210100</v>
+        <v>210000</v>
       </c>
       <c r="G83" s="3">
-        <v>220900</v>
+        <v>211900</v>
       </c>
       <c r="H83" s="3">
-        <v>223200</v>
+        <v>222900</v>
       </c>
       <c r="I83" s="3">
-        <v>217400</v>
+        <v>225200</v>
       </c>
       <c r="J83" s="3">
+        <v>219300</v>
+      </c>
+      <c r="K83" s="3">
         <v>213700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>215900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>350700</v>
+        <v>476000</v>
       </c>
       <c r="E89" s="3">
-        <v>299000</v>
+        <v>353800</v>
       </c>
       <c r="F89" s="3">
-        <v>366500</v>
+        <v>301600</v>
       </c>
       <c r="G89" s="3">
-        <v>285800</v>
+        <v>369700</v>
       </c>
       <c r="H89" s="3">
-        <v>236600</v>
+        <v>288300</v>
       </c>
       <c r="I89" s="3">
-        <v>209600</v>
+        <v>238700</v>
       </c>
       <c r="J89" s="3">
+        <v>211400</v>
+      </c>
+      <c r="K89" s="3">
         <v>252000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>192500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-237000</v>
+        <v>-283000</v>
       </c>
       <c r="E91" s="3">
-        <v>-179200</v>
+        <v>-239100</v>
       </c>
       <c r="F91" s="3">
-        <v>-179600</v>
+        <v>-180700</v>
       </c>
       <c r="G91" s="3">
-        <v>-162300</v>
+        <v>-181200</v>
       </c>
       <c r="H91" s="3">
-        <v>-139900</v>
+        <v>-163700</v>
       </c>
       <c r="I91" s="3">
-        <v>-117100</v>
+        <v>-141200</v>
       </c>
       <c r="J91" s="3">
+        <v>-118100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-133900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-135200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-232400</v>
+        <v>-292500</v>
       </c>
       <c r="E94" s="3">
-        <v>-196200</v>
+        <v>-234400</v>
       </c>
       <c r="F94" s="3">
-        <v>-144000</v>
+        <v>-197900</v>
       </c>
       <c r="G94" s="3">
-        <v>-148600</v>
+        <v>-145200</v>
       </c>
       <c r="H94" s="3">
-        <v>-109400</v>
+        <v>-149900</v>
       </c>
       <c r="I94" s="3">
-        <v>-108400</v>
+        <v>-110300</v>
       </c>
       <c r="J94" s="3">
+        <v>-109300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-251800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-99600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-38200</v>
+        <v>-63500</v>
       </c>
       <c r="E96" s="3">
-        <v>-34700</v>
+        <v>-38600</v>
       </c>
       <c r="F96" s="3">
-        <v>-25700</v>
+        <v>-35000</v>
       </c>
       <c r="G96" s="3">
-        <v>-19300</v>
+        <v>-25900</v>
       </c>
       <c r="H96" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-15200</v>
       </c>
-      <c r="I96" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13800</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-124900</v>
+        <v>-222900</v>
       </c>
       <c r="E100" s="3">
-        <v>-132000</v>
+        <v>-125900</v>
       </c>
       <c r="F100" s="3">
-        <v>-174700</v>
+        <v>-133100</v>
       </c>
       <c r="G100" s="3">
-        <v>-270200</v>
+        <v>-176300</v>
       </c>
       <c r="H100" s="3">
-        <v>-370700</v>
+        <v>-272500</v>
       </c>
       <c r="I100" s="3">
-        <v>179900</v>
+        <v>-373900</v>
       </c>
       <c r="J100" s="3">
+        <v>181500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-273000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K101" s="3">
+        <v>400</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>400</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6800</v>
       </c>
-      <c r="E102" s="3">
-        <v>-30500</v>
-      </c>
       <c r="F102" s="3">
-        <v>46300</v>
+        <v>-30700</v>
       </c>
       <c r="G102" s="3">
-        <v>-132100</v>
+        <v>46700</v>
       </c>
       <c r="H102" s="3">
-        <v>-243200</v>
+        <v>-133300</v>
       </c>
       <c r="I102" s="3">
-        <v>279300</v>
+        <v>-245300</v>
       </c>
       <c r="J102" s="3">
+        <v>281800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-272400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3839300</v>
+        <v>4100300</v>
       </c>
       <c r="E8" s="3">
-        <v>3660700</v>
+        <v>3909600</v>
       </c>
       <c r="F8" s="3">
-        <v>3455400</v>
+        <v>3690300</v>
       </c>
       <c r="G8" s="3">
-        <v>3293800</v>
+        <v>3517700</v>
       </c>
       <c r="H8" s="3">
-        <v>3292200</v>
+        <v>3516000</v>
       </c>
       <c r="I8" s="3">
-        <v>3139500</v>
+        <v>3352900</v>
       </c>
       <c r="J8" s="3">
-        <v>2949500</v>
+        <v>3150000</v>
       </c>
       <c r="K8" s="3">
         <v>2586400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2449500</v>
+        <v>2616000</v>
       </c>
       <c r="E9" s="3">
-        <v>2377300</v>
+        <v>2538900</v>
       </c>
       <c r="F9" s="3">
-        <v>2319000</v>
+        <v>2476600</v>
       </c>
       <c r="G9" s="3">
-        <v>2227700</v>
+        <v>2379100</v>
       </c>
       <c r="H9" s="3">
-        <v>2246000</v>
+        <v>2398700</v>
       </c>
       <c r="I9" s="3">
-        <v>2197200</v>
+        <v>2346600</v>
       </c>
       <c r="J9" s="3">
-        <v>2090400</v>
+        <v>2232600</v>
       </c>
       <c r="K9" s="3">
         <v>1823800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1389800</v>
+        <v>1484300</v>
       </c>
       <c r="E10" s="3">
-        <v>1283400</v>
+        <v>1370700</v>
       </c>
       <c r="F10" s="3">
-        <v>1136400</v>
+        <v>1213700</v>
       </c>
       <c r="G10" s="3">
-        <v>1066200</v>
+        <v>1138600</v>
       </c>
       <c r="H10" s="3">
-        <v>1046200</v>
+        <v>1117300</v>
       </c>
       <c r="I10" s="3">
-        <v>942300</v>
+        <v>1006300</v>
       </c>
       <c r="J10" s="3">
-        <v>859000</v>
+        <v>917400</v>
       </c>
       <c r="K10" s="3">
         <v>762600</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="3">
-        <v>11900</v>
+        <v>12700</v>
       </c>
       <c r="F14" s="3">
-        <v>17200</v>
+        <v>18400</v>
       </c>
       <c r="G14" s="3">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="H14" s="3">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="I14" s="3">
-        <v>295700</v>
+        <v>315800</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>86100</v>
+        <v>91900</v>
       </c>
       <c r="E15" s="3">
-        <v>66500</v>
+        <v>71000</v>
       </c>
       <c r="F15" s="3">
-        <v>97100</v>
+        <v>103700</v>
       </c>
       <c r="G15" s="3">
-        <v>71000</v>
+        <v>75800</v>
       </c>
       <c r="H15" s="3">
-        <v>59300</v>
+        <v>63300</v>
       </c>
       <c r="I15" s="3">
-        <v>60000</v>
+        <v>64000</v>
       </c>
       <c r="J15" s="3">
-        <v>63700</v>
+        <v>68000</v>
       </c>
       <c r="K15" s="3">
         <v>68100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3439300</v>
+        <v>3673200</v>
       </c>
       <c r="E17" s="3">
-        <v>3397600</v>
+        <v>3628600</v>
       </c>
       <c r="F17" s="3">
-        <v>3257600</v>
+        <v>3479000</v>
       </c>
       <c r="G17" s="3">
-        <v>3082800</v>
+        <v>3292300</v>
       </c>
       <c r="H17" s="3">
-        <v>3112400</v>
+        <v>3324000</v>
       </c>
       <c r="I17" s="3">
-        <v>3324100</v>
+        <v>3550100</v>
       </c>
       <c r="J17" s="3">
-        <v>2877800</v>
+        <v>3073500</v>
       </c>
       <c r="K17" s="3">
         <v>2610200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>399900</v>
+        <v>427100</v>
       </c>
       <c r="E18" s="3">
-        <v>263100</v>
+        <v>281000</v>
       </c>
       <c r="F18" s="3">
-        <v>197800</v>
+        <v>211300</v>
       </c>
       <c r="G18" s="3">
-        <v>211100</v>
+        <v>225400</v>
       </c>
       <c r="H18" s="3">
-        <v>179800</v>
+        <v>192000</v>
       </c>
       <c r="I18" s="3">
-        <v>-184700</v>
+        <v>-197200</v>
       </c>
       <c r="J18" s="3">
-        <v>71600</v>
+        <v>76500</v>
       </c>
       <c r="K18" s="3">
         <v>-23800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7500</v>
+        <v>-8100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="G20" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="H20" s="3">
-        <v>-6900</v>
+        <v>-7300</v>
       </c>
       <c r="I20" s="3">
-        <v>13800</v>
+        <v>14800</v>
       </c>
       <c r="J20" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="K20" s="3">
         <v>51500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>655300</v>
+        <v>701800</v>
       </c>
       <c r="E21" s="3">
-        <v>466400</v>
+        <v>499700</v>
       </c>
       <c r="F21" s="3">
-        <v>412000</v>
+        <v>441500</v>
       </c>
       <c r="G21" s="3">
-        <v>425900</v>
+        <v>456400</v>
       </c>
       <c r="H21" s="3">
-        <v>394300</v>
+        <v>422800</v>
       </c>
       <c r="I21" s="3">
-        <v>52900</v>
+        <v>58100</v>
       </c>
       <c r="J21" s="3">
-        <v>285100</v>
+        <v>306100</v>
       </c>
       <c r="K21" s="3">
         <v>241700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43200</v>
+        <v>46100</v>
       </c>
       <c r="E22" s="3">
-        <v>44900</v>
+        <v>47900</v>
       </c>
       <c r="F22" s="3">
-        <v>42900</v>
+        <v>45800</v>
       </c>
       <c r="G22" s="3">
-        <v>39800</v>
+        <v>42500</v>
       </c>
       <c r="H22" s="3">
-        <v>54400</v>
+        <v>58100</v>
       </c>
       <c r="I22" s="3">
-        <v>67600</v>
+        <v>72200</v>
       </c>
       <c r="J22" s="3">
-        <v>70700</v>
+        <v>75500</v>
       </c>
       <c r="K22" s="3">
         <v>67400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>349200</v>
+        <v>372900</v>
       </c>
       <c r="E23" s="3">
-        <v>216400</v>
+        <v>231100</v>
       </c>
       <c r="F23" s="3">
-        <v>160500</v>
+        <v>171400</v>
       </c>
       <c r="G23" s="3">
-        <v>175600</v>
+        <v>187500</v>
       </c>
       <c r="H23" s="3">
-        <v>118500</v>
+        <v>126600</v>
       </c>
       <c r="I23" s="3">
-        <v>-238500</v>
+        <v>-254700</v>
       </c>
       <c r="J23" s="3">
-        <v>-3400</v>
+        <v>-3600</v>
       </c>
       <c r="K23" s="3">
         <v>-39700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>58200</v>
+        <v>62100</v>
       </c>
       <c r="E24" s="3">
-        <v>53700</v>
+        <v>57300</v>
       </c>
       <c r="F24" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="3">
-        <v>47900</v>
+        <v>51100</v>
       </c>
       <c r="H24" s="3">
-        <v>41200</v>
+        <v>44000</v>
       </c>
       <c r="I24" s="3">
-        <v>15900</v>
+        <v>17000</v>
       </c>
       <c r="J24" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="K24" s="3">
         <v>4800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>291000</v>
+        <v>310800</v>
       </c>
       <c r="E26" s="3">
-        <v>162700</v>
+        <v>173700</v>
       </c>
       <c r="F26" s="3">
-        <v>155800</v>
+        <v>166400</v>
       </c>
       <c r="G26" s="3">
-        <v>127700</v>
+        <v>136400</v>
       </c>
       <c r="H26" s="3">
-        <v>77300</v>
+        <v>82600</v>
       </c>
       <c r="I26" s="3">
-        <v>-254400</v>
+        <v>-271700</v>
       </c>
       <c r="J26" s="3">
-        <v>-8700</v>
+        <v>-9300</v>
       </c>
       <c r="K26" s="3">
         <v>-44500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>275900</v>
+        <v>294700</v>
       </c>
       <c r="E27" s="3">
-        <v>147900</v>
+        <v>157900</v>
       </c>
       <c r="F27" s="3">
-        <v>136400</v>
+        <v>145700</v>
       </c>
       <c r="G27" s="3">
-        <v>90800</v>
+        <v>97000</v>
       </c>
       <c r="H27" s="3">
-        <v>40500</v>
+        <v>43200</v>
       </c>
       <c r="I27" s="3">
-        <v>-289800</v>
+        <v>-309600</v>
       </c>
       <c r="J27" s="3">
-        <v>-43100</v>
+        <v>-46100</v>
       </c>
       <c r="K27" s="3">
         <v>-77200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7500</v>
+        <v>8100</v>
       </c>
       <c r="E32" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
-        <v>-5500</v>
+        <v>-5900</v>
       </c>
       <c r="G32" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="H32" s="3">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="I32" s="3">
-        <v>-13800</v>
+        <v>-14800</v>
       </c>
       <c r="J32" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="K32" s="3">
         <v>-51500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>275900</v>
+        <v>294700</v>
       </c>
       <c r="E33" s="3">
-        <v>147900</v>
+        <v>157900</v>
       </c>
       <c r="F33" s="3">
-        <v>136400</v>
+        <v>145700</v>
       </c>
       <c r="G33" s="3">
-        <v>90800</v>
+        <v>97000</v>
       </c>
       <c r="H33" s="3">
-        <v>40500</v>
+        <v>43200</v>
       </c>
       <c r="I33" s="3">
-        <v>-289800</v>
+        <v>-309600</v>
       </c>
       <c r="J33" s="3">
-        <v>-43100</v>
+        <v>-46100</v>
       </c>
       <c r="K33" s="3">
         <v>-77200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>275900</v>
+        <v>294700</v>
       </c>
       <c r="E35" s="3">
-        <v>147900</v>
+        <v>157900</v>
       </c>
       <c r="F35" s="3">
-        <v>136400</v>
+        <v>145700</v>
       </c>
       <c r="G35" s="3">
-        <v>90800</v>
+        <v>97000</v>
       </c>
       <c r="H35" s="3">
-        <v>40500</v>
+        <v>43200</v>
       </c>
       <c r="I35" s="3">
-        <v>-289800</v>
+        <v>-309600</v>
       </c>
       <c r="J35" s="3">
-        <v>-43100</v>
+        <v>-46100</v>
       </c>
       <c r="K35" s="3">
         <v>-77200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>142900</v>
+        <v>152300</v>
       </c>
       <c r="E41" s="3">
-        <v>181000</v>
+        <v>192900</v>
       </c>
       <c r="F41" s="3">
-        <v>187800</v>
+        <v>200200</v>
       </c>
       <c r="G41" s="3">
-        <v>218600</v>
+        <v>233100</v>
       </c>
       <c r="H41" s="3">
-        <v>171900</v>
+        <v>183200</v>
       </c>
       <c r="I41" s="3">
-        <v>305400</v>
+        <v>325500</v>
       </c>
       <c r="J41" s="3">
-        <v>551200</v>
+        <v>587500</v>
       </c>
       <c r="K41" s="3">
         <v>266000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>40300</v>
+        <v>43000</v>
       </c>
       <c r="E42" s="3">
-        <v>47500</v>
+        <v>50600</v>
       </c>
       <c r="F42" s="3">
-        <v>87700</v>
+        <v>93500</v>
       </c>
       <c r="G42" s="3">
-        <v>58500</v>
+        <v>62400</v>
       </c>
       <c r="H42" s="3">
-        <v>64800</v>
+        <v>69100</v>
       </c>
       <c r="I42" s="3">
-        <v>68700</v>
+        <v>73200</v>
       </c>
       <c r="J42" s="3">
-        <v>101500</v>
+        <v>108200</v>
       </c>
       <c r="K42" s="3">
         <v>79600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>361000</v>
+        <v>384800</v>
       </c>
       <c r="E43" s="3">
-        <v>346700</v>
+        <v>369600</v>
       </c>
       <c r="F43" s="3">
-        <v>329300</v>
+        <v>351000</v>
       </c>
       <c r="G43" s="3">
-        <v>291900</v>
+        <v>311100</v>
       </c>
       <c r="H43" s="3">
-        <v>290600</v>
+        <v>309700</v>
       </c>
       <c r="I43" s="3">
-        <v>337500</v>
+        <v>359800</v>
       </c>
       <c r="J43" s="3">
-        <v>312500</v>
+        <v>333100</v>
       </c>
       <c r="K43" s="3">
         <v>296800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>918400</v>
+        <v>978900</v>
       </c>
       <c r="E44" s="3">
-        <v>845300</v>
+        <v>901000</v>
       </c>
       <c r="F44" s="3">
-        <v>823000</v>
+        <v>877200</v>
       </c>
       <c r="G44" s="3">
-        <v>797200</v>
+        <v>849700</v>
       </c>
       <c r="H44" s="3">
-        <v>836000</v>
+        <v>891000</v>
       </c>
       <c r="I44" s="3">
-        <v>778400</v>
+        <v>829700</v>
       </c>
       <c r="J44" s="3">
-        <v>739200</v>
+        <v>787800</v>
       </c>
       <c r="K44" s="3">
         <v>766600</v>
@@ -1790,19 +1790,19 @@
         <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>25300</v>
+        <v>26900</v>
       </c>
       <c r="G45" s="3">
-        <v>22600</v>
+        <v>24100</v>
       </c>
       <c r="H45" s="3">
-        <v>15200</v>
+        <v>16200</v>
       </c>
       <c r="I45" s="3">
-        <v>14700</v>
+        <v>15600</v>
       </c>
       <c r="J45" s="3">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="K45" s="3">
         <v>17700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1462600</v>
+        <v>1559000</v>
       </c>
       <c r="E46" s="3">
-        <v>1420500</v>
+        <v>1514100</v>
       </c>
       <c r="F46" s="3">
-        <v>1453100</v>
+        <v>1548800</v>
       </c>
       <c r="G46" s="3">
-        <v>1388900</v>
+        <v>1480300</v>
       </c>
       <c r="H46" s="3">
-        <v>1378500</v>
+        <v>1469300</v>
       </c>
       <c r="I46" s="3">
-        <v>1504700</v>
+        <v>1603900</v>
       </c>
       <c r="J46" s="3">
-        <v>1718900</v>
+        <v>1832100</v>
       </c>
       <c r="K46" s="3">
         <v>1426800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>57800</v>
+        <v>61700</v>
       </c>
       <c r="E47" s="3">
-        <v>58300</v>
+        <v>62100</v>
       </c>
       <c r="F47" s="3">
-        <v>31200</v>
+        <v>33200</v>
       </c>
       <c r="G47" s="3">
-        <v>30500</v>
+        <v>32500</v>
       </c>
       <c r="H47" s="3">
-        <v>25700</v>
+        <v>27400</v>
       </c>
       <c r="I47" s="3">
-        <v>23500</v>
+        <v>25100</v>
       </c>
       <c r="J47" s="3">
-        <v>34800</v>
+        <v>37100</v>
       </c>
       <c r="K47" s="3">
         <v>37700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2153500</v>
+        <v>2295400</v>
       </c>
       <c r="E48" s="3">
-        <v>1822600</v>
+        <v>1942700</v>
       </c>
       <c r="F48" s="3">
-        <v>1761800</v>
+        <v>1877800</v>
       </c>
       <c r="G48" s="3">
-        <v>1831700</v>
+        <v>1952300</v>
       </c>
       <c r="H48" s="3">
-        <v>1893900</v>
+        <v>2018600</v>
       </c>
       <c r="I48" s="3">
-        <v>1912100</v>
+        <v>2038100</v>
       </c>
       <c r="J48" s="3">
-        <v>1932900</v>
+        <v>2060200</v>
       </c>
       <c r="K48" s="3">
         <v>2069000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>843900</v>
+        <v>899500</v>
       </c>
       <c r="E49" s="3">
-        <v>791000</v>
+        <v>843100</v>
       </c>
       <c r="F49" s="3">
-        <v>766800</v>
+        <v>817300</v>
       </c>
       <c r="G49" s="3">
-        <v>766300</v>
+        <v>816700</v>
       </c>
       <c r="H49" s="3">
-        <v>778400</v>
+        <v>829700</v>
       </c>
       <c r="I49" s="3">
-        <v>771100</v>
+        <v>821900</v>
       </c>
       <c r="J49" s="3">
-        <v>935400</v>
+        <v>997100</v>
       </c>
       <c r="K49" s="3">
         <v>968500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68500</v>
+        <v>73000</v>
       </c>
       <c r="E52" s="3">
-        <v>61500</v>
+        <v>65600</v>
       </c>
       <c r="F52" s="3">
-        <v>48900</v>
+        <v>52100</v>
       </c>
       <c r="G52" s="3">
-        <v>19300</v>
+        <v>20500</v>
       </c>
       <c r="H52" s="3">
-        <v>20500</v>
+        <v>21900</v>
       </c>
       <c r="I52" s="3">
-        <v>40100</v>
+        <v>42800</v>
       </c>
       <c r="J52" s="3">
-        <v>51800</v>
+        <v>55200</v>
       </c>
       <c r="K52" s="3">
         <v>43400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4586300</v>
+        <v>4888400</v>
       </c>
       <c r="E54" s="3">
-        <v>4153900</v>
+        <v>4427500</v>
       </c>
       <c r="F54" s="3">
-        <v>4061700</v>
+        <v>4329300</v>
       </c>
       <c r="G54" s="3">
-        <v>4036500</v>
+        <v>4302400</v>
       </c>
       <c r="H54" s="3">
-        <v>4097000</v>
+        <v>4366800</v>
       </c>
       <c r="I54" s="3">
-        <v>4251600</v>
+        <v>4531700</v>
       </c>
       <c r="J54" s="3">
-        <v>4673800</v>
+        <v>4981600</v>
       </c>
       <c r="K54" s="3">
         <v>4545400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>373400</v>
+        <v>398000</v>
       </c>
       <c r="E57" s="3">
-        <v>362800</v>
+        <v>386700</v>
       </c>
       <c r="F57" s="3">
-        <v>356800</v>
+        <v>380300</v>
       </c>
       <c r="G57" s="3">
-        <v>336000</v>
+        <v>358100</v>
       </c>
       <c r="H57" s="3">
-        <v>306700</v>
+        <v>326900</v>
       </c>
       <c r="I57" s="3">
-        <v>317200</v>
+        <v>338100</v>
       </c>
       <c r="J57" s="3">
-        <v>297800</v>
+        <v>317400</v>
       </c>
       <c r="K57" s="3">
         <v>278000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>510700</v>
+        <v>544400</v>
       </c>
       <c r="E58" s="3">
-        <v>140800</v>
+        <v>150100</v>
       </c>
       <c r="F58" s="3">
-        <v>355900</v>
+        <v>379400</v>
       </c>
       <c r="G58" s="3">
-        <v>443800</v>
+        <v>473100</v>
       </c>
       <c r="H58" s="3">
-        <v>266200</v>
+        <v>283800</v>
       </c>
       <c r="I58" s="3">
-        <v>446200</v>
+        <v>475600</v>
       </c>
       <c r="J58" s="3">
-        <v>322800</v>
+        <v>344100</v>
       </c>
       <c r="K58" s="3">
         <v>63800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>401000</v>
+        <v>427400</v>
       </c>
       <c r="E59" s="3">
-        <v>379100</v>
+        <v>404000</v>
       </c>
       <c r="F59" s="3">
-        <v>336600</v>
+        <v>358800</v>
       </c>
       <c r="G59" s="3">
-        <v>307100</v>
+        <v>327300</v>
       </c>
       <c r="H59" s="3">
-        <v>324800</v>
+        <v>346200</v>
       </c>
       <c r="I59" s="3">
-        <v>326200</v>
+        <v>347700</v>
       </c>
       <c r="J59" s="3">
-        <v>313600</v>
+        <v>334200</v>
       </c>
       <c r="K59" s="3">
         <v>335000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1285100</v>
+        <v>1369700</v>
       </c>
       <c r="E60" s="3">
-        <v>882700</v>
+        <v>940800</v>
       </c>
       <c r="F60" s="3">
-        <v>1049400</v>
+        <v>1118500</v>
       </c>
       <c r="G60" s="3">
-        <v>1086900</v>
+        <v>1158500</v>
       </c>
       <c r="H60" s="3">
-        <v>897700</v>
+        <v>956800</v>
       </c>
       <c r="I60" s="3">
-        <v>1089700</v>
+        <v>1161400</v>
       </c>
       <c r="J60" s="3">
-        <v>934200</v>
+        <v>995700</v>
       </c>
       <c r="K60" s="3">
         <v>676700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>639500</v>
+        <v>681600</v>
       </c>
       <c r="E61" s="3">
-        <v>788600</v>
+        <v>840600</v>
       </c>
       <c r="F61" s="3">
-        <v>548200</v>
+        <v>584300</v>
       </c>
       <c r="G61" s="3">
-        <v>534300</v>
+        <v>569500</v>
       </c>
       <c r="H61" s="3">
-        <v>563300</v>
+        <v>600400</v>
       </c>
       <c r="I61" s="3">
-        <v>617600</v>
+        <v>658300</v>
       </c>
       <c r="J61" s="3">
-        <v>927900</v>
+        <v>989000</v>
       </c>
       <c r="K61" s="3">
         <v>942900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>356900</v>
+        <v>380400</v>
       </c>
       <c r="E62" s="3">
-        <v>330600</v>
+        <v>352300</v>
       </c>
       <c r="F62" s="3">
-        <v>343000</v>
+        <v>365600</v>
       </c>
       <c r="G62" s="3">
-        <v>363400</v>
+        <v>387300</v>
       </c>
       <c r="H62" s="3">
-        <v>356300</v>
+        <v>379800</v>
       </c>
       <c r="I62" s="3">
-        <v>339700</v>
+        <v>362100</v>
       </c>
       <c r="J62" s="3">
-        <v>310000</v>
+        <v>330400</v>
       </c>
       <c r="K62" s="3">
         <v>330500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2282400</v>
+        <v>2432700</v>
       </c>
       <c r="E66" s="3">
-        <v>2002500</v>
+        <v>2134400</v>
       </c>
       <c r="F66" s="3">
-        <v>1966700</v>
+        <v>2096200</v>
       </c>
       <c r="G66" s="3">
-        <v>2006600</v>
+        <v>2138700</v>
       </c>
       <c r="H66" s="3">
-        <v>1837300</v>
+        <v>1958300</v>
       </c>
       <c r="I66" s="3">
-        <v>2066200</v>
+        <v>2202300</v>
       </c>
       <c r="J66" s="3">
-        <v>2174200</v>
+        <v>2317400</v>
       </c>
       <c r="K66" s="3">
         <v>1953800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2222700</v>
+        <v>2369100</v>
       </c>
       <c r="E72" s="3">
-        <v>2037400</v>
+        <v>2171600</v>
       </c>
       <c r="F72" s="3">
-        <v>1954300</v>
+        <v>2081900</v>
       </c>
       <c r="G72" s="3">
-        <v>1856700</v>
+        <v>1978700</v>
       </c>
       <c r="H72" s="3">
-        <v>1812100</v>
+        <v>1931700</v>
       </c>
       <c r="I72" s="3">
-        <v>1778100</v>
+        <v>1897500</v>
       </c>
       <c r="J72" s="3">
-        <v>1849100</v>
+        <v>1970900</v>
       </c>
       <c r="K72" s="3">
         <v>2183900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2303900</v>
+        <v>2455700</v>
       </c>
       <c r="E76" s="3">
-        <v>2151300</v>
+        <v>2293000</v>
       </c>
       <c r="F76" s="3">
-        <v>2095000</v>
+        <v>2233000</v>
       </c>
       <c r="G76" s="3">
-        <v>2030000</v>
+        <v>2163700</v>
       </c>
       <c r="H76" s="3">
-        <v>2259700</v>
+        <v>2408500</v>
       </c>
       <c r="I76" s="3">
-        <v>2185500</v>
+        <v>2329400</v>
       </c>
       <c r="J76" s="3">
-        <v>2499600</v>
+        <v>2664200</v>
       </c>
       <c r="K76" s="3">
         <v>2591600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>275900</v>
+        <v>294700</v>
       </c>
       <c r="E81" s="3">
-        <v>147900</v>
+        <v>157900</v>
       </c>
       <c r="F81" s="3">
-        <v>136400</v>
+        <v>145700</v>
       </c>
       <c r="G81" s="3">
-        <v>90800</v>
+        <v>97000</v>
       </c>
       <c r="H81" s="3">
-        <v>40500</v>
+        <v>43200</v>
       </c>
       <c r="I81" s="3">
-        <v>-289800</v>
+        <v>-309600</v>
       </c>
       <c r="J81" s="3">
-        <v>-43100</v>
+        <v>-46100</v>
       </c>
       <c r="K81" s="3">
         <v>-77200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>264700</v>
+        <v>282700</v>
       </c>
       <c r="E83" s="3">
-        <v>206500</v>
+        <v>220600</v>
       </c>
       <c r="F83" s="3">
-        <v>210000</v>
+        <v>224300</v>
       </c>
       <c r="G83" s="3">
-        <v>211900</v>
+        <v>226300</v>
       </c>
       <c r="H83" s="3">
-        <v>222900</v>
+        <v>238000</v>
       </c>
       <c r="I83" s="3">
-        <v>225200</v>
+        <v>240500</v>
       </c>
       <c r="J83" s="3">
-        <v>219300</v>
+        <v>234200</v>
       </c>
       <c r="K83" s="3">
         <v>213700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>476000</v>
+        <v>508400</v>
       </c>
       <c r="E89" s="3">
-        <v>353800</v>
+        <v>377800</v>
       </c>
       <c r="F89" s="3">
-        <v>301600</v>
+        <v>322100</v>
       </c>
       <c r="G89" s="3">
-        <v>369700</v>
+        <v>394800</v>
       </c>
       <c r="H89" s="3">
-        <v>288300</v>
+        <v>307900</v>
       </c>
       <c r="I89" s="3">
-        <v>238700</v>
+        <v>254900</v>
       </c>
       <c r="J89" s="3">
-        <v>211400</v>
+        <v>225800</v>
       </c>
       <c r="K89" s="3">
         <v>252000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-283000</v>
+        <v>-302200</v>
       </c>
       <c r="E91" s="3">
-        <v>-239100</v>
+        <v>-255300</v>
       </c>
       <c r="F91" s="3">
-        <v>-180700</v>
+        <v>-193000</v>
       </c>
       <c r="G91" s="3">
-        <v>-181200</v>
+        <v>-193500</v>
       </c>
       <c r="H91" s="3">
-        <v>-163700</v>
+        <v>-174800</v>
       </c>
       <c r="I91" s="3">
-        <v>-141200</v>
+        <v>-150800</v>
       </c>
       <c r="J91" s="3">
-        <v>-118100</v>
+        <v>-126100</v>
       </c>
       <c r="K91" s="3">
         <v>-133900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-292500</v>
+        <v>-312400</v>
       </c>
       <c r="E94" s="3">
-        <v>-234400</v>
+        <v>-250400</v>
       </c>
       <c r="F94" s="3">
-        <v>-197900</v>
+        <v>-211400</v>
       </c>
       <c r="G94" s="3">
-        <v>-145200</v>
+        <v>-155100</v>
       </c>
       <c r="H94" s="3">
-        <v>-149900</v>
+        <v>-160100</v>
       </c>
       <c r="I94" s="3">
-        <v>-110300</v>
+        <v>-117800</v>
       </c>
       <c r="J94" s="3">
-        <v>-109300</v>
+        <v>-116700</v>
       </c>
       <c r="K94" s="3">
         <v>-251800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-63500</v>
+        <v>-67800</v>
       </c>
       <c r="E96" s="3">
-        <v>-38600</v>
+        <v>-41200</v>
       </c>
       <c r="F96" s="3">
-        <v>-35000</v>
+        <v>-37400</v>
       </c>
       <c r="G96" s="3">
-        <v>-25900</v>
+        <v>-27700</v>
       </c>
       <c r="H96" s="3">
-        <v>-19400</v>
+        <v>-20800</v>
       </c>
       <c r="I96" s="3">
-        <v>-15300</v>
+        <v>-16300</v>
       </c>
       <c r="J96" s="3">
-        <v>-15300</v>
+        <v>-16300</v>
       </c>
       <c r="K96" s="3">
         <v>-15200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-222900</v>
+        <v>-238100</v>
       </c>
       <c r="E100" s="3">
-        <v>-125900</v>
+        <v>-134500</v>
       </c>
       <c r="F100" s="3">
-        <v>-133100</v>
+        <v>-142200</v>
       </c>
       <c r="G100" s="3">
-        <v>-176300</v>
+        <v>-188200</v>
       </c>
       <c r="H100" s="3">
-        <v>-272500</v>
+        <v>-291000</v>
       </c>
       <c r="I100" s="3">
-        <v>-373900</v>
+        <v>-399300</v>
       </c>
       <c r="J100" s="3">
-        <v>181500</v>
+        <v>193800</v>
       </c>
       <c r="K100" s="3">
         <v>-273000</v>
@@ -3463,16 +3463,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
         <v>-300</v>
       </c>
       <c r="F101" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
@@ -3481,7 +3481,7 @@
         <v>300</v>
       </c>
       <c r="J101" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-38000</v>
+        <v>-40600</v>
       </c>
       <c r="E102" s="3">
-        <v>-6800</v>
+        <v>-7300</v>
       </c>
       <c r="F102" s="3">
-        <v>-30700</v>
+        <v>-32800</v>
       </c>
       <c r="G102" s="3">
-        <v>46700</v>
+        <v>49800</v>
       </c>
       <c r="H102" s="3">
-        <v>-133300</v>
+        <v>-142300</v>
       </c>
       <c r="I102" s="3">
-        <v>-245300</v>
+        <v>-262000</v>
       </c>
       <c r="J102" s="3">
-        <v>281800</v>
+        <v>300900</v>
       </c>
       <c r="K102" s="3">
         <v>-272400</v>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>WBRBY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4100300</v>
+        <v>4146400</v>
       </c>
       <c r="E8" s="3">
-        <v>3909600</v>
+        <v>3953500</v>
       </c>
       <c r="F8" s="3">
-        <v>3690300</v>
+        <v>3731800</v>
       </c>
       <c r="G8" s="3">
-        <v>3517700</v>
+        <v>3557300</v>
       </c>
       <c r="H8" s="3">
-        <v>3516000</v>
+        <v>3555500</v>
       </c>
       <c r="I8" s="3">
-        <v>3352900</v>
+        <v>3390600</v>
       </c>
       <c r="J8" s="3">
-        <v>3150000</v>
+        <v>3185400</v>
       </c>
       <c r="K8" s="3">
         <v>2586400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2616000</v>
+        <v>2645400</v>
       </c>
       <c r="E9" s="3">
-        <v>2538900</v>
+        <v>2567400</v>
       </c>
       <c r="F9" s="3">
-        <v>2476600</v>
+        <v>2504500</v>
       </c>
       <c r="G9" s="3">
-        <v>2379100</v>
+        <v>2405800</v>
       </c>
       <c r="H9" s="3">
-        <v>2398700</v>
+        <v>2425700</v>
       </c>
       <c r="I9" s="3">
-        <v>2346600</v>
+        <v>2373000</v>
       </c>
       <c r="J9" s="3">
-        <v>2232600</v>
+        <v>2257700</v>
       </c>
       <c r="K9" s="3">
         <v>1823800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1484300</v>
+        <v>1500900</v>
       </c>
       <c r="E10" s="3">
-        <v>1370700</v>
+        <v>1386100</v>
       </c>
       <c r="F10" s="3">
-        <v>1213700</v>
+        <v>1227300</v>
       </c>
       <c r="G10" s="3">
-        <v>1138600</v>
+        <v>1151400</v>
       </c>
       <c r="H10" s="3">
-        <v>1117300</v>
+        <v>1129900</v>
       </c>
       <c r="I10" s="3">
-        <v>1006300</v>
+        <v>1017600</v>
       </c>
       <c r="J10" s="3">
-        <v>917400</v>
+        <v>927700</v>
       </c>
       <c r="K10" s="3">
         <v>762600</v>
@@ -900,19 +900,19 @@
         <v>1900</v>
       </c>
       <c r="E14" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="F14" s="3">
-        <v>18400</v>
+        <v>18600</v>
       </c>
       <c r="G14" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="H14" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="I14" s="3">
-        <v>315800</v>
+        <v>319400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>91900</v>
+        <v>93000</v>
       </c>
       <c r="E15" s="3">
-        <v>71000</v>
+        <v>71800</v>
       </c>
       <c r="F15" s="3">
-        <v>103700</v>
+        <v>104800</v>
       </c>
       <c r="G15" s="3">
-        <v>75800</v>
+        <v>76700</v>
       </c>
       <c r="H15" s="3">
-        <v>63300</v>
+        <v>64000</v>
       </c>
       <c r="I15" s="3">
-        <v>64000</v>
+        <v>64800</v>
       </c>
       <c r="J15" s="3">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="K15" s="3">
         <v>68100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3673200</v>
+        <v>3714500</v>
       </c>
       <c r="E17" s="3">
-        <v>3628600</v>
+        <v>3669400</v>
       </c>
       <c r="F17" s="3">
-        <v>3479000</v>
+        <v>3518100</v>
       </c>
       <c r="G17" s="3">
-        <v>3292300</v>
+        <v>3329400</v>
       </c>
       <c r="H17" s="3">
-        <v>3324000</v>
+        <v>3361400</v>
       </c>
       <c r="I17" s="3">
-        <v>3550100</v>
+        <v>3590100</v>
       </c>
       <c r="J17" s="3">
-        <v>3073500</v>
+        <v>3108100</v>
       </c>
       <c r="K17" s="3">
         <v>2610200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>427100</v>
+        <v>431900</v>
       </c>
       <c r="E18" s="3">
-        <v>281000</v>
+        <v>284100</v>
       </c>
       <c r="F18" s="3">
-        <v>211300</v>
+        <v>213700</v>
       </c>
       <c r="G18" s="3">
-        <v>225400</v>
+        <v>227900</v>
       </c>
       <c r="H18" s="3">
-        <v>192000</v>
+        <v>194100</v>
       </c>
       <c r="I18" s="3">
-        <v>-197200</v>
+        <v>-199500</v>
       </c>
       <c r="J18" s="3">
-        <v>76500</v>
+        <v>77400</v>
       </c>
       <c r="K18" s="3">
         <v>-23800</v>
@@ -1056,22 +1056,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8100</v>
+        <v>-8200</v>
       </c>
       <c r="E20" s="3">
         <v>-2000</v>
       </c>
       <c r="F20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G20" s="3">
         <v>4700</v>
       </c>
       <c r="H20" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="I20" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="J20" s="3">
         <v>-4700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>701800</v>
+        <v>708500</v>
       </c>
       <c r="E21" s="3">
-        <v>499700</v>
+        <v>504300</v>
       </c>
       <c r="F21" s="3">
-        <v>441500</v>
+        <v>445500</v>
       </c>
       <c r="G21" s="3">
-        <v>456400</v>
+        <v>460600</v>
       </c>
       <c r="H21" s="3">
-        <v>422800</v>
+        <v>426400</v>
       </c>
       <c r="I21" s="3">
-        <v>58100</v>
+        <v>57700</v>
       </c>
       <c r="J21" s="3">
-        <v>306100</v>
+        <v>308500</v>
       </c>
       <c r="K21" s="3">
         <v>241700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46100</v>
+        <v>46600</v>
       </c>
       <c r="E22" s="3">
-        <v>47900</v>
+        <v>48500</v>
       </c>
       <c r="F22" s="3">
-        <v>45800</v>
+        <v>46300</v>
       </c>
       <c r="G22" s="3">
-        <v>42500</v>
+        <v>43000</v>
       </c>
       <c r="H22" s="3">
-        <v>58100</v>
+        <v>58700</v>
       </c>
       <c r="I22" s="3">
-        <v>72200</v>
+        <v>73000</v>
       </c>
       <c r="J22" s="3">
-        <v>75500</v>
+        <v>76300</v>
       </c>
       <c r="K22" s="3">
         <v>67400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>372900</v>
+        <v>377100</v>
       </c>
       <c r="E23" s="3">
-        <v>231100</v>
+        <v>233700</v>
       </c>
       <c r="F23" s="3">
-        <v>171400</v>
+        <v>173300</v>
       </c>
       <c r="G23" s="3">
-        <v>187500</v>
+        <v>189700</v>
       </c>
       <c r="H23" s="3">
-        <v>126600</v>
+        <v>128000</v>
       </c>
       <c r="I23" s="3">
-        <v>-254700</v>
+        <v>-257600</v>
       </c>
       <c r="J23" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="K23" s="3">
         <v>-39700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62100</v>
+        <v>62800</v>
       </c>
       <c r="E24" s="3">
-        <v>57300</v>
+        <v>58000</v>
       </c>
       <c r="F24" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G24" s="3">
-        <v>51100</v>
+        <v>51700</v>
       </c>
       <c r="H24" s="3">
-        <v>44000</v>
+        <v>44500</v>
       </c>
       <c r="I24" s="3">
-        <v>17000</v>
+        <v>17200</v>
       </c>
       <c r="J24" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K24" s="3">
         <v>4800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>310800</v>
+        <v>314300</v>
       </c>
       <c r="E26" s="3">
-        <v>173700</v>
+        <v>175700</v>
       </c>
       <c r="F26" s="3">
-        <v>166400</v>
+        <v>168200</v>
       </c>
       <c r="G26" s="3">
-        <v>136400</v>
+        <v>138000</v>
       </c>
       <c r="H26" s="3">
-        <v>82600</v>
+        <v>83500</v>
       </c>
       <c r="I26" s="3">
-        <v>-271700</v>
+        <v>-274700</v>
       </c>
       <c r="J26" s="3">
-        <v>-9300</v>
+        <v>-9400</v>
       </c>
       <c r="K26" s="3">
         <v>-44500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>294700</v>
+        <v>298000</v>
       </c>
       <c r="E27" s="3">
-        <v>157900</v>
+        <v>159700</v>
       </c>
       <c r="F27" s="3">
-        <v>145700</v>
+        <v>147300</v>
       </c>
       <c r="G27" s="3">
-        <v>97000</v>
+        <v>98000</v>
       </c>
       <c r="H27" s="3">
-        <v>43200</v>
+        <v>43700</v>
       </c>
       <c r="I27" s="3">
-        <v>-309600</v>
+        <v>-313000</v>
       </c>
       <c r="J27" s="3">
-        <v>-46100</v>
+        <v>-46600</v>
       </c>
       <c r="K27" s="3">
         <v>-77200</v>
@@ -1452,22 +1452,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E32" s="3">
         <v>2000</v>
       </c>
       <c r="F32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="G32" s="3">
         <v>-4700</v>
       </c>
       <c r="H32" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="I32" s="3">
-        <v>-14800</v>
+        <v>-14900</v>
       </c>
       <c r="J32" s="3">
         <v>4700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>294700</v>
+        <v>298000</v>
       </c>
       <c r="E33" s="3">
-        <v>157900</v>
+        <v>159700</v>
       </c>
       <c r="F33" s="3">
-        <v>145700</v>
+        <v>147300</v>
       </c>
       <c r="G33" s="3">
-        <v>97000</v>
+        <v>98000</v>
       </c>
       <c r="H33" s="3">
-        <v>43200</v>
+        <v>43700</v>
       </c>
       <c r="I33" s="3">
-        <v>-309600</v>
+        <v>-313000</v>
       </c>
       <c r="J33" s="3">
-        <v>-46100</v>
+        <v>-46600</v>
       </c>
       <c r="K33" s="3">
         <v>-77200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>294700</v>
+        <v>298000</v>
       </c>
       <c r="E35" s="3">
-        <v>157900</v>
+        <v>159700</v>
       </c>
       <c r="F35" s="3">
-        <v>145700</v>
+        <v>147300</v>
       </c>
       <c r="G35" s="3">
-        <v>97000</v>
+        <v>98000</v>
       </c>
       <c r="H35" s="3">
-        <v>43200</v>
+        <v>43700</v>
       </c>
       <c r="I35" s="3">
-        <v>-309600</v>
+        <v>-313000</v>
       </c>
       <c r="J35" s="3">
-        <v>-46100</v>
+        <v>-46600</v>
       </c>
       <c r="K35" s="3">
         <v>-77200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>152300</v>
+        <v>154000</v>
       </c>
       <c r="E41" s="3">
-        <v>192900</v>
+        <v>195100</v>
       </c>
       <c r="F41" s="3">
-        <v>200200</v>
+        <v>202500</v>
       </c>
       <c r="G41" s="3">
-        <v>233100</v>
+        <v>235700</v>
       </c>
       <c r="H41" s="3">
-        <v>183200</v>
+        <v>185300</v>
       </c>
       <c r="I41" s="3">
-        <v>325500</v>
+        <v>329200</v>
       </c>
       <c r="J41" s="3">
-        <v>587500</v>
+        <v>594100</v>
       </c>
       <c r="K41" s="3">
         <v>266000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43000</v>
+        <v>8200</v>
       </c>
       <c r="E42" s="3">
-        <v>50600</v>
+        <v>7400</v>
       </c>
       <c r="F42" s="3">
-        <v>93500</v>
+        <v>94500</v>
       </c>
       <c r="G42" s="3">
-        <v>62400</v>
+        <v>63100</v>
       </c>
       <c r="H42" s="3">
-        <v>69100</v>
+        <v>69900</v>
       </c>
       <c r="I42" s="3">
-        <v>73200</v>
+        <v>74100</v>
       </c>
       <c r="J42" s="3">
-        <v>108200</v>
+        <v>109400</v>
       </c>
       <c r="K42" s="3">
         <v>79600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>384800</v>
+        <v>420700</v>
       </c>
       <c r="E43" s="3">
-        <v>369600</v>
+        <v>406100</v>
       </c>
       <c r="F43" s="3">
-        <v>351000</v>
+        <v>354900</v>
       </c>
       <c r="G43" s="3">
-        <v>311100</v>
+        <v>314600</v>
       </c>
       <c r="H43" s="3">
-        <v>309700</v>
+        <v>313200</v>
       </c>
       <c r="I43" s="3">
-        <v>359800</v>
+        <v>363800</v>
       </c>
       <c r="J43" s="3">
-        <v>333100</v>
+        <v>336800</v>
       </c>
       <c r="K43" s="3">
         <v>296800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>978900</v>
+        <v>989900</v>
       </c>
       <c r="E44" s="3">
-        <v>901000</v>
+        <v>911100</v>
       </c>
       <c r="F44" s="3">
-        <v>877200</v>
+        <v>887100</v>
       </c>
       <c r="G44" s="3">
-        <v>849700</v>
+        <v>859300</v>
       </c>
       <c r="H44" s="3">
-        <v>891000</v>
+        <v>901100</v>
       </c>
       <c r="I44" s="3">
-        <v>829700</v>
+        <v>839000</v>
       </c>
       <c r="J44" s="3">
-        <v>787800</v>
+        <v>796700</v>
       </c>
       <c r="K44" s="3">
         <v>766600</v>
@@ -1783,26 +1783,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11400</v>
       </c>
       <c r="F45" s="3">
-        <v>26900</v>
+        <v>27200</v>
       </c>
       <c r="G45" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="H45" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="I45" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="J45" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="K45" s="3">
         <v>17700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1559000</v>
+        <v>1576500</v>
       </c>
       <c r="E46" s="3">
-        <v>1514100</v>
+        <v>1531100</v>
       </c>
       <c r="F46" s="3">
-        <v>1548800</v>
+        <v>1566200</v>
       </c>
       <c r="G46" s="3">
-        <v>1480300</v>
+        <v>1497000</v>
       </c>
       <c r="H46" s="3">
-        <v>1469300</v>
+        <v>1485800</v>
       </c>
       <c r="I46" s="3">
-        <v>1603900</v>
+        <v>1621900</v>
       </c>
       <c r="J46" s="3">
-        <v>1832100</v>
+        <v>1852700</v>
       </c>
       <c r="K46" s="3">
         <v>1426800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61700</v>
+        <v>62400</v>
       </c>
       <c r="E47" s="3">
-        <v>62100</v>
+        <v>62800</v>
       </c>
       <c r="F47" s="3">
-        <v>33200</v>
+        <v>33600</v>
       </c>
       <c r="G47" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="H47" s="3">
-        <v>27400</v>
+        <v>27700</v>
       </c>
       <c r="I47" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="J47" s="3">
-        <v>37100</v>
+        <v>37500</v>
       </c>
       <c r="K47" s="3">
         <v>37700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2295400</v>
+        <v>2321200</v>
       </c>
       <c r="E48" s="3">
-        <v>1942700</v>
+        <v>1964500</v>
       </c>
       <c r="F48" s="3">
-        <v>1877800</v>
+        <v>1899000</v>
       </c>
       <c r="G48" s="3">
-        <v>1952300</v>
+        <v>1974300</v>
       </c>
       <c r="H48" s="3">
-        <v>2018600</v>
+        <v>2041300</v>
       </c>
       <c r="I48" s="3">
-        <v>2038100</v>
+        <v>2061000</v>
       </c>
       <c r="J48" s="3">
-        <v>2060200</v>
+        <v>2083400</v>
       </c>
       <c r="K48" s="3">
         <v>2069000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>899500</v>
+        <v>909600</v>
       </c>
       <c r="E49" s="3">
-        <v>843100</v>
+        <v>852600</v>
       </c>
       <c r="F49" s="3">
-        <v>817300</v>
+        <v>826500</v>
       </c>
       <c r="G49" s="3">
-        <v>816700</v>
+        <v>825900</v>
       </c>
       <c r="H49" s="3">
-        <v>829700</v>
+        <v>839000</v>
       </c>
       <c r="I49" s="3">
-        <v>821900</v>
+        <v>831100</v>
       </c>
       <c r="J49" s="3">
-        <v>997100</v>
+        <v>1008300</v>
       </c>
       <c r="K49" s="3">
         <v>968500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73000</v>
+        <v>73800</v>
       </c>
       <c r="E52" s="3">
-        <v>65600</v>
+        <v>66300</v>
       </c>
       <c r="F52" s="3">
-        <v>52100</v>
+        <v>52700</v>
       </c>
       <c r="G52" s="3">
-        <v>20500</v>
+        <v>20800</v>
       </c>
       <c r="H52" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="I52" s="3">
-        <v>42800</v>
+        <v>43300</v>
       </c>
       <c r="J52" s="3">
-        <v>55200</v>
+        <v>55800</v>
       </c>
       <c r="K52" s="3">
         <v>43400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4888400</v>
+        <v>4943400</v>
       </c>
       <c r="E54" s="3">
-        <v>4427500</v>
+        <v>4477300</v>
       </c>
       <c r="F54" s="3">
-        <v>4329300</v>
+        <v>4377900</v>
       </c>
       <c r="G54" s="3">
-        <v>4302400</v>
+        <v>4350800</v>
       </c>
       <c r="H54" s="3">
-        <v>4366800</v>
+        <v>4415900</v>
       </c>
       <c r="I54" s="3">
-        <v>4531700</v>
+        <v>4582600</v>
       </c>
       <c r="J54" s="3">
-        <v>4981600</v>
+        <v>5037600</v>
       </c>
       <c r="K54" s="3">
         <v>4545400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>398000</v>
+        <v>402400</v>
       </c>
       <c r="E57" s="3">
-        <v>386700</v>
+        <v>391000</v>
       </c>
       <c r="F57" s="3">
-        <v>380300</v>
+        <v>384600</v>
       </c>
       <c r="G57" s="3">
-        <v>358100</v>
+        <v>362100</v>
       </c>
       <c r="H57" s="3">
-        <v>326900</v>
+        <v>330500</v>
       </c>
       <c r="I57" s="3">
-        <v>338100</v>
+        <v>341900</v>
       </c>
       <c r="J57" s="3">
-        <v>317400</v>
+        <v>321000</v>
       </c>
       <c r="K57" s="3">
         <v>278000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>544400</v>
+        <v>550500</v>
       </c>
       <c r="E58" s="3">
-        <v>150100</v>
+        <v>151800</v>
       </c>
       <c r="F58" s="3">
-        <v>379400</v>
+        <v>383700</v>
       </c>
       <c r="G58" s="3">
-        <v>473100</v>
+        <v>478400</v>
       </c>
       <c r="H58" s="3">
-        <v>283800</v>
+        <v>287000</v>
       </c>
       <c r="I58" s="3">
-        <v>475600</v>
+        <v>481000</v>
       </c>
       <c r="J58" s="3">
-        <v>344100</v>
+        <v>348000</v>
       </c>
       <c r="K58" s="3">
         <v>63800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>427400</v>
+        <v>432200</v>
       </c>
       <c r="E59" s="3">
-        <v>404000</v>
+        <v>408600</v>
       </c>
       <c r="F59" s="3">
-        <v>358800</v>
+        <v>362800</v>
       </c>
       <c r="G59" s="3">
-        <v>327300</v>
+        <v>331000</v>
       </c>
       <c r="H59" s="3">
-        <v>346200</v>
+        <v>350100</v>
       </c>
       <c r="I59" s="3">
-        <v>347700</v>
+        <v>351600</v>
       </c>
       <c r="J59" s="3">
-        <v>334200</v>
+        <v>338000</v>
       </c>
       <c r="K59" s="3">
         <v>335000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1369700</v>
+        <v>1385100</v>
       </c>
       <c r="E60" s="3">
-        <v>940800</v>
+        <v>951400</v>
       </c>
       <c r="F60" s="3">
-        <v>1118500</v>
+        <v>1131100</v>
       </c>
       <c r="G60" s="3">
-        <v>1158500</v>
+        <v>1171500</v>
       </c>
       <c r="H60" s="3">
-        <v>956800</v>
+        <v>967600</v>
       </c>
       <c r="I60" s="3">
-        <v>1161400</v>
+        <v>1174500</v>
       </c>
       <c r="J60" s="3">
-        <v>995700</v>
+        <v>1006900</v>
       </c>
       <c r="K60" s="3">
         <v>676700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>681600</v>
+        <v>689300</v>
       </c>
       <c r="E61" s="3">
-        <v>840600</v>
+        <v>850000</v>
       </c>
       <c r="F61" s="3">
-        <v>584300</v>
+        <v>590900</v>
       </c>
       <c r="G61" s="3">
-        <v>569500</v>
+        <v>575900</v>
       </c>
       <c r="H61" s="3">
-        <v>600400</v>
+        <v>607100</v>
       </c>
       <c r="I61" s="3">
-        <v>658300</v>
+        <v>665700</v>
       </c>
       <c r="J61" s="3">
-        <v>989000</v>
+        <v>1000200</v>
       </c>
       <c r="K61" s="3">
         <v>942900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>380400</v>
+        <v>384600</v>
       </c>
       <c r="E62" s="3">
-        <v>352300</v>
+        <v>356300</v>
       </c>
       <c r="F62" s="3">
-        <v>365600</v>
+        <v>369700</v>
       </c>
       <c r="G62" s="3">
-        <v>387300</v>
+        <v>391700</v>
       </c>
       <c r="H62" s="3">
-        <v>379800</v>
+        <v>384000</v>
       </c>
       <c r="I62" s="3">
-        <v>362100</v>
+        <v>366200</v>
       </c>
       <c r="J62" s="3">
-        <v>330400</v>
+        <v>334100</v>
       </c>
       <c r="K62" s="3">
         <v>330500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2432700</v>
+        <v>2460100</v>
       </c>
       <c r="E66" s="3">
-        <v>2134400</v>
+        <v>2158400</v>
       </c>
       <c r="F66" s="3">
-        <v>2096200</v>
+        <v>2119800</v>
       </c>
       <c r="G66" s="3">
-        <v>2138700</v>
+        <v>2162800</v>
       </c>
       <c r="H66" s="3">
-        <v>1958300</v>
+        <v>1980300</v>
       </c>
       <c r="I66" s="3">
-        <v>2202300</v>
+        <v>2227000</v>
       </c>
       <c r="J66" s="3">
-        <v>2317400</v>
+        <v>2343500</v>
       </c>
       <c r="K66" s="3">
         <v>1953800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2369100</v>
+        <v>2395700</v>
       </c>
       <c r="E72" s="3">
-        <v>2171600</v>
+        <v>2196000</v>
       </c>
       <c r="F72" s="3">
-        <v>2081900</v>
+        <v>2105300</v>
       </c>
       <c r="G72" s="3">
-        <v>1978700</v>
+        <v>2000900</v>
       </c>
       <c r="H72" s="3">
-        <v>1931700</v>
+        <v>1953400</v>
       </c>
       <c r="I72" s="3">
-        <v>1897500</v>
+        <v>1918800</v>
       </c>
       <c r="J72" s="3">
-        <v>1970900</v>
+        <v>1993100</v>
       </c>
       <c r="K72" s="3">
         <v>2183900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2455700</v>
+        <v>2483300</v>
       </c>
       <c r="E76" s="3">
-        <v>2293000</v>
+        <v>2318800</v>
       </c>
       <c r="F76" s="3">
-        <v>2233000</v>
+        <v>2258100</v>
       </c>
       <c r="G76" s="3">
-        <v>2163700</v>
+        <v>2188000</v>
       </c>
       <c r="H76" s="3">
-        <v>2408500</v>
+        <v>2435600</v>
       </c>
       <c r="I76" s="3">
-        <v>2329400</v>
+        <v>2355600</v>
       </c>
       <c r="J76" s="3">
-        <v>2664200</v>
+        <v>2694100</v>
       </c>
       <c r="K76" s="3">
         <v>2591600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>294700</v>
+        <v>298000</v>
       </c>
       <c r="E81" s="3">
-        <v>157900</v>
+        <v>159700</v>
       </c>
       <c r="F81" s="3">
-        <v>145700</v>
+        <v>147300</v>
       </c>
       <c r="G81" s="3">
-        <v>97000</v>
+        <v>98000</v>
       </c>
       <c r="H81" s="3">
-        <v>43200</v>
+        <v>43700</v>
       </c>
       <c r="I81" s="3">
-        <v>-309600</v>
+        <v>-313000</v>
       </c>
       <c r="J81" s="3">
-        <v>-46100</v>
+        <v>-46600</v>
       </c>
       <c r="K81" s="3">
         <v>-77200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>282700</v>
+        <v>285900</v>
       </c>
       <c r="E83" s="3">
-        <v>220600</v>
+        <v>223000</v>
       </c>
       <c r="F83" s="3">
-        <v>224300</v>
+        <v>226800</v>
       </c>
       <c r="G83" s="3">
-        <v>226300</v>
+        <v>228800</v>
       </c>
       <c r="H83" s="3">
-        <v>238000</v>
+        <v>240700</v>
       </c>
       <c r="I83" s="3">
-        <v>240500</v>
+        <v>243200</v>
       </c>
       <c r="J83" s="3">
-        <v>234200</v>
+        <v>236800</v>
       </c>
       <c r="K83" s="3">
         <v>213700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>508400</v>
+        <v>514100</v>
       </c>
       <c r="E89" s="3">
-        <v>377800</v>
+        <v>382100</v>
       </c>
       <c r="F89" s="3">
-        <v>322100</v>
+        <v>325800</v>
       </c>
       <c r="G89" s="3">
-        <v>394800</v>
+        <v>399300</v>
       </c>
       <c r="H89" s="3">
-        <v>307900</v>
+        <v>311400</v>
       </c>
       <c r="I89" s="3">
-        <v>254900</v>
+        <v>257700</v>
       </c>
       <c r="J89" s="3">
-        <v>225800</v>
+        <v>228300</v>
       </c>
       <c r="K89" s="3">
         <v>252000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-302200</v>
+        <v>-305600</v>
       </c>
       <c r="E91" s="3">
-        <v>-255300</v>
+        <v>-258200</v>
       </c>
       <c r="F91" s="3">
-        <v>-193000</v>
+        <v>-195200</v>
       </c>
       <c r="G91" s="3">
-        <v>-193500</v>
+        <v>-195700</v>
       </c>
       <c r="H91" s="3">
-        <v>-174800</v>
+        <v>-176800</v>
       </c>
       <c r="I91" s="3">
-        <v>-150800</v>
+        <v>-152500</v>
       </c>
       <c r="J91" s="3">
-        <v>-126100</v>
+        <v>-127500</v>
       </c>
       <c r="K91" s="3">
         <v>-133900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-312400</v>
+        <v>-315900</v>
       </c>
       <c r="E94" s="3">
-        <v>-250400</v>
+        <v>-253200</v>
       </c>
       <c r="F94" s="3">
-        <v>-211400</v>
+        <v>-213800</v>
       </c>
       <c r="G94" s="3">
-        <v>-155100</v>
+        <v>-156800</v>
       </c>
       <c r="H94" s="3">
-        <v>-160100</v>
+        <v>-161900</v>
       </c>
       <c r="I94" s="3">
-        <v>-117800</v>
+        <v>-119200</v>
       </c>
       <c r="J94" s="3">
-        <v>-116700</v>
+        <v>-118100</v>
       </c>
       <c r="K94" s="3">
         <v>-251800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-67800</v>
+        <v>-68500</v>
       </c>
       <c r="E96" s="3">
-        <v>-41200</v>
+        <v>-41600</v>
       </c>
       <c r="F96" s="3">
-        <v>-37400</v>
+        <v>-37800</v>
       </c>
       <c r="G96" s="3">
-        <v>-27700</v>
+        <v>-28000</v>
       </c>
       <c r="H96" s="3">
-        <v>-20800</v>
+        <v>-21000</v>
       </c>
       <c r="I96" s="3">
-        <v>-16300</v>
+        <v>-16500</v>
       </c>
       <c r="J96" s="3">
-        <v>-16300</v>
+        <v>-16500</v>
       </c>
       <c r="K96" s="3">
         <v>-15200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-238100</v>
+        <v>-240700</v>
       </c>
       <c r="E100" s="3">
-        <v>-134500</v>
+        <v>-136000</v>
       </c>
       <c r="F100" s="3">
-        <v>-142200</v>
+        <v>-143800</v>
       </c>
       <c r="G100" s="3">
-        <v>-188200</v>
+        <v>-190400</v>
       </c>
       <c r="H100" s="3">
-        <v>-291000</v>
+        <v>-294300</v>
       </c>
       <c r="I100" s="3">
-        <v>-399300</v>
+        <v>-403800</v>
       </c>
       <c r="J100" s="3">
-        <v>193800</v>
+        <v>196000</v>
       </c>
       <c r="K100" s="3">
         <v>-273000</v>
@@ -3472,10 +3472,10 @@
         <v>-1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-40600</v>
+        <v>-41100</v>
       </c>
       <c r="E102" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="F102" s="3">
-        <v>-32800</v>
+        <v>-33200</v>
       </c>
       <c r="G102" s="3">
-        <v>49800</v>
+        <v>50400</v>
       </c>
       <c r="H102" s="3">
-        <v>-142300</v>
+        <v>-143900</v>
       </c>
       <c r="I102" s="3">
-        <v>-262000</v>
+        <v>-265000</v>
       </c>
       <c r="J102" s="3">
-        <v>300900</v>
+        <v>304300</v>
       </c>
       <c r="K102" s="3">
         <v>-272400</v>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>WBRBY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4146400</v>
+        <v>4077700</v>
       </c>
       <c r="E8" s="3">
-        <v>3953500</v>
+        <v>3888100</v>
       </c>
       <c r="F8" s="3">
-        <v>3731800</v>
+        <v>3670000</v>
       </c>
       <c r="G8" s="3">
-        <v>3557300</v>
+        <v>3498400</v>
       </c>
       <c r="H8" s="3">
-        <v>3555500</v>
+        <v>3496700</v>
       </c>
       <c r="I8" s="3">
-        <v>3390600</v>
+        <v>3334500</v>
       </c>
       <c r="J8" s="3">
-        <v>3185400</v>
+        <v>3132700</v>
       </c>
       <c r="K8" s="3">
         <v>2586400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2645400</v>
+        <v>2601600</v>
       </c>
       <c r="E9" s="3">
-        <v>2567400</v>
+        <v>2524900</v>
       </c>
       <c r="F9" s="3">
-        <v>2504500</v>
+        <v>2463000</v>
       </c>
       <c r="G9" s="3">
-        <v>2405800</v>
+        <v>2366000</v>
       </c>
       <c r="H9" s="3">
-        <v>2425700</v>
+        <v>2385500</v>
       </c>
       <c r="I9" s="3">
-        <v>2373000</v>
+        <v>2333700</v>
       </c>
       <c r="J9" s="3">
-        <v>2257700</v>
+        <v>2220300</v>
       </c>
       <c r="K9" s="3">
         <v>1823800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1500900</v>
+        <v>1476100</v>
       </c>
       <c r="E10" s="3">
-        <v>1386100</v>
+        <v>1363200</v>
       </c>
       <c r="F10" s="3">
-        <v>1227300</v>
+        <v>1207000</v>
       </c>
       <c r="G10" s="3">
-        <v>1151400</v>
+        <v>1132400</v>
       </c>
       <c r="H10" s="3">
-        <v>1129900</v>
+        <v>1111200</v>
       </c>
       <c r="I10" s="3">
-        <v>1017600</v>
+        <v>1000800</v>
       </c>
       <c r="J10" s="3">
-        <v>927700</v>
+        <v>912400</v>
       </c>
       <c r="K10" s="3">
         <v>762600</v>
@@ -900,19 +900,19 @@
         <v>1900</v>
       </c>
       <c r="E14" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="F14" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="G14" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="H14" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I14" s="3">
-        <v>319400</v>
+        <v>314100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>93000</v>
+        <v>91400</v>
       </c>
       <c r="E15" s="3">
-        <v>71800</v>
+        <v>70600</v>
       </c>
       <c r="F15" s="3">
-        <v>104800</v>
+        <v>103100</v>
       </c>
       <c r="G15" s="3">
-        <v>76700</v>
+        <v>75400</v>
       </c>
       <c r="H15" s="3">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="I15" s="3">
-        <v>64800</v>
+        <v>63700</v>
       </c>
       <c r="J15" s="3">
-        <v>68800</v>
+        <v>67600</v>
       </c>
       <c r="K15" s="3">
         <v>68100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3714500</v>
+        <v>3653000</v>
       </c>
       <c r="E17" s="3">
-        <v>3669400</v>
+        <v>3608700</v>
       </c>
       <c r="F17" s="3">
-        <v>3518100</v>
+        <v>3459900</v>
       </c>
       <c r="G17" s="3">
-        <v>3329400</v>
+        <v>3274300</v>
       </c>
       <c r="H17" s="3">
-        <v>3361400</v>
+        <v>3305700</v>
       </c>
       <c r="I17" s="3">
-        <v>3590100</v>
+        <v>3530600</v>
       </c>
       <c r="J17" s="3">
-        <v>3108100</v>
+        <v>3056600</v>
       </c>
       <c r="K17" s="3">
         <v>2610200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>431900</v>
+        <v>424800</v>
       </c>
       <c r="E18" s="3">
-        <v>284100</v>
+        <v>279400</v>
       </c>
       <c r="F18" s="3">
-        <v>213700</v>
+        <v>210100</v>
       </c>
       <c r="G18" s="3">
-        <v>227900</v>
+        <v>224200</v>
       </c>
       <c r="H18" s="3">
-        <v>194100</v>
+        <v>190900</v>
       </c>
       <c r="I18" s="3">
-        <v>-199500</v>
+        <v>-196200</v>
       </c>
       <c r="J18" s="3">
-        <v>77400</v>
+        <v>76100</v>
       </c>
       <c r="K18" s="3">
         <v>-23800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F20" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="G20" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H20" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="I20" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="J20" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="K20" s="3">
         <v>51500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>708500</v>
+        <v>699000</v>
       </c>
       <c r="E21" s="3">
-        <v>504300</v>
+        <v>497700</v>
       </c>
       <c r="F21" s="3">
-        <v>445500</v>
+        <v>439900</v>
       </c>
       <c r="G21" s="3">
-        <v>460600</v>
+        <v>454800</v>
       </c>
       <c r="H21" s="3">
-        <v>426400</v>
+        <v>421300</v>
       </c>
       <c r="I21" s="3">
-        <v>57700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>308500</v>
+        <v>58700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>241700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46600</v>
+        <v>45900</v>
       </c>
       <c r="E22" s="3">
-        <v>48500</v>
+        <v>47700</v>
       </c>
       <c r="F22" s="3">
-        <v>46300</v>
+        <v>45500</v>
       </c>
       <c r="G22" s="3">
-        <v>43000</v>
+        <v>42300</v>
       </c>
       <c r="H22" s="3">
-        <v>58700</v>
+        <v>57700</v>
       </c>
       <c r="I22" s="3">
-        <v>73000</v>
+        <v>71800</v>
       </c>
       <c r="J22" s="3">
-        <v>76300</v>
+        <v>75100</v>
       </c>
       <c r="K22" s="3">
         <v>67400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>377100</v>
+        <v>370900</v>
       </c>
       <c r="E23" s="3">
-        <v>233700</v>
+        <v>229800</v>
       </c>
       <c r="F23" s="3">
-        <v>173300</v>
+        <v>170400</v>
       </c>
       <c r="G23" s="3">
-        <v>189700</v>
+        <v>186500</v>
       </c>
       <c r="H23" s="3">
-        <v>128000</v>
+        <v>125900</v>
       </c>
       <c r="I23" s="3">
-        <v>-257600</v>
+        <v>-253300</v>
       </c>
       <c r="J23" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="K23" s="3">
         <v>-39700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62800</v>
+        <v>61800</v>
       </c>
       <c r="E24" s="3">
-        <v>58000</v>
+        <v>57000</v>
       </c>
       <c r="F24" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="3">
-        <v>51700</v>
+        <v>50800</v>
       </c>
       <c r="H24" s="3">
-        <v>44500</v>
+        <v>43800</v>
       </c>
       <c r="I24" s="3">
-        <v>17200</v>
+        <v>16900</v>
       </c>
       <c r="J24" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K24" s="3">
         <v>4800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>314300</v>
+        <v>309100</v>
       </c>
       <c r="E26" s="3">
-        <v>175700</v>
+        <v>172800</v>
       </c>
       <c r="F26" s="3">
-        <v>168200</v>
+        <v>165400</v>
       </c>
       <c r="G26" s="3">
-        <v>138000</v>
+        <v>135700</v>
       </c>
       <c r="H26" s="3">
-        <v>83500</v>
+        <v>82100</v>
       </c>
       <c r="I26" s="3">
-        <v>-274700</v>
+        <v>-270200</v>
       </c>
       <c r="J26" s="3">
-        <v>-9400</v>
+        <v>-9200</v>
       </c>
       <c r="K26" s="3">
         <v>-44500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>298000</v>
+        <v>293000</v>
       </c>
       <c r="E27" s="3">
-        <v>159700</v>
+        <v>157000</v>
       </c>
       <c r="F27" s="3">
-        <v>147300</v>
+        <v>144900</v>
       </c>
       <c r="G27" s="3">
-        <v>98000</v>
+        <v>96400</v>
       </c>
       <c r="H27" s="3">
-        <v>43700</v>
+        <v>43000</v>
       </c>
       <c r="I27" s="3">
-        <v>-313000</v>
+        <v>-307800</v>
       </c>
       <c r="J27" s="3">
-        <v>-46600</v>
+        <v>-45800</v>
       </c>
       <c r="K27" s="3">
         <v>-77200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F32" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="G32" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="H32" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="I32" s="3">
-        <v>-14900</v>
+        <v>-14700</v>
       </c>
       <c r="J32" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K32" s="3">
         <v>-51500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>298000</v>
+        <v>293000</v>
       </c>
       <c r="E33" s="3">
-        <v>159700</v>
+        <v>157000</v>
       </c>
       <c r="F33" s="3">
-        <v>147300</v>
+        <v>144900</v>
       </c>
       <c r="G33" s="3">
-        <v>98000</v>
+        <v>96400</v>
       </c>
       <c r="H33" s="3">
-        <v>43700</v>
+        <v>43000</v>
       </c>
       <c r="I33" s="3">
-        <v>-313000</v>
+        <v>-307800</v>
       </c>
       <c r="J33" s="3">
-        <v>-46600</v>
+        <v>-45800</v>
       </c>
       <c r="K33" s="3">
         <v>-77200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>298000</v>
+        <v>293000</v>
       </c>
       <c r="E35" s="3">
-        <v>159700</v>
+        <v>157000</v>
       </c>
       <c r="F35" s="3">
-        <v>147300</v>
+        <v>144900</v>
       </c>
       <c r="G35" s="3">
-        <v>98000</v>
+        <v>96400</v>
       </c>
       <c r="H35" s="3">
-        <v>43700</v>
+        <v>43000</v>
       </c>
       <c r="I35" s="3">
-        <v>-313000</v>
+        <v>-307800</v>
       </c>
       <c r="J35" s="3">
-        <v>-46600</v>
+        <v>-45800</v>
       </c>
       <c r="K35" s="3">
         <v>-77200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>154000</v>
+        <v>151500</v>
       </c>
       <c r="E41" s="3">
-        <v>195100</v>
+        <v>191800</v>
       </c>
       <c r="F41" s="3">
-        <v>202500</v>
+        <v>199100</v>
       </c>
       <c r="G41" s="3">
-        <v>235700</v>
+        <v>231800</v>
       </c>
       <c r="H41" s="3">
-        <v>185300</v>
+        <v>182200</v>
       </c>
       <c r="I41" s="3">
-        <v>329200</v>
+        <v>323700</v>
       </c>
       <c r="J41" s="3">
-        <v>594100</v>
+        <v>584300</v>
       </c>
       <c r="K41" s="3">
         <v>266000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E42" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="F42" s="3">
-        <v>94500</v>
+        <v>92900</v>
       </c>
       <c r="G42" s="3">
-        <v>63100</v>
+        <v>62000</v>
       </c>
       <c r="H42" s="3">
-        <v>69900</v>
+        <v>68700</v>
       </c>
       <c r="I42" s="3">
-        <v>74100</v>
+        <v>72800</v>
       </c>
       <c r="J42" s="3">
-        <v>109400</v>
+        <v>107600</v>
       </c>
       <c r="K42" s="3">
         <v>79600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>420700</v>
+        <v>413700</v>
       </c>
       <c r="E43" s="3">
-        <v>406100</v>
+        <v>399400</v>
       </c>
       <c r="F43" s="3">
-        <v>354900</v>
+        <v>349100</v>
       </c>
       <c r="G43" s="3">
-        <v>314600</v>
+        <v>309400</v>
       </c>
       <c r="H43" s="3">
-        <v>313200</v>
+        <v>308000</v>
       </c>
       <c r="I43" s="3">
-        <v>363800</v>
+        <v>357800</v>
       </c>
       <c r="J43" s="3">
-        <v>336800</v>
+        <v>331300</v>
       </c>
       <c r="K43" s="3">
         <v>296800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>989900</v>
+        <v>973500</v>
       </c>
       <c r="E44" s="3">
-        <v>911100</v>
+        <v>896000</v>
       </c>
       <c r="F44" s="3">
-        <v>887100</v>
+        <v>872400</v>
       </c>
       <c r="G44" s="3">
-        <v>859300</v>
+        <v>845100</v>
       </c>
       <c r="H44" s="3">
-        <v>901100</v>
+        <v>886100</v>
       </c>
       <c r="I44" s="3">
-        <v>839000</v>
+        <v>825100</v>
       </c>
       <c r="J44" s="3">
-        <v>796700</v>
+        <v>783500</v>
       </c>
       <c r="K44" s="3">
         <v>766600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E45" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="F45" s="3">
-        <v>27200</v>
+        <v>26800</v>
       </c>
       <c r="G45" s="3">
-        <v>24300</v>
+        <v>23900</v>
       </c>
       <c r="H45" s="3">
-        <v>16400</v>
+        <v>16100</v>
       </c>
       <c r="I45" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="J45" s="3">
-        <v>15700</v>
+        <v>15400</v>
       </c>
       <c r="K45" s="3">
         <v>17700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1576500</v>
+        <v>1550400</v>
       </c>
       <c r="E46" s="3">
-        <v>1531100</v>
+        <v>1505800</v>
       </c>
       <c r="F46" s="3">
-        <v>1566200</v>
+        <v>1540300</v>
       </c>
       <c r="G46" s="3">
-        <v>1497000</v>
+        <v>1472200</v>
       </c>
       <c r="H46" s="3">
-        <v>1485800</v>
+        <v>1461200</v>
       </c>
       <c r="I46" s="3">
-        <v>1621900</v>
+        <v>1595000</v>
       </c>
       <c r="J46" s="3">
-        <v>1852700</v>
+        <v>1822100</v>
       </c>
       <c r="K46" s="3">
         <v>1426800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62400</v>
+        <v>61300</v>
       </c>
       <c r="E47" s="3">
-        <v>62800</v>
+        <v>61800</v>
       </c>
       <c r="F47" s="3">
-        <v>33600</v>
+        <v>33000</v>
       </c>
       <c r="G47" s="3">
-        <v>32800</v>
+        <v>32300</v>
       </c>
       <c r="H47" s="3">
-        <v>27700</v>
+        <v>27200</v>
       </c>
       <c r="I47" s="3">
-        <v>25300</v>
+        <v>24900</v>
       </c>
       <c r="J47" s="3">
-        <v>37500</v>
+        <v>36800</v>
       </c>
       <c r="K47" s="3">
         <v>37700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2321200</v>
+        <v>2282800</v>
       </c>
       <c r="E48" s="3">
-        <v>1964500</v>
+        <v>1932000</v>
       </c>
       <c r="F48" s="3">
-        <v>1899000</v>
+        <v>1867500</v>
       </c>
       <c r="G48" s="3">
-        <v>1974300</v>
+        <v>1941600</v>
       </c>
       <c r="H48" s="3">
-        <v>2041300</v>
+        <v>2007500</v>
       </c>
       <c r="I48" s="3">
-        <v>2061000</v>
+        <v>2026900</v>
       </c>
       <c r="J48" s="3">
-        <v>2083400</v>
+        <v>2048900</v>
       </c>
       <c r="K48" s="3">
         <v>2069000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>909600</v>
+        <v>894500</v>
       </c>
       <c r="E49" s="3">
-        <v>852600</v>
+        <v>838400</v>
       </c>
       <c r="F49" s="3">
-        <v>826500</v>
+        <v>812800</v>
       </c>
       <c r="G49" s="3">
-        <v>825900</v>
+        <v>812200</v>
       </c>
       <c r="H49" s="3">
-        <v>839000</v>
+        <v>825200</v>
       </c>
       <c r="I49" s="3">
-        <v>831100</v>
+        <v>817400</v>
       </c>
       <c r="J49" s="3">
-        <v>1008300</v>
+        <v>991600</v>
       </c>
       <c r="K49" s="3">
         <v>968500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73800</v>
+        <v>72600</v>
       </c>
       <c r="E52" s="3">
-        <v>66300</v>
+        <v>65200</v>
       </c>
       <c r="F52" s="3">
-        <v>52700</v>
+        <v>51800</v>
       </c>
       <c r="G52" s="3">
-        <v>20800</v>
+        <v>20400</v>
       </c>
       <c r="H52" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="I52" s="3">
-        <v>43300</v>
+        <v>42500</v>
       </c>
       <c r="J52" s="3">
-        <v>55800</v>
+        <v>54900</v>
       </c>
       <c r="K52" s="3">
         <v>43400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4943400</v>
+        <v>4861600</v>
       </c>
       <c r="E54" s="3">
-        <v>4477300</v>
+        <v>4403200</v>
       </c>
       <c r="F54" s="3">
-        <v>4377900</v>
+        <v>4305500</v>
       </c>
       <c r="G54" s="3">
-        <v>4350800</v>
+        <v>4278800</v>
       </c>
       <c r="H54" s="3">
-        <v>4415900</v>
+        <v>4342800</v>
       </c>
       <c r="I54" s="3">
-        <v>4582600</v>
+        <v>4506800</v>
       </c>
       <c r="J54" s="3">
-        <v>5037600</v>
+        <v>4954200</v>
       </c>
       <c r="K54" s="3">
         <v>4545400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>402400</v>
+        <v>395800</v>
       </c>
       <c r="E57" s="3">
-        <v>391000</v>
+        <v>384600</v>
       </c>
       <c r="F57" s="3">
-        <v>384600</v>
+        <v>378300</v>
       </c>
       <c r="G57" s="3">
-        <v>362100</v>
+        <v>356100</v>
       </c>
       <c r="H57" s="3">
-        <v>330500</v>
+        <v>325100</v>
       </c>
       <c r="I57" s="3">
-        <v>341900</v>
+        <v>336300</v>
       </c>
       <c r="J57" s="3">
-        <v>321000</v>
+        <v>315700</v>
       </c>
       <c r="K57" s="3">
         <v>278000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>550500</v>
+        <v>541400</v>
       </c>
       <c r="E58" s="3">
-        <v>151800</v>
+        <v>149300</v>
       </c>
       <c r="F58" s="3">
-        <v>383700</v>
+        <v>377300</v>
       </c>
       <c r="G58" s="3">
-        <v>478400</v>
+        <v>470500</v>
       </c>
       <c r="H58" s="3">
-        <v>287000</v>
+        <v>282200</v>
       </c>
       <c r="I58" s="3">
-        <v>481000</v>
+        <v>473000</v>
       </c>
       <c r="J58" s="3">
-        <v>348000</v>
+        <v>342200</v>
       </c>
       <c r="K58" s="3">
         <v>63800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>432200</v>
+        <v>425100</v>
       </c>
       <c r="E59" s="3">
-        <v>408600</v>
+        <v>401800</v>
       </c>
       <c r="F59" s="3">
-        <v>362800</v>
+        <v>356800</v>
       </c>
       <c r="G59" s="3">
-        <v>331000</v>
+        <v>325500</v>
       </c>
       <c r="H59" s="3">
-        <v>350100</v>
+        <v>344300</v>
       </c>
       <c r="I59" s="3">
-        <v>351600</v>
+        <v>345800</v>
       </c>
       <c r="J59" s="3">
-        <v>338000</v>
+        <v>332400</v>
       </c>
       <c r="K59" s="3">
         <v>335000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1385100</v>
+        <v>1362200</v>
       </c>
       <c r="E60" s="3">
-        <v>951400</v>
+        <v>935700</v>
       </c>
       <c r="F60" s="3">
-        <v>1131100</v>
+        <v>1112400</v>
       </c>
       <c r="G60" s="3">
-        <v>1171500</v>
+        <v>1152100</v>
       </c>
       <c r="H60" s="3">
-        <v>967600</v>
+        <v>951500</v>
       </c>
       <c r="I60" s="3">
-        <v>1174500</v>
+        <v>1155000</v>
       </c>
       <c r="J60" s="3">
-        <v>1006900</v>
+        <v>990300</v>
       </c>
       <c r="K60" s="3">
         <v>676700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>689300</v>
+        <v>677900</v>
       </c>
       <c r="E61" s="3">
-        <v>850000</v>
+        <v>835900</v>
       </c>
       <c r="F61" s="3">
-        <v>590900</v>
+        <v>581100</v>
       </c>
       <c r="G61" s="3">
-        <v>575900</v>
+        <v>566400</v>
       </c>
       <c r="H61" s="3">
-        <v>607100</v>
+        <v>597100</v>
       </c>
       <c r="I61" s="3">
-        <v>665700</v>
+        <v>654700</v>
       </c>
       <c r="J61" s="3">
-        <v>1000200</v>
+        <v>983600</v>
       </c>
       <c r="K61" s="3">
         <v>942900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>384600</v>
+        <v>378300</v>
       </c>
       <c r="E62" s="3">
-        <v>356300</v>
+        <v>350400</v>
       </c>
       <c r="F62" s="3">
-        <v>369700</v>
+        <v>363600</v>
       </c>
       <c r="G62" s="3">
-        <v>391700</v>
+        <v>385200</v>
       </c>
       <c r="H62" s="3">
-        <v>384000</v>
+        <v>377700</v>
       </c>
       <c r="I62" s="3">
-        <v>366200</v>
+        <v>360100</v>
       </c>
       <c r="J62" s="3">
-        <v>334100</v>
+        <v>328600</v>
       </c>
       <c r="K62" s="3">
         <v>330500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2460100</v>
+        <v>2419400</v>
       </c>
       <c r="E66" s="3">
-        <v>2158400</v>
+        <v>2122700</v>
       </c>
       <c r="F66" s="3">
-        <v>2119800</v>
+        <v>2084700</v>
       </c>
       <c r="G66" s="3">
-        <v>2162800</v>
+        <v>2127000</v>
       </c>
       <c r="H66" s="3">
-        <v>1980300</v>
+        <v>1947600</v>
       </c>
       <c r="I66" s="3">
-        <v>2227000</v>
+        <v>2190200</v>
       </c>
       <c r="J66" s="3">
-        <v>2343500</v>
+        <v>2304700</v>
       </c>
       <c r="K66" s="3">
         <v>1953800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2395700</v>
+        <v>2356100</v>
       </c>
       <c r="E72" s="3">
-        <v>2196000</v>
+        <v>2159600</v>
       </c>
       <c r="F72" s="3">
-        <v>2105300</v>
+        <v>2070400</v>
       </c>
       <c r="G72" s="3">
-        <v>2000900</v>
+        <v>1967800</v>
       </c>
       <c r="H72" s="3">
-        <v>1953400</v>
+        <v>1921100</v>
       </c>
       <c r="I72" s="3">
-        <v>1918800</v>
+        <v>1887100</v>
       </c>
       <c r="J72" s="3">
-        <v>1993100</v>
+        <v>1960100</v>
       </c>
       <c r="K72" s="3">
         <v>2183900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2483300</v>
+        <v>2442200</v>
       </c>
       <c r="E76" s="3">
-        <v>2318800</v>
+        <v>2280400</v>
       </c>
       <c r="F76" s="3">
-        <v>2258100</v>
+        <v>2220700</v>
       </c>
       <c r="G76" s="3">
-        <v>2188000</v>
+        <v>2151800</v>
       </c>
       <c r="H76" s="3">
-        <v>2435600</v>
+        <v>2395300</v>
       </c>
       <c r="I76" s="3">
-        <v>2355600</v>
+        <v>2316600</v>
       </c>
       <c r="J76" s="3">
-        <v>2694100</v>
+        <v>2649600</v>
       </c>
       <c r="K76" s="3">
         <v>2591600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>298000</v>
+        <v>293000</v>
       </c>
       <c r="E81" s="3">
-        <v>159700</v>
+        <v>157000</v>
       </c>
       <c r="F81" s="3">
-        <v>147300</v>
+        <v>144900</v>
       </c>
       <c r="G81" s="3">
-        <v>98000</v>
+        <v>96400</v>
       </c>
       <c r="H81" s="3">
-        <v>43700</v>
+        <v>43000</v>
       </c>
       <c r="I81" s="3">
-        <v>-313000</v>
+        <v>-307800</v>
       </c>
       <c r="J81" s="3">
-        <v>-46600</v>
+        <v>-45800</v>
       </c>
       <c r="K81" s="3">
         <v>-77200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>285900</v>
+        <v>281100</v>
       </c>
       <c r="E83" s="3">
-        <v>223000</v>
+        <v>219400</v>
       </c>
       <c r="F83" s="3">
-        <v>226800</v>
+        <v>223100</v>
       </c>
       <c r="G83" s="3">
-        <v>228800</v>
+        <v>225100</v>
       </c>
       <c r="H83" s="3">
-        <v>240700</v>
+        <v>236700</v>
       </c>
       <c r="I83" s="3">
-        <v>243200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>236800</v>
+        <v>239200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>213700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>514100</v>
+        <v>505600</v>
       </c>
       <c r="E89" s="3">
-        <v>382100</v>
+        <v>375800</v>
       </c>
       <c r="F89" s="3">
-        <v>325800</v>
+        <v>320400</v>
       </c>
       <c r="G89" s="3">
-        <v>399300</v>
+        <v>392600</v>
       </c>
       <c r="H89" s="3">
-        <v>311400</v>
+        <v>306200</v>
       </c>
       <c r="I89" s="3">
-        <v>257700</v>
+        <v>253500</v>
       </c>
       <c r="J89" s="3">
-        <v>228300</v>
+        <v>224600</v>
       </c>
       <c r="K89" s="3">
         <v>252000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-305600</v>
+        <v>-300500</v>
       </c>
       <c r="E91" s="3">
-        <v>-258200</v>
+        <v>-253900</v>
       </c>
       <c r="F91" s="3">
-        <v>-195200</v>
+        <v>-192000</v>
       </c>
       <c r="G91" s="3">
-        <v>-195700</v>
+        <v>-192400</v>
       </c>
       <c r="H91" s="3">
-        <v>-176800</v>
+        <v>-173900</v>
       </c>
       <c r="I91" s="3">
-        <v>-152500</v>
+        <v>-149900</v>
       </c>
       <c r="J91" s="3">
-        <v>-127500</v>
+        <v>-125400</v>
       </c>
       <c r="K91" s="3">
         <v>-133900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-315900</v>
+        <v>-310700</v>
       </c>
       <c r="E94" s="3">
-        <v>-253200</v>
+        <v>-249000</v>
       </c>
       <c r="F94" s="3">
-        <v>-213800</v>
+        <v>-210200</v>
       </c>
       <c r="G94" s="3">
-        <v>-156800</v>
+        <v>-154200</v>
       </c>
       <c r="H94" s="3">
-        <v>-161900</v>
+        <v>-159200</v>
       </c>
       <c r="I94" s="3">
-        <v>-119200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-118100</v>
+        <v>-117200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-251800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-68500</v>
+        <v>-67400</v>
       </c>
       <c r="E96" s="3">
-        <v>-41600</v>
+        <v>-41000</v>
       </c>
       <c r="F96" s="3">
-        <v>-37800</v>
+        <v>-37100</v>
       </c>
       <c r="G96" s="3">
-        <v>-28000</v>
+        <v>-27500</v>
       </c>
       <c r="H96" s="3">
-        <v>-21000</v>
+        <v>-20600</v>
       </c>
       <c r="I96" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="J96" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="K96" s="3">
         <v>-15200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-240700</v>
+        <v>-236700</v>
       </c>
       <c r="E100" s="3">
-        <v>-136000</v>
+        <v>-133800</v>
       </c>
       <c r="F100" s="3">
-        <v>-143800</v>
+        <v>-141400</v>
       </c>
       <c r="G100" s="3">
-        <v>-190400</v>
+        <v>-187200</v>
       </c>
       <c r="H100" s="3">
-        <v>-294300</v>
+        <v>-289400</v>
       </c>
       <c r="I100" s="3">
-        <v>-403800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>196000</v>
+        <v>-397100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-273000</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
         <v>-300</v>
@@ -3472,16 +3472,16 @@
         <v>-1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>-2000</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-41100</v>
+        <v>-40400</v>
       </c>
       <c r="E102" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="F102" s="3">
-        <v>-33200</v>
+        <v>-32700</v>
       </c>
       <c r="G102" s="3">
-        <v>50400</v>
+        <v>49600</v>
       </c>
       <c r="H102" s="3">
-        <v>-143900</v>
+        <v>-141500</v>
       </c>
       <c r="I102" s="3">
-        <v>-265000</v>
+        <v>-260600</v>
       </c>
       <c r="J102" s="3">
-        <v>304300</v>
+        <v>299300</v>
       </c>
       <c r="K102" s="3">
         <v>-272400</v>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>WBRBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4077700</v>
+        <v>4109400</v>
       </c>
       <c r="E8" s="3">
-        <v>3888100</v>
+        <v>4246200</v>
       </c>
       <c r="F8" s="3">
-        <v>3670000</v>
+        <v>4048700</v>
       </c>
       <c r="G8" s="3">
-        <v>3498400</v>
+        <v>3821600</v>
       </c>
       <c r="H8" s="3">
-        <v>3496700</v>
+        <v>3642900</v>
       </c>
       <c r="I8" s="3">
-        <v>3334500</v>
+        <v>3641100</v>
       </c>
       <c r="J8" s="3">
+        <v>3472200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3132700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2586400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2248300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2601600</v>
+        <v>2653500</v>
       </c>
       <c r="E9" s="3">
-        <v>2524900</v>
+        <v>2709100</v>
       </c>
       <c r="F9" s="3">
-        <v>2463000</v>
+        <v>2629200</v>
       </c>
       <c r="G9" s="3">
-        <v>2366000</v>
+        <v>2564800</v>
       </c>
       <c r="H9" s="3">
-        <v>2385500</v>
+        <v>2463800</v>
       </c>
       <c r="I9" s="3">
-        <v>2333700</v>
+        <v>2484000</v>
       </c>
       <c r="J9" s="3">
+        <v>2430100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2220300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1823800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1527600</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1476100</v>
+        <v>1455900</v>
       </c>
       <c r="E10" s="3">
-        <v>1363200</v>
+        <v>1537100</v>
       </c>
       <c r="F10" s="3">
-        <v>1207000</v>
+        <v>1419500</v>
       </c>
       <c r="G10" s="3">
-        <v>1132400</v>
+        <v>1256800</v>
       </c>
       <c r="H10" s="3">
-        <v>1111200</v>
+        <v>1179200</v>
       </c>
       <c r="I10" s="3">
-        <v>1000800</v>
+        <v>1157100</v>
       </c>
       <c r="J10" s="3">
+        <v>1042100</v>
+      </c>
+      <c r="K10" s="3">
         <v>912400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>762600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>720700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>143900</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3">
-        <v>12600</v>
-      </c>
       <c r="F14" s="3">
-        <v>18300</v>
+        <v>13100</v>
       </c>
       <c r="G14" s="3">
-        <v>8400</v>
+        <v>19100</v>
       </c>
       <c r="H14" s="3">
-        <v>6200</v>
+        <v>8800</v>
       </c>
       <c r="I14" s="3">
-        <v>314100</v>
+        <v>6500</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>327100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>57900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-36000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>91400</v>
+        <v>240800</v>
       </c>
       <c r="E15" s="3">
-        <v>70600</v>
+        <v>95200</v>
       </c>
       <c r="F15" s="3">
-        <v>103100</v>
+        <v>73600</v>
       </c>
       <c r="G15" s="3">
-        <v>75400</v>
+        <v>107400</v>
       </c>
       <c r="H15" s="3">
-        <v>63000</v>
+        <v>78500</v>
       </c>
       <c r="I15" s="3">
-        <v>63700</v>
+        <v>65600</v>
       </c>
       <c r="J15" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K15" s="3">
         <v>67600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>68100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>58000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3653000</v>
+        <v>3879500</v>
       </c>
       <c r="E17" s="3">
-        <v>3608700</v>
+        <v>3803900</v>
       </c>
       <c r="F17" s="3">
-        <v>3459900</v>
+        <v>3757700</v>
       </c>
       <c r="G17" s="3">
-        <v>3274300</v>
+        <v>3602800</v>
       </c>
       <c r="H17" s="3">
-        <v>3305700</v>
+        <v>3409500</v>
       </c>
       <c r="I17" s="3">
-        <v>3530600</v>
+        <v>3442300</v>
       </c>
       <c r="J17" s="3">
+        <v>3676500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3056600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2610200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2204300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>424800</v>
+        <v>229900</v>
       </c>
       <c r="E18" s="3">
-        <v>279400</v>
+        <v>442300</v>
       </c>
       <c r="F18" s="3">
-        <v>210100</v>
+        <v>291000</v>
       </c>
       <c r="G18" s="3">
-        <v>224200</v>
+        <v>218800</v>
       </c>
       <c r="H18" s="3">
-        <v>190900</v>
+        <v>233400</v>
       </c>
       <c r="I18" s="3">
-        <v>-196200</v>
+        <v>198800</v>
       </c>
       <c r="J18" s="3">
+        <v>-204300</v>
+      </c>
+      <c r="K18" s="3">
         <v>76100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8000</v>
+        <v>-3600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1900</v>
+        <v>-8300</v>
       </c>
       <c r="F20" s="3">
-        <v>5900</v>
+        <v>-2000</v>
       </c>
       <c r="G20" s="3">
-        <v>4600</v>
+        <v>6100</v>
       </c>
       <c r="H20" s="3">
-        <v>-7300</v>
+        <v>4800</v>
       </c>
       <c r="I20" s="3">
-        <v>14700</v>
+        <v>-7600</v>
       </c>
       <c r="J20" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>51500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>71500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>699000</v>
+        <v>524700</v>
       </c>
       <c r="E21" s="3">
-        <v>497700</v>
+        <v>725900</v>
       </c>
       <c r="F21" s="3">
-        <v>439900</v>
+        <v>516700</v>
       </c>
       <c r="G21" s="3">
-        <v>454800</v>
+        <v>456500</v>
       </c>
       <c r="H21" s="3">
-        <v>421300</v>
+        <v>471900</v>
       </c>
       <c r="I21" s="3">
-        <v>58700</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>437000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>241700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>331500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45900</v>
+        <v>44100</v>
       </c>
       <c r="E22" s="3">
         <v>47700</v>
       </c>
       <c r="F22" s="3">
-        <v>45500</v>
+        <v>49600</v>
       </c>
       <c r="G22" s="3">
-        <v>42300</v>
+        <v>47400</v>
       </c>
       <c r="H22" s="3">
-        <v>57700</v>
+        <v>44000</v>
       </c>
       <c r="I22" s="3">
-        <v>71800</v>
+        <v>60100</v>
       </c>
       <c r="J22" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K22" s="3">
         <v>75100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>67400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>370900</v>
+        <v>182200</v>
       </c>
       <c r="E23" s="3">
-        <v>229800</v>
+        <v>386200</v>
       </c>
       <c r="F23" s="3">
-        <v>170400</v>
+        <v>239300</v>
       </c>
       <c r="G23" s="3">
-        <v>186500</v>
+        <v>177500</v>
       </c>
       <c r="H23" s="3">
-        <v>125900</v>
+        <v>194200</v>
       </c>
       <c r="I23" s="3">
-        <v>-253300</v>
+        <v>131100</v>
       </c>
       <c r="J23" s="3">
+        <v>-263700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-39700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>61800</v>
+        <v>59800</v>
       </c>
       <c r="E24" s="3">
-        <v>57000</v>
+        <v>64300</v>
       </c>
       <c r="F24" s="3">
-        <v>5000</v>
+        <v>59400</v>
       </c>
       <c r="G24" s="3">
-        <v>50800</v>
+        <v>5200</v>
       </c>
       <c r="H24" s="3">
-        <v>43800</v>
+        <v>52900</v>
       </c>
       <c r="I24" s="3">
-        <v>16900</v>
+        <v>45600</v>
       </c>
       <c r="J24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>309100</v>
+        <v>122400</v>
       </c>
       <c r="E26" s="3">
-        <v>172800</v>
+        <v>321900</v>
       </c>
       <c r="F26" s="3">
-        <v>165400</v>
+        <v>179900</v>
       </c>
       <c r="G26" s="3">
-        <v>135700</v>
+        <v>172300</v>
       </c>
       <c r="H26" s="3">
-        <v>82100</v>
+        <v>141300</v>
       </c>
       <c r="I26" s="3">
-        <v>-270200</v>
+        <v>85500</v>
       </c>
       <c r="J26" s="3">
+        <v>-281300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-44500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>293000</v>
+        <v>108400</v>
       </c>
       <c r="E27" s="3">
-        <v>157000</v>
+        <v>305100</v>
       </c>
       <c r="F27" s="3">
-        <v>144900</v>
+        <v>163500</v>
       </c>
       <c r="G27" s="3">
-        <v>96400</v>
+        <v>150900</v>
       </c>
       <c r="H27" s="3">
-        <v>43000</v>
+        <v>100400</v>
       </c>
       <c r="I27" s="3">
-        <v>-307800</v>
+        <v>44800</v>
       </c>
       <c r="J27" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-45800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-77200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="E32" s="3">
-        <v>1900</v>
+        <v>8300</v>
       </c>
       <c r="F32" s="3">
-        <v>-5900</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="3">
-        <v>-4600</v>
+        <v>-6100</v>
       </c>
       <c r="H32" s="3">
-        <v>7300</v>
+        <v>-4800</v>
       </c>
       <c r="I32" s="3">
-        <v>-14700</v>
+        <v>7600</v>
       </c>
       <c r="J32" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-51500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-71500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>293000</v>
+        <v>108400</v>
       </c>
       <c r="E33" s="3">
-        <v>157000</v>
+        <v>305100</v>
       </c>
       <c r="F33" s="3">
-        <v>144900</v>
+        <v>163500</v>
       </c>
       <c r="G33" s="3">
-        <v>96400</v>
+        <v>150900</v>
       </c>
       <c r="H33" s="3">
-        <v>43000</v>
+        <v>100400</v>
       </c>
       <c r="I33" s="3">
-        <v>-307800</v>
+        <v>44800</v>
       </c>
       <c r="J33" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-45800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-77200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>293000</v>
+        <v>108400</v>
       </c>
       <c r="E35" s="3">
-        <v>157000</v>
+        <v>305100</v>
       </c>
       <c r="F35" s="3">
-        <v>144900</v>
+        <v>163500</v>
       </c>
       <c r="G35" s="3">
-        <v>96400</v>
+        <v>150900</v>
       </c>
       <c r="H35" s="3">
-        <v>43000</v>
+        <v>100400</v>
       </c>
       <c r="I35" s="3">
-        <v>-307800</v>
+        <v>44800</v>
       </c>
       <c r="J35" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-45800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-77200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>151500</v>
+        <v>816000</v>
       </c>
       <c r="E41" s="3">
-        <v>191800</v>
+        <v>157700</v>
       </c>
       <c r="F41" s="3">
-        <v>199100</v>
+        <v>199800</v>
       </c>
       <c r="G41" s="3">
-        <v>231800</v>
+        <v>207300</v>
       </c>
       <c r="H41" s="3">
-        <v>182200</v>
+        <v>241300</v>
       </c>
       <c r="I41" s="3">
-        <v>323700</v>
+        <v>189700</v>
       </c>
       <c r="J41" s="3">
+        <v>337100</v>
+      </c>
+      <c r="K41" s="3">
         <v>584300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>266000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1167700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="E42" s="3">
-        <v>7200</v>
+        <v>8400</v>
       </c>
       <c r="F42" s="3">
-        <v>92900</v>
+        <v>7500</v>
       </c>
       <c r="G42" s="3">
-        <v>62000</v>
+        <v>96800</v>
       </c>
       <c r="H42" s="3">
-        <v>68700</v>
+        <v>64600</v>
       </c>
       <c r="I42" s="3">
-        <v>72800</v>
+        <v>71600</v>
       </c>
       <c r="J42" s="3">
+        <v>75800</v>
+      </c>
+      <c r="K42" s="3">
         <v>107600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>79600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>100300</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>413700</v>
+        <v>415100</v>
       </c>
       <c r="E43" s="3">
-        <v>399400</v>
+        <v>430800</v>
       </c>
       <c r="F43" s="3">
-        <v>349100</v>
+        <v>415900</v>
       </c>
       <c r="G43" s="3">
-        <v>309400</v>
+        <v>363500</v>
       </c>
       <c r="H43" s="3">
-        <v>308000</v>
+        <v>322200</v>
       </c>
       <c r="I43" s="3">
-        <v>357800</v>
+        <v>320700</v>
       </c>
       <c r="J43" s="3">
+        <v>372600</v>
+      </c>
+      <c r="K43" s="3">
         <v>331300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>296800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>203800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>973500</v>
+        <v>893100</v>
       </c>
       <c r="E44" s="3">
-        <v>896000</v>
+        <v>1013800</v>
       </c>
       <c r="F44" s="3">
-        <v>872400</v>
+        <v>933000</v>
       </c>
       <c r="G44" s="3">
-        <v>845100</v>
+        <v>908400</v>
       </c>
       <c r="H44" s="3">
-        <v>886100</v>
+        <v>880000</v>
       </c>
       <c r="I44" s="3">
-        <v>825100</v>
+        <v>922700</v>
       </c>
       <c r="J44" s="3">
+        <v>859200</v>
+      </c>
+      <c r="K44" s="3">
         <v>783500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>766600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>674800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3500</v>
+        <v>14600</v>
       </c>
       <c r="E45" s="3">
-        <v>11200</v>
+        <v>3700</v>
       </c>
       <c r="F45" s="3">
-        <v>26800</v>
+        <v>11700</v>
       </c>
       <c r="G45" s="3">
-        <v>23900</v>
+        <v>27900</v>
       </c>
       <c r="H45" s="3">
-        <v>16100</v>
+        <v>24900</v>
       </c>
       <c r="I45" s="3">
-        <v>15600</v>
+        <v>16800</v>
       </c>
       <c r="J45" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K45" s="3">
         <v>15400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1550400</v>
+        <v>2146800</v>
       </c>
       <c r="E46" s="3">
-        <v>1505800</v>
+        <v>1614400</v>
       </c>
       <c r="F46" s="3">
-        <v>1540300</v>
+        <v>1567900</v>
       </c>
       <c r="G46" s="3">
-        <v>1472200</v>
+        <v>1603900</v>
       </c>
       <c r="H46" s="3">
-        <v>1461200</v>
+        <v>1533000</v>
       </c>
       <c r="I46" s="3">
-        <v>1595000</v>
+        <v>1521500</v>
       </c>
       <c r="J46" s="3">
+        <v>1660900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1822100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1426800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1570600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61300</v>
+        <v>76400</v>
       </c>
       <c r="E47" s="3">
-        <v>61800</v>
+        <v>63900</v>
       </c>
       <c r="F47" s="3">
-        <v>33000</v>
+        <v>64300</v>
       </c>
       <c r="G47" s="3">
-        <v>32300</v>
+        <v>34400</v>
       </c>
       <c r="H47" s="3">
-        <v>27200</v>
+        <v>33600</v>
       </c>
       <c r="I47" s="3">
-        <v>24900</v>
+        <v>28400</v>
       </c>
       <c r="J47" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K47" s="3">
         <v>36800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>37700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>161400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2282800</v>
+        <v>2211900</v>
       </c>
       <c r="E48" s="3">
-        <v>1932000</v>
+        <v>2377100</v>
       </c>
       <c r="F48" s="3">
-        <v>1867500</v>
+        <v>2011800</v>
       </c>
       <c r="G48" s="3">
-        <v>1941600</v>
+        <v>1944700</v>
       </c>
       <c r="H48" s="3">
-        <v>2007500</v>
+        <v>2021800</v>
       </c>
       <c r="I48" s="3">
-        <v>2026900</v>
+        <v>2090400</v>
       </c>
       <c r="J48" s="3">
+        <v>2110600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2048900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2069000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4133600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>894500</v>
+        <v>790800</v>
       </c>
       <c r="E49" s="3">
-        <v>838400</v>
+        <v>931500</v>
       </c>
       <c r="F49" s="3">
-        <v>812800</v>
+        <v>873100</v>
       </c>
       <c r="G49" s="3">
-        <v>812200</v>
+        <v>846300</v>
       </c>
       <c r="H49" s="3">
-        <v>825200</v>
+        <v>845800</v>
       </c>
       <c r="I49" s="3">
-        <v>817400</v>
+        <v>859200</v>
       </c>
       <c r="J49" s="3">
+        <v>851100</v>
+      </c>
+      <c r="K49" s="3">
         <v>991600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>968500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1595300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>72600</v>
+        <v>74600</v>
       </c>
       <c r="E52" s="3">
-        <v>65200</v>
+        <v>75600</v>
       </c>
       <c r="F52" s="3">
-        <v>51800</v>
+        <v>67900</v>
       </c>
       <c r="G52" s="3">
-        <v>20400</v>
+        <v>54000</v>
       </c>
       <c r="H52" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="I52" s="3">
-        <v>42500</v>
+        <v>22700</v>
       </c>
       <c r="J52" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K52" s="3">
         <v>54900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4861600</v>
+        <v>5300600</v>
       </c>
       <c r="E54" s="3">
-        <v>4403200</v>
+        <v>5062400</v>
       </c>
       <c r="F54" s="3">
-        <v>4305500</v>
+        <v>4585000</v>
       </c>
       <c r="G54" s="3">
-        <v>4278800</v>
+        <v>4483300</v>
       </c>
       <c r="H54" s="3">
-        <v>4342800</v>
+        <v>4455500</v>
       </c>
       <c r="I54" s="3">
-        <v>4506800</v>
+        <v>4522200</v>
       </c>
       <c r="J54" s="3">
+        <v>4692900</v>
+      </c>
+      <c r="K54" s="3">
         <v>4954200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4545400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4685100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>395800</v>
+        <v>367300</v>
       </c>
       <c r="E57" s="3">
-        <v>384600</v>
+        <v>412100</v>
       </c>
       <c r="F57" s="3">
-        <v>378300</v>
+        <v>400400</v>
       </c>
       <c r="G57" s="3">
-        <v>356100</v>
+        <v>393900</v>
       </c>
       <c r="H57" s="3">
-        <v>325100</v>
+        <v>370800</v>
       </c>
       <c r="I57" s="3">
-        <v>336300</v>
+        <v>338500</v>
       </c>
       <c r="J57" s="3">
+        <v>350200</v>
+      </c>
+      <c r="K57" s="3">
         <v>315700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>278000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>442200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>541400</v>
+        <v>536200</v>
       </c>
       <c r="E58" s="3">
-        <v>149300</v>
+        <v>563800</v>
       </c>
       <c r="F58" s="3">
-        <v>377300</v>
+        <v>155500</v>
       </c>
       <c r="G58" s="3">
-        <v>470500</v>
+        <v>392900</v>
       </c>
       <c r="H58" s="3">
-        <v>282200</v>
+        <v>489900</v>
       </c>
       <c r="I58" s="3">
-        <v>473000</v>
+        <v>293900</v>
       </c>
       <c r="J58" s="3">
+        <v>492600</v>
+      </c>
+      <c r="K58" s="3">
         <v>342200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>63800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>987600</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>425100</v>
+        <v>463600</v>
       </c>
       <c r="E59" s="3">
-        <v>401800</v>
+        <v>442600</v>
       </c>
       <c r="F59" s="3">
-        <v>356800</v>
+        <v>418400</v>
       </c>
       <c r="G59" s="3">
-        <v>325500</v>
+        <v>371600</v>
       </c>
       <c r="H59" s="3">
-        <v>344300</v>
+        <v>339000</v>
       </c>
       <c r="I59" s="3">
-        <v>345800</v>
+        <v>358500</v>
       </c>
       <c r="J59" s="3">
+        <v>360000</v>
+      </c>
+      <c r="K59" s="3">
         <v>332400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>335000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>231300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1362200</v>
+        <v>1367100</v>
       </c>
       <c r="E60" s="3">
-        <v>935700</v>
+        <v>1418500</v>
       </c>
       <c r="F60" s="3">
-        <v>1112400</v>
+        <v>974300</v>
       </c>
       <c r="G60" s="3">
-        <v>1152100</v>
+        <v>1158300</v>
       </c>
       <c r="H60" s="3">
-        <v>951500</v>
+        <v>1199700</v>
       </c>
       <c r="I60" s="3">
-        <v>1155000</v>
+        <v>990800</v>
       </c>
       <c r="J60" s="3">
+        <v>1202800</v>
+      </c>
+      <c r="K60" s="3">
         <v>990300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>676700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>946200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>677900</v>
+        <v>1420700</v>
       </c>
       <c r="E61" s="3">
-        <v>835900</v>
+        <v>705900</v>
       </c>
       <c r="F61" s="3">
-        <v>581100</v>
+        <v>870500</v>
       </c>
       <c r="G61" s="3">
-        <v>566400</v>
+        <v>605100</v>
       </c>
       <c r="H61" s="3">
-        <v>597100</v>
+        <v>589800</v>
       </c>
       <c r="I61" s="3">
-        <v>654700</v>
+        <v>621700</v>
       </c>
       <c r="J61" s="3">
+        <v>681700</v>
+      </c>
+      <c r="K61" s="3">
         <v>983600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>942900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>603200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>378300</v>
+        <v>370200</v>
       </c>
       <c r="E62" s="3">
-        <v>350400</v>
+        <v>393900</v>
       </c>
       <c r="F62" s="3">
-        <v>363600</v>
+        <v>364900</v>
       </c>
       <c r="G62" s="3">
-        <v>385200</v>
+        <v>378600</v>
       </c>
       <c r="H62" s="3">
-        <v>377700</v>
+        <v>401100</v>
       </c>
       <c r="I62" s="3">
-        <v>360100</v>
+        <v>393300</v>
       </c>
       <c r="J62" s="3">
+        <v>375000</v>
+      </c>
+      <c r="K62" s="3">
         <v>328600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>330500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>387900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2419400</v>
+        <v>3158900</v>
       </c>
       <c r="E66" s="3">
-        <v>2122700</v>
+        <v>2519300</v>
       </c>
       <c r="F66" s="3">
-        <v>2084700</v>
+        <v>2210400</v>
       </c>
       <c r="G66" s="3">
-        <v>2127000</v>
+        <v>2170800</v>
       </c>
       <c r="H66" s="3">
-        <v>1947600</v>
+        <v>2214800</v>
       </c>
       <c r="I66" s="3">
-        <v>2190200</v>
+        <v>2028000</v>
       </c>
       <c r="J66" s="3">
+        <v>2280600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2304700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1953800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1835600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2356100</v>
+        <v>2428400</v>
       </c>
       <c r="E72" s="3">
-        <v>2159600</v>
+        <v>2453400</v>
       </c>
       <c r="F72" s="3">
-        <v>2070400</v>
+        <v>2248900</v>
       </c>
       <c r="G72" s="3">
-        <v>1967800</v>
+        <v>2155900</v>
       </c>
       <c r="H72" s="3">
-        <v>1921100</v>
+        <v>2049100</v>
       </c>
       <c r="I72" s="3">
-        <v>1887100</v>
+        <v>2000400</v>
       </c>
       <c r="J72" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1960100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2183900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2222600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2442200</v>
+        <v>2141700</v>
       </c>
       <c r="E76" s="3">
-        <v>2280400</v>
+        <v>2543100</v>
       </c>
       <c r="F76" s="3">
-        <v>2220700</v>
+        <v>2374600</v>
       </c>
       <c r="G76" s="3">
-        <v>2151800</v>
+        <v>2312500</v>
       </c>
       <c r="H76" s="3">
-        <v>2395300</v>
+        <v>2240700</v>
       </c>
       <c r="I76" s="3">
-        <v>2316600</v>
+        <v>2494200</v>
       </c>
       <c r="J76" s="3">
+        <v>2412300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2649600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2591600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2849500</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>293000</v>
+        <v>108400</v>
       </c>
       <c r="E81" s="3">
-        <v>157000</v>
+        <v>305100</v>
       </c>
       <c r="F81" s="3">
-        <v>144900</v>
+        <v>163500</v>
       </c>
       <c r="G81" s="3">
-        <v>96400</v>
+        <v>150900</v>
       </c>
       <c r="H81" s="3">
-        <v>43000</v>
+        <v>100400</v>
       </c>
       <c r="I81" s="3">
-        <v>-307800</v>
+        <v>44800</v>
       </c>
       <c r="J81" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-45800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-77200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>281100</v>
+        <v>299300</v>
       </c>
       <c r="E83" s="3">
-        <v>219400</v>
+        <v>292800</v>
       </c>
       <c r="F83" s="3">
-        <v>223100</v>
+        <v>228400</v>
       </c>
       <c r="G83" s="3">
-        <v>225100</v>
+        <v>232300</v>
       </c>
       <c r="H83" s="3">
-        <v>236700</v>
+        <v>234400</v>
       </c>
       <c r="I83" s="3">
-        <v>239200</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>246500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>249100</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>213700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>215900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>505600</v>
+        <v>618200</v>
       </c>
       <c r="E89" s="3">
-        <v>375800</v>
+        <v>526500</v>
       </c>
       <c r="F89" s="3">
-        <v>320400</v>
+        <v>391300</v>
       </c>
       <c r="G89" s="3">
-        <v>392600</v>
+        <v>333600</v>
       </c>
       <c r="H89" s="3">
-        <v>306200</v>
+        <v>408900</v>
       </c>
       <c r="I89" s="3">
-        <v>253500</v>
+        <v>318900</v>
       </c>
       <c r="J89" s="3">
+        <v>264000</v>
+      </c>
+      <c r="K89" s="3">
         <v>224600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>252000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>192500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300500</v>
+        <v>-246300</v>
       </c>
       <c r="E91" s="3">
-        <v>-253900</v>
+        <v>-312900</v>
       </c>
       <c r="F91" s="3">
-        <v>-192000</v>
+        <v>-264400</v>
       </c>
       <c r="G91" s="3">
-        <v>-192400</v>
+        <v>-199900</v>
       </c>
       <c r="H91" s="3">
-        <v>-173900</v>
+        <v>-200400</v>
       </c>
       <c r="I91" s="3">
-        <v>-149900</v>
+        <v>-181000</v>
       </c>
       <c r="J91" s="3">
+        <v>-156100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-125400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-133900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-135200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-310700</v>
+        <v>-181100</v>
       </c>
       <c r="E94" s="3">
-        <v>-249000</v>
+        <v>-323500</v>
       </c>
       <c r="F94" s="3">
-        <v>-210200</v>
+        <v>-259300</v>
       </c>
       <c r="G94" s="3">
-        <v>-154200</v>
+        <v>-218900</v>
       </c>
       <c r="H94" s="3">
-        <v>-159200</v>
+        <v>-160600</v>
       </c>
       <c r="I94" s="3">
-        <v>-117200</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-165700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-251800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-99600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-67400</v>
+        <v>-82500</v>
       </c>
       <c r="E96" s="3">
-        <v>-41000</v>
+        <v>-70200</v>
       </c>
       <c r="F96" s="3">
-        <v>-37100</v>
+        <v>-42600</v>
       </c>
       <c r="G96" s="3">
-        <v>-27500</v>
+        <v>-38700</v>
       </c>
       <c r="H96" s="3">
-        <v>-20600</v>
+        <v>-28700</v>
       </c>
       <c r="I96" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-16200</v>
       </c>
-      <c r="J96" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-13800</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-236700</v>
+        <v>224500</v>
       </c>
       <c r="E100" s="3">
-        <v>-133800</v>
+        <v>-246500</v>
       </c>
       <c r="F100" s="3">
-        <v>-141400</v>
+        <v>-139300</v>
       </c>
       <c r="G100" s="3">
-        <v>-187200</v>
+        <v>-147200</v>
       </c>
       <c r="H100" s="3">
-        <v>-289400</v>
+        <v>-194900</v>
       </c>
       <c r="I100" s="3">
-        <v>-397100</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-301400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-413500</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-273000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1400</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1600</v>
-      </c>
       <c r="H101" s="3">
-        <v>800</v>
+        <v>-1700</v>
       </c>
       <c r="I101" s="3">
+        <v>900</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-40400</v>
+        <v>658300</v>
       </c>
       <c r="E102" s="3">
-        <v>-7300</v>
+        <v>-42000</v>
       </c>
       <c r="F102" s="3">
-        <v>-32700</v>
+        <v>-7600</v>
       </c>
       <c r="G102" s="3">
-        <v>49600</v>
+        <v>-34000</v>
       </c>
       <c r="H102" s="3">
-        <v>-141500</v>
+        <v>51600</v>
       </c>
       <c r="I102" s="3">
-        <v>-260600</v>
+        <v>-147400</v>
       </c>
       <c r="J102" s="3">
+        <v>-271300</v>
+      </c>
+      <c r="K102" s="3">
         <v>299300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-272400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4109400</v>
+        <v>3916200</v>
       </c>
       <c r="E8" s="3">
-        <v>4246200</v>
+        <v>4046600</v>
       </c>
       <c r="F8" s="3">
-        <v>4048700</v>
+        <v>3858400</v>
       </c>
       <c r="G8" s="3">
-        <v>3821600</v>
+        <v>3642000</v>
       </c>
       <c r="H8" s="3">
-        <v>3642900</v>
+        <v>3471700</v>
       </c>
       <c r="I8" s="3">
-        <v>3641100</v>
+        <v>3470000</v>
       </c>
       <c r="J8" s="3">
-        <v>3472200</v>
+        <v>3309000</v>
       </c>
       <c r="K8" s="3">
         <v>3132700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2653500</v>
+        <v>2528800</v>
       </c>
       <c r="E9" s="3">
-        <v>2709100</v>
+        <v>2581800</v>
       </c>
       <c r="F9" s="3">
-        <v>2629200</v>
+        <v>2505600</v>
       </c>
       <c r="G9" s="3">
-        <v>2564800</v>
+        <v>2444200</v>
       </c>
       <c r="H9" s="3">
-        <v>2463800</v>
+        <v>2347900</v>
       </c>
       <c r="I9" s="3">
-        <v>2484000</v>
+        <v>2367300</v>
       </c>
       <c r="J9" s="3">
-        <v>2430100</v>
+        <v>2315900</v>
       </c>
       <c r="K9" s="3">
         <v>2220300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1455900</v>
+        <v>1387400</v>
       </c>
       <c r="E10" s="3">
-        <v>1537100</v>
+        <v>1464800</v>
       </c>
       <c r="F10" s="3">
-        <v>1419500</v>
+        <v>1352700</v>
       </c>
       <c r="G10" s="3">
-        <v>1256800</v>
+        <v>1197800</v>
       </c>
       <c r="H10" s="3">
-        <v>1179200</v>
+        <v>1123700</v>
       </c>
       <c r="I10" s="3">
-        <v>1157100</v>
+        <v>1102700</v>
       </c>
       <c r="J10" s="3">
-        <v>1042100</v>
+        <v>993100</v>
       </c>
       <c r="K10" s="3">
         <v>912400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>143900</v>
+        <v>137100</v>
       </c>
       <c r="E14" s="3">
         <v>1900</v>
       </c>
       <c r="F14" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="G14" s="3">
-        <v>19100</v>
+        <v>18200</v>
       </c>
       <c r="H14" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="I14" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="J14" s="3">
-        <v>327100</v>
+        <v>311700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>240800</v>
+        <v>229500</v>
       </c>
       <c r="E15" s="3">
-        <v>95200</v>
+        <v>90700</v>
       </c>
       <c r="F15" s="3">
-        <v>73600</v>
+        <v>70100</v>
       </c>
       <c r="G15" s="3">
-        <v>107400</v>
+        <v>102300</v>
       </c>
       <c r="H15" s="3">
-        <v>78500</v>
+        <v>74800</v>
       </c>
       <c r="I15" s="3">
-        <v>65600</v>
+        <v>62500</v>
       </c>
       <c r="J15" s="3">
-        <v>66300</v>
+        <v>63200</v>
       </c>
       <c r="K15" s="3">
         <v>67600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3879500</v>
+        <v>3697100</v>
       </c>
       <c r="E17" s="3">
-        <v>3803900</v>
+        <v>3625100</v>
       </c>
       <c r="F17" s="3">
-        <v>3757700</v>
+        <v>3581100</v>
       </c>
       <c r="G17" s="3">
-        <v>3602800</v>
+        <v>3433500</v>
       </c>
       <c r="H17" s="3">
-        <v>3409500</v>
+        <v>3249200</v>
       </c>
       <c r="I17" s="3">
-        <v>3442300</v>
+        <v>3280500</v>
       </c>
       <c r="J17" s="3">
-        <v>3676500</v>
+        <v>3503600</v>
       </c>
       <c r="K17" s="3">
         <v>3056600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>229900</v>
+        <v>219100</v>
       </c>
       <c r="E18" s="3">
-        <v>442300</v>
+        <v>421500</v>
       </c>
       <c r="F18" s="3">
-        <v>291000</v>
+        <v>277300</v>
       </c>
       <c r="G18" s="3">
-        <v>218800</v>
+        <v>208500</v>
       </c>
       <c r="H18" s="3">
-        <v>233400</v>
+        <v>222400</v>
       </c>
       <c r="I18" s="3">
-        <v>198800</v>
+        <v>189500</v>
       </c>
       <c r="J18" s="3">
-        <v>-204300</v>
+        <v>-194700</v>
       </c>
       <c r="K18" s="3">
         <v>76100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="E20" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="F20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G20" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="H20" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="I20" s="3">
-        <v>-7600</v>
+        <v>-7200</v>
       </c>
       <c r="J20" s="3">
-        <v>15300</v>
+        <v>14600</v>
       </c>
       <c r="K20" s="3">
         <v>-4600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>524700</v>
+        <v>501800</v>
       </c>
       <c r="E21" s="3">
-        <v>725900</v>
+        <v>693400</v>
       </c>
       <c r="F21" s="3">
-        <v>516700</v>
+        <v>493700</v>
       </c>
       <c r="G21" s="3">
-        <v>456500</v>
+        <v>436400</v>
       </c>
       <c r="H21" s="3">
-        <v>471900</v>
+        <v>451100</v>
       </c>
       <c r="I21" s="3">
-        <v>437000</v>
+        <v>417900</v>
       </c>
       <c r="J21" s="3">
-        <v>59400</v>
+        <v>58000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="E22" s="3">
-        <v>47700</v>
+        <v>45500</v>
       </c>
       <c r="F22" s="3">
-        <v>49600</v>
+        <v>47300</v>
       </c>
       <c r="G22" s="3">
-        <v>47400</v>
+        <v>45200</v>
       </c>
       <c r="H22" s="3">
-        <v>44000</v>
+        <v>42000</v>
       </c>
       <c r="I22" s="3">
-        <v>60100</v>
+        <v>57300</v>
       </c>
       <c r="J22" s="3">
-        <v>74800</v>
+        <v>71300</v>
       </c>
       <c r="K22" s="3">
         <v>75100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>182200</v>
+        <v>173600</v>
       </c>
       <c r="E23" s="3">
-        <v>386200</v>
+        <v>368000</v>
       </c>
       <c r="F23" s="3">
-        <v>239300</v>
+        <v>228000</v>
       </c>
       <c r="G23" s="3">
-        <v>177500</v>
+        <v>169100</v>
       </c>
       <c r="H23" s="3">
-        <v>194200</v>
+        <v>185100</v>
       </c>
       <c r="I23" s="3">
-        <v>131100</v>
+        <v>124900</v>
       </c>
       <c r="J23" s="3">
-        <v>-263700</v>
+        <v>-251400</v>
       </c>
       <c r="K23" s="3">
         <v>-3600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>59800</v>
+        <v>57000</v>
       </c>
       <c r="E24" s="3">
-        <v>64300</v>
+        <v>61300</v>
       </c>
       <c r="F24" s="3">
-        <v>59400</v>
+        <v>56600</v>
       </c>
       <c r="G24" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H24" s="3">
-        <v>52900</v>
+        <v>50500</v>
       </c>
       <c r="I24" s="3">
-        <v>45600</v>
+        <v>43400</v>
       </c>
       <c r="J24" s="3">
-        <v>17600</v>
+        <v>16700</v>
       </c>
       <c r="K24" s="3">
         <v>5600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>122400</v>
+        <v>116700</v>
       </c>
       <c r="E26" s="3">
-        <v>321900</v>
+        <v>306800</v>
       </c>
       <c r="F26" s="3">
-        <v>179900</v>
+        <v>171500</v>
       </c>
       <c r="G26" s="3">
-        <v>172300</v>
+        <v>164200</v>
       </c>
       <c r="H26" s="3">
-        <v>141300</v>
+        <v>134600</v>
       </c>
       <c r="I26" s="3">
-        <v>85500</v>
+        <v>81500</v>
       </c>
       <c r="J26" s="3">
-        <v>-281300</v>
+        <v>-268100</v>
       </c>
       <c r="K26" s="3">
         <v>-9200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>108400</v>
+        <v>103300</v>
       </c>
       <c r="E27" s="3">
-        <v>305100</v>
+        <v>290800</v>
       </c>
       <c r="F27" s="3">
-        <v>163500</v>
+        <v>155800</v>
       </c>
       <c r="G27" s="3">
-        <v>150900</v>
+        <v>143800</v>
       </c>
       <c r="H27" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="I27" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="J27" s="3">
-        <v>-320600</v>
+        <v>-305500</v>
       </c>
       <c r="K27" s="3">
         <v>-45800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E32" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="F32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G32" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="H32" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="I32" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="J32" s="3">
-        <v>-15300</v>
+        <v>-14600</v>
       </c>
       <c r="K32" s="3">
         <v>4600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>108400</v>
+        <v>103300</v>
       </c>
       <c r="E33" s="3">
-        <v>305100</v>
+        <v>290800</v>
       </c>
       <c r="F33" s="3">
-        <v>163500</v>
+        <v>155800</v>
       </c>
       <c r="G33" s="3">
-        <v>150900</v>
+        <v>143800</v>
       </c>
       <c r="H33" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="I33" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="J33" s="3">
-        <v>-320600</v>
+        <v>-305500</v>
       </c>
       <c r="K33" s="3">
         <v>-45800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>108400</v>
+        <v>103300</v>
       </c>
       <c r="E35" s="3">
-        <v>305100</v>
+        <v>290800</v>
       </c>
       <c r="F35" s="3">
-        <v>163500</v>
+        <v>155800</v>
       </c>
       <c r="G35" s="3">
-        <v>150900</v>
+        <v>143800</v>
       </c>
       <c r="H35" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="I35" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="J35" s="3">
-        <v>-320600</v>
+        <v>-305500</v>
       </c>
       <c r="K35" s="3">
         <v>-45800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>816000</v>
+        <v>777700</v>
       </c>
       <c r="E41" s="3">
-        <v>157700</v>
+        <v>150300</v>
       </c>
       <c r="F41" s="3">
-        <v>199800</v>
+        <v>190400</v>
       </c>
       <c r="G41" s="3">
-        <v>207300</v>
+        <v>197600</v>
       </c>
       <c r="H41" s="3">
-        <v>241300</v>
+        <v>230000</v>
       </c>
       <c r="I41" s="3">
-        <v>189700</v>
+        <v>180800</v>
       </c>
       <c r="J41" s="3">
-        <v>337100</v>
+        <v>321300</v>
       </c>
       <c r="K41" s="3">
         <v>584300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E42" s="3">
         <v>8000</v>
       </c>
-      <c r="E42" s="3">
-        <v>8400</v>
-      </c>
       <c r="F42" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G42" s="3">
-        <v>96800</v>
+        <v>92200</v>
       </c>
       <c r="H42" s="3">
-        <v>64600</v>
+        <v>61600</v>
       </c>
       <c r="I42" s="3">
-        <v>71600</v>
+        <v>68200</v>
       </c>
       <c r="J42" s="3">
-        <v>75800</v>
+        <v>72300</v>
       </c>
       <c r="K42" s="3">
         <v>107600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>415100</v>
+        <v>395600</v>
       </c>
       <c r="E43" s="3">
-        <v>430800</v>
+        <v>410600</v>
       </c>
       <c r="F43" s="3">
-        <v>415900</v>
+        <v>396400</v>
       </c>
       <c r="G43" s="3">
-        <v>363500</v>
+        <v>346400</v>
       </c>
       <c r="H43" s="3">
-        <v>322200</v>
+        <v>307000</v>
       </c>
       <c r="I43" s="3">
-        <v>320700</v>
+        <v>305700</v>
       </c>
       <c r="J43" s="3">
-        <v>372600</v>
+        <v>355000</v>
       </c>
       <c r="K43" s="3">
         <v>331300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>893100</v>
+        <v>851100</v>
       </c>
       <c r="E44" s="3">
-        <v>1013800</v>
+        <v>966100</v>
       </c>
       <c r="F44" s="3">
-        <v>933000</v>
+        <v>889200</v>
       </c>
       <c r="G44" s="3">
-        <v>908400</v>
+        <v>865700</v>
       </c>
       <c r="H44" s="3">
-        <v>880000</v>
+        <v>838600</v>
       </c>
       <c r="I44" s="3">
-        <v>922700</v>
+        <v>879400</v>
       </c>
       <c r="J44" s="3">
-        <v>859200</v>
+        <v>818800</v>
       </c>
       <c r="K44" s="3">
         <v>783500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="E45" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F45" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="G45" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="H45" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="I45" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="J45" s="3">
-        <v>16200</v>
+        <v>15400</v>
       </c>
       <c r="K45" s="3">
         <v>15400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2146800</v>
+        <v>2045900</v>
       </c>
       <c r="E46" s="3">
-        <v>1614400</v>
+        <v>1538500</v>
       </c>
       <c r="F46" s="3">
-        <v>1567900</v>
+        <v>1494200</v>
       </c>
       <c r="G46" s="3">
-        <v>1603900</v>
+        <v>1528500</v>
       </c>
       <c r="H46" s="3">
-        <v>1533000</v>
+        <v>1461000</v>
       </c>
       <c r="I46" s="3">
-        <v>1521500</v>
+        <v>1450000</v>
       </c>
       <c r="J46" s="3">
-        <v>1660900</v>
+        <v>1582800</v>
       </c>
       <c r="K46" s="3">
         <v>1822100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76400</v>
+        <v>72800</v>
       </c>
       <c r="E47" s="3">
-        <v>63900</v>
+        <v>60900</v>
       </c>
       <c r="F47" s="3">
-        <v>64300</v>
+        <v>61300</v>
       </c>
       <c r="G47" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="H47" s="3">
-        <v>33600</v>
+        <v>32100</v>
       </c>
       <c r="I47" s="3">
-        <v>28400</v>
+        <v>27000</v>
       </c>
       <c r="J47" s="3">
-        <v>25900</v>
+        <v>24700</v>
       </c>
       <c r="K47" s="3">
         <v>36800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2211900</v>
+        <v>2108000</v>
       </c>
       <c r="E48" s="3">
-        <v>2377100</v>
+        <v>2265300</v>
       </c>
       <c r="F48" s="3">
-        <v>2011800</v>
+        <v>1917200</v>
       </c>
       <c r="G48" s="3">
-        <v>1944700</v>
+        <v>1853300</v>
       </c>
       <c r="H48" s="3">
-        <v>2021800</v>
+        <v>1926800</v>
       </c>
       <c r="I48" s="3">
-        <v>2090400</v>
+        <v>1992200</v>
       </c>
       <c r="J48" s="3">
-        <v>2110600</v>
+        <v>2011400</v>
       </c>
       <c r="K48" s="3">
         <v>2048900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>790800</v>
+        <v>753600</v>
       </c>
       <c r="E49" s="3">
-        <v>931500</v>
+        <v>887700</v>
       </c>
       <c r="F49" s="3">
-        <v>873100</v>
+        <v>832000</v>
       </c>
       <c r="G49" s="3">
-        <v>846300</v>
+        <v>806600</v>
       </c>
       <c r="H49" s="3">
-        <v>845800</v>
+        <v>806000</v>
       </c>
       <c r="I49" s="3">
-        <v>859200</v>
+        <v>818900</v>
       </c>
       <c r="J49" s="3">
-        <v>851100</v>
+        <v>811100</v>
       </c>
       <c r="K49" s="3">
         <v>991600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>74600</v>
+        <v>71100</v>
       </c>
       <c r="E52" s="3">
-        <v>75600</v>
+        <v>72000</v>
       </c>
       <c r="F52" s="3">
-        <v>67900</v>
+        <v>64700</v>
       </c>
       <c r="G52" s="3">
-        <v>54000</v>
+        <v>51400</v>
       </c>
       <c r="H52" s="3">
-        <v>21300</v>
+        <v>20300</v>
       </c>
       <c r="I52" s="3">
-        <v>22700</v>
+        <v>21600</v>
       </c>
       <c r="J52" s="3">
-        <v>44300</v>
+        <v>42200</v>
       </c>
       <c r="K52" s="3">
         <v>54900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5300600</v>
+        <v>5051400</v>
       </c>
       <c r="E54" s="3">
-        <v>5062400</v>
+        <v>4824400</v>
       </c>
       <c r="F54" s="3">
-        <v>4585000</v>
+        <v>4369500</v>
       </c>
       <c r="G54" s="3">
-        <v>4483300</v>
+        <v>4272600</v>
       </c>
       <c r="H54" s="3">
-        <v>4455500</v>
+        <v>4246100</v>
       </c>
       <c r="I54" s="3">
-        <v>4522200</v>
+        <v>4309700</v>
       </c>
       <c r="J54" s="3">
-        <v>4692900</v>
+        <v>4472300</v>
       </c>
       <c r="K54" s="3">
         <v>4954200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>367300</v>
+        <v>350100</v>
       </c>
       <c r="E57" s="3">
-        <v>412100</v>
+        <v>392700</v>
       </c>
       <c r="F57" s="3">
-        <v>400400</v>
+        <v>381600</v>
       </c>
       <c r="G57" s="3">
-        <v>393900</v>
+        <v>375400</v>
       </c>
       <c r="H57" s="3">
-        <v>370800</v>
+        <v>353400</v>
       </c>
       <c r="I57" s="3">
-        <v>338500</v>
+        <v>322600</v>
       </c>
       <c r="J57" s="3">
-        <v>350200</v>
+        <v>333700</v>
       </c>
       <c r="K57" s="3">
         <v>315700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>536200</v>
+        <v>511000</v>
       </c>
       <c r="E58" s="3">
-        <v>563800</v>
+        <v>537300</v>
       </c>
       <c r="F58" s="3">
-        <v>155500</v>
+        <v>148200</v>
       </c>
       <c r="G58" s="3">
-        <v>392900</v>
+        <v>374400</v>
       </c>
       <c r="H58" s="3">
-        <v>489900</v>
+        <v>466900</v>
       </c>
       <c r="I58" s="3">
-        <v>293900</v>
+        <v>280000</v>
       </c>
       <c r="J58" s="3">
-        <v>492600</v>
+        <v>469400</v>
       </c>
       <c r="K58" s="3">
         <v>342200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>463600</v>
+        <v>441800</v>
       </c>
       <c r="E59" s="3">
-        <v>442600</v>
+        <v>421800</v>
       </c>
       <c r="F59" s="3">
-        <v>418400</v>
+        <v>398800</v>
       </c>
       <c r="G59" s="3">
-        <v>371600</v>
+        <v>354100</v>
       </c>
       <c r="H59" s="3">
-        <v>339000</v>
+        <v>323000</v>
       </c>
       <c r="I59" s="3">
-        <v>358500</v>
+        <v>341600</v>
       </c>
       <c r="J59" s="3">
-        <v>360000</v>
+        <v>343100</v>
       </c>
       <c r="K59" s="3">
         <v>332400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1367100</v>
+        <v>1302900</v>
       </c>
       <c r="E60" s="3">
-        <v>1418500</v>
+        <v>1351800</v>
       </c>
       <c r="F60" s="3">
-        <v>974300</v>
+        <v>928500</v>
       </c>
       <c r="G60" s="3">
-        <v>1158300</v>
+        <v>1103900</v>
       </c>
       <c r="H60" s="3">
-        <v>1199700</v>
+        <v>1143300</v>
       </c>
       <c r="I60" s="3">
-        <v>990800</v>
+        <v>944300</v>
       </c>
       <c r="J60" s="3">
-        <v>1202800</v>
+        <v>1146200</v>
       </c>
       <c r="K60" s="3">
         <v>990300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1420700</v>
+        <v>1354000</v>
       </c>
       <c r="E61" s="3">
-        <v>705900</v>
+        <v>672700</v>
       </c>
       <c r="F61" s="3">
-        <v>870500</v>
+        <v>829500</v>
       </c>
       <c r="G61" s="3">
-        <v>605100</v>
+        <v>576600</v>
       </c>
       <c r="H61" s="3">
-        <v>589800</v>
+        <v>562000</v>
       </c>
       <c r="I61" s="3">
-        <v>621700</v>
+        <v>592500</v>
       </c>
       <c r="J61" s="3">
-        <v>681700</v>
+        <v>649700</v>
       </c>
       <c r="K61" s="3">
         <v>983600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>370200</v>
+        <v>352800</v>
       </c>
       <c r="E62" s="3">
-        <v>393900</v>
+        <v>375400</v>
       </c>
       <c r="F62" s="3">
-        <v>364900</v>
+        <v>347700</v>
       </c>
       <c r="G62" s="3">
-        <v>378600</v>
+        <v>360800</v>
       </c>
       <c r="H62" s="3">
-        <v>401100</v>
+        <v>382300</v>
       </c>
       <c r="I62" s="3">
-        <v>393300</v>
+        <v>374800</v>
       </c>
       <c r="J62" s="3">
-        <v>375000</v>
+        <v>357400</v>
       </c>
       <c r="K62" s="3">
         <v>328600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3158900</v>
+        <v>3010400</v>
       </c>
       <c r="E66" s="3">
-        <v>2519300</v>
+        <v>2400900</v>
       </c>
       <c r="F66" s="3">
-        <v>2210400</v>
+        <v>2106500</v>
       </c>
       <c r="G66" s="3">
-        <v>2170800</v>
+        <v>2068800</v>
       </c>
       <c r="H66" s="3">
-        <v>2214800</v>
+        <v>2110700</v>
       </c>
       <c r="I66" s="3">
-        <v>2028000</v>
+        <v>1932700</v>
       </c>
       <c r="J66" s="3">
-        <v>2280600</v>
+        <v>2173400</v>
       </c>
       <c r="K66" s="3">
         <v>2304700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2428400</v>
+        <v>2314200</v>
       </c>
       <c r="E72" s="3">
-        <v>2453400</v>
+        <v>2338100</v>
       </c>
       <c r="F72" s="3">
-        <v>2248900</v>
+        <v>2143100</v>
       </c>
       <c r="G72" s="3">
-        <v>2155900</v>
+        <v>2054600</v>
       </c>
       <c r="H72" s="3">
-        <v>2049100</v>
+        <v>1952800</v>
       </c>
       <c r="I72" s="3">
-        <v>2000400</v>
+        <v>1906400</v>
       </c>
       <c r="J72" s="3">
-        <v>1965000</v>
+        <v>1872600</v>
       </c>
       <c r="K72" s="3">
         <v>1960100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2141700</v>
+        <v>2041000</v>
       </c>
       <c r="E76" s="3">
-        <v>2543100</v>
+        <v>2423500</v>
       </c>
       <c r="F76" s="3">
-        <v>2374600</v>
+        <v>2263000</v>
       </c>
       <c r="G76" s="3">
-        <v>2312500</v>
+        <v>2203800</v>
       </c>
       <c r="H76" s="3">
-        <v>2240700</v>
+        <v>2135300</v>
       </c>
       <c r="I76" s="3">
-        <v>2494200</v>
+        <v>2377000</v>
       </c>
       <c r="J76" s="3">
-        <v>2412300</v>
+        <v>2298900</v>
       </c>
       <c r="K76" s="3">
         <v>2649600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>108400</v>
+        <v>103300</v>
       </c>
       <c r="E81" s="3">
-        <v>305100</v>
+        <v>290800</v>
       </c>
       <c r="F81" s="3">
-        <v>163500</v>
+        <v>155800</v>
       </c>
       <c r="G81" s="3">
-        <v>150900</v>
+        <v>143800</v>
       </c>
       <c r="H81" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="I81" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="J81" s="3">
-        <v>-320600</v>
+        <v>-305500</v>
       </c>
       <c r="K81" s="3">
         <v>-45800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>299300</v>
+        <v>285200</v>
       </c>
       <c r="E83" s="3">
-        <v>292800</v>
+        <v>279000</v>
       </c>
       <c r="F83" s="3">
-        <v>228400</v>
+        <v>217700</v>
       </c>
       <c r="G83" s="3">
-        <v>232300</v>
+        <v>221300</v>
       </c>
       <c r="H83" s="3">
-        <v>234400</v>
+        <v>223300</v>
       </c>
       <c r="I83" s="3">
-        <v>246500</v>
+        <v>234900</v>
       </c>
       <c r="J83" s="3">
-        <v>249100</v>
+        <v>237400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>618200</v>
+        <v>589200</v>
       </c>
       <c r="E89" s="3">
-        <v>526500</v>
+        <v>501700</v>
       </c>
       <c r="F89" s="3">
-        <v>391300</v>
+        <v>372900</v>
       </c>
       <c r="G89" s="3">
-        <v>333600</v>
+        <v>317900</v>
       </c>
       <c r="H89" s="3">
-        <v>408900</v>
+        <v>389600</v>
       </c>
       <c r="I89" s="3">
-        <v>318900</v>
+        <v>303900</v>
       </c>
       <c r="J89" s="3">
-        <v>264000</v>
+        <v>251500</v>
       </c>
       <c r="K89" s="3">
         <v>224600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246300</v>
+        <v>-234700</v>
       </c>
       <c r="E91" s="3">
-        <v>-312900</v>
+        <v>-298200</v>
       </c>
       <c r="F91" s="3">
-        <v>-264400</v>
+        <v>-252000</v>
       </c>
       <c r="G91" s="3">
-        <v>-199900</v>
+        <v>-190500</v>
       </c>
       <c r="H91" s="3">
-        <v>-200400</v>
+        <v>-191000</v>
       </c>
       <c r="I91" s="3">
-        <v>-181000</v>
+        <v>-172500</v>
       </c>
       <c r="J91" s="3">
-        <v>-156100</v>
+        <v>-148800</v>
       </c>
       <c r="K91" s="3">
         <v>-125400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-181100</v>
+        <v>-172600</v>
       </c>
       <c r="E94" s="3">
-        <v>-323500</v>
+        <v>-308300</v>
       </c>
       <c r="F94" s="3">
-        <v>-259300</v>
+        <v>-247100</v>
       </c>
       <c r="G94" s="3">
-        <v>-218900</v>
+        <v>-208600</v>
       </c>
       <c r="H94" s="3">
-        <v>-160600</v>
+        <v>-153100</v>
       </c>
       <c r="I94" s="3">
-        <v>-165700</v>
+        <v>-158000</v>
       </c>
       <c r="J94" s="3">
-        <v>-122000</v>
+        <v>-116300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-82500</v>
+        <v>-78600</v>
       </c>
       <c r="E96" s="3">
-        <v>-70200</v>
+        <v>-66900</v>
       </c>
       <c r="F96" s="3">
-        <v>-42600</v>
+        <v>-40600</v>
       </c>
       <c r="G96" s="3">
-        <v>-38700</v>
+        <v>-36900</v>
       </c>
       <c r="H96" s="3">
-        <v>-28700</v>
+        <v>-27300</v>
       </c>
       <c r="I96" s="3">
-        <v>-21500</v>
+        <v>-20500</v>
       </c>
       <c r="J96" s="3">
-        <v>-16900</v>
+        <v>-16100</v>
       </c>
       <c r="K96" s="3">
         <v>-16200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>224500</v>
+        <v>213900</v>
       </c>
       <c r="E100" s="3">
-        <v>-246500</v>
+        <v>-234900</v>
       </c>
       <c r="F100" s="3">
-        <v>-139300</v>
+        <v>-132700</v>
       </c>
       <c r="G100" s="3">
-        <v>-147200</v>
+        <v>-140300</v>
       </c>
       <c r="H100" s="3">
-        <v>-194900</v>
+        <v>-185800</v>
       </c>
       <c r="I100" s="3">
-        <v>-301400</v>
+        <v>-287200</v>
       </c>
       <c r="J100" s="3">
-        <v>-413500</v>
+        <v>-394100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,10 +3711,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="E101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
@@ -3723,10 +3723,10 @@
         <v>-1400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J101" s="3">
         <v>300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>658300</v>
+        <v>627400</v>
       </c>
       <c r="E102" s="3">
-        <v>-42000</v>
+        <v>-40100</v>
       </c>
       <c r="F102" s="3">
-        <v>-7600</v>
+        <v>-7200</v>
       </c>
       <c r="G102" s="3">
-        <v>-34000</v>
+        <v>-32400</v>
       </c>
       <c r="H102" s="3">
-        <v>51600</v>
+        <v>49200</v>
       </c>
       <c r="I102" s="3">
-        <v>-147400</v>
+        <v>-140500</v>
       </c>
       <c r="J102" s="3">
-        <v>-271300</v>
+        <v>-258600</v>
       </c>
       <c r="K102" s="3">
         <v>299300</v>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3916200</v>
+        <v>3787700</v>
       </c>
       <c r="E8" s="3">
-        <v>4046600</v>
+        <v>3913800</v>
       </c>
       <c r="F8" s="3">
-        <v>3858400</v>
+        <v>3731800</v>
       </c>
       <c r="G8" s="3">
-        <v>3642000</v>
+        <v>3522500</v>
       </c>
       <c r="H8" s="3">
-        <v>3471700</v>
+        <v>3357800</v>
       </c>
       <c r="I8" s="3">
-        <v>3470000</v>
+        <v>3356100</v>
       </c>
       <c r="J8" s="3">
-        <v>3309000</v>
+        <v>3200400</v>
       </c>
       <c r="K8" s="3">
         <v>3132700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2528800</v>
+        <v>2445800</v>
       </c>
       <c r="E9" s="3">
-        <v>2581800</v>
+        <v>2497000</v>
       </c>
       <c r="F9" s="3">
-        <v>2505600</v>
+        <v>2423400</v>
       </c>
       <c r="G9" s="3">
-        <v>2444200</v>
+        <v>2364000</v>
       </c>
       <c r="H9" s="3">
-        <v>2347900</v>
+        <v>2270900</v>
       </c>
       <c r="I9" s="3">
-        <v>2367300</v>
+        <v>2289600</v>
       </c>
       <c r="J9" s="3">
-        <v>2315900</v>
+        <v>2239900</v>
       </c>
       <c r="K9" s="3">
         <v>2220300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1387400</v>
+        <v>1341900</v>
       </c>
       <c r="E10" s="3">
-        <v>1464800</v>
+        <v>1416700</v>
       </c>
       <c r="F10" s="3">
-        <v>1352700</v>
+        <v>1308400</v>
       </c>
       <c r="G10" s="3">
-        <v>1197800</v>
+        <v>1158500</v>
       </c>
       <c r="H10" s="3">
-        <v>1123700</v>
+        <v>1086900</v>
       </c>
       <c r="I10" s="3">
-        <v>1102700</v>
+        <v>1066500</v>
       </c>
       <c r="J10" s="3">
-        <v>993100</v>
+        <v>960500</v>
       </c>
       <c r="K10" s="3">
         <v>912400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>137100</v>
+        <v>132600</v>
       </c>
       <c r="E14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F14" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="G14" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="H14" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="I14" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="J14" s="3">
-        <v>311700</v>
+        <v>301500</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>229500</v>
+        <v>222000</v>
       </c>
       <c r="E15" s="3">
-        <v>90700</v>
+        <v>87800</v>
       </c>
       <c r="F15" s="3">
-        <v>70100</v>
+        <v>67800</v>
       </c>
       <c r="G15" s="3">
-        <v>102300</v>
+        <v>99000</v>
       </c>
       <c r="H15" s="3">
-        <v>74800</v>
+        <v>72400</v>
       </c>
       <c r="I15" s="3">
-        <v>62500</v>
+        <v>60400</v>
       </c>
       <c r="J15" s="3">
-        <v>63200</v>
+        <v>61100</v>
       </c>
       <c r="K15" s="3">
         <v>67600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3697100</v>
+        <v>3575800</v>
       </c>
       <c r="E17" s="3">
-        <v>3625100</v>
+        <v>3506100</v>
       </c>
       <c r="F17" s="3">
-        <v>3581100</v>
+        <v>3463600</v>
       </c>
       <c r="G17" s="3">
-        <v>3433500</v>
+        <v>3320800</v>
       </c>
       <c r="H17" s="3">
-        <v>3249200</v>
+        <v>3142600</v>
       </c>
       <c r="I17" s="3">
-        <v>3280500</v>
+        <v>3172800</v>
       </c>
       <c r="J17" s="3">
-        <v>3503600</v>
+        <v>3388700</v>
       </c>
       <c r="K17" s="3">
         <v>3056600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>219100</v>
+        <v>211900</v>
       </c>
       <c r="E18" s="3">
-        <v>421500</v>
+        <v>407700</v>
       </c>
       <c r="F18" s="3">
-        <v>277300</v>
+        <v>268200</v>
       </c>
       <c r="G18" s="3">
-        <v>208500</v>
+        <v>201700</v>
       </c>
       <c r="H18" s="3">
-        <v>222400</v>
+        <v>215100</v>
       </c>
       <c r="I18" s="3">
-        <v>189500</v>
+        <v>183300</v>
       </c>
       <c r="J18" s="3">
-        <v>-194700</v>
+        <v>-188300</v>
       </c>
       <c r="K18" s="3">
         <v>76100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="E20" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="F20" s="3">
         <v>-1900</v>
       </c>
       <c r="G20" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="H20" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="I20" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="J20" s="3">
-        <v>14600</v>
+        <v>14100</v>
       </c>
       <c r="K20" s="3">
         <v>-4600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>501800</v>
+        <v>485100</v>
       </c>
       <c r="E21" s="3">
-        <v>693400</v>
+        <v>670400</v>
       </c>
       <c r="F21" s="3">
-        <v>493700</v>
+        <v>477300</v>
       </c>
       <c r="G21" s="3">
-        <v>436400</v>
+        <v>421900</v>
       </c>
       <c r="H21" s="3">
-        <v>451100</v>
+        <v>436100</v>
       </c>
       <c r="I21" s="3">
-        <v>417900</v>
+        <v>404000</v>
       </c>
       <c r="J21" s="3">
-        <v>58000</v>
+        <v>55900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42000</v>
+        <v>40600</v>
       </c>
       <c r="E22" s="3">
-        <v>45500</v>
+        <v>44000</v>
       </c>
       <c r="F22" s="3">
-        <v>47300</v>
+        <v>45800</v>
       </c>
       <c r="G22" s="3">
-        <v>45200</v>
+        <v>43700</v>
       </c>
       <c r="H22" s="3">
-        <v>42000</v>
+        <v>40600</v>
       </c>
       <c r="I22" s="3">
-        <v>57300</v>
+        <v>55400</v>
       </c>
       <c r="J22" s="3">
-        <v>71300</v>
+        <v>68900</v>
       </c>
       <c r="K22" s="3">
         <v>75100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>173600</v>
+        <v>168000</v>
       </c>
       <c r="E23" s="3">
-        <v>368000</v>
+        <v>356000</v>
       </c>
       <c r="F23" s="3">
-        <v>228000</v>
+        <v>220600</v>
       </c>
       <c r="G23" s="3">
-        <v>169100</v>
+        <v>163600</v>
       </c>
       <c r="H23" s="3">
-        <v>185100</v>
+        <v>179000</v>
       </c>
       <c r="I23" s="3">
-        <v>124900</v>
+        <v>120800</v>
       </c>
       <c r="J23" s="3">
-        <v>-251400</v>
+        <v>-243100</v>
       </c>
       <c r="K23" s="3">
         <v>-3600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57000</v>
+        <v>55100</v>
       </c>
       <c r="E24" s="3">
-        <v>61300</v>
+        <v>59300</v>
       </c>
       <c r="F24" s="3">
-        <v>56600</v>
+        <v>54700</v>
       </c>
       <c r="G24" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H24" s="3">
-        <v>50500</v>
+        <v>48800</v>
       </c>
       <c r="I24" s="3">
-        <v>43400</v>
+        <v>42000</v>
       </c>
       <c r="J24" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="K24" s="3">
         <v>5600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>116700</v>
+        <v>112800</v>
       </c>
       <c r="E26" s="3">
-        <v>306800</v>
+        <v>296700</v>
       </c>
       <c r="F26" s="3">
-        <v>171500</v>
+        <v>165800</v>
       </c>
       <c r="G26" s="3">
-        <v>164200</v>
+        <v>158800</v>
       </c>
       <c r="H26" s="3">
-        <v>134600</v>
+        <v>130200</v>
       </c>
       <c r="I26" s="3">
-        <v>81500</v>
+        <v>78800</v>
       </c>
       <c r="J26" s="3">
-        <v>-268100</v>
+        <v>-259300</v>
       </c>
       <c r="K26" s="3">
         <v>-9200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>103300</v>
+        <v>100000</v>
       </c>
       <c r="E27" s="3">
-        <v>290800</v>
+        <v>281300</v>
       </c>
       <c r="F27" s="3">
-        <v>155800</v>
+        <v>150700</v>
       </c>
       <c r="G27" s="3">
-        <v>143800</v>
+        <v>139100</v>
       </c>
       <c r="H27" s="3">
-        <v>95700</v>
+        <v>92500</v>
       </c>
       <c r="I27" s="3">
-        <v>42700</v>
+        <v>41300</v>
       </c>
       <c r="J27" s="3">
-        <v>-305500</v>
+        <v>-295500</v>
       </c>
       <c r="K27" s="3">
         <v>-45800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E32" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="F32" s="3">
         <v>1900</v>
       </c>
       <c r="G32" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="H32" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="I32" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J32" s="3">
-        <v>-14600</v>
+        <v>-14100</v>
       </c>
       <c r="K32" s="3">
         <v>4600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>103300</v>
+        <v>100000</v>
       </c>
       <c r="E33" s="3">
-        <v>290800</v>
+        <v>281300</v>
       </c>
       <c r="F33" s="3">
-        <v>155800</v>
+        <v>150700</v>
       </c>
       <c r="G33" s="3">
-        <v>143800</v>
+        <v>139100</v>
       </c>
       <c r="H33" s="3">
-        <v>95700</v>
+        <v>92500</v>
       </c>
       <c r="I33" s="3">
-        <v>42700</v>
+        <v>41300</v>
       </c>
       <c r="J33" s="3">
-        <v>-305500</v>
+        <v>-295500</v>
       </c>
       <c r="K33" s="3">
         <v>-45800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>103300</v>
+        <v>100000</v>
       </c>
       <c r="E35" s="3">
-        <v>290800</v>
+        <v>281300</v>
       </c>
       <c r="F35" s="3">
-        <v>155800</v>
+        <v>150700</v>
       </c>
       <c r="G35" s="3">
-        <v>143800</v>
+        <v>139100</v>
       </c>
       <c r="H35" s="3">
-        <v>95700</v>
+        <v>92500</v>
       </c>
       <c r="I35" s="3">
-        <v>42700</v>
+        <v>41300</v>
       </c>
       <c r="J35" s="3">
-        <v>-305500</v>
+        <v>-295500</v>
       </c>
       <c r="K35" s="3">
         <v>-45800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>777700</v>
+        <v>752100</v>
       </c>
       <c r="E41" s="3">
-        <v>150300</v>
+        <v>145400</v>
       </c>
       <c r="F41" s="3">
-        <v>190400</v>
+        <v>184100</v>
       </c>
       <c r="G41" s="3">
-        <v>197600</v>
+        <v>191100</v>
       </c>
       <c r="H41" s="3">
-        <v>230000</v>
+        <v>222500</v>
       </c>
       <c r="I41" s="3">
-        <v>180800</v>
+        <v>174900</v>
       </c>
       <c r="J41" s="3">
-        <v>321300</v>
+        <v>310700</v>
       </c>
       <c r="K41" s="3">
         <v>584300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="E42" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F42" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="G42" s="3">
-        <v>92200</v>
+        <v>89200</v>
       </c>
       <c r="H42" s="3">
-        <v>61600</v>
+        <v>59500</v>
       </c>
       <c r="I42" s="3">
-        <v>68200</v>
+        <v>66000</v>
       </c>
       <c r="J42" s="3">
-        <v>72300</v>
+        <v>69900</v>
       </c>
       <c r="K42" s="3">
         <v>107600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>395600</v>
+        <v>382600</v>
       </c>
       <c r="E43" s="3">
-        <v>410600</v>
+        <v>397100</v>
       </c>
       <c r="F43" s="3">
-        <v>396400</v>
+        <v>383400</v>
       </c>
       <c r="G43" s="3">
-        <v>346400</v>
+        <v>335000</v>
       </c>
       <c r="H43" s="3">
-        <v>307000</v>
+        <v>296900</v>
       </c>
       <c r="I43" s="3">
-        <v>305700</v>
+        <v>295600</v>
       </c>
       <c r="J43" s="3">
-        <v>355000</v>
+        <v>343400</v>
       </c>
       <c r="K43" s="3">
         <v>331300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>851100</v>
+        <v>823200</v>
       </c>
       <c r="E44" s="3">
-        <v>966100</v>
+        <v>934400</v>
       </c>
       <c r="F44" s="3">
-        <v>889200</v>
+        <v>860000</v>
       </c>
       <c r="G44" s="3">
-        <v>865700</v>
+        <v>837300</v>
       </c>
       <c r="H44" s="3">
-        <v>838600</v>
+        <v>811100</v>
       </c>
       <c r="I44" s="3">
-        <v>879400</v>
+        <v>850500</v>
       </c>
       <c r="J44" s="3">
-        <v>818800</v>
+        <v>791900</v>
       </c>
       <c r="K44" s="3">
         <v>783500</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="E45" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F45" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="G45" s="3">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="H45" s="3">
-        <v>23700</v>
+        <v>23000</v>
       </c>
       <c r="I45" s="3">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="J45" s="3">
-        <v>15400</v>
+        <v>14900</v>
       </c>
       <c r="K45" s="3">
         <v>15400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2045900</v>
+        <v>1978700</v>
       </c>
       <c r="E46" s="3">
-        <v>1538500</v>
+        <v>1488100</v>
       </c>
       <c r="F46" s="3">
-        <v>1494200</v>
+        <v>1445200</v>
       </c>
       <c r="G46" s="3">
-        <v>1528500</v>
+        <v>1478400</v>
       </c>
       <c r="H46" s="3">
-        <v>1461000</v>
+        <v>1413000</v>
       </c>
       <c r="I46" s="3">
-        <v>1450000</v>
+        <v>1402400</v>
       </c>
       <c r="J46" s="3">
-        <v>1582800</v>
+        <v>1530900</v>
       </c>
       <c r="K46" s="3">
         <v>1822100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>72800</v>
+        <v>70400</v>
       </c>
       <c r="E47" s="3">
-        <v>60900</v>
+        <v>58900</v>
       </c>
       <c r="F47" s="3">
-        <v>61300</v>
+        <v>59300</v>
       </c>
       <c r="G47" s="3">
-        <v>32800</v>
+        <v>31700</v>
       </c>
       <c r="H47" s="3">
-        <v>32100</v>
+        <v>31000</v>
       </c>
       <c r="I47" s="3">
-        <v>27000</v>
+        <v>26100</v>
       </c>
       <c r="J47" s="3">
-        <v>24700</v>
+        <v>23900</v>
       </c>
       <c r="K47" s="3">
         <v>36800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2108000</v>
+        <v>2038800</v>
       </c>
       <c r="E48" s="3">
-        <v>2265300</v>
+        <v>2191000</v>
       </c>
       <c r="F48" s="3">
-        <v>1917200</v>
+        <v>1854300</v>
       </c>
       <c r="G48" s="3">
-        <v>1853300</v>
+        <v>1792400</v>
       </c>
       <c r="H48" s="3">
+        <v>1863500</v>
+      </c>
+      <c r="I48" s="3">
         <v>1926800</v>
       </c>
-      <c r="I48" s="3">
-        <v>1992200</v>
-      </c>
       <c r="J48" s="3">
-        <v>2011400</v>
+        <v>1945400</v>
       </c>
       <c r="K48" s="3">
         <v>2048900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>753600</v>
+        <v>728900</v>
       </c>
       <c r="E49" s="3">
-        <v>887700</v>
+        <v>858500</v>
       </c>
       <c r="F49" s="3">
-        <v>832000</v>
+        <v>804700</v>
       </c>
       <c r="G49" s="3">
-        <v>806600</v>
+        <v>780100</v>
       </c>
       <c r="H49" s="3">
-        <v>806000</v>
+        <v>779600</v>
       </c>
       <c r="I49" s="3">
-        <v>818900</v>
+        <v>792000</v>
       </c>
       <c r="J49" s="3">
-        <v>811100</v>
+        <v>784500</v>
       </c>
       <c r="K49" s="3">
         <v>991600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>71100</v>
+        <v>68800</v>
       </c>
       <c r="E52" s="3">
-        <v>72000</v>
+        <v>69700</v>
       </c>
       <c r="F52" s="3">
-        <v>64700</v>
+        <v>62600</v>
       </c>
       <c r="G52" s="3">
-        <v>51400</v>
+        <v>49700</v>
       </c>
       <c r="H52" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="I52" s="3">
-        <v>21600</v>
+        <v>20900</v>
       </c>
       <c r="J52" s="3">
-        <v>42200</v>
+        <v>40800</v>
       </c>
       <c r="K52" s="3">
         <v>54900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5051400</v>
+        <v>4885600</v>
       </c>
       <c r="E54" s="3">
-        <v>4824400</v>
+        <v>4666100</v>
       </c>
       <c r="F54" s="3">
-        <v>4369500</v>
+        <v>4226100</v>
       </c>
       <c r="G54" s="3">
-        <v>4272600</v>
+        <v>4132400</v>
       </c>
       <c r="H54" s="3">
-        <v>4246100</v>
+        <v>4106700</v>
       </c>
       <c r="I54" s="3">
-        <v>4309700</v>
+        <v>4168200</v>
       </c>
       <c r="J54" s="3">
-        <v>4472300</v>
+        <v>4325600</v>
       </c>
       <c r="K54" s="3">
         <v>4954200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>350100</v>
+        <v>338600</v>
       </c>
       <c r="E57" s="3">
-        <v>392700</v>
+        <v>379900</v>
       </c>
       <c r="F57" s="3">
-        <v>381600</v>
+        <v>369100</v>
       </c>
       <c r="G57" s="3">
-        <v>375400</v>
+        <v>363000</v>
       </c>
       <c r="H57" s="3">
-        <v>353400</v>
+        <v>341800</v>
       </c>
       <c r="I57" s="3">
-        <v>322600</v>
+        <v>312000</v>
       </c>
       <c r="J57" s="3">
-        <v>333700</v>
+        <v>322700</v>
       </c>
       <c r="K57" s="3">
         <v>315700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>511000</v>
+        <v>494200</v>
       </c>
       <c r="E58" s="3">
-        <v>537300</v>
+        <v>519600</v>
       </c>
       <c r="F58" s="3">
-        <v>148200</v>
+        <v>143300</v>
       </c>
       <c r="G58" s="3">
-        <v>374400</v>
+        <v>362100</v>
       </c>
       <c r="H58" s="3">
-        <v>466900</v>
+        <v>451600</v>
       </c>
       <c r="I58" s="3">
-        <v>280000</v>
+        <v>270900</v>
       </c>
       <c r="J58" s="3">
-        <v>469400</v>
+        <v>454000</v>
       </c>
       <c r="K58" s="3">
         <v>342200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>441800</v>
+        <v>427300</v>
       </c>
       <c r="E59" s="3">
-        <v>421800</v>
+        <v>408000</v>
       </c>
       <c r="F59" s="3">
-        <v>398800</v>
+        <v>385700</v>
       </c>
       <c r="G59" s="3">
-        <v>354100</v>
+        <v>342500</v>
       </c>
       <c r="H59" s="3">
-        <v>323000</v>
+        <v>312400</v>
       </c>
       <c r="I59" s="3">
-        <v>341600</v>
+        <v>330400</v>
       </c>
       <c r="J59" s="3">
-        <v>343100</v>
+        <v>331900</v>
       </c>
       <c r="K59" s="3">
         <v>332400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1302900</v>
+        <v>1260100</v>
       </c>
       <c r="E60" s="3">
-        <v>1351800</v>
+        <v>1307400</v>
       </c>
       <c r="F60" s="3">
-        <v>928500</v>
+        <v>898100</v>
       </c>
       <c r="G60" s="3">
-        <v>1103900</v>
+        <v>1067700</v>
       </c>
       <c r="H60" s="3">
-        <v>1143300</v>
+        <v>1105800</v>
       </c>
       <c r="I60" s="3">
-        <v>944300</v>
+        <v>913300</v>
       </c>
       <c r="J60" s="3">
-        <v>1146200</v>
+        <v>1108600</v>
       </c>
       <c r="K60" s="3">
         <v>990300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1354000</v>
+        <v>1309500</v>
       </c>
       <c r="E61" s="3">
-        <v>672700</v>
+        <v>650600</v>
       </c>
       <c r="F61" s="3">
-        <v>829500</v>
+        <v>802300</v>
       </c>
       <c r="G61" s="3">
-        <v>576600</v>
+        <v>557700</v>
       </c>
       <c r="H61" s="3">
-        <v>562000</v>
+        <v>543600</v>
       </c>
       <c r="I61" s="3">
-        <v>592500</v>
+        <v>573100</v>
       </c>
       <c r="J61" s="3">
-        <v>649700</v>
+        <v>628400</v>
       </c>
       <c r="K61" s="3">
         <v>983600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>352800</v>
+        <v>341200</v>
       </c>
       <c r="E62" s="3">
-        <v>375400</v>
+        <v>363100</v>
       </c>
       <c r="F62" s="3">
-        <v>347700</v>
+        <v>336300</v>
       </c>
       <c r="G62" s="3">
-        <v>360800</v>
+        <v>349000</v>
       </c>
       <c r="H62" s="3">
-        <v>382300</v>
+        <v>369700</v>
       </c>
       <c r="I62" s="3">
-        <v>374800</v>
+        <v>362500</v>
       </c>
       <c r="J62" s="3">
-        <v>357400</v>
+        <v>345600</v>
       </c>
       <c r="K62" s="3">
         <v>328600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3010400</v>
+        <v>2911600</v>
       </c>
       <c r="E66" s="3">
-        <v>2400900</v>
+        <v>2322100</v>
       </c>
       <c r="F66" s="3">
-        <v>2106500</v>
+        <v>2037400</v>
       </c>
       <c r="G66" s="3">
-        <v>2068800</v>
+        <v>2000900</v>
       </c>
       <c r="H66" s="3">
-        <v>2110700</v>
+        <v>2041500</v>
       </c>
       <c r="I66" s="3">
-        <v>1932700</v>
+        <v>1869300</v>
       </c>
       <c r="J66" s="3">
-        <v>2173400</v>
+        <v>2102100</v>
       </c>
       <c r="K66" s="3">
         <v>2304700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2314200</v>
+        <v>2238300</v>
       </c>
       <c r="E72" s="3">
-        <v>2338100</v>
+        <v>2261400</v>
       </c>
       <c r="F72" s="3">
-        <v>2143100</v>
+        <v>2072800</v>
       </c>
       <c r="G72" s="3">
-        <v>2054600</v>
+        <v>1987200</v>
       </c>
       <c r="H72" s="3">
-        <v>1952800</v>
+        <v>1888700</v>
       </c>
       <c r="I72" s="3">
-        <v>1906400</v>
+        <v>1843800</v>
       </c>
       <c r="J72" s="3">
-        <v>1872600</v>
+        <v>1811200</v>
       </c>
       <c r="K72" s="3">
         <v>1960100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2041000</v>
+        <v>1974000</v>
       </c>
       <c r="E76" s="3">
-        <v>2423500</v>
+        <v>2344000</v>
       </c>
       <c r="F76" s="3">
-        <v>2263000</v>
+        <v>2188800</v>
       </c>
       <c r="G76" s="3">
-        <v>2203800</v>
+        <v>2131500</v>
       </c>
       <c r="H76" s="3">
-        <v>2135300</v>
+        <v>2065300</v>
       </c>
       <c r="I76" s="3">
-        <v>2377000</v>
+        <v>2299000</v>
       </c>
       <c r="J76" s="3">
-        <v>2298900</v>
+        <v>2223500</v>
       </c>
       <c r="K76" s="3">
         <v>2649600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>103300</v>
+        <v>100000</v>
       </c>
       <c r="E81" s="3">
-        <v>290800</v>
+        <v>281300</v>
       </c>
       <c r="F81" s="3">
-        <v>155800</v>
+        <v>150700</v>
       </c>
       <c r="G81" s="3">
-        <v>143800</v>
+        <v>139100</v>
       </c>
       <c r="H81" s="3">
-        <v>95700</v>
+        <v>92500</v>
       </c>
       <c r="I81" s="3">
-        <v>42700</v>
+        <v>41300</v>
       </c>
       <c r="J81" s="3">
-        <v>-305500</v>
+        <v>-295500</v>
       </c>
       <c r="K81" s="3">
         <v>-45800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>285200</v>
+        <v>275900</v>
       </c>
       <c r="E83" s="3">
-        <v>279000</v>
+        <v>269800</v>
       </c>
       <c r="F83" s="3">
-        <v>217700</v>
+        <v>210500</v>
       </c>
       <c r="G83" s="3">
-        <v>221300</v>
+        <v>214100</v>
       </c>
       <c r="H83" s="3">
-        <v>223300</v>
+        <v>216000</v>
       </c>
       <c r="I83" s="3">
-        <v>234900</v>
+        <v>227200</v>
       </c>
       <c r="J83" s="3">
-        <v>237400</v>
+        <v>229600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>589200</v>
+        <v>569800</v>
       </c>
       <c r="E89" s="3">
-        <v>501700</v>
+        <v>485300</v>
       </c>
       <c r="F89" s="3">
-        <v>372900</v>
+        <v>360700</v>
       </c>
       <c r="G89" s="3">
-        <v>317900</v>
+        <v>307500</v>
       </c>
       <c r="H89" s="3">
-        <v>389600</v>
+        <v>376900</v>
       </c>
       <c r="I89" s="3">
-        <v>303900</v>
+        <v>293900</v>
       </c>
       <c r="J89" s="3">
-        <v>251500</v>
+        <v>243300</v>
       </c>
       <c r="K89" s="3">
         <v>224600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-234700</v>
+        <v>-227000</v>
       </c>
       <c r="E91" s="3">
-        <v>-298200</v>
+        <v>-288400</v>
       </c>
       <c r="F91" s="3">
-        <v>-252000</v>
+        <v>-243700</v>
       </c>
       <c r="G91" s="3">
-        <v>-190500</v>
+        <v>-184300</v>
       </c>
       <c r="H91" s="3">
-        <v>-191000</v>
+        <v>-184700</v>
       </c>
       <c r="I91" s="3">
-        <v>-172500</v>
+        <v>-166900</v>
       </c>
       <c r="J91" s="3">
-        <v>-148800</v>
+        <v>-143900</v>
       </c>
       <c r="K91" s="3">
         <v>-125400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-172600</v>
+        <v>-166900</v>
       </c>
       <c r="E94" s="3">
-        <v>-308300</v>
+        <v>-298200</v>
       </c>
       <c r="F94" s="3">
-        <v>-247100</v>
+        <v>-239000</v>
       </c>
       <c r="G94" s="3">
-        <v>-208600</v>
+        <v>-201800</v>
       </c>
       <c r="H94" s="3">
-        <v>-153100</v>
+        <v>-148000</v>
       </c>
       <c r="I94" s="3">
-        <v>-158000</v>
+        <v>-152800</v>
       </c>
       <c r="J94" s="3">
-        <v>-116300</v>
+        <v>-112500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-78600</v>
+        <v>-76100</v>
       </c>
       <c r="E96" s="3">
-        <v>-66900</v>
+        <v>-64700</v>
       </c>
       <c r="F96" s="3">
-        <v>-40600</v>
+        <v>-39300</v>
       </c>
       <c r="G96" s="3">
-        <v>-36900</v>
+        <v>-35700</v>
       </c>
       <c r="H96" s="3">
-        <v>-27300</v>
+        <v>-26400</v>
       </c>
       <c r="I96" s="3">
-        <v>-20500</v>
+        <v>-19800</v>
       </c>
       <c r="J96" s="3">
-        <v>-16100</v>
+        <v>-15600</v>
       </c>
       <c r="K96" s="3">
         <v>-16200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>213900</v>
+        <v>206900</v>
       </c>
       <c r="E100" s="3">
-        <v>-234900</v>
+        <v>-227200</v>
       </c>
       <c r="F100" s="3">
-        <v>-132700</v>
+        <v>-128400</v>
       </c>
       <c r="G100" s="3">
-        <v>-140300</v>
+        <v>-135700</v>
       </c>
       <c r="H100" s="3">
-        <v>-185800</v>
+        <v>-179700</v>
       </c>
       <c r="I100" s="3">
-        <v>-287200</v>
+        <v>-277800</v>
       </c>
       <c r="J100" s="3">
-        <v>-394100</v>
+        <v>-381200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
         <v>1400</v>
@@ -3720,7 +3720,7 @@
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H101" s="3">
         <v>-1600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>627400</v>
+        <v>606800</v>
       </c>
       <c r="E102" s="3">
-        <v>-40100</v>
+        <v>-38800</v>
       </c>
       <c r="F102" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="G102" s="3">
-        <v>-32400</v>
+        <v>-31300</v>
       </c>
       <c r="H102" s="3">
-        <v>49200</v>
+        <v>47600</v>
       </c>
       <c r="I102" s="3">
-        <v>-140500</v>
+        <v>-135800</v>
       </c>
       <c r="J102" s="3">
-        <v>-258600</v>
+        <v>-250100</v>
       </c>
       <c r="K102" s="3">
         <v>299300</v>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>WBRBY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3787700</v>
+        <v>3659600</v>
       </c>
       <c r="E8" s="3">
-        <v>3913800</v>
+        <v>3781400</v>
       </c>
       <c r="F8" s="3">
-        <v>3731800</v>
+        <v>3605500</v>
       </c>
       <c r="G8" s="3">
-        <v>3522500</v>
+        <v>3403300</v>
       </c>
       <c r="H8" s="3">
-        <v>3357800</v>
+        <v>3244200</v>
       </c>
       <c r="I8" s="3">
-        <v>3356100</v>
+        <v>3242600</v>
       </c>
       <c r="J8" s="3">
-        <v>3200400</v>
+        <v>3092200</v>
       </c>
       <c r="K8" s="3">
         <v>3132700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2445800</v>
+        <v>2363100</v>
       </c>
       <c r="E9" s="3">
-        <v>2497000</v>
+        <v>2412600</v>
       </c>
       <c r="F9" s="3">
-        <v>2423400</v>
+        <v>2341400</v>
       </c>
       <c r="G9" s="3">
-        <v>2364000</v>
+        <v>2284000</v>
       </c>
       <c r="H9" s="3">
-        <v>2270900</v>
+        <v>2194100</v>
       </c>
       <c r="I9" s="3">
-        <v>2289600</v>
+        <v>2212100</v>
       </c>
       <c r="J9" s="3">
-        <v>2239900</v>
+        <v>2164100</v>
       </c>
       <c r="K9" s="3">
         <v>2220300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1341900</v>
+        <v>1296500</v>
       </c>
       <c r="E10" s="3">
-        <v>1416700</v>
+        <v>1368800</v>
       </c>
       <c r="F10" s="3">
-        <v>1308400</v>
+        <v>1264100</v>
       </c>
       <c r="G10" s="3">
-        <v>1158500</v>
+        <v>1119300</v>
       </c>
       <c r="H10" s="3">
-        <v>1086900</v>
+        <v>1050100</v>
       </c>
       <c r="I10" s="3">
-        <v>1066500</v>
+        <v>1030400</v>
       </c>
       <c r="J10" s="3">
-        <v>960500</v>
+        <v>928100</v>
       </c>
       <c r="K10" s="3">
         <v>912400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>132600</v>
+        <v>128200</v>
       </c>
       <c r="E14" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F14" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="G14" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="H14" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="I14" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J14" s="3">
-        <v>301500</v>
+        <v>291300</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>222000</v>
+        <v>214500</v>
       </c>
       <c r="E15" s="3">
-        <v>87800</v>
+        <v>84800</v>
       </c>
       <c r="F15" s="3">
-        <v>67800</v>
+        <v>65500</v>
       </c>
       <c r="G15" s="3">
-        <v>99000</v>
+        <v>95600</v>
       </c>
       <c r="H15" s="3">
-        <v>72400</v>
+        <v>69900</v>
       </c>
       <c r="I15" s="3">
-        <v>60400</v>
+        <v>58400</v>
       </c>
       <c r="J15" s="3">
-        <v>61100</v>
+        <v>59100</v>
       </c>
       <c r="K15" s="3">
         <v>67600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3575800</v>
+        <v>3454800</v>
       </c>
       <c r="E17" s="3">
-        <v>3506100</v>
+        <v>3387500</v>
       </c>
       <c r="F17" s="3">
-        <v>3463600</v>
+        <v>3346400</v>
       </c>
       <c r="G17" s="3">
-        <v>3320800</v>
+        <v>3208500</v>
       </c>
       <c r="H17" s="3">
-        <v>3142600</v>
+        <v>3036300</v>
       </c>
       <c r="I17" s="3">
-        <v>3172800</v>
+        <v>3065500</v>
       </c>
       <c r="J17" s="3">
-        <v>3388700</v>
+        <v>3274100</v>
       </c>
       <c r="K17" s="3">
         <v>3056600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>211900</v>
+        <v>204700</v>
       </c>
       <c r="E18" s="3">
-        <v>407700</v>
+        <v>393900</v>
       </c>
       <c r="F18" s="3">
-        <v>268200</v>
+        <v>259100</v>
       </c>
       <c r="G18" s="3">
-        <v>201700</v>
+        <v>194900</v>
       </c>
       <c r="H18" s="3">
-        <v>215100</v>
+        <v>207900</v>
       </c>
       <c r="I18" s="3">
-        <v>183300</v>
+        <v>177100</v>
       </c>
       <c r="J18" s="3">
-        <v>-188300</v>
+        <v>-181900</v>
       </c>
       <c r="K18" s="3">
         <v>76100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="E20" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G20" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I20" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="J20" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="K20" s="3">
         <v>-4600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>485100</v>
+        <v>472100</v>
       </c>
       <c r="E21" s="3">
-        <v>670400</v>
+        <v>651100</v>
       </c>
       <c r="F21" s="3">
-        <v>477300</v>
+        <v>463800</v>
       </c>
       <c r="G21" s="3">
-        <v>421900</v>
+        <v>410300</v>
       </c>
       <c r="H21" s="3">
-        <v>436100</v>
+        <v>424000</v>
       </c>
       <c r="I21" s="3">
-        <v>404000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>55900</v>
+        <v>393100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40600</v>
+        <v>39300</v>
       </c>
       <c r="E22" s="3">
-        <v>44000</v>
+        <v>42500</v>
       </c>
       <c r="F22" s="3">
-        <v>45800</v>
+        <v>44200</v>
       </c>
       <c r="G22" s="3">
-        <v>43700</v>
+        <v>42200</v>
       </c>
       <c r="H22" s="3">
-        <v>40600</v>
+        <v>39200</v>
       </c>
       <c r="I22" s="3">
-        <v>55400</v>
+        <v>53600</v>
       </c>
       <c r="J22" s="3">
-        <v>68900</v>
+        <v>66600</v>
       </c>
       <c r="K22" s="3">
         <v>75100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>168000</v>
+        <v>162300</v>
       </c>
       <c r="E23" s="3">
-        <v>356000</v>
+        <v>343900</v>
       </c>
       <c r="F23" s="3">
-        <v>220600</v>
+        <v>213100</v>
       </c>
       <c r="G23" s="3">
-        <v>163600</v>
+        <v>158000</v>
       </c>
       <c r="H23" s="3">
-        <v>179000</v>
+        <v>173000</v>
       </c>
       <c r="I23" s="3">
-        <v>120800</v>
+        <v>116700</v>
       </c>
       <c r="J23" s="3">
-        <v>-243100</v>
+        <v>-234900</v>
       </c>
       <c r="K23" s="3">
         <v>-3600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55100</v>
+        <v>53300</v>
       </c>
       <c r="E24" s="3">
-        <v>59300</v>
+        <v>57300</v>
       </c>
       <c r="F24" s="3">
-        <v>54700</v>
+        <v>52900</v>
       </c>
       <c r="G24" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="H24" s="3">
-        <v>48800</v>
+        <v>47200</v>
       </c>
       <c r="I24" s="3">
-        <v>42000</v>
+        <v>40600</v>
       </c>
       <c r="J24" s="3">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="K24" s="3">
         <v>5600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>112800</v>
+        <v>109000</v>
       </c>
       <c r="E26" s="3">
-        <v>296700</v>
+        <v>286700</v>
       </c>
       <c r="F26" s="3">
-        <v>165800</v>
+        <v>160200</v>
       </c>
       <c r="G26" s="3">
-        <v>158800</v>
+        <v>153400</v>
       </c>
       <c r="H26" s="3">
-        <v>130200</v>
+        <v>125800</v>
       </c>
       <c r="I26" s="3">
-        <v>78800</v>
+        <v>76200</v>
       </c>
       <c r="J26" s="3">
-        <v>-259300</v>
+        <v>-250500</v>
       </c>
       <c r="K26" s="3">
         <v>-9200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100000</v>
+        <v>96600</v>
       </c>
       <c r="E27" s="3">
-        <v>281300</v>
+        <v>271700</v>
       </c>
       <c r="F27" s="3">
-        <v>150700</v>
+        <v>145600</v>
       </c>
       <c r="G27" s="3">
-        <v>139100</v>
+        <v>134400</v>
       </c>
       <c r="H27" s="3">
-        <v>92500</v>
+        <v>89400</v>
       </c>
       <c r="I27" s="3">
-        <v>41300</v>
+        <v>39900</v>
       </c>
       <c r="J27" s="3">
-        <v>-295500</v>
+        <v>-285500</v>
       </c>
       <c r="K27" s="3">
         <v>-45800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E32" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="F32" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G32" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="H32" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="I32" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="J32" s="3">
-        <v>-14100</v>
+        <v>-13600</v>
       </c>
       <c r="K32" s="3">
         <v>4600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100000</v>
+        <v>96600</v>
       </c>
       <c r="E33" s="3">
-        <v>281300</v>
+        <v>271700</v>
       </c>
       <c r="F33" s="3">
-        <v>150700</v>
+        <v>145600</v>
       </c>
       <c r="G33" s="3">
-        <v>139100</v>
+        <v>134400</v>
       </c>
       <c r="H33" s="3">
-        <v>92500</v>
+        <v>89400</v>
       </c>
       <c r="I33" s="3">
-        <v>41300</v>
+        <v>39900</v>
       </c>
       <c r="J33" s="3">
-        <v>-295500</v>
+        <v>-285500</v>
       </c>
       <c r="K33" s="3">
         <v>-45800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100000</v>
+        <v>96600</v>
       </c>
       <c r="E35" s="3">
-        <v>281300</v>
+        <v>271700</v>
       </c>
       <c r="F35" s="3">
-        <v>150700</v>
+        <v>145600</v>
       </c>
       <c r="G35" s="3">
-        <v>139100</v>
+        <v>134400</v>
       </c>
       <c r="H35" s="3">
-        <v>92500</v>
+        <v>89400</v>
       </c>
       <c r="I35" s="3">
-        <v>41300</v>
+        <v>39900</v>
       </c>
       <c r="J35" s="3">
-        <v>-295500</v>
+        <v>-285500</v>
       </c>
       <c r="K35" s="3">
         <v>-45800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>752100</v>
+        <v>397400</v>
       </c>
       <c r="E41" s="3">
-        <v>145400</v>
+        <v>726700</v>
       </c>
       <c r="F41" s="3">
-        <v>184100</v>
+        <v>140500</v>
       </c>
       <c r="G41" s="3">
-        <v>191100</v>
+        <v>177900</v>
       </c>
       <c r="H41" s="3">
-        <v>222500</v>
+        <v>184600</v>
       </c>
       <c r="I41" s="3">
-        <v>174900</v>
+        <v>214900</v>
       </c>
       <c r="J41" s="3">
-        <v>310700</v>
+        <v>169000</v>
       </c>
       <c r="K41" s="3">
         <v>584300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7400</v>
+        <v>44000</v>
       </c>
       <c r="E42" s="3">
-        <v>7800</v>
+        <v>7100</v>
       </c>
       <c r="F42" s="3">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="G42" s="3">
-        <v>89200</v>
+        <v>6700</v>
       </c>
       <c r="H42" s="3">
-        <v>59500</v>
+        <v>86200</v>
       </c>
       <c r="I42" s="3">
-        <v>66000</v>
+        <v>57500</v>
       </c>
       <c r="J42" s="3">
-        <v>69900</v>
+        <v>63700</v>
       </c>
       <c r="K42" s="3">
         <v>107600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>382600</v>
+        <v>515700</v>
       </c>
       <c r="E43" s="3">
-        <v>397100</v>
+        <v>369700</v>
       </c>
       <c r="F43" s="3">
-        <v>383400</v>
+        <v>383700</v>
       </c>
       <c r="G43" s="3">
-        <v>335000</v>
+        <v>370400</v>
       </c>
       <c r="H43" s="3">
-        <v>296900</v>
+        <v>323700</v>
       </c>
       <c r="I43" s="3">
-        <v>295600</v>
+        <v>286900</v>
       </c>
       <c r="J43" s="3">
-        <v>343400</v>
+        <v>285600</v>
       </c>
       <c r="K43" s="3">
         <v>331300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>823200</v>
+        <v>963600</v>
       </c>
       <c r="E44" s="3">
-        <v>934400</v>
+        <v>795300</v>
       </c>
       <c r="F44" s="3">
-        <v>860000</v>
+        <v>902800</v>
       </c>
       <c r="G44" s="3">
-        <v>837300</v>
+        <v>830900</v>
       </c>
       <c r="H44" s="3">
-        <v>811100</v>
+        <v>809000</v>
       </c>
       <c r="I44" s="3">
-        <v>850500</v>
+        <v>783700</v>
       </c>
       <c r="J44" s="3">
-        <v>791900</v>
+        <v>821800</v>
       </c>
       <c r="K44" s="3">
         <v>783500</v>
@@ -1881,23 +1881,23 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>13500</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>3400</v>
+        <v>13000</v>
       </c>
       <c r="F45" s="3">
-        <v>10800</v>
+        <v>3300</v>
       </c>
       <c r="G45" s="3">
-        <v>25700</v>
+        <v>10400</v>
       </c>
       <c r="H45" s="3">
-        <v>23000</v>
+        <v>24800</v>
       </c>
       <c r="I45" s="3">
-        <v>15400</v>
+        <v>22200</v>
       </c>
       <c r="J45" s="3">
         <v>14900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1978700</v>
+        <v>1920700</v>
       </c>
       <c r="E46" s="3">
-        <v>1488100</v>
+        <v>1911800</v>
       </c>
       <c r="F46" s="3">
-        <v>1445200</v>
+        <v>1437700</v>
       </c>
       <c r="G46" s="3">
-        <v>1478400</v>
+        <v>1396300</v>
       </c>
       <c r="H46" s="3">
-        <v>1413000</v>
+        <v>1428400</v>
       </c>
       <c r="I46" s="3">
-        <v>1402400</v>
+        <v>1365200</v>
       </c>
       <c r="J46" s="3">
-        <v>1530900</v>
+        <v>1355000</v>
       </c>
       <c r="K46" s="3">
         <v>1822100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70400</v>
+        <v>43900</v>
       </c>
       <c r="E47" s="3">
-        <v>58900</v>
+        <v>68000</v>
       </c>
       <c r="F47" s="3">
-        <v>59300</v>
+        <v>56900</v>
       </c>
       <c r="G47" s="3">
-        <v>31700</v>
+        <v>57300</v>
       </c>
       <c r="H47" s="3">
-        <v>31000</v>
+        <v>30600</v>
       </c>
       <c r="I47" s="3">
-        <v>26100</v>
+        <v>30000</v>
       </c>
       <c r="J47" s="3">
-        <v>23900</v>
+        <v>25300</v>
       </c>
       <c r="K47" s="3">
         <v>36800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2038800</v>
+        <v>2356400</v>
       </c>
       <c r="E48" s="3">
-        <v>2191000</v>
+        <v>1969800</v>
       </c>
       <c r="F48" s="3">
-        <v>1854300</v>
+        <v>2116900</v>
       </c>
       <c r="G48" s="3">
-        <v>1792400</v>
+        <v>1791600</v>
       </c>
       <c r="H48" s="3">
-        <v>1863500</v>
+        <v>1731800</v>
       </c>
       <c r="I48" s="3">
-        <v>1926800</v>
+        <v>1800500</v>
       </c>
       <c r="J48" s="3">
-        <v>1945400</v>
+        <v>1861600</v>
       </c>
       <c r="K48" s="3">
         <v>2048900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>728900</v>
+        <v>935300</v>
       </c>
       <c r="E49" s="3">
-        <v>858500</v>
+        <v>704300</v>
       </c>
       <c r="F49" s="3">
-        <v>804700</v>
+        <v>829500</v>
       </c>
       <c r="G49" s="3">
-        <v>780100</v>
+        <v>777500</v>
       </c>
       <c r="H49" s="3">
-        <v>779600</v>
+        <v>753700</v>
       </c>
       <c r="I49" s="3">
-        <v>792000</v>
+        <v>753200</v>
       </c>
       <c r="J49" s="3">
-        <v>784500</v>
+        <v>765200</v>
       </c>
       <c r="K49" s="3">
         <v>991600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68800</v>
+        <v>93200</v>
       </c>
       <c r="E52" s="3">
-        <v>69700</v>
+        <v>66400</v>
       </c>
       <c r="F52" s="3">
-        <v>62600</v>
+        <v>67300</v>
       </c>
       <c r="G52" s="3">
-        <v>49700</v>
+        <v>60500</v>
       </c>
       <c r="H52" s="3">
-        <v>19600</v>
+        <v>48100</v>
       </c>
       <c r="I52" s="3">
-        <v>20900</v>
+        <v>18900</v>
       </c>
       <c r="J52" s="3">
-        <v>40800</v>
+        <v>20200</v>
       </c>
       <c r="K52" s="3">
         <v>54900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4885600</v>
+        <v>5349600</v>
       </c>
       <c r="E54" s="3">
-        <v>4666100</v>
+        <v>4720400</v>
       </c>
       <c r="F54" s="3">
-        <v>4226100</v>
+        <v>4508300</v>
       </c>
       <c r="G54" s="3">
-        <v>4132400</v>
+        <v>4083200</v>
       </c>
       <c r="H54" s="3">
-        <v>4106700</v>
+        <v>3992600</v>
       </c>
       <c r="I54" s="3">
-        <v>4168200</v>
+        <v>3967800</v>
       </c>
       <c r="J54" s="3">
-        <v>4325600</v>
+        <v>4027200</v>
       </c>
       <c r="K54" s="3">
         <v>4954200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>338600</v>
+        <v>461500</v>
       </c>
       <c r="E57" s="3">
-        <v>379900</v>
+        <v>327100</v>
       </c>
       <c r="F57" s="3">
-        <v>369100</v>
+        <v>367000</v>
       </c>
       <c r="G57" s="3">
-        <v>363000</v>
+        <v>356600</v>
       </c>
       <c r="H57" s="3">
-        <v>341800</v>
+        <v>350800</v>
       </c>
       <c r="I57" s="3">
-        <v>312000</v>
+        <v>330200</v>
       </c>
       <c r="J57" s="3">
-        <v>322700</v>
+        <v>301400</v>
       </c>
       <c r="K57" s="3">
         <v>315700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>494200</v>
+        <v>232400</v>
       </c>
       <c r="E58" s="3">
-        <v>519600</v>
+        <v>477500</v>
       </c>
       <c r="F58" s="3">
-        <v>143300</v>
+        <v>502000</v>
       </c>
       <c r="G58" s="3">
-        <v>362100</v>
+        <v>138400</v>
       </c>
       <c r="H58" s="3">
-        <v>451600</v>
+        <v>349900</v>
       </c>
       <c r="I58" s="3">
-        <v>270900</v>
+        <v>436300</v>
       </c>
       <c r="J58" s="3">
-        <v>454000</v>
+        <v>261700</v>
       </c>
       <c r="K58" s="3">
         <v>342200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>427300</v>
+        <v>498400</v>
       </c>
       <c r="E59" s="3">
-        <v>408000</v>
+        <v>412900</v>
       </c>
       <c r="F59" s="3">
-        <v>385700</v>
+        <v>394200</v>
       </c>
       <c r="G59" s="3">
-        <v>342500</v>
+        <v>372600</v>
       </c>
       <c r="H59" s="3">
-        <v>312400</v>
+        <v>330900</v>
       </c>
       <c r="I59" s="3">
-        <v>330400</v>
+        <v>301900</v>
       </c>
       <c r="J59" s="3">
-        <v>331900</v>
+        <v>319300</v>
       </c>
       <c r="K59" s="3">
         <v>332400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1260100</v>
+        <v>1192300</v>
       </c>
       <c r="E60" s="3">
-        <v>1307400</v>
+        <v>1217500</v>
       </c>
       <c r="F60" s="3">
-        <v>898100</v>
+        <v>1263200</v>
       </c>
       <c r="G60" s="3">
-        <v>1067700</v>
+        <v>867700</v>
       </c>
       <c r="H60" s="3">
-        <v>1105800</v>
+        <v>1031500</v>
       </c>
       <c r="I60" s="3">
-        <v>913300</v>
+        <v>1068400</v>
       </c>
       <c r="J60" s="3">
-        <v>1108600</v>
+        <v>882400</v>
       </c>
       <c r="K60" s="3">
         <v>990300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1309500</v>
+        <v>1446700</v>
       </c>
       <c r="E61" s="3">
-        <v>650600</v>
+        <v>1265200</v>
       </c>
       <c r="F61" s="3">
-        <v>802300</v>
+        <v>628600</v>
       </c>
       <c r="G61" s="3">
-        <v>557700</v>
+        <v>775200</v>
       </c>
       <c r="H61" s="3">
-        <v>543600</v>
+        <v>538900</v>
       </c>
       <c r="I61" s="3">
-        <v>573100</v>
+        <v>525200</v>
       </c>
       <c r="J61" s="3">
-        <v>628400</v>
+        <v>553700</v>
       </c>
       <c r="K61" s="3">
         <v>983600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>341200</v>
+        <v>366200</v>
       </c>
       <c r="E62" s="3">
-        <v>363100</v>
+        <v>329700</v>
       </c>
       <c r="F62" s="3">
-        <v>336300</v>
+        <v>350800</v>
       </c>
       <c r="G62" s="3">
-        <v>349000</v>
+        <v>324900</v>
       </c>
       <c r="H62" s="3">
-        <v>369700</v>
+        <v>337200</v>
       </c>
       <c r="I62" s="3">
-        <v>362500</v>
+        <v>357200</v>
       </c>
       <c r="J62" s="3">
-        <v>345600</v>
+        <v>350200</v>
       </c>
       <c r="K62" s="3">
         <v>328600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2911600</v>
+        <v>3006100</v>
       </c>
       <c r="E66" s="3">
-        <v>2322100</v>
+        <v>2813100</v>
       </c>
       <c r="F66" s="3">
-        <v>2037400</v>
+        <v>2243600</v>
       </c>
       <c r="G66" s="3">
-        <v>2000900</v>
+        <v>1968500</v>
       </c>
       <c r="H66" s="3">
-        <v>2041500</v>
+        <v>1933200</v>
       </c>
       <c r="I66" s="3">
-        <v>1869300</v>
+        <v>1972400</v>
       </c>
       <c r="J66" s="3">
-        <v>2102100</v>
+        <v>1806000</v>
       </c>
       <c r="K66" s="3">
         <v>2304700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2238300</v>
+        <v>2464900</v>
       </c>
       <c r="E72" s="3">
-        <v>2261400</v>
+        <v>2162600</v>
       </c>
       <c r="F72" s="3">
-        <v>2072800</v>
+        <v>2184900</v>
       </c>
       <c r="G72" s="3">
-        <v>1987200</v>
+        <v>2002700</v>
       </c>
       <c r="H72" s="3">
-        <v>1888700</v>
+        <v>1920000</v>
       </c>
       <c r="I72" s="3">
-        <v>1843800</v>
+        <v>1824800</v>
       </c>
       <c r="J72" s="3">
-        <v>1811200</v>
+        <v>1781500</v>
       </c>
       <c r="K72" s="3">
         <v>1960100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1974000</v>
+        <v>2343500</v>
       </c>
       <c r="E76" s="3">
-        <v>2344000</v>
+        <v>1907200</v>
       </c>
       <c r="F76" s="3">
-        <v>2188800</v>
+        <v>2264700</v>
       </c>
       <c r="G76" s="3">
-        <v>2131500</v>
+        <v>2114700</v>
       </c>
       <c r="H76" s="3">
-        <v>2065300</v>
+        <v>2059400</v>
       </c>
       <c r="I76" s="3">
-        <v>2299000</v>
+        <v>1995400</v>
       </c>
       <c r="J76" s="3">
-        <v>2223500</v>
+        <v>2221200</v>
       </c>
       <c r="K76" s="3">
         <v>2649600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100000</v>
+        <v>96600</v>
       </c>
       <c r="E81" s="3">
-        <v>281300</v>
+        <v>271700</v>
       </c>
       <c r="F81" s="3">
-        <v>150700</v>
+        <v>145600</v>
       </c>
       <c r="G81" s="3">
-        <v>139100</v>
+        <v>134400</v>
       </c>
       <c r="H81" s="3">
-        <v>92500</v>
+        <v>89400</v>
       </c>
       <c r="I81" s="3">
-        <v>41300</v>
+        <v>39900</v>
       </c>
       <c r="J81" s="3">
-        <v>-295500</v>
+        <v>-285500</v>
       </c>
       <c r="K81" s="3">
         <v>-45800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>275900</v>
+        <v>266500</v>
       </c>
       <c r="E83" s="3">
-        <v>269800</v>
+        <v>260700</v>
       </c>
       <c r="F83" s="3">
-        <v>210500</v>
+        <v>203400</v>
       </c>
       <c r="G83" s="3">
-        <v>214100</v>
+        <v>206800</v>
       </c>
       <c r="H83" s="3">
-        <v>216000</v>
+        <v>208700</v>
       </c>
       <c r="I83" s="3">
-        <v>227200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>229600</v>
+        <v>219500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>569800</v>
+        <v>550500</v>
       </c>
       <c r="E89" s="3">
-        <v>485300</v>
+        <v>468900</v>
       </c>
       <c r="F89" s="3">
-        <v>360700</v>
+        <v>348500</v>
       </c>
       <c r="G89" s="3">
-        <v>307500</v>
+        <v>297100</v>
       </c>
       <c r="H89" s="3">
-        <v>376900</v>
+        <v>364100</v>
       </c>
       <c r="I89" s="3">
-        <v>293900</v>
+        <v>284000</v>
       </c>
       <c r="J89" s="3">
-        <v>243300</v>
+        <v>235100</v>
       </c>
       <c r="K89" s="3">
         <v>224600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-227000</v>
+        <v>-219300</v>
       </c>
       <c r="E91" s="3">
-        <v>-288400</v>
+        <v>-278700</v>
       </c>
       <c r="F91" s="3">
-        <v>-243700</v>
+        <v>-235500</v>
       </c>
       <c r="G91" s="3">
-        <v>-184300</v>
+        <v>-178000</v>
       </c>
       <c r="H91" s="3">
-        <v>-184700</v>
+        <v>-178400</v>
       </c>
       <c r="I91" s="3">
-        <v>-166900</v>
+        <v>-161200</v>
       </c>
       <c r="J91" s="3">
-        <v>-143900</v>
+        <v>-139000</v>
       </c>
       <c r="K91" s="3">
         <v>-125400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-166900</v>
+        <v>-161300</v>
       </c>
       <c r="E94" s="3">
-        <v>-298200</v>
+        <v>-288100</v>
       </c>
       <c r="F94" s="3">
-        <v>-239000</v>
+        <v>-230900</v>
       </c>
       <c r="G94" s="3">
-        <v>-201800</v>
+        <v>-195000</v>
       </c>
       <c r="H94" s="3">
-        <v>-148000</v>
+        <v>-143000</v>
       </c>
       <c r="I94" s="3">
-        <v>-152800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-112500</v>
+        <v>-147600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-76100</v>
+        <v>-73500</v>
       </c>
       <c r="E96" s="3">
-        <v>-64700</v>
+        <v>-62500</v>
       </c>
       <c r="F96" s="3">
-        <v>-39300</v>
+        <v>-38000</v>
       </c>
       <c r="G96" s="3">
-        <v>-35700</v>
+        <v>-34400</v>
       </c>
       <c r="H96" s="3">
-        <v>-26400</v>
+        <v>-25500</v>
       </c>
       <c r="I96" s="3">
-        <v>-19800</v>
+        <v>-19100</v>
       </c>
       <c r="J96" s="3">
-        <v>-15600</v>
+        <v>-15100</v>
       </c>
       <c r="K96" s="3">
         <v>-16200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>206900</v>
+        <v>199900</v>
       </c>
       <c r="E100" s="3">
-        <v>-227200</v>
+        <v>-219500</v>
       </c>
       <c r="F100" s="3">
-        <v>-128400</v>
+        <v>-124000</v>
       </c>
       <c r="G100" s="3">
-        <v>-135700</v>
+        <v>-131100</v>
       </c>
       <c r="H100" s="3">
-        <v>-179700</v>
+        <v>-173600</v>
       </c>
       <c r="I100" s="3">
-        <v>-277800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-381200</v>
+        <v>-268400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="E101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F101" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G101" s="3">
         <v>-1300</v>
       </c>
       <c r="H101" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
-        <v>300</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>606800</v>
+        <v>586200</v>
       </c>
       <c r="E102" s="3">
-        <v>-38800</v>
+        <v>-37400</v>
       </c>
       <c r="F102" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="G102" s="3">
-        <v>-31300</v>
+        <v>-30300</v>
       </c>
       <c r="H102" s="3">
-        <v>47600</v>
+        <v>46000</v>
       </c>
       <c r="I102" s="3">
-        <v>-135800</v>
+        <v>-131300</v>
       </c>
       <c r="J102" s="3">
-        <v>-250100</v>
+        <v>-241600</v>
       </c>
       <c r="K102" s="3">
         <v>299300</v>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3659600</v>
+        <v>4121800</v>
       </c>
       <c r="E8" s="3">
-        <v>3781400</v>
+        <v>3481700</v>
       </c>
       <c r="F8" s="3">
-        <v>3605500</v>
+        <v>3597700</v>
       </c>
       <c r="G8" s="3">
-        <v>3403300</v>
+        <v>3430300</v>
       </c>
       <c r="H8" s="3">
-        <v>3244200</v>
+        <v>3237900</v>
       </c>
       <c r="I8" s="3">
-        <v>3242600</v>
+        <v>3086500</v>
       </c>
       <c r="J8" s="3">
+        <v>3085000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3092200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3132700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2586400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2248300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2363100</v>
+        <v>2628100</v>
       </c>
       <c r="E9" s="3">
-        <v>2412600</v>
+        <v>2248200</v>
       </c>
       <c r="F9" s="3">
-        <v>2341400</v>
+        <v>2295300</v>
       </c>
       <c r="G9" s="3">
-        <v>2284000</v>
+        <v>2227700</v>
       </c>
       <c r="H9" s="3">
-        <v>2194100</v>
+        <v>2173100</v>
       </c>
       <c r="I9" s="3">
-        <v>2212100</v>
+        <v>2087500</v>
       </c>
       <c r="J9" s="3">
+        <v>2104700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2164100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2220300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1823800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1527600</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1296500</v>
+        <v>1493700</v>
       </c>
       <c r="E10" s="3">
-        <v>1368800</v>
+        <v>1233500</v>
       </c>
       <c r="F10" s="3">
-        <v>1264100</v>
+        <v>1302300</v>
       </c>
       <c r="G10" s="3">
-        <v>1119300</v>
+        <v>1202700</v>
       </c>
       <c r="H10" s="3">
-        <v>1050100</v>
+        <v>1064900</v>
       </c>
       <c r="I10" s="3">
-        <v>1030400</v>
+        <v>999100</v>
       </c>
       <c r="J10" s="3">
+        <v>980400</v>
+      </c>
+      <c r="K10" s="3">
         <v>928100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>912400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>762600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>720700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>128200</v>
+        <v>20300</v>
       </c>
       <c r="E14" s="3">
-        <v>1700</v>
+        <v>121900</v>
       </c>
       <c r="F14" s="3">
-        <v>11700</v>
+        <v>1600</v>
       </c>
       <c r="G14" s="3">
-        <v>17000</v>
+        <v>11100</v>
       </c>
       <c r="H14" s="3">
-        <v>7800</v>
+        <v>16200</v>
       </c>
       <c r="I14" s="3">
-        <v>5700</v>
+        <v>7400</v>
       </c>
       <c r="J14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K14" s="3">
         <v>291300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>57900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-36000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>214500</v>
+        <v>108800</v>
       </c>
       <c r="E15" s="3">
-        <v>84800</v>
+        <v>204000</v>
       </c>
       <c r="F15" s="3">
-        <v>65500</v>
+        <v>80700</v>
       </c>
       <c r="G15" s="3">
-        <v>95600</v>
+        <v>62300</v>
       </c>
       <c r="H15" s="3">
-        <v>69900</v>
+        <v>91000</v>
       </c>
       <c r="I15" s="3">
-        <v>58400</v>
+        <v>66500</v>
       </c>
       <c r="J15" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K15" s="3">
         <v>59100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>67600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>68100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>58000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3454800</v>
+        <v>3694600</v>
       </c>
       <c r="E17" s="3">
-        <v>3387500</v>
+        <v>3287000</v>
       </c>
       <c r="F17" s="3">
-        <v>3346400</v>
+        <v>3222900</v>
       </c>
       <c r="G17" s="3">
-        <v>3208500</v>
+        <v>3183800</v>
       </c>
       <c r="H17" s="3">
-        <v>3036300</v>
+        <v>3052600</v>
       </c>
       <c r="I17" s="3">
-        <v>3065500</v>
+        <v>2888800</v>
       </c>
       <c r="J17" s="3">
+        <v>2916600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3274100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3056600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2610200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2204300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>204700</v>
+        <v>427300</v>
       </c>
       <c r="E18" s="3">
-        <v>393900</v>
+        <v>194800</v>
       </c>
       <c r="F18" s="3">
-        <v>259100</v>
+        <v>374700</v>
       </c>
       <c r="G18" s="3">
-        <v>194900</v>
+        <v>246500</v>
       </c>
       <c r="H18" s="3">
-        <v>207900</v>
+        <v>185400</v>
       </c>
       <c r="I18" s="3">
-        <v>177100</v>
+        <v>197800</v>
       </c>
       <c r="J18" s="3">
+        <v>168500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-181900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>76100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3200</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
-        <v>-7400</v>
+        <v>-3000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1800</v>
+        <v>-7100</v>
       </c>
       <c r="G20" s="3">
-        <v>5400</v>
+        <v>-1700</v>
       </c>
       <c r="H20" s="3">
-        <v>4300</v>
+        <v>5200</v>
       </c>
       <c r="I20" s="3">
-        <v>-6800</v>
+        <v>4100</v>
       </c>
       <c r="J20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K20" s="3">
         <v>13600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>51500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>71500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>472100</v>
+        <v>692800</v>
       </c>
       <c r="E21" s="3">
-        <v>651100</v>
+        <v>448500</v>
       </c>
       <c r="F21" s="3">
-        <v>463800</v>
+        <v>618900</v>
       </c>
       <c r="G21" s="3">
-        <v>410300</v>
+        <v>440800</v>
       </c>
       <c r="H21" s="3">
-        <v>424000</v>
+        <v>389800</v>
       </c>
       <c r="I21" s="3">
-        <v>393100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>402900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>373500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>241700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>331500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39300</v>
+        <v>40300</v>
       </c>
       <c r="E22" s="3">
-        <v>42500</v>
+        <v>37400</v>
       </c>
       <c r="F22" s="3">
-        <v>44200</v>
+        <v>40500</v>
       </c>
       <c r="G22" s="3">
-        <v>42200</v>
+        <v>42100</v>
       </c>
       <c r="H22" s="3">
-        <v>39200</v>
+        <v>40200</v>
       </c>
       <c r="I22" s="3">
-        <v>53600</v>
+        <v>37300</v>
       </c>
       <c r="J22" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K22" s="3">
         <v>66600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>75100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>67400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>162300</v>
+        <v>388500</v>
       </c>
       <c r="E23" s="3">
-        <v>343900</v>
+        <v>154400</v>
       </c>
       <c r="F23" s="3">
-        <v>213100</v>
+        <v>327200</v>
       </c>
       <c r="G23" s="3">
-        <v>158000</v>
+        <v>202700</v>
       </c>
       <c r="H23" s="3">
-        <v>173000</v>
+        <v>150400</v>
       </c>
       <c r="I23" s="3">
-        <v>116700</v>
+        <v>164600</v>
       </c>
       <c r="J23" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-234900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-39700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>55700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53300</v>
+        <v>64600</v>
       </c>
       <c r="E24" s="3">
-        <v>57300</v>
+        <v>50700</v>
       </c>
       <c r="F24" s="3">
-        <v>52900</v>
+        <v>54500</v>
       </c>
       <c r="G24" s="3">
-        <v>4600</v>
+        <v>50300</v>
       </c>
       <c r="H24" s="3">
-        <v>47200</v>
+        <v>4400</v>
       </c>
       <c r="I24" s="3">
-        <v>40600</v>
+        <v>44900</v>
       </c>
       <c r="J24" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K24" s="3">
         <v>15600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>109000</v>
+        <v>323900</v>
       </c>
       <c r="E26" s="3">
-        <v>286700</v>
+        <v>103700</v>
       </c>
       <c r="F26" s="3">
-        <v>160200</v>
+        <v>272700</v>
       </c>
       <c r="G26" s="3">
-        <v>153400</v>
+        <v>152400</v>
       </c>
       <c r="H26" s="3">
-        <v>125800</v>
+        <v>146000</v>
       </c>
       <c r="I26" s="3">
-        <v>76200</v>
+        <v>119700</v>
       </c>
       <c r="J26" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-250500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-44500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>96600</v>
+        <v>322500</v>
       </c>
       <c r="E27" s="3">
-        <v>271700</v>
+        <v>91900</v>
       </c>
       <c r="F27" s="3">
-        <v>145600</v>
+        <v>258500</v>
       </c>
       <c r="G27" s="3">
-        <v>134400</v>
+        <v>138600</v>
       </c>
       <c r="H27" s="3">
-        <v>89400</v>
+        <v>127800</v>
       </c>
       <c r="I27" s="3">
-        <v>39900</v>
+        <v>85100</v>
       </c>
       <c r="J27" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-285500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-77200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3200</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
-        <v>7400</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="3">
-        <v>1800</v>
+        <v>7100</v>
       </c>
       <c r="G32" s="3">
-        <v>-5400</v>
+        <v>1700</v>
       </c>
       <c r="H32" s="3">
-        <v>-4300</v>
+        <v>-5200</v>
       </c>
       <c r="I32" s="3">
-        <v>6800</v>
+        <v>-4100</v>
       </c>
       <c r="J32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-51500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-71500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>96600</v>
+        <v>322500</v>
       </c>
       <c r="E33" s="3">
-        <v>271700</v>
+        <v>91900</v>
       </c>
       <c r="F33" s="3">
-        <v>145600</v>
+        <v>258500</v>
       </c>
       <c r="G33" s="3">
-        <v>134400</v>
+        <v>138600</v>
       </c>
       <c r="H33" s="3">
-        <v>89400</v>
+        <v>127800</v>
       </c>
       <c r="I33" s="3">
-        <v>39900</v>
+        <v>85100</v>
       </c>
       <c r="J33" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-285500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-77200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>96600</v>
+        <v>322500</v>
       </c>
       <c r="E35" s="3">
-        <v>271700</v>
+        <v>91900</v>
       </c>
       <c r="F35" s="3">
-        <v>145600</v>
+        <v>258500</v>
       </c>
       <c r="G35" s="3">
-        <v>134400</v>
+        <v>138600</v>
       </c>
       <c r="H35" s="3">
-        <v>89400</v>
+        <v>127800</v>
       </c>
       <c r="I35" s="3">
-        <v>39900</v>
+        <v>85100</v>
       </c>
       <c r="J35" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-285500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-77200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>397400</v>
+        <v>378100</v>
       </c>
       <c r="E41" s="3">
-        <v>726700</v>
+        <v>691400</v>
       </c>
       <c r="F41" s="3">
-        <v>140500</v>
+        <v>133600</v>
       </c>
       <c r="G41" s="3">
-        <v>177900</v>
+        <v>169300</v>
       </c>
       <c r="H41" s="3">
-        <v>184600</v>
+        <v>175700</v>
       </c>
       <c r="I41" s="3">
-        <v>214900</v>
+        <v>204500</v>
       </c>
       <c r="J41" s="3">
+        <v>160700</v>
+      </c>
+      <c r="K41" s="3">
         <v>169000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>584300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>266000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1167700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44000</v>
+        <v>6500</v>
       </c>
       <c r="E42" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="F42" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G42" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="H42" s="3">
-        <v>86200</v>
+        <v>82000</v>
       </c>
       <c r="I42" s="3">
-        <v>57500</v>
+        <v>54700</v>
       </c>
       <c r="J42" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K42" s="3">
         <v>63700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>107600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>79600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>100300</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>515700</v>
+        <v>521200</v>
       </c>
       <c r="E43" s="3">
-        <v>369700</v>
+        <v>351700</v>
       </c>
       <c r="F43" s="3">
-        <v>383700</v>
+        <v>365000</v>
       </c>
       <c r="G43" s="3">
-        <v>370400</v>
+        <v>352400</v>
       </c>
       <c r="H43" s="3">
-        <v>323700</v>
+        <v>308000</v>
       </c>
       <c r="I43" s="3">
-        <v>286900</v>
+        <v>273000</v>
       </c>
       <c r="J43" s="3">
+        <v>271800</v>
+      </c>
+      <c r="K43" s="3">
         <v>285600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>331300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>296800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>203800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>963600</v>
+        <v>916800</v>
       </c>
       <c r="E44" s="3">
-        <v>795300</v>
+        <v>756700</v>
       </c>
       <c r="F44" s="3">
-        <v>902800</v>
+        <v>858900</v>
       </c>
       <c r="G44" s="3">
-        <v>830900</v>
+        <v>790500</v>
       </c>
       <c r="H44" s="3">
-        <v>809000</v>
+        <v>769700</v>
       </c>
       <c r="I44" s="3">
-        <v>783700</v>
+        <v>745600</v>
       </c>
       <c r="J44" s="3">
+        <v>781800</v>
+      </c>
+      <c r="K44" s="3">
         <v>821800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>783500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>766600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>674800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>4700</v>
       </c>
       <c r="E45" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="F45" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="G45" s="3">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="H45" s="3">
-        <v>24800</v>
+        <v>23600</v>
       </c>
       <c r="I45" s="3">
-        <v>22200</v>
+        <v>21100</v>
       </c>
       <c r="J45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K45" s="3">
         <v>14900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1920700</v>
+        <v>1827300</v>
       </c>
       <c r="E46" s="3">
-        <v>1911800</v>
+        <v>1818900</v>
       </c>
       <c r="F46" s="3">
-        <v>1437700</v>
+        <v>1367900</v>
       </c>
       <c r="G46" s="3">
-        <v>1396300</v>
+        <v>1328500</v>
       </c>
       <c r="H46" s="3">
-        <v>1428400</v>
+        <v>1359000</v>
       </c>
       <c r="I46" s="3">
-        <v>1365200</v>
+        <v>1298900</v>
       </c>
       <c r="J46" s="3">
+        <v>1289200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1355000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1822100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1426800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1570600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>43900</v>
+        <v>41800</v>
       </c>
       <c r="E47" s="3">
-        <v>68000</v>
+        <v>64700</v>
       </c>
       <c r="F47" s="3">
-        <v>56900</v>
+        <v>54100</v>
       </c>
       <c r="G47" s="3">
-        <v>57300</v>
+        <v>54500</v>
       </c>
       <c r="H47" s="3">
-        <v>30600</v>
+        <v>29100</v>
       </c>
       <c r="I47" s="3">
-        <v>30000</v>
+        <v>28500</v>
       </c>
       <c r="J47" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K47" s="3">
         <v>25300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>37700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>161400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2356400</v>
+        <v>2241900</v>
       </c>
       <c r="E48" s="3">
-        <v>1969800</v>
+        <v>1874100</v>
       </c>
       <c r="F48" s="3">
-        <v>2116900</v>
+        <v>2014000</v>
       </c>
       <c r="G48" s="3">
-        <v>1791600</v>
+        <v>1704500</v>
       </c>
       <c r="H48" s="3">
-        <v>1731800</v>
+        <v>1647700</v>
       </c>
       <c r="I48" s="3">
-        <v>1800500</v>
+        <v>1713000</v>
       </c>
       <c r="J48" s="3">
+        <v>1771200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1861600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2048900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2069000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4133600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>935300</v>
+        <v>889900</v>
       </c>
       <c r="E49" s="3">
-        <v>704300</v>
+        <v>670000</v>
       </c>
       <c r="F49" s="3">
-        <v>829500</v>
+        <v>789200</v>
       </c>
       <c r="G49" s="3">
-        <v>777500</v>
+        <v>739700</v>
       </c>
       <c r="H49" s="3">
-        <v>753700</v>
+        <v>717100</v>
       </c>
       <c r="I49" s="3">
-        <v>753200</v>
+        <v>716600</v>
       </c>
       <c r="J49" s="3">
+        <v>728000</v>
+      </c>
+      <c r="K49" s="3">
         <v>765200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>991600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>968500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1595300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93200</v>
+        <v>88700</v>
       </c>
       <c r="E52" s="3">
-        <v>66400</v>
+        <v>63200</v>
       </c>
       <c r="F52" s="3">
-        <v>67300</v>
+        <v>64000</v>
       </c>
       <c r="G52" s="3">
-        <v>60500</v>
+        <v>57500</v>
       </c>
       <c r="H52" s="3">
-        <v>48100</v>
+        <v>45700</v>
       </c>
       <c r="I52" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="J52" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K52" s="3">
         <v>20200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5349600</v>
+        <v>5089600</v>
       </c>
       <c r="E54" s="3">
-        <v>4720400</v>
+        <v>4491000</v>
       </c>
       <c r="F54" s="3">
-        <v>4508300</v>
+        <v>4289200</v>
       </c>
       <c r="G54" s="3">
-        <v>4083200</v>
+        <v>3884800</v>
       </c>
       <c r="H54" s="3">
-        <v>3992600</v>
+        <v>3798600</v>
       </c>
       <c r="I54" s="3">
-        <v>3967800</v>
+        <v>3775000</v>
       </c>
       <c r="J54" s="3">
+        <v>3831600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4027200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4954200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4545400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4685100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>461500</v>
+        <v>439100</v>
       </c>
       <c r="E57" s="3">
-        <v>327100</v>
+        <v>311200</v>
       </c>
       <c r="F57" s="3">
-        <v>367000</v>
+        <v>349200</v>
       </c>
       <c r="G57" s="3">
-        <v>356600</v>
+        <v>339300</v>
       </c>
       <c r="H57" s="3">
-        <v>350800</v>
+        <v>333700</v>
       </c>
       <c r="I57" s="3">
-        <v>330200</v>
+        <v>314200</v>
       </c>
       <c r="J57" s="3">
+        <v>286800</v>
+      </c>
+      <c r="K57" s="3">
         <v>301400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>315700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>278000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>442200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>232400</v>
+        <v>221100</v>
       </c>
       <c r="E58" s="3">
-        <v>477500</v>
+        <v>454300</v>
       </c>
       <c r="F58" s="3">
-        <v>502000</v>
+        <v>477700</v>
       </c>
       <c r="G58" s="3">
-        <v>138400</v>
+        <v>131700</v>
       </c>
       <c r="H58" s="3">
-        <v>349900</v>
+        <v>332900</v>
       </c>
       <c r="I58" s="3">
-        <v>436300</v>
+        <v>415100</v>
       </c>
       <c r="J58" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K58" s="3">
         <v>261700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>342200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>63800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>987600</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>498400</v>
+        <v>474200</v>
       </c>
       <c r="E59" s="3">
-        <v>412900</v>
+        <v>392800</v>
       </c>
       <c r="F59" s="3">
-        <v>394200</v>
+        <v>375000</v>
       </c>
       <c r="G59" s="3">
-        <v>372600</v>
+        <v>354500</v>
       </c>
       <c r="H59" s="3">
-        <v>330900</v>
+        <v>314800</v>
       </c>
       <c r="I59" s="3">
-        <v>301900</v>
+        <v>287200</v>
       </c>
       <c r="J59" s="3">
+        <v>303700</v>
+      </c>
+      <c r="K59" s="3">
         <v>319300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>332400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>335000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>231300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1192300</v>
+        <v>1134300</v>
       </c>
       <c r="E60" s="3">
-        <v>1217500</v>
+        <v>1158300</v>
       </c>
       <c r="F60" s="3">
-        <v>1263200</v>
+        <v>1201800</v>
       </c>
       <c r="G60" s="3">
-        <v>867700</v>
+        <v>825500</v>
       </c>
       <c r="H60" s="3">
-        <v>1031500</v>
+        <v>981400</v>
       </c>
       <c r="I60" s="3">
-        <v>1068400</v>
+        <v>1016500</v>
       </c>
       <c r="J60" s="3">
+        <v>839500</v>
+      </c>
+      <c r="K60" s="3">
         <v>882400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>990300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>676700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>946200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1446700</v>
+        <v>1376400</v>
       </c>
       <c r="E61" s="3">
-        <v>1265200</v>
+        <v>1203800</v>
       </c>
       <c r="F61" s="3">
-        <v>628600</v>
+        <v>598100</v>
       </c>
       <c r="G61" s="3">
-        <v>775200</v>
+        <v>737500</v>
       </c>
       <c r="H61" s="3">
-        <v>538900</v>
+        <v>512700</v>
       </c>
       <c r="I61" s="3">
-        <v>525200</v>
+        <v>499700</v>
       </c>
       <c r="J61" s="3">
+        <v>526800</v>
+      </c>
+      <c r="K61" s="3">
         <v>553700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>983600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>942900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>603200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>366200</v>
+        <v>348400</v>
       </c>
       <c r="E62" s="3">
-        <v>329700</v>
+        <v>313600</v>
       </c>
       <c r="F62" s="3">
-        <v>350800</v>
+        <v>333700</v>
       </c>
       <c r="G62" s="3">
-        <v>324900</v>
+        <v>309200</v>
       </c>
       <c r="H62" s="3">
-        <v>337200</v>
+        <v>320800</v>
       </c>
       <c r="I62" s="3">
-        <v>357200</v>
+        <v>339800</v>
       </c>
       <c r="J62" s="3">
+        <v>333200</v>
+      </c>
+      <c r="K62" s="3">
         <v>350200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>328600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>330500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>387900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3006100</v>
+        <v>2860100</v>
       </c>
       <c r="E66" s="3">
-        <v>2813100</v>
+        <v>2676400</v>
       </c>
       <c r="F66" s="3">
-        <v>2243600</v>
+        <v>2134500</v>
       </c>
       <c r="G66" s="3">
-        <v>1968500</v>
+        <v>1872800</v>
       </c>
       <c r="H66" s="3">
-        <v>1933200</v>
+        <v>1839300</v>
       </c>
       <c r="I66" s="3">
-        <v>1972400</v>
+        <v>1876600</v>
       </c>
       <c r="J66" s="3">
+        <v>1718300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1806000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2304700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1953800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1835600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2464900</v>
+        <v>2345100</v>
       </c>
       <c r="E72" s="3">
-        <v>2162600</v>
+        <v>2057500</v>
       </c>
       <c r="F72" s="3">
-        <v>2184900</v>
+        <v>2078700</v>
       </c>
       <c r="G72" s="3">
-        <v>2002700</v>
+        <v>1905400</v>
       </c>
       <c r="H72" s="3">
-        <v>1920000</v>
+        <v>1826700</v>
       </c>
       <c r="I72" s="3">
-        <v>1824800</v>
+        <v>1736100</v>
       </c>
       <c r="J72" s="3">
+        <v>1694900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1781500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1960100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2183900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2222600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2343500</v>
+        <v>2229600</v>
       </c>
       <c r="E76" s="3">
-        <v>1907200</v>
+        <v>1814600</v>
       </c>
       <c r="F76" s="3">
-        <v>2264700</v>
+        <v>2154700</v>
       </c>
       <c r="G76" s="3">
-        <v>2114700</v>
+        <v>2012000</v>
       </c>
       <c r="H76" s="3">
-        <v>2059400</v>
+        <v>1959300</v>
       </c>
       <c r="I76" s="3">
-        <v>1995400</v>
+        <v>1898400</v>
       </c>
       <c r="J76" s="3">
+        <v>2113300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2221200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2649600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2591600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2849500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>96600</v>
+        <v>322500</v>
       </c>
       <c r="E81" s="3">
-        <v>271700</v>
+        <v>91900</v>
       </c>
       <c r="F81" s="3">
-        <v>145600</v>
+        <v>258500</v>
       </c>
       <c r="G81" s="3">
-        <v>134400</v>
+        <v>138600</v>
       </c>
       <c r="H81" s="3">
-        <v>89400</v>
+        <v>127800</v>
       </c>
       <c r="I81" s="3">
-        <v>39900</v>
+        <v>85100</v>
       </c>
       <c r="J81" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-285500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-77200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>266500</v>
+        <v>260800</v>
       </c>
       <c r="E83" s="3">
-        <v>260700</v>
+        <v>253600</v>
       </c>
       <c r="F83" s="3">
-        <v>203400</v>
+        <v>248000</v>
       </c>
       <c r="G83" s="3">
-        <v>206800</v>
+        <v>193500</v>
       </c>
       <c r="H83" s="3">
-        <v>208700</v>
+        <v>196800</v>
       </c>
       <c r="I83" s="3">
-        <v>219500</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>198600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>208800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>213700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>215900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>550500</v>
+        <v>529900</v>
       </c>
       <c r="E89" s="3">
-        <v>468900</v>
+        <v>523800</v>
       </c>
       <c r="F89" s="3">
-        <v>348500</v>
+        <v>446100</v>
       </c>
       <c r="G89" s="3">
-        <v>297100</v>
+        <v>331500</v>
       </c>
       <c r="H89" s="3">
-        <v>364100</v>
+        <v>282700</v>
       </c>
       <c r="I89" s="3">
-        <v>284000</v>
+        <v>346400</v>
       </c>
       <c r="J89" s="3">
+        <v>270200</v>
+      </c>
+      <c r="K89" s="3">
         <v>235100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>224600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>252000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>192500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-219300</v>
+        <v>-290400</v>
       </c>
       <c r="E91" s="3">
-        <v>-278700</v>
+        <v>-208700</v>
       </c>
       <c r="F91" s="3">
-        <v>-235500</v>
+        <v>-265100</v>
       </c>
       <c r="G91" s="3">
-        <v>-178000</v>
+        <v>-224000</v>
       </c>
       <c r="H91" s="3">
-        <v>-178400</v>
+        <v>-169400</v>
       </c>
       <c r="I91" s="3">
-        <v>-161200</v>
+        <v>-169800</v>
       </c>
       <c r="J91" s="3">
+        <v>-153400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-139000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-125400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-133900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-135200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-161300</v>
+        <v>-692000</v>
       </c>
       <c r="E94" s="3">
-        <v>-288100</v>
+        <v>-153400</v>
       </c>
       <c r="F94" s="3">
-        <v>-230900</v>
+        <v>-274100</v>
       </c>
       <c r="G94" s="3">
-        <v>-195000</v>
+        <v>-219700</v>
       </c>
       <c r="H94" s="3">
-        <v>-143000</v>
+        <v>-185500</v>
       </c>
       <c r="I94" s="3">
-        <v>-147600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-136100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-140400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-251800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-73500</v>
+        <v>-69900</v>
       </c>
       <c r="E96" s="3">
-        <v>-62500</v>
+        <v>-69900</v>
       </c>
       <c r="F96" s="3">
-        <v>-38000</v>
+        <v>-59500</v>
       </c>
       <c r="G96" s="3">
-        <v>-34400</v>
+        <v>-36100</v>
       </c>
       <c r="H96" s="3">
-        <v>-25500</v>
+        <v>-32800</v>
       </c>
       <c r="I96" s="3">
-        <v>-19100</v>
+        <v>-24300</v>
       </c>
       <c r="J96" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-15100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-13800</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>199900</v>
+        <v>-153200</v>
       </c>
       <c r="E100" s="3">
-        <v>-219500</v>
+        <v>190200</v>
       </c>
       <c r="F100" s="3">
-        <v>-124000</v>
+        <v>-208900</v>
       </c>
       <c r="G100" s="3">
-        <v>-131100</v>
+        <v>-118000</v>
       </c>
       <c r="H100" s="3">
-        <v>-173600</v>
+        <v>-124800</v>
       </c>
       <c r="I100" s="3">
-        <v>-268400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-165200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-255400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-273000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2900</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H101" s="3">
-        <v>-1500</v>
+        <v>-1200</v>
       </c>
       <c r="I101" s="3">
-        <v>800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>-1400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>586200</v>
+        <v>-313300</v>
       </c>
       <c r="E102" s="3">
-        <v>-37400</v>
+        <v>557800</v>
       </c>
       <c r="F102" s="3">
-        <v>-6700</v>
+        <v>-35600</v>
       </c>
       <c r="G102" s="3">
-        <v>-30300</v>
+        <v>-6400</v>
       </c>
       <c r="H102" s="3">
-        <v>46000</v>
+        <v>-28800</v>
       </c>
       <c r="I102" s="3">
-        <v>-131300</v>
+        <v>43700</v>
       </c>
       <c r="J102" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-241600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>299300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-272400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>61400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4121800</v>
+        <v>3961000</v>
       </c>
       <c r="E8" s="3">
-        <v>3481700</v>
+        <v>3345900</v>
       </c>
       <c r="F8" s="3">
-        <v>3597700</v>
+        <v>3457300</v>
       </c>
       <c r="G8" s="3">
-        <v>3430300</v>
+        <v>3296500</v>
       </c>
       <c r="H8" s="3">
-        <v>3237900</v>
+        <v>3111600</v>
       </c>
       <c r="I8" s="3">
-        <v>3086500</v>
+        <v>2966100</v>
       </c>
       <c r="J8" s="3">
-        <v>3085000</v>
+        <v>2964600</v>
       </c>
       <c r="K8" s="3">
         <v>3092200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2628100</v>
+        <v>2525500</v>
       </c>
       <c r="E9" s="3">
-        <v>2248200</v>
+        <v>2160500</v>
       </c>
       <c r="F9" s="3">
-        <v>2295300</v>
+        <v>2205800</v>
       </c>
       <c r="G9" s="3">
-        <v>2227700</v>
+        <v>2140700</v>
       </c>
       <c r="H9" s="3">
-        <v>2173100</v>
+        <v>2088300</v>
       </c>
       <c r="I9" s="3">
-        <v>2087500</v>
+        <v>2006000</v>
       </c>
       <c r="J9" s="3">
-        <v>2104700</v>
+        <v>2022500</v>
       </c>
       <c r="K9" s="3">
         <v>2164100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1493700</v>
+        <v>1435500</v>
       </c>
       <c r="E10" s="3">
-        <v>1233500</v>
+        <v>1185400</v>
       </c>
       <c r="F10" s="3">
-        <v>1302300</v>
+        <v>1251500</v>
       </c>
       <c r="G10" s="3">
-        <v>1202700</v>
+        <v>1155700</v>
       </c>
       <c r="H10" s="3">
-        <v>1064900</v>
+        <v>1023300</v>
       </c>
       <c r="I10" s="3">
-        <v>999100</v>
+        <v>960100</v>
       </c>
       <c r="J10" s="3">
-        <v>980400</v>
+        <v>942100</v>
       </c>
       <c r="K10" s="3">
         <v>928100</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20300</v>
+        <v>19500</v>
       </c>
       <c r="E14" s="3">
-        <v>121900</v>
+        <v>117200</v>
       </c>
       <c r="F14" s="3">
         <v>1600</v>
       </c>
       <c r="G14" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="H14" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="I14" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="J14" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K14" s="3">
         <v>291300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>108800</v>
+        <v>104600</v>
       </c>
       <c r="E15" s="3">
-        <v>204000</v>
+        <v>196100</v>
       </c>
       <c r="F15" s="3">
-        <v>80700</v>
+        <v>77500</v>
       </c>
       <c r="G15" s="3">
-        <v>62300</v>
+        <v>59900</v>
       </c>
       <c r="H15" s="3">
-        <v>91000</v>
+        <v>87400</v>
       </c>
       <c r="I15" s="3">
-        <v>66500</v>
+        <v>63900</v>
       </c>
       <c r="J15" s="3">
-        <v>55600</v>
+        <v>53400</v>
       </c>
       <c r="K15" s="3">
         <v>59100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3694600</v>
+        <v>3550400</v>
       </c>
       <c r="E17" s="3">
-        <v>3287000</v>
+        <v>3158700</v>
       </c>
       <c r="F17" s="3">
-        <v>3222900</v>
+        <v>3097100</v>
       </c>
       <c r="G17" s="3">
-        <v>3183800</v>
+        <v>3059600</v>
       </c>
       <c r="H17" s="3">
-        <v>3052600</v>
+        <v>2933400</v>
       </c>
       <c r="I17" s="3">
-        <v>2888800</v>
+        <v>2776000</v>
       </c>
       <c r="J17" s="3">
-        <v>2916600</v>
+        <v>2802700</v>
       </c>
       <c r="K17" s="3">
         <v>3274100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>427300</v>
+        <v>410600</v>
       </c>
       <c r="E18" s="3">
-        <v>194800</v>
+        <v>187200</v>
       </c>
       <c r="F18" s="3">
-        <v>374700</v>
+        <v>360100</v>
       </c>
       <c r="G18" s="3">
-        <v>246500</v>
+        <v>236900</v>
       </c>
       <c r="H18" s="3">
-        <v>185400</v>
+        <v>178100</v>
       </c>
       <c r="I18" s="3">
-        <v>197800</v>
+        <v>190100</v>
       </c>
       <c r="J18" s="3">
-        <v>168500</v>
+        <v>161900</v>
       </c>
       <c r="K18" s="3">
         <v>-181900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="F20" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H20" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J20" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="K20" s="3">
         <v>13600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>692800</v>
+        <v>662400</v>
       </c>
       <c r="E21" s="3">
-        <v>448500</v>
+        <v>427700</v>
       </c>
       <c r="F21" s="3">
-        <v>618900</v>
+        <v>591500</v>
       </c>
       <c r="G21" s="3">
-        <v>440800</v>
+        <v>421100</v>
       </c>
       <c r="H21" s="3">
-        <v>389800</v>
+        <v>372100</v>
       </c>
       <c r="I21" s="3">
-        <v>402900</v>
+        <v>384600</v>
       </c>
       <c r="J21" s="3">
-        <v>373500</v>
+        <v>356200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40300</v>
+        <v>38700</v>
       </c>
       <c r="E22" s="3">
-        <v>37400</v>
+        <v>35900</v>
       </c>
       <c r="F22" s="3">
-        <v>40500</v>
+        <v>38900</v>
       </c>
       <c r="G22" s="3">
-        <v>42100</v>
+        <v>40400</v>
       </c>
       <c r="H22" s="3">
-        <v>40200</v>
+        <v>38600</v>
       </c>
       <c r="I22" s="3">
-        <v>37300</v>
+        <v>35800</v>
       </c>
       <c r="J22" s="3">
-        <v>50900</v>
+        <v>49000</v>
       </c>
       <c r="K22" s="3">
         <v>66600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>388500</v>
+        <v>373300</v>
       </c>
       <c r="E23" s="3">
-        <v>154400</v>
+        <v>148400</v>
       </c>
       <c r="F23" s="3">
-        <v>327200</v>
+        <v>314500</v>
       </c>
       <c r="G23" s="3">
-        <v>202700</v>
+        <v>194800</v>
       </c>
       <c r="H23" s="3">
-        <v>150400</v>
+        <v>144500</v>
       </c>
       <c r="I23" s="3">
-        <v>164600</v>
+        <v>158100</v>
       </c>
       <c r="J23" s="3">
-        <v>111100</v>
+        <v>106700</v>
       </c>
       <c r="K23" s="3">
         <v>-234900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>64600</v>
+        <v>62000</v>
       </c>
       <c r="E24" s="3">
-        <v>50700</v>
+        <v>48700</v>
       </c>
       <c r="F24" s="3">
-        <v>54500</v>
+        <v>52400</v>
       </c>
       <c r="G24" s="3">
-        <v>50300</v>
+        <v>48300</v>
       </c>
       <c r="H24" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I24" s="3">
-        <v>44900</v>
+        <v>43100</v>
       </c>
       <c r="J24" s="3">
-        <v>38600</v>
+        <v>37100</v>
       </c>
       <c r="K24" s="3">
         <v>15600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>323900</v>
+        <v>311300</v>
       </c>
       <c r="E26" s="3">
-        <v>103700</v>
+        <v>99700</v>
       </c>
       <c r="F26" s="3">
-        <v>272700</v>
+        <v>262100</v>
       </c>
       <c r="G26" s="3">
-        <v>152400</v>
+        <v>146500</v>
       </c>
       <c r="H26" s="3">
-        <v>146000</v>
+        <v>140300</v>
       </c>
       <c r="I26" s="3">
-        <v>119700</v>
+        <v>115000</v>
       </c>
       <c r="J26" s="3">
-        <v>72500</v>
+        <v>69600</v>
       </c>
       <c r="K26" s="3">
         <v>-250500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>322500</v>
+        <v>309900</v>
       </c>
       <c r="E27" s="3">
-        <v>91900</v>
+        <v>88300</v>
       </c>
       <c r="F27" s="3">
-        <v>258500</v>
+        <v>248500</v>
       </c>
       <c r="G27" s="3">
-        <v>138600</v>
+        <v>133200</v>
       </c>
       <c r="H27" s="3">
-        <v>127800</v>
+        <v>122900</v>
       </c>
       <c r="I27" s="3">
-        <v>85100</v>
+        <v>81800</v>
       </c>
       <c r="J27" s="3">
-        <v>37900</v>
+        <v>36400</v>
       </c>
       <c r="K27" s="3">
         <v>-285500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E32" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F32" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="G32" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H32" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="I32" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="J32" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="K32" s="3">
         <v>-13600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>322500</v>
+        <v>309900</v>
       </c>
       <c r="E33" s="3">
-        <v>91900</v>
+        <v>88300</v>
       </c>
       <c r="F33" s="3">
-        <v>258500</v>
+        <v>248500</v>
       </c>
       <c r="G33" s="3">
-        <v>138600</v>
+        <v>133200</v>
       </c>
       <c r="H33" s="3">
-        <v>127800</v>
+        <v>122900</v>
       </c>
       <c r="I33" s="3">
-        <v>85100</v>
+        <v>81800</v>
       </c>
       <c r="J33" s="3">
-        <v>37900</v>
+        <v>36400</v>
       </c>
       <c r="K33" s="3">
         <v>-285500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>322500</v>
+        <v>309900</v>
       </c>
       <c r="E35" s="3">
-        <v>91900</v>
+        <v>88300</v>
       </c>
       <c r="F35" s="3">
-        <v>258500</v>
+        <v>248500</v>
       </c>
       <c r="G35" s="3">
-        <v>138600</v>
+        <v>133200</v>
       </c>
       <c r="H35" s="3">
-        <v>127800</v>
+        <v>122900</v>
       </c>
       <c r="I35" s="3">
-        <v>85100</v>
+        <v>81800</v>
       </c>
       <c r="J35" s="3">
-        <v>37900</v>
+        <v>36400</v>
       </c>
       <c r="K35" s="3">
         <v>-285500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>378100</v>
+        <v>363400</v>
       </c>
       <c r="E41" s="3">
-        <v>691400</v>
+        <v>664400</v>
       </c>
       <c r="F41" s="3">
-        <v>133600</v>
+        <v>128400</v>
       </c>
       <c r="G41" s="3">
-        <v>169300</v>
+        <v>162700</v>
       </c>
       <c r="H41" s="3">
-        <v>175700</v>
+        <v>168800</v>
       </c>
       <c r="I41" s="3">
-        <v>204500</v>
+        <v>196500</v>
       </c>
       <c r="J41" s="3">
-        <v>160700</v>
+        <v>154500</v>
       </c>
       <c r="K41" s="3">
         <v>169000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E42" s="3">
         <v>6500</v>
       </c>
-      <c r="E42" s="3">
-        <v>6800</v>
-      </c>
       <c r="F42" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="G42" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="H42" s="3">
-        <v>82000</v>
+        <v>78800</v>
       </c>
       <c r="I42" s="3">
-        <v>54700</v>
+        <v>52600</v>
       </c>
       <c r="J42" s="3">
-        <v>60600</v>
+        <v>58300</v>
       </c>
       <c r="K42" s="3">
         <v>63700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>521200</v>
+        <v>500900</v>
       </c>
       <c r="E43" s="3">
-        <v>351700</v>
+        <v>338000</v>
       </c>
       <c r="F43" s="3">
-        <v>365000</v>
+        <v>350800</v>
       </c>
       <c r="G43" s="3">
-        <v>352400</v>
+        <v>338600</v>
       </c>
       <c r="H43" s="3">
-        <v>308000</v>
+        <v>296000</v>
       </c>
       <c r="I43" s="3">
-        <v>273000</v>
+        <v>262300</v>
       </c>
       <c r="J43" s="3">
-        <v>271800</v>
+        <v>261200</v>
       </c>
       <c r="K43" s="3">
         <v>285600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>916800</v>
+        <v>881000</v>
       </c>
       <c r="E44" s="3">
-        <v>756700</v>
+        <v>727100</v>
       </c>
       <c r="F44" s="3">
-        <v>858900</v>
+        <v>825400</v>
       </c>
       <c r="G44" s="3">
-        <v>790500</v>
+        <v>759700</v>
       </c>
       <c r="H44" s="3">
-        <v>769700</v>
+        <v>739700</v>
       </c>
       <c r="I44" s="3">
-        <v>745600</v>
+        <v>716500</v>
       </c>
       <c r="J44" s="3">
-        <v>781800</v>
+        <v>751300</v>
       </c>
       <c r="K44" s="3">
         <v>821800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E45" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="F45" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G45" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="H45" s="3">
-        <v>23600</v>
+        <v>22700</v>
       </c>
       <c r="I45" s="3">
-        <v>21100</v>
+        <v>20300</v>
       </c>
       <c r="J45" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="K45" s="3">
         <v>14900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1827300</v>
+        <v>1756000</v>
       </c>
       <c r="E46" s="3">
-        <v>1818900</v>
+        <v>1747900</v>
       </c>
       <c r="F46" s="3">
-        <v>1367900</v>
+        <v>1314500</v>
       </c>
       <c r="G46" s="3">
-        <v>1328500</v>
+        <v>1276600</v>
       </c>
       <c r="H46" s="3">
-        <v>1359000</v>
+        <v>1305900</v>
       </c>
       <c r="I46" s="3">
-        <v>1298900</v>
+        <v>1248200</v>
       </c>
       <c r="J46" s="3">
-        <v>1289200</v>
+        <v>1238900</v>
       </c>
       <c r="K46" s="3">
         <v>1355000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41800</v>
+        <v>40200</v>
       </c>
       <c r="E47" s="3">
-        <v>64700</v>
+        <v>62200</v>
       </c>
       <c r="F47" s="3">
-        <v>54100</v>
+        <v>52000</v>
       </c>
       <c r="G47" s="3">
-        <v>54500</v>
+        <v>52400</v>
       </c>
       <c r="H47" s="3">
-        <v>29100</v>
+        <v>28000</v>
       </c>
       <c r="I47" s="3">
-        <v>28500</v>
+        <v>27400</v>
       </c>
       <c r="J47" s="3">
-        <v>24000</v>
+        <v>23100</v>
       </c>
       <c r="K47" s="3">
         <v>25300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2241900</v>
+        <v>2154400</v>
       </c>
       <c r="E48" s="3">
-        <v>1874100</v>
+        <v>1801000</v>
       </c>
       <c r="F48" s="3">
-        <v>2014000</v>
+        <v>1935400</v>
       </c>
       <c r="G48" s="3">
-        <v>1704500</v>
+        <v>1638000</v>
       </c>
       <c r="H48" s="3">
-        <v>1647700</v>
+        <v>1583400</v>
       </c>
       <c r="I48" s="3">
-        <v>1713000</v>
+        <v>1646200</v>
       </c>
       <c r="J48" s="3">
-        <v>1771200</v>
+        <v>1702100</v>
       </c>
       <c r="K48" s="3">
         <v>1861600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>889900</v>
+        <v>855100</v>
       </c>
       <c r="E49" s="3">
-        <v>670000</v>
+        <v>643900</v>
       </c>
       <c r="F49" s="3">
-        <v>789200</v>
+        <v>758400</v>
       </c>
       <c r="G49" s="3">
-        <v>739700</v>
+        <v>710900</v>
       </c>
       <c r="H49" s="3">
-        <v>717100</v>
+        <v>689100</v>
       </c>
       <c r="I49" s="3">
-        <v>716600</v>
+        <v>688600</v>
       </c>
       <c r="J49" s="3">
-        <v>728000</v>
+        <v>699600</v>
       </c>
       <c r="K49" s="3">
         <v>765200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>88700</v>
+        <v>85200</v>
       </c>
       <c r="E52" s="3">
-        <v>63200</v>
+        <v>60700</v>
       </c>
       <c r="F52" s="3">
-        <v>64000</v>
+        <v>61500</v>
       </c>
       <c r="G52" s="3">
-        <v>57500</v>
+        <v>55300</v>
       </c>
       <c r="H52" s="3">
-        <v>45700</v>
+        <v>43900</v>
       </c>
       <c r="I52" s="3">
-        <v>18000</v>
+        <v>17300</v>
       </c>
       <c r="J52" s="3">
-        <v>19200</v>
+        <v>18400</v>
       </c>
       <c r="K52" s="3">
         <v>20200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5089600</v>
+        <v>4891000</v>
       </c>
       <c r="E54" s="3">
-        <v>4491000</v>
+        <v>4315800</v>
       </c>
       <c r="F54" s="3">
-        <v>4289200</v>
+        <v>4121800</v>
       </c>
       <c r="G54" s="3">
-        <v>3884800</v>
+        <v>3733200</v>
       </c>
       <c r="H54" s="3">
-        <v>3798600</v>
+        <v>3650300</v>
       </c>
       <c r="I54" s="3">
-        <v>3775000</v>
+        <v>3627700</v>
       </c>
       <c r="J54" s="3">
-        <v>3831600</v>
+        <v>3682000</v>
       </c>
       <c r="K54" s="3">
         <v>4027200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>439100</v>
+        <v>422000</v>
       </c>
       <c r="E57" s="3">
-        <v>311200</v>
+        <v>299100</v>
       </c>
       <c r="F57" s="3">
-        <v>349200</v>
+        <v>335500</v>
       </c>
       <c r="G57" s="3">
-        <v>339300</v>
+        <v>326000</v>
       </c>
       <c r="H57" s="3">
-        <v>333700</v>
+        <v>320700</v>
       </c>
       <c r="I57" s="3">
-        <v>314200</v>
+        <v>301900</v>
       </c>
       <c r="J57" s="3">
-        <v>286800</v>
+        <v>275600</v>
       </c>
       <c r="K57" s="3">
         <v>301400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>221100</v>
+        <v>212400</v>
       </c>
       <c r="E58" s="3">
-        <v>454300</v>
+        <v>436600</v>
       </c>
       <c r="F58" s="3">
-        <v>477700</v>
+        <v>459000</v>
       </c>
       <c r="G58" s="3">
-        <v>131700</v>
+        <v>126600</v>
       </c>
       <c r="H58" s="3">
-        <v>332900</v>
+        <v>319900</v>
       </c>
       <c r="I58" s="3">
-        <v>415100</v>
+        <v>398900</v>
       </c>
       <c r="J58" s="3">
-        <v>249000</v>
+        <v>239300</v>
       </c>
       <c r="K58" s="3">
         <v>261700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>474200</v>
+        <v>455700</v>
       </c>
       <c r="E59" s="3">
-        <v>392800</v>
+        <v>377500</v>
       </c>
       <c r="F59" s="3">
-        <v>375000</v>
+        <v>360400</v>
       </c>
       <c r="G59" s="3">
-        <v>354500</v>
+        <v>340700</v>
       </c>
       <c r="H59" s="3">
-        <v>314800</v>
+        <v>302500</v>
       </c>
       <c r="I59" s="3">
-        <v>287200</v>
+        <v>276000</v>
       </c>
       <c r="J59" s="3">
-        <v>303700</v>
+        <v>291900</v>
       </c>
       <c r="K59" s="3">
         <v>319300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1134300</v>
+        <v>1090100</v>
       </c>
       <c r="E60" s="3">
-        <v>1158300</v>
+        <v>1113100</v>
       </c>
       <c r="F60" s="3">
-        <v>1201800</v>
+        <v>1154900</v>
       </c>
       <c r="G60" s="3">
-        <v>825500</v>
+        <v>793300</v>
       </c>
       <c r="H60" s="3">
-        <v>981400</v>
+        <v>943100</v>
       </c>
       <c r="I60" s="3">
-        <v>1016500</v>
+        <v>976800</v>
       </c>
       <c r="J60" s="3">
-        <v>839500</v>
+        <v>806800</v>
       </c>
       <c r="K60" s="3">
         <v>882400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1376400</v>
+        <v>1322700</v>
       </c>
       <c r="E61" s="3">
-        <v>1203800</v>
+        <v>1156800</v>
       </c>
       <c r="F61" s="3">
-        <v>598100</v>
+        <v>574700</v>
       </c>
       <c r="G61" s="3">
-        <v>737500</v>
+        <v>708700</v>
       </c>
       <c r="H61" s="3">
-        <v>512700</v>
+        <v>492700</v>
       </c>
       <c r="I61" s="3">
-        <v>499700</v>
+        <v>480200</v>
       </c>
       <c r="J61" s="3">
-        <v>526800</v>
+        <v>506200</v>
       </c>
       <c r="K61" s="3">
         <v>553700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>348400</v>
+        <v>334800</v>
       </c>
       <c r="E62" s="3">
-        <v>313600</v>
+        <v>301400</v>
       </c>
       <c r="F62" s="3">
-        <v>333700</v>
+        <v>320700</v>
       </c>
       <c r="G62" s="3">
-        <v>309200</v>
+        <v>297100</v>
       </c>
       <c r="H62" s="3">
-        <v>320800</v>
+        <v>308300</v>
       </c>
       <c r="I62" s="3">
-        <v>339800</v>
+        <v>326600</v>
       </c>
       <c r="J62" s="3">
-        <v>333200</v>
+        <v>320200</v>
       </c>
       <c r="K62" s="3">
         <v>350200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2860100</v>
+        <v>2748500</v>
       </c>
       <c r="E66" s="3">
-        <v>2676400</v>
+        <v>2572000</v>
       </c>
       <c r="F66" s="3">
-        <v>2134500</v>
+        <v>2051200</v>
       </c>
       <c r="G66" s="3">
-        <v>1872800</v>
+        <v>1799700</v>
       </c>
       <c r="H66" s="3">
-        <v>1839300</v>
+        <v>1767500</v>
       </c>
       <c r="I66" s="3">
-        <v>1876600</v>
+        <v>1803400</v>
       </c>
       <c r="J66" s="3">
-        <v>1718300</v>
+        <v>1651200</v>
       </c>
       <c r="K66" s="3">
         <v>1806000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2345100</v>
+        <v>1186600</v>
       </c>
       <c r="E72" s="3">
-        <v>2057500</v>
+        <v>943700</v>
       </c>
       <c r="F72" s="3">
-        <v>2078700</v>
+        <v>941400</v>
       </c>
       <c r="G72" s="3">
-        <v>1905400</v>
+        <v>758400</v>
       </c>
       <c r="H72" s="3">
-        <v>1826700</v>
+        <v>672200</v>
       </c>
       <c r="I72" s="3">
-        <v>1736100</v>
+        <v>585200</v>
       </c>
       <c r="J72" s="3">
-        <v>1694900</v>
+        <v>545600</v>
       </c>
       <c r="K72" s="3">
         <v>1781500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2229600</v>
+        <v>2142600</v>
       </c>
       <c r="E76" s="3">
-        <v>1814600</v>
+        <v>1743800</v>
       </c>
       <c r="F76" s="3">
-        <v>2154700</v>
+        <v>2070600</v>
       </c>
       <c r="G76" s="3">
-        <v>2012000</v>
+        <v>1933500</v>
       </c>
       <c r="H76" s="3">
-        <v>1959300</v>
+        <v>1882800</v>
       </c>
       <c r="I76" s="3">
-        <v>1898400</v>
+        <v>1824400</v>
       </c>
       <c r="J76" s="3">
-        <v>2113300</v>
+        <v>2030800</v>
       </c>
       <c r="K76" s="3">
         <v>2221200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>322500</v>
+        <v>309900</v>
       </c>
       <c r="E81" s="3">
-        <v>91900</v>
+        <v>88300</v>
       </c>
       <c r="F81" s="3">
-        <v>258500</v>
+        <v>248500</v>
       </c>
       <c r="G81" s="3">
-        <v>138600</v>
+        <v>133200</v>
       </c>
       <c r="H81" s="3">
-        <v>127800</v>
+        <v>122900</v>
       </c>
       <c r="I81" s="3">
-        <v>85100</v>
+        <v>81800</v>
       </c>
       <c r="J81" s="3">
-        <v>37900</v>
+        <v>36400</v>
       </c>
       <c r="K81" s="3">
         <v>-285500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>260800</v>
+        <v>250600</v>
       </c>
       <c r="E83" s="3">
-        <v>253600</v>
+        <v>243700</v>
       </c>
       <c r="F83" s="3">
-        <v>248000</v>
+        <v>238400</v>
       </c>
       <c r="G83" s="3">
-        <v>193500</v>
+        <v>186000</v>
       </c>
       <c r="H83" s="3">
-        <v>196800</v>
+        <v>189100</v>
       </c>
       <c r="I83" s="3">
-        <v>198600</v>
+        <v>190800</v>
       </c>
       <c r="J83" s="3">
-        <v>208800</v>
+        <v>200700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>529900</v>
+        <v>509200</v>
       </c>
       <c r="E89" s="3">
-        <v>523800</v>
+        <v>503400</v>
       </c>
       <c r="F89" s="3">
-        <v>446100</v>
+        <v>428700</v>
       </c>
       <c r="G89" s="3">
-        <v>331500</v>
+        <v>318600</v>
       </c>
       <c r="H89" s="3">
-        <v>282700</v>
+        <v>271600</v>
       </c>
       <c r="I89" s="3">
-        <v>346400</v>
+        <v>332900</v>
       </c>
       <c r="J89" s="3">
-        <v>270200</v>
+        <v>259600</v>
       </c>
       <c r="K89" s="3">
         <v>235100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-290400</v>
+        <v>-279000</v>
       </c>
       <c r="E91" s="3">
-        <v>-208700</v>
+        <v>-200500</v>
       </c>
       <c r="F91" s="3">
-        <v>-265100</v>
+        <v>-254800</v>
       </c>
       <c r="G91" s="3">
-        <v>-224000</v>
+        <v>-215300</v>
       </c>
       <c r="H91" s="3">
-        <v>-169400</v>
+        <v>-162800</v>
       </c>
       <c r="I91" s="3">
-        <v>-169800</v>
+        <v>-163100</v>
       </c>
       <c r="J91" s="3">
-        <v>-153400</v>
+        <v>-147400</v>
       </c>
       <c r="K91" s="3">
         <v>-139000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-692000</v>
+        <v>-665000</v>
       </c>
       <c r="E94" s="3">
-        <v>-153400</v>
+        <v>-147500</v>
       </c>
       <c r="F94" s="3">
-        <v>-274100</v>
+        <v>-263400</v>
       </c>
       <c r="G94" s="3">
-        <v>-219700</v>
+        <v>-211100</v>
       </c>
       <c r="H94" s="3">
-        <v>-185500</v>
+        <v>-178300</v>
       </c>
       <c r="I94" s="3">
-        <v>-136100</v>
+        <v>-130800</v>
       </c>
       <c r="J94" s="3">
-        <v>-140400</v>
+        <v>-135000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-69900</v>
+        <v>-67200</v>
       </c>
       <c r="E96" s="3">
-        <v>-69900</v>
+        <v>-67200</v>
       </c>
       <c r="F96" s="3">
-        <v>-59500</v>
+        <v>-57100</v>
       </c>
       <c r="G96" s="3">
-        <v>-36100</v>
+        <v>-34700</v>
       </c>
       <c r="H96" s="3">
-        <v>-32800</v>
+        <v>-31500</v>
       </c>
       <c r="I96" s="3">
-        <v>-24300</v>
+        <v>-23300</v>
       </c>
       <c r="J96" s="3">
-        <v>-18200</v>
+        <v>-17500</v>
       </c>
       <c r="K96" s="3">
         <v>-15100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-153200</v>
+        <v>-147200</v>
       </c>
       <c r="E100" s="3">
-        <v>190200</v>
+        <v>182800</v>
       </c>
       <c r="F100" s="3">
-        <v>-208900</v>
+        <v>-200700</v>
       </c>
       <c r="G100" s="3">
-        <v>-118000</v>
+        <v>-113400</v>
       </c>
       <c r="H100" s="3">
-        <v>-124800</v>
+        <v>-119900</v>
       </c>
       <c r="I100" s="3">
-        <v>-165200</v>
+        <v>-158700</v>
       </c>
       <c r="J100" s="3">
-        <v>-255400</v>
+        <v>-245400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,13 +3959,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E101" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="F101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-313300</v>
+        <v>-301100</v>
       </c>
       <c r="E102" s="3">
-        <v>557800</v>
+        <v>536000</v>
       </c>
       <c r="F102" s="3">
-        <v>-35600</v>
+        <v>-34200</v>
       </c>
       <c r="G102" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H102" s="3">
-        <v>-28800</v>
+        <v>-27700</v>
       </c>
       <c r="I102" s="3">
-        <v>43700</v>
+        <v>42000</v>
       </c>
       <c r="J102" s="3">
-        <v>-124900</v>
+        <v>-120000</v>
       </c>
       <c r="K102" s="3">
         <v>-241600</v>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3961000</v>
+        <v>4053900</v>
       </c>
       <c r="E8" s="3">
-        <v>3345900</v>
+        <v>3424400</v>
       </c>
       <c r="F8" s="3">
-        <v>3457300</v>
+        <v>3538400</v>
       </c>
       <c r="G8" s="3">
-        <v>3296500</v>
+        <v>3373800</v>
       </c>
       <c r="H8" s="3">
-        <v>3111600</v>
+        <v>3184600</v>
       </c>
       <c r="I8" s="3">
-        <v>2966100</v>
+        <v>3035700</v>
       </c>
       <c r="J8" s="3">
-        <v>2964600</v>
+        <v>3034200</v>
       </c>
       <c r="K8" s="3">
         <v>3092200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2525500</v>
+        <v>2584800</v>
       </c>
       <c r="E9" s="3">
-        <v>2160500</v>
+        <v>2211200</v>
       </c>
       <c r="F9" s="3">
-        <v>2205800</v>
+        <v>2257500</v>
       </c>
       <c r="G9" s="3">
-        <v>2140700</v>
+        <v>2191000</v>
       </c>
       <c r="H9" s="3">
-        <v>2088300</v>
+        <v>2137300</v>
       </c>
       <c r="I9" s="3">
-        <v>2006000</v>
+        <v>2053100</v>
       </c>
       <c r="J9" s="3">
-        <v>2022500</v>
+        <v>2070000</v>
       </c>
       <c r="K9" s="3">
         <v>2164100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1435500</v>
+        <v>1469100</v>
       </c>
       <c r="E10" s="3">
-        <v>1185400</v>
+        <v>1213200</v>
       </c>
       <c r="F10" s="3">
-        <v>1251500</v>
+        <v>1280900</v>
       </c>
       <c r="G10" s="3">
-        <v>1155700</v>
+        <v>1182900</v>
       </c>
       <c r="H10" s="3">
-        <v>1023300</v>
+        <v>1047300</v>
       </c>
       <c r="I10" s="3">
-        <v>960100</v>
+        <v>982600</v>
       </c>
       <c r="J10" s="3">
-        <v>942100</v>
+        <v>964200</v>
       </c>
       <c r="K10" s="3">
         <v>928100</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="E14" s="3">
-        <v>117200</v>
+        <v>119900</v>
       </c>
       <c r="F14" s="3">
         <v>1600</v>
       </c>
       <c r="G14" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="H14" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="I14" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="J14" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K14" s="3">
         <v>291300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>104600</v>
+        <v>107000</v>
       </c>
       <c r="E15" s="3">
-        <v>196100</v>
+        <v>200700</v>
       </c>
       <c r="F15" s="3">
-        <v>77500</v>
+        <v>79300</v>
       </c>
       <c r="G15" s="3">
-        <v>59900</v>
+        <v>61300</v>
       </c>
       <c r="H15" s="3">
-        <v>87400</v>
+        <v>89500</v>
       </c>
       <c r="I15" s="3">
-        <v>63900</v>
+        <v>65400</v>
       </c>
       <c r="J15" s="3">
-        <v>53400</v>
+        <v>54600</v>
       </c>
       <c r="K15" s="3">
         <v>59100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3550400</v>
+        <v>3633700</v>
       </c>
       <c r="E17" s="3">
-        <v>3158700</v>
+        <v>3232800</v>
       </c>
       <c r="F17" s="3">
-        <v>3097100</v>
+        <v>3169800</v>
       </c>
       <c r="G17" s="3">
-        <v>3059600</v>
+        <v>3131400</v>
       </c>
       <c r="H17" s="3">
-        <v>2933400</v>
+        <v>3002300</v>
       </c>
       <c r="I17" s="3">
-        <v>2776000</v>
+        <v>2841200</v>
       </c>
       <c r="J17" s="3">
-        <v>2802700</v>
+        <v>2868500</v>
       </c>
       <c r="K17" s="3">
         <v>3274100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>410600</v>
+        <v>420200</v>
       </c>
       <c r="E18" s="3">
-        <v>187200</v>
+        <v>191600</v>
       </c>
       <c r="F18" s="3">
-        <v>360100</v>
+        <v>368600</v>
       </c>
       <c r="G18" s="3">
-        <v>236900</v>
+        <v>242500</v>
       </c>
       <c r="H18" s="3">
-        <v>178100</v>
+        <v>182300</v>
       </c>
       <c r="I18" s="3">
-        <v>190100</v>
+        <v>194500</v>
       </c>
       <c r="J18" s="3">
-        <v>161900</v>
+        <v>165700</v>
       </c>
       <c r="K18" s="3">
         <v>-181900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="F20" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H20" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I20" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J20" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="K20" s="3">
         <v>13600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>662400</v>
+        <v>673200</v>
       </c>
       <c r="E21" s="3">
-        <v>427700</v>
+        <v>433200</v>
       </c>
       <c r="F21" s="3">
-        <v>591500</v>
+        <v>600900</v>
       </c>
       <c r="G21" s="3">
-        <v>421100</v>
+        <v>427400</v>
       </c>
       <c r="H21" s="3">
-        <v>372100</v>
+        <v>377200</v>
       </c>
       <c r="I21" s="3">
-        <v>384600</v>
+        <v>390100</v>
       </c>
       <c r="J21" s="3">
-        <v>356200</v>
+        <v>360800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38700</v>
+        <v>39600</v>
       </c>
       <c r="E22" s="3">
-        <v>35900</v>
+        <v>36700</v>
       </c>
       <c r="F22" s="3">
-        <v>38900</v>
+        <v>39800</v>
       </c>
       <c r="G22" s="3">
-        <v>40400</v>
+        <v>41400</v>
       </c>
       <c r="H22" s="3">
-        <v>38600</v>
+        <v>39500</v>
       </c>
       <c r="I22" s="3">
-        <v>35800</v>
+        <v>36700</v>
       </c>
       <c r="J22" s="3">
-        <v>49000</v>
+        <v>50100</v>
       </c>
       <c r="K22" s="3">
         <v>66600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>373300</v>
+        <v>382100</v>
       </c>
       <c r="E23" s="3">
-        <v>148400</v>
+        <v>151800</v>
       </c>
       <c r="F23" s="3">
-        <v>314500</v>
+        <v>321800</v>
       </c>
       <c r="G23" s="3">
-        <v>194800</v>
+        <v>199400</v>
       </c>
       <c r="H23" s="3">
-        <v>144500</v>
+        <v>147900</v>
       </c>
       <c r="I23" s="3">
-        <v>158100</v>
+        <v>161800</v>
       </c>
       <c r="J23" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="K23" s="3">
         <v>-234900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62000</v>
+        <v>63500</v>
       </c>
       <c r="E24" s="3">
-        <v>48700</v>
+        <v>49800</v>
       </c>
       <c r="F24" s="3">
-        <v>52400</v>
+        <v>53600</v>
       </c>
       <c r="G24" s="3">
-        <v>48300</v>
+        <v>49500</v>
       </c>
       <c r="H24" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I24" s="3">
-        <v>43100</v>
+        <v>44100</v>
       </c>
       <c r="J24" s="3">
-        <v>37100</v>
+        <v>38000</v>
       </c>
       <c r="K24" s="3">
         <v>15600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>311300</v>
+        <v>318600</v>
       </c>
       <c r="E26" s="3">
-        <v>99700</v>
+        <v>102000</v>
       </c>
       <c r="F26" s="3">
-        <v>262100</v>
+        <v>268200</v>
       </c>
       <c r="G26" s="3">
-        <v>146500</v>
+        <v>149900</v>
       </c>
       <c r="H26" s="3">
-        <v>140300</v>
+        <v>143600</v>
       </c>
       <c r="I26" s="3">
-        <v>115000</v>
+        <v>117700</v>
       </c>
       <c r="J26" s="3">
-        <v>69600</v>
+        <v>71300</v>
       </c>
       <c r="K26" s="3">
         <v>-250500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>309900</v>
+        <v>317200</v>
       </c>
       <c r="E27" s="3">
-        <v>88300</v>
+        <v>90400</v>
       </c>
       <c r="F27" s="3">
-        <v>248500</v>
+        <v>254300</v>
       </c>
       <c r="G27" s="3">
-        <v>133200</v>
+        <v>136300</v>
       </c>
       <c r="H27" s="3">
-        <v>122900</v>
+        <v>125700</v>
       </c>
       <c r="I27" s="3">
-        <v>81800</v>
+        <v>83700</v>
       </c>
       <c r="J27" s="3">
-        <v>36400</v>
+        <v>37300</v>
       </c>
       <c r="K27" s="3">
         <v>-285500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="G32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H32" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="I32" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J32" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="K32" s="3">
         <v>-13600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>309900</v>
+        <v>317200</v>
       </c>
       <c r="E33" s="3">
-        <v>88300</v>
+        <v>90400</v>
       </c>
       <c r="F33" s="3">
-        <v>248500</v>
+        <v>254300</v>
       </c>
       <c r="G33" s="3">
-        <v>133200</v>
+        <v>136300</v>
       </c>
       <c r="H33" s="3">
-        <v>122900</v>
+        <v>125700</v>
       </c>
       <c r="I33" s="3">
-        <v>81800</v>
+        <v>83700</v>
       </c>
       <c r="J33" s="3">
-        <v>36400</v>
+        <v>37300</v>
       </c>
       <c r="K33" s="3">
         <v>-285500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>309900</v>
+        <v>317200</v>
       </c>
       <c r="E35" s="3">
-        <v>88300</v>
+        <v>90400</v>
       </c>
       <c r="F35" s="3">
-        <v>248500</v>
+        <v>254300</v>
       </c>
       <c r="G35" s="3">
-        <v>133200</v>
+        <v>136300</v>
       </c>
       <c r="H35" s="3">
-        <v>122900</v>
+        <v>125700</v>
       </c>
       <c r="I35" s="3">
-        <v>81800</v>
+        <v>83700</v>
       </c>
       <c r="J35" s="3">
-        <v>36400</v>
+        <v>37300</v>
       </c>
       <c r="K35" s="3">
         <v>-285500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>363400</v>
+        <v>371900</v>
       </c>
       <c r="E41" s="3">
-        <v>664400</v>
+        <v>680000</v>
       </c>
       <c r="F41" s="3">
-        <v>128400</v>
+        <v>131400</v>
       </c>
       <c r="G41" s="3">
-        <v>162700</v>
+        <v>166500</v>
       </c>
       <c r="H41" s="3">
-        <v>168800</v>
+        <v>172800</v>
       </c>
       <c r="I41" s="3">
-        <v>196500</v>
+        <v>201100</v>
       </c>
       <c r="J41" s="3">
-        <v>154500</v>
+        <v>158100</v>
       </c>
       <c r="K41" s="3">
         <v>169000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G42" s="3">
         <v>6300</v>
       </c>
-      <c r="E42" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6100</v>
-      </c>
       <c r="H42" s="3">
-        <v>78800</v>
+        <v>80700</v>
       </c>
       <c r="I42" s="3">
-        <v>52600</v>
+        <v>53800</v>
       </c>
       <c r="J42" s="3">
-        <v>58300</v>
+        <v>59600</v>
       </c>
       <c r="K42" s="3">
         <v>63700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500900</v>
+        <v>512700</v>
       </c>
       <c r="E43" s="3">
-        <v>338000</v>
+        <v>345900</v>
       </c>
       <c r="F43" s="3">
-        <v>350800</v>
+        <v>359000</v>
       </c>
       <c r="G43" s="3">
-        <v>338600</v>
+        <v>346600</v>
       </c>
       <c r="H43" s="3">
-        <v>296000</v>
+        <v>302900</v>
       </c>
       <c r="I43" s="3">
-        <v>262300</v>
+        <v>268500</v>
       </c>
       <c r="J43" s="3">
-        <v>261200</v>
+        <v>267300</v>
       </c>
       <c r="K43" s="3">
         <v>285600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>881000</v>
+        <v>901700</v>
       </c>
       <c r="E44" s="3">
-        <v>727100</v>
+        <v>744200</v>
       </c>
       <c r="F44" s="3">
-        <v>825400</v>
+        <v>844800</v>
       </c>
       <c r="G44" s="3">
-        <v>759700</v>
+        <v>777500</v>
       </c>
       <c r="H44" s="3">
-        <v>739700</v>
+        <v>757000</v>
       </c>
       <c r="I44" s="3">
-        <v>716500</v>
+        <v>733300</v>
       </c>
       <c r="J44" s="3">
-        <v>751300</v>
+        <v>768900</v>
       </c>
       <c r="K44" s="3">
         <v>821800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E45" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="F45" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G45" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="H45" s="3">
-        <v>22700</v>
+        <v>23200</v>
       </c>
       <c r="I45" s="3">
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="J45" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="K45" s="3">
         <v>14900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1756000</v>
+        <v>1797200</v>
       </c>
       <c r="E46" s="3">
-        <v>1747900</v>
+        <v>1788900</v>
       </c>
       <c r="F46" s="3">
-        <v>1314500</v>
+        <v>1345300</v>
       </c>
       <c r="G46" s="3">
-        <v>1276600</v>
+        <v>1306600</v>
       </c>
       <c r="H46" s="3">
-        <v>1305900</v>
+        <v>1336600</v>
       </c>
       <c r="I46" s="3">
-        <v>1248200</v>
+        <v>1277500</v>
       </c>
       <c r="J46" s="3">
-        <v>1238900</v>
+        <v>1267900</v>
       </c>
       <c r="K46" s="3">
         <v>1355000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40200</v>
+        <v>41100</v>
       </c>
       <c r="E47" s="3">
-        <v>62200</v>
+        <v>63700</v>
       </c>
       <c r="F47" s="3">
-        <v>52000</v>
+        <v>53200</v>
       </c>
       <c r="G47" s="3">
-        <v>52400</v>
+        <v>53600</v>
       </c>
       <c r="H47" s="3">
+        <v>28700</v>
+      </c>
+      <c r="I47" s="3">
         <v>28000</v>
       </c>
-      <c r="I47" s="3">
-        <v>27400</v>
-      </c>
       <c r="J47" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="K47" s="3">
         <v>25300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2154400</v>
+        <v>2205000</v>
       </c>
       <c r="E48" s="3">
-        <v>1801000</v>
+        <v>1843200</v>
       </c>
       <c r="F48" s="3">
-        <v>1935400</v>
+        <v>1980800</v>
       </c>
       <c r="G48" s="3">
-        <v>1638000</v>
+        <v>1676400</v>
       </c>
       <c r="H48" s="3">
-        <v>1583400</v>
+        <v>1620500</v>
       </c>
       <c r="I48" s="3">
-        <v>1646200</v>
+        <v>1684800</v>
       </c>
       <c r="J48" s="3">
-        <v>1702100</v>
+        <v>1742000</v>
       </c>
       <c r="K48" s="3">
         <v>1861600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>855100</v>
+        <v>875200</v>
       </c>
       <c r="E49" s="3">
-        <v>643900</v>
+        <v>659000</v>
       </c>
       <c r="F49" s="3">
-        <v>758400</v>
+        <v>776200</v>
       </c>
       <c r="G49" s="3">
-        <v>710900</v>
+        <v>727500</v>
       </c>
       <c r="H49" s="3">
-        <v>689100</v>
+        <v>705300</v>
       </c>
       <c r="I49" s="3">
-        <v>688600</v>
+        <v>704800</v>
       </c>
       <c r="J49" s="3">
-        <v>699600</v>
+        <v>716000</v>
       </c>
       <c r="K49" s="3">
         <v>765200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85200</v>
+        <v>87200</v>
       </c>
       <c r="E52" s="3">
-        <v>60700</v>
+        <v>62200</v>
       </c>
       <c r="F52" s="3">
-        <v>61500</v>
+        <v>63000</v>
       </c>
       <c r="G52" s="3">
-        <v>55300</v>
+        <v>56600</v>
       </c>
       <c r="H52" s="3">
-        <v>43900</v>
+        <v>45000</v>
       </c>
       <c r="I52" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="J52" s="3">
-        <v>18400</v>
+        <v>18900</v>
       </c>
       <c r="K52" s="3">
         <v>20200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4891000</v>
+        <v>5005800</v>
       </c>
       <c r="E54" s="3">
-        <v>4315800</v>
+        <v>4417000</v>
       </c>
       <c r="F54" s="3">
-        <v>4121800</v>
+        <v>4218500</v>
       </c>
       <c r="G54" s="3">
-        <v>3733200</v>
+        <v>3820800</v>
       </c>
       <c r="H54" s="3">
-        <v>3650300</v>
+        <v>3736000</v>
       </c>
       <c r="I54" s="3">
-        <v>3627700</v>
+        <v>3712800</v>
       </c>
       <c r="J54" s="3">
-        <v>3682000</v>
+        <v>3768400</v>
       </c>
       <c r="K54" s="3">
         <v>4027200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>422000</v>
+        <v>431900</v>
       </c>
       <c r="E57" s="3">
-        <v>299100</v>
+        <v>306100</v>
       </c>
       <c r="F57" s="3">
-        <v>335500</v>
+        <v>343400</v>
       </c>
       <c r="G57" s="3">
-        <v>326000</v>
+        <v>333700</v>
       </c>
       <c r="H57" s="3">
-        <v>320700</v>
+        <v>328200</v>
       </c>
       <c r="I57" s="3">
-        <v>301900</v>
+        <v>309000</v>
       </c>
       <c r="J57" s="3">
-        <v>275600</v>
+        <v>282100</v>
       </c>
       <c r="K57" s="3">
         <v>301400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>212400</v>
+        <v>217400</v>
       </c>
       <c r="E58" s="3">
-        <v>436600</v>
+        <v>446800</v>
       </c>
       <c r="F58" s="3">
-        <v>459000</v>
+        <v>469800</v>
       </c>
       <c r="G58" s="3">
-        <v>126600</v>
+        <v>129500</v>
       </c>
       <c r="H58" s="3">
-        <v>319900</v>
+        <v>327400</v>
       </c>
       <c r="I58" s="3">
-        <v>398900</v>
+        <v>408200</v>
       </c>
       <c r="J58" s="3">
-        <v>239300</v>
+        <v>244900</v>
       </c>
       <c r="K58" s="3">
         <v>261700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>455700</v>
+        <v>466400</v>
       </c>
       <c r="E59" s="3">
-        <v>377500</v>
+        <v>386300</v>
       </c>
       <c r="F59" s="3">
-        <v>360400</v>
+        <v>368800</v>
       </c>
       <c r="G59" s="3">
-        <v>340700</v>
+        <v>348700</v>
       </c>
       <c r="H59" s="3">
-        <v>302500</v>
+        <v>309600</v>
       </c>
       <c r="I59" s="3">
-        <v>276000</v>
+        <v>282500</v>
       </c>
       <c r="J59" s="3">
-        <v>291900</v>
+        <v>298700</v>
       </c>
       <c r="K59" s="3">
         <v>319300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1090100</v>
+        <v>1115700</v>
       </c>
       <c r="E60" s="3">
-        <v>1113100</v>
+        <v>1139300</v>
       </c>
       <c r="F60" s="3">
-        <v>1154900</v>
+        <v>1182000</v>
       </c>
       <c r="G60" s="3">
-        <v>793300</v>
+        <v>811900</v>
       </c>
       <c r="H60" s="3">
-        <v>943100</v>
+        <v>965200</v>
       </c>
       <c r="I60" s="3">
-        <v>976800</v>
+        <v>999700</v>
       </c>
       <c r="J60" s="3">
-        <v>806800</v>
+        <v>825700</v>
       </c>
       <c r="K60" s="3">
         <v>882400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1322700</v>
+        <v>1353700</v>
       </c>
       <c r="E61" s="3">
-        <v>1156800</v>
+        <v>1183900</v>
       </c>
       <c r="F61" s="3">
-        <v>574700</v>
+        <v>588200</v>
       </c>
       <c r="G61" s="3">
-        <v>708700</v>
+        <v>725400</v>
       </c>
       <c r="H61" s="3">
-        <v>492700</v>
+        <v>504200</v>
       </c>
       <c r="I61" s="3">
-        <v>480200</v>
+        <v>491400</v>
       </c>
       <c r="J61" s="3">
-        <v>506200</v>
+        <v>518100</v>
       </c>
       <c r="K61" s="3">
         <v>553700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>334800</v>
+        <v>342700</v>
       </c>
       <c r="E62" s="3">
-        <v>301400</v>
+        <v>308500</v>
       </c>
       <c r="F62" s="3">
-        <v>320700</v>
+        <v>328200</v>
       </c>
       <c r="G62" s="3">
-        <v>297100</v>
+        <v>304100</v>
       </c>
       <c r="H62" s="3">
-        <v>308300</v>
+        <v>315500</v>
       </c>
       <c r="I62" s="3">
-        <v>326600</v>
+        <v>334200</v>
       </c>
       <c r="J62" s="3">
-        <v>320200</v>
+        <v>327700</v>
       </c>
       <c r="K62" s="3">
         <v>350200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2748500</v>
+        <v>2812900</v>
       </c>
       <c r="E66" s="3">
-        <v>2572000</v>
+        <v>2632400</v>
       </c>
       <c r="F66" s="3">
-        <v>2051200</v>
+        <v>2099400</v>
       </c>
       <c r="G66" s="3">
-        <v>1799700</v>
+        <v>1841900</v>
       </c>
       <c r="H66" s="3">
-        <v>1767500</v>
+        <v>1809000</v>
       </c>
       <c r="I66" s="3">
-        <v>1803400</v>
+        <v>1845700</v>
       </c>
       <c r="J66" s="3">
-        <v>1651200</v>
+        <v>1690000</v>
       </c>
       <c r="K66" s="3">
         <v>1806000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1186600</v>
+        <v>1214400</v>
       </c>
       <c r="E72" s="3">
-        <v>943700</v>
+        <v>965900</v>
       </c>
       <c r="F72" s="3">
-        <v>941400</v>
+        <v>963500</v>
       </c>
       <c r="G72" s="3">
-        <v>758400</v>
+        <v>776200</v>
       </c>
       <c r="H72" s="3">
-        <v>672200</v>
+        <v>688000</v>
       </c>
       <c r="I72" s="3">
-        <v>585200</v>
+        <v>598900</v>
       </c>
       <c r="J72" s="3">
-        <v>545600</v>
+        <v>558400</v>
       </c>
       <c r="K72" s="3">
         <v>1781500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2142600</v>
+        <v>2192800</v>
       </c>
       <c r="E76" s="3">
-        <v>1743800</v>
+        <v>1784700</v>
       </c>
       <c r="F76" s="3">
-        <v>2070600</v>
+        <v>2119200</v>
       </c>
       <c r="G76" s="3">
-        <v>1933500</v>
+        <v>1978800</v>
       </c>
       <c r="H76" s="3">
-        <v>1882800</v>
+        <v>1927000</v>
       </c>
       <c r="I76" s="3">
-        <v>1824400</v>
+        <v>1867200</v>
       </c>
       <c r="J76" s="3">
-        <v>2030800</v>
+        <v>2078500</v>
       </c>
       <c r="K76" s="3">
         <v>2221200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>309900</v>
+        <v>317200</v>
       </c>
       <c r="E81" s="3">
-        <v>88300</v>
+        <v>90400</v>
       </c>
       <c r="F81" s="3">
-        <v>248500</v>
+        <v>254300</v>
       </c>
       <c r="G81" s="3">
-        <v>133200</v>
+        <v>136300</v>
       </c>
       <c r="H81" s="3">
-        <v>122900</v>
+        <v>125700</v>
       </c>
       <c r="I81" s="3">
-        <v>81800</v>
+        <v>83700</v>
       </c>
       <c r="J81" s="3">
-        <v>36400</v>
+        <v>37300</v>
       </c>
       <c r="K81" s="3">
         <v>-285500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>250600</v>
+        <v>256500</v>
       </c>
       <c r="E83" s="3">
-        <v>243700</v>
+        <v>249400</v>
       </c>
       <c r="F83" s="3">
-        <v>238400</v>
+        <v>244000</v>
       </c>
       <c r="G83" s="3">
-        <v>186000</v>
+        <v>190300</v>
       </c>
       <c r="H83" s="3">
-        <v>189100</v>
+        <v>193500</v>
       </c>
       <c r="I83" s="3">
-        <v>190800</v>
+        <v>195300</v>
       </c>
       <c r="J83" s="3">
-        <v>200700</v>
+        <v>205400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>509200</v>
+        <v>521200</v>
       </c>
       <c r="E89" s="3">
-        <v>503400</v>
+        <v>515200</v>
       </c>
       <c r="F89" s="3">
-        <v>428700</v>
+        <v>438700</v>
       </c>
       <c r="G89" s="3">
-        <v>318600</v>
+        <v>326100</v>
       </c>
       <c r="H89" s="3">
-        <v>271600</v>
+        <v>278000</v>
       </c>
       <c r="I89" s="3">
-        <v>332900</v>
+        <v>340700</v>
       </c>
       <c r="J89" s="3">
-        <v>259600</v>
+        <v>265700</v>
       </c>
       <c r="K89" s="3">
         <v>235100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-279000</v>
+        <v>-285600</v>
       </c>
       <c r="E91" s="3">
-        <v>-200500</v>
+        <v>-205200</v>
       </c>
       <c r="F91" s="3">
-        <v>-254800</v>
+        <v>-260800</v>
       </c>
       <c r="G91" s="3">
-        <v>-215300</v>
+        <v>-220300</v>
       </c>
       <c r="H91" s="3">
-        <v>-162800</v>
+        <v>-166600</v>
       </c>
       <c r="I91" s="3">
-        <v>-163100</v>
+        <v>-167000</v>
       </c>
       <c r="J91" s="3">
-        <v>-147400</v>
+        <v>-150900</v>
       </c>
       <c r="K91" s="3">
         <v>-139000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-665000</v>
+        <v>-680600</v>
       </c>
       <c r="E94" s="3">
-        <v>-147500</v>
+        <v>-150900</v>
       </c>
       <c r="F94" s="3">
-        <v>-263400</v>
+        <v>-269600</v>
       </c>
       <c r="G94" s="3">
-        <v>-211100</v>
+        <v>-216100</v>
       </c>
       <c r="H94" s="3">
-        <v>-178300</v>
+        <v>-182400</v>
       </c>
       <c r="I94" s="3">
-        <v>-130800</v>
+        <v>-133800</v>
       </c>
       <c r="J94" s="3">
-        <v>-135000</v>
+        <v>-138100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-67200</v>
+        <v>-68800</v>
       </c>
       <c r="E96" s="3">
-        <v>-67200</v>
+        <v>-68800</v>
       </c>
       <c r="F96" s="3">
-        <v>-57100</v>
+        <v>-58500</v>
       </c>
       <c r="G96" s="3">
-        <v>-34700</v>
+        <v>-35500</v>
       </c>
       <c r="H96" s="3">
-        <v>-31500</v>
+        <v>-32200</v>
       </c>
       <c r="I96" s="3">
-        <v>-23300</v>
+        <v>-23900</v>
       </c>
       <c r="J96" s="3">
-        <v>-17500</v>
+        <v>-17900</v>
       </c>
       <c r="K96" s="3">
         <v>-15100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-147200</v>
+        <v>-150700</v>
       </c>
       <c r="E100" s="3">
-        <v>182800</v>
+        <v>187100</v>
       </c>
       <c r="F100" s="3">
-        <v>-200700</v>
+        <v>-205400</v>
       </c>
       <c r="G100" s="3">
-        <v>-113400</v>
+        <v>-116100</v>
       </c>
       <c r="H100" s="3">
-        <v>-119900</v>
+        <v>-122700</v>
       </c>
       <c r="I100" s="3">
-        <v>-158700</v>
+        <v>-162400</v>
       </c>
       <c r="J100" s="3">
-        <v>-245400</v>
+        <v>-251200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,13 +3959,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
         <v>-2700</v>
       </c>
       <c r="F101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-301100</v>
+        <v>-308100</v>
       </c>
       <c r="E102" s="3">
-        <v>536000</v>
+        <v>548600</v>
       </c>
       <c r="F102" s="3">
-        <v>-34200</v>
+        <v>-35000</v>
       </c>
       <c r="G102" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="H102" s="3">
-        <v>-27700</v>
+        <v>-28300</v>
       </c>
       <c r="I102" s="3">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="J102" s="3">
-        <v>-120000</v>
+        <v>-122800</v>
       </c>
       <c r="K102" s="3">
         <v>-241600</v>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>WBRBY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4053900</v>
+        <v>4201600</v>
       </c>
       <c r="E8" s="3">
-        <v>3424400</v>
+        <v>3549200</v>
       </c>
       <c r="F8" s="3">
-        <v>3538400</v>
+        <v>3667300</v>
       </c>
       <c r="G8" s="3">
-        <v>3373800</v>
+        <v>3496800</v>
       </c>
       <c r="H8" s="3">
-        <v>3184600</v>
+        <v>3300700</v>
       </c>
       <c r="I8" s="3">
-        <v>3035700</v>
+        <v>3146300</v>
       </c>
       <c r="J8" s="3">
-        <v>3034200</v>
+        <v>3144800</v>
       </c>
       <c r="K8" s="3">
         <v>3092200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2584800</v>
+        <v>2679000</v>
       </c>
       <c r="E9" s="3">
-        <v>2211200</v>
+        <v>2291800</v>
       </c>
       <c r="F9" s="3">
-        <v>2257500</v>
+        <v>2339800</v>
       </c>
       <c r="G9" s="3">
-        <v>2191000</v>
+        <v>2270800</v>
       </c>
       <c r="H9" s="3">
-        <v>2137300</v>
+        <v>2215100</v>
       </c>
       <c r="I9" s="3">
-        <v>2053100</v>
+        <v>2127900</v>
       </c>
       <c r="J9" s="3">
-        <v>2070000</v>
+        <v>2145400</v>
       </c>
       <c r="K9" s="3">
         <v>2164100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1469100</v>
+        <v>1522700</v>
       </c>
       <c r="E10" s="3">
-        <v>1213200</v>
+        <v>1257400</v>
       </c>
       <c r="F10" s="3">
-        <v>1280900</v>
+        <v>1327500</v>
       </c>
       <c r="G10" s="3">
-        <v>1182900</v>
+        <v>1226000</v>
       </c>
       <c r="H10" s="3">
-        <v>1047300</v>
+        <v>1085500</v>
       </c>
       <c r="I10" s="3">
-        <v>982600</v>
+        <v>1018400</v>
       </c>
       <c r="J10" s="3">
-        <v>964200</v>
+        <v>999300</v>
       </c>
       <c r="K10" s="3">
         <v>928100</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="E14" s="3">
-        <v>119900</v>
+        <v>124300</v>
       </c>
       <c r="F14" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G14" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="H14" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="I14" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="J14" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K14" s="3">
         <v>291300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>107000</v>
+        <v>110900</v>
       </c>
       <c r="E15" s="3">
-        <v>200700</v>
+        <v>208000</v>
       </c>
       <c r="F15" s="3">
-        <v>79300</v>
+        <v>82200</v>
       </c>
       <c r="G15" s="3">
-        <v>61300</v>
+        <v>63500</v>
       </c>
       <c r="H15" s="3">
-        <v>89500</v>
+        <v>92700</v>
       </c>
       <c r="I15" s="3">
-        <v>65400</v>
+        <v>67800</v>
       </c>
       <c r="J15" s="3">
-        <v>54600</v>
+        <v>56600</v>
       </c>
       <c r="K15" s="3">
         <v>59100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3633700</v>
+        <v>3766100</v>
       </c>
       <c r="E17" s="3">
-        <v>3232800</v>
+        <v>3350600</v>
       </c>
       <c r="F17" s="3">
-        <v>3169800</v>
+        <v>3285300</v>
       </c>
       <c r="G17" s="3">
-        <v>3131400</v>
+        <v>3245500</v>
       </c>
       <c r="H17" s="3">
-        <v>3002300</v>
+        <v>3111700</v>
       </c>
       <c r="I17" s="3">
-        <v>2841200</v>
+        <v>2944700</v>
       </c>
       <c r="J17" s="3">
-        <v>2868500</v>
+        <v>2973000</v>
       </c>
       <c r="K17" s="3">
         <v>3274100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>420200</v>
+        <v>435500</v>
       </c>
       <c r="E18" s="3">
-        <v>191600</v>
+        <v>198500</v>
       </c>
       <c r="F18" s="3">
-        <v>368600</v>
+        <v>382000</v>
       </c>
       <c r="G18" s="3">
-        <v>242500</v>
+        <v>251300</v>
       </c>
       <c r="H18" s="3">
-        <v>182300</v>
+        <v>189000</v>
       </c>
       <c r="I18" s="3">
-        <v>194500</v>
+        <v>201600</v>
       </c>
       <c r="J18" s="3">
-        <v>165700</v>
+        <v>171700</v>
       </c>
       <c r="K18" s="3">
         <v>-181900</v>
@@ -1125,22 +1125,22 @@
         <v>1500</v>
       </c>
       <c r="E20" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F20" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="G20" s="3">
         <v>-1700</v>
       </c>
       <c r="H20" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="I20" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="J20" s="3">
-        <v>-6300</v>
+        <v>-6600</v>
       </c>
       <c r="K20" s="3">
         <v>13600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>673200</v>
+        <v>694700</v>
       </c>
       <c r="E21" s="3">
-        <v>433200</v>
+        <v>447500</v>
       </c>
       <c r="F21" s="3">
-        <v>600900</v>
+        <v>571400</v>
       </c>
       <c r="G21" s="3">
-        <v>427400</v>
+        <v>449500</v>
       </c>
       <c r="H21" s="3">
-        <v>377200</v>
+        <v>396000</v>
       </c>
       <c r="I21" s="3">
-        <v>390100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>360800</v>
+        <v>417900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39600</v>
+        <v>41100</v>
       </c>
       <c r="E22" s="3">
-        <v>36700</v>
+        <v>38100</v>
       </c>
       <c r="F22" s="3">
-        <v>39800</v>
+        <v>41200</v>
       </c>
       <c r="G22" s="3">
-        <v>41400</v>
+        <v>42900</v>
       </c>
       <c r="H22" s="3">
-        <v>39500</v>
+        <v>41000</v>
       </c>
       <c r="I22" s="3">
-        <v>36700</v>
+        <v>38000</v>
       </c>
       <c r="J22" s="3">
-        <v>50100</v>
+        <v>51900</v>
       </c>
       <c r="K22" s="3">
         <v>66600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>382100</v>
+        <v>396000</v>
       </c>
       <c r="E23" s="3">
-        <v>151800</v>
+        <v>157400</v>
       </c>
       <c r="F23" s="3">
-        <v>321800</v>
+        <v>333600</v>
       </c>
       <c r="G23" s="3">
-        <v>199400</v>
+        <v>206700</v>
       </c>
       <c r="H23" s="3">
-        <v>147900</v>
+        <v>153300</v>
       </c>
       <c r="I23" s="3">
-        <v>161800</v>
+        <v>167700</v>
       </c>
       <c r="J23" s="3">
-        <v>109200</v>
+        <v>113200</v>
       </c>
       <c r="K23" s="3">
         <v>-234900</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>63500</v>
+        <v>65800</v>
       </c>
       <c r="E24" s="3">
-        <v>49800</v>
+        <v>51700</v>
       </c>
       <c r="F24" s="3">
-        <v>53600</v>
+        <v>55600</v>
       </c>
       <c r="G24" s="3">
-        <v>49500</v>
+        <v>51300</v>
       </c>
       <c r="H24" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="I24" s="3">
-        <v>44100</v>
+        <v>45700</v>
       </c>
       <c r="J24" s="3">
-        <v>38000</v>
+        <v>39400</v>
       </c>
       <c r="K24" s="3">
         <v>15600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>318600</v>
+        <v>330200</v>
       </c>
       <c r="E26" s="3">
-        <v>102000</v>
+        <v>105700</v>
       </c>
       <c r="F26" s="3">
-        <v>268200</v>
+        <v>278000</v>
       </c>
       <c r="G26" s="3">
-        <v>149900</v>
+        <v>155400</v>
       </c>
       <c r="H26" s="3">
-        <v>143600</v>
+        <v>148800</v>
       </c>
       <c r="I26" s="3">
-        <v>117700</v>
+        <v>122000</v>
       </c>
       <c r="J26" s="3">
-        <v>71300</v>
+        <v>73900</v>
       </c>
       <c r="K26" s="3">
         <v>-250500</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>317200</v>
+        <v>328700</v>
       </c>
       <c r="E27" s="3">
-        <v>90400</v>
+        <v>93700</v>
       </c>
       <c r="F27" s="3">
-        <v>254300</v>
+        <v>263500</v>
       </c>
       <c r="G27" s="3">
-        <v>136300</v>
+        <v>141200</v>
       </c>
       <c r="H27" s="3">
-        <v>125700</v>
+        <v>130300</v>
       </c>
       <c r="I27" s="3">
-        <v>83700</v>
+        <v>86700</v>
       </c>
       <c r="J27" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="K27" s="3">
         <v>-285500</v>
@@ -1593,22 +1593,22 @@
         <v>-1500</v>
       </c>
       <c r="E32" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F32" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="G32" s="3">
         <v>1700</v>
       </c>
       <c r="H32" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="I32" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="J32" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="K32" s="3">
         <v>-13600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>317200</v>
+        <v>328700</v>
       </c>
       <c r="E33" s="3">
-        <v>90400</v>
+        <v>93700</v>
       </c>
       <c r="F33" s="3">
-        <v>254300</v>
+        <v>263500</v>
       </c>
       <c r="G33" s="3">
-        <v>136300</v>
+        <v>141200</v>
       </c>
       <c r="H33" s="3">
-        <v>125700</v>
+        <v>130300</v>
       </c>
       <c r="I33" s="3">
-        <v>83700</v>
+        <v>86700</v>
       </c>
       <c r="J33" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="K33" s="3">
         <v>-285500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>317200</v>
+        <v>328700</v>
       </c>
       <c r="E35" s="3">
-        <v>90400</v>
+        <v>93700</v>
       </c>
       <c r="F35" s="3">
-        <v>254300</v>
+        <v>263500</v>
       </c>
       <c r="G35" s="3">
-        <v>136300</v>
+        <v>141200</v>
       </c>
       <c r="H35" s="3">
-        <v>125700</v>
+        <v>130300</v>
       </c>
       <c r="I35" s="3">
-        <v>83700</v>
+        <v>86700</v>
       </c>
       <c r="J35" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="K35" s="3">
         <v>-285500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>371900</v>
+        <v>385400</v>
       </c>
       <c r="E41" s="3">
-        <v>680000</v>
+        <v>704800</v>
       </c>
       <c r="F41" s="3">
-        <v>131400</v>
+        <v>136200</v>
       </c>
       <c r="G41" s="3">
-        <v>166500</v>
+        <v>172500</v>
       </c>
       <c r="H41" s="3">
-        <v>172800</v>
+        <v>179100</v>
       </c>
       <c r="I41" s="3">
-        <v>201100</v>
+        <v>208400</v>
       </c>
       <c r="J41" s="3">
-        <v>158100</v>
+        <v>163900</v>
       </c>
       <c r="K41" s="3">
         <v>169000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E42" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F42" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="G42" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="H42" s="3">
-        <v>80700</v>
+        <v>83600</v>
       </c>
       <c r="I42" s="3">
-        <v>53800</v>
+        <v>55800</v>
       </c>
       <c r="J42" s="3">
-        <v>59600</v>
+        <v>61800</v>
       </c>
       <c r="K42" s="3">
         <v>63700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>512700</v>
+        <v>531300</v>
       </c>
       <c r="E43" s="3">
-        <v>345900</v>
+        <v>358500</v>
       </c>
       <c r="F43" s="3">
-        <v>359000</v>
+        <v>372100</v>
       </c>
       <c r="G43" s="3">
-        <v>346600</v>
+        <v>359200</v>
       </c>
       <c r="H43" s="3">
-        <v>302900</v>
+        <v>313900</v>
       </c>
       <c r="I43" s="3">
-        <v>268500</v>
+        <v>278200</v>
       </c>
       <c r="J43" s="3">
-        <v>267300</v>
+        <v>277000</v>
       </c>
       <c r="K43" s="3">
         <v>285600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>901700</v>
+        <v>934500</v>
       </c>
       <c r="E44" s="3">
-        <v>744200</v>
+        <v>771300</v>
       </c>
       <c r="F44" s="3">
-        <v>844800</v>
+        <v>875600</v>
       </c>
       <c r="G44" s="3">
-        <v>777500</v>
+        <v>805800</v>
       </c>
       <c r="H44" s="3">
-        <v>757000</v>
+        <v>784600</v>
       </c>
       <c r="I44" s="3">
-        <v>733300</v>
+        <v>760000</v>
       </c>
       <c r="J44" s="3">
-        <v>768900</v>
+        <v>797000</v>
       </c>
       <c r="K44" s="3">
         <v>821800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E45" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="F45" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G45" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="H45" s="3">
-        <v>23200</v>
+        <v>24100</v>
       </c>
       <c r="I45" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="J45" s="3">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="K45" s="3">
         <v>14900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1797200</v>
+        <v>1862700</v>
       </c>
       <c r="E46" s="3">
-        <v>1788900</v>
+        <v>1854100</v>
       </c>
       <c r="F46" s="3">
-        <v>1345300</v>
+        <v>1394400</v>
       </c>
       <c r="G46" s="3">
-        <v>1306600</v>
+        <v>1354200</v>
       </c>
       <c r="H46" s="3">
-        <v>1336600</v>
+        <v>1385300</v>
       </c>
       <c r="I46" s="3">
-        <v>1277500</v>
+        <v>1324000</v>
       </c>
       <c r="J46" s="3">
-        <v>1267900</v>
+        <v>1314100</v>
       </c>
       <c r="K46" s="3">
         <v>1355000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41100</v>
+        <v>42600</v>
       </c>
       <c r="E47" s="3">
-        <v>63700</v>
+        <v>66000</v>
       </c>
       <c r="F47" s="3">
-        <v>53200</v>
+        <v>55100</v>
       </c>
       <c r="G47" s="3">
-        <v>53600</v>
+        <v>55600</v>
       </c>
       <c r="H47" s="3">
-        <v>28700</v>
+        <v>29700</v>
       </c>
       <c r="I47" s="3">
-        <v>28000</v>
+        <v>29100</v>
       </c>
       <c r="J47" s="3">
-        <v>23600</v>
+        <v>24500</v>
       </c>
       <c r="K47" s="3">
         <v>25300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2205000</v>
+        <v>2285300</v>
       </c>
       <c r="E48" s="3">
-        <v>1843200</v>
+        <v>1910400</v>
       </c>
       <c r="F48" s="3">
-        <v>1980800</v>
+        <v>2053000</v>
       </c>
       <c r="G48" s="3">
-        <v>1676400</v>
+        <v>1737500</v>
       </c>
       <c r="H48" s="3">
-        <v>1620500</v>
+        <v>1679600</v>
       </c>
       <c r="I48" s="3">
-        <v>1684800</v>
+        <v>1746200</v>
       </c>
       <c r="J48" s="3">
-        <v>1742000</v>
+        <v>1805500</v>
       </c>
       <c r="K48" s="3">
         <v>1861600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>875200</v>
+        <v>907100</v>
       </c>
       <c r="E49" s="3">
-        <v>659000</v>
+        <v>683000</v>
       </c>
       <c r="F49" s="3">
-        <v>776200</v>
+        <v>804500</v>
       </c>
       <c r="G49" s="3">
-        <v>727500</v>
+        <v>754100</v>
       </c>
       <c r="H49" s="3">
-        <v>705300</v>
+        <v>731000</v>
       </c>
       <c r="I49" s="3">
-        <v>704800</v>
+        <v>730500</v>
       </c>
       <c r="J49" s="3">
-        <v>716000</v>
+        <v>742100</v>
       </c>
       <c r="K49" s="3">
         <v>765200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87200</v>
+        <v>90400</v>
       </c>
       <c r="E52" s="3">
-        <v>62200</v>
+        <v>64400</v>
       </c>
       <c r="F52" s="3">
-        <v>63000</v>
+        <v>65300</v>
       </c>
       <c r="G52" s="3">
-        <v>56600</v>
+        <v>58600</v>
       </c>
       <c r="H52" s="3">
-        <v>45000</v>
+        <v>46600</v>
       </c>
       <c r="I52" s="3">
-        <v>17700</v>
+        <v>18400</v>
       </c>
       <c r="J52" s="3">
-        <v>18900</v>
+        <v>19600</v>
       </c>
       <c r="K52" s="3">
         <v>20200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5005800</v>
+        <v>5188200</v>
       </c>
       <c r="E54" s="3">
-        <v>4417000</v>
+        <v>4578000</v>
       </c>
       <c r="F54" s="3">
-        <v>4218500</v>
+        <v>4372300</v>
       </c>
       <c r="G54" s="3">
-        <v>3820800</v>
+        <v>3960000</v>
       </c>
       <c r="H54" s="3">
-        <v>3736000</v>
+        <v>3872100</v>
       </c>
       <c r="I54" s="3">
-        <v>3712800</v>
+        <v>3848100</v>
       </c>
       <c r="J54" s="3">
-        <v>3768400</v>
+        <v>3905800</v>
       </c>
       <c r="K54" s="3">
         <v>4027200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>431900</v>
+        <v>447600</v>
       </c>
       <c r="E57" s="3">
-        <v>306100</v>
+        <v>317300</v>
       </c>
       <c r="F57" s="3">
-        <v>343400</v>
+        <v>355900</v>
       </c>
       <c r="G57" s="3">
-        <v>333700</v>
+        <v>345800</v>
       </c>
       <c r="H57" s="3">
-        <v>328200</v>
+        <v>340200</v>
       </c>
       <c r="I57" s="3">
-        <v>309000</v>
+        <v>320300</v>
       </c>
       <c r="J57" s="3">
-        <v>282100</v>
+        <v>292300</v>
       </c>
       <c r="K57" s="3">
         <v>301400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>217400</v>
+        <v>225300</v>
       </c>
       <c r="E58" s="3">
-        <v>446800</v>
+        <v>463100</v>
       </c>
       <c r="F58" s="3">
-        <v>469800</v>
+        <v>486900</v>
       </c>
       <c r="G58" s="3">
-        <v>129500</v>
+        <v>134300</v>
       </c>
       <c r="H58" s="3">
-        <v>327400</v>
+        <v>339300</v>
       </c>
       <c r="I58" s="3">
-        <v>408200</v>
+        <v>423100</v>
       </c>
       <c r="J58" s="3">
-        <v>244900</v>
+        <v>253800</v>
       </c>
       <c r="K58" s="3">
         <v>261700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>466400</v>
+        <v>483400</v>
       </c>
       <c r="E59" s="3">
-        <v>386300</v>
+        <v>400400</v>
       </c>
       <c r="F59" s="3">
-        <v>368800</v>
+        <v>382300</v>
       </c>
       <c r="G59" s="3">
-        <v>348700</v>
+        <v>361400</v>
       </c>
       <c r="H59" s="3">
+        <v>320900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>292800</v>
+      </c>
+      <c r="J59" s="3">
         <v>309600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>282500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>298700</v>
       </c>
       <c r="K59" s="3">
         <v>319300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1115700</v>
+        <v>1156300</v>
       </c>
       <c r="E60" s="3">
-        <v>1139300</v>
+        <v>1180800</v>
       </c>
       <c r="F60" s="3">
-        <v>1182000</v>
+        <v>1225100</v>
       </c>
       <c r="G60" s="3">
-        <v>811900</v>
+        <v>841500</v>
       </c>
       <c r="H60" s="3">
-        <v>965200</v>
+        <v>1000400</v>
       </c>
       <c r="I60" s="3">
-        <v>999700</v>
+        <v>1036200</v>
       </c>
       <c r="J60" s="3">
-        <v>825700</v>
+        <v>855800</v>
       </c>
       <c r="K60" s="3">
         <v>882400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1353700</v>
+        <v>1403000</v>
       </c>
       <c r="E61" s="3">
-        <v>1183900</v>
+        <v>1227100</v>
       </c>
       <c r="F61" s="3">
-        <v>588200</v>
+        <v>609700</v>
       </c>
       <c r="G61" s="3">
-        <v>725400</v>
+        <v>751800</v>
       </c>
       <c r="H61" s="3">
-        <v>504200</v>
+        <v>522600</v>
       </c>
       <c r="I61" s="3">
-        <v>491400</v>
+        <v>509400</v>
       </c>
       <c r="J61" s="3">
-        <v>518100</v>
+        <v>537000</v>
       </c>
       <c r="K61" s="3">
         <v>553700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>342700</v>
+        <v>355200</v>
       </c>
       <c r="E62" s="3">
-        <v>308500</v>
+        <v>319700</v>
       </c>
       <c r="F62" s="3">
-        <v>328200</v>
+        <v>340200</v>
       </c>
       <c r="G62" s="3">
-        <v>304100</v>
+        <v>315100</v>
       </c>
       <c r="H62" s="3">
-        <v>315500</v>
+        <v>327000</v>
       </c>
       <c r="I62" s="3">
-        <v>334200</v>
+        <v>346400</v>
       </c>
       <c r="J62" s="3">
-        <v>327700</v>
+        <v>339700</v>
       </c>
       <c r="K62" s="3">
         <v>350200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2812900</v>
+        <v>2915400</v>
       </c>
       <c r="E66" s="3">
-        <v>2632400</v>
+        <v>2728300</v>
       </c>
       <c r="F66" s="3">
-        <v>2099400</v>
+        <v>2175900</v>
       </c>
       <c r="G66" s="3">
-        <v>1841900</v>
+        <v>1909100</v>
       </c>
       <c r="H66" s="3">
-        <v>1809000</v>
+        <v>1874900</v>
       </c>
       <c r="I66" s="3">
-        <v>1845700</v>
+        <v>1912900</v>
       </c>
       <c r="J66" s="3">
-        <v>1690000</v>
+        <v>1751500</v>
       </c>
       <c r="K66" s="3">
         <v>1806000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1214400</v>
+        <v>1258700</v>
       </c>
       <c r="E72" s="3">
-        <v>965900</v>
+        <v>1001100</v>
       </c>
       <c r="F72" s="3">
-        <v>963500</v>
+        <v>998600</v>
       </c>
       <c r="G72" s="3">
-        <v>776200</v>
+        <v>804500</v>
       </c>
       <c r="H72" s="3">
-        <v>688000</v>
+        <v>713000</v>
       </c>
       <c r="I72" s="3">
-        <v>598900</v>
+        <v>620800</v>
       </c>
       <c r="J72" s="3">
-        <v>558400</v>
+        <v>578700</v>
       </c>
       <c r="K72" s="3">
         <v>1781500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2192800</v>
+        <v>2272800</v>
       </c>
       <c r="E76" s="3">
-        <v>1784700</v>
+        <v>1849700</v>
       </c>
       <c r="F76" s="3">
-        <v>2119200</v>
+        <v>2196400</v>
       </c>
       <c r="G76" s="3">
-        <v>1978800</v>
+        <v>2050900</v>
       </c>
       <c r="H76" s="3">
-        <v>1927000</v>
+        <v>1997200</v>
       </c>
       <c r="I76" s="3">
-        <v>1867200</v>
+        <v>1935200</v>
       </c>
       <c r="J76" s="3">
-        <v>2078500</v>
+        <v>2154200</v>
       </c>
       <c r="K76" s="3">
         <v>2221200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>317200</v>
+        <v>328700</v>
       </c>
       <c r="E81" s="3">
-        <v>90400</v>
+        <v>93700</v>
       </c>
       <c r="F81" s="3">
-        <v>254300</v>
+        <v>263500</v>
       </c>
       <c r="G81" s="3">
-        <v>136300</v>
+        <v>141200</v>
       </c>
       <c r="H81" s="3">
-        <v>125700</v>
+        <v>130300</v>
       </c>
       <c r="I81" s="3">
-        <v>83700</v>
+        <v>86700</v>
       </c>
       <c r="J81" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="K81" s="3">
         <v>-285500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>256500</v>
+        <v>258500</v>
       </c>
       <c r="E83" s="3">
-        <v>249400</v>
+        <v>252800</v>
       </c>
       <c r="F83" s="3">
-        <v>244000</v>
+        <v>197300</v>
       </c>
       <c r="G83" s="3">
-        <v>190300</v>
+        <v>200600</v>
       </c>
       <c r="H83" s="3">
-        <v>193500</v>
+        <v>202400</v>
       </c>
       <c r="I83" s="3">
-        <v>195300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>205400</v>
+        <v>212900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>521200</v>
+        <v>533900</v>
       </c>
       <c r="E89" s="3">
-        <v>515200</v>
+        <v>454700</v>
       </c>
       <c r="F89" s="3">
-        <v>438700</v>
+        <v>338000</v>
       </c>
       <c r="G89" s="3">
-        <v>326100</v>
+        <v>288100</v>
       </c>
       <c r="H89" s="3">
-        <v>278000</v>
+        <v>353100</v>
       </c>
       <c r="I89" s="3">
-        <v>340700</v>
+        <v>275400</v>
       </c>
       <c r="J89" s="3">
-        <v>265700</v>
+        <v>228000</v>
       </c>
       <c r="K89" s="3">
         <v>235100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-285600</v>
+        <v>-212700</v>
       </c>
       <c r="E91" s="3">
-        <v>-205200</v>
+        <v>-270300</v>
       </c>
       <c r="F91" s="3">
-        <v>-260800</v>
+        <v>-228400</v>
       </c>
       <c r="G91" s="3">
-        <v>-220300</v>
+        <v>-172700</v>
       </c>
       <c r="H91" s="3">
-        <v>-166600</v>
+        <v>-173100</v>
       </c>
       <c r="I91" s="3">
-        <v>-167000</v>
+        <v>-156400</v>
       </c>
       <c r="J91" s="3">
-        <v>-150900</v>
+        <v>-134900</v>
       </c>
       <c r="K91" s="3">
         <v>-139000</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-680600</v>
+        <v>-156400</v>
       </c>
       <c r="E94" s="3">
-        <v>-150900</v>
+        <v>-279400</v>
       </c>
       <c r="F94" s="3">
-        <v>-269600</v>
+        <v>-223900</v>
       </c>
       <c r="G94" s="3">
-        <v>-216100</v>
+        <v>-189100</v>
       </c>
       <c r="H94" s="3">
-        <v>-182400</v>
+        <v>-138700</v>
       </c>
       <c r="I94" s="3">
-        <v>-133800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-138100</v>
+        <v>-143200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-68800</v>
+        <v>-71300</v>
       </c>
       <c r="E96" s="3">
-        <v>-68800</v>
+        <v>-60600</v>
       </c>
       <c r="F96" s="3">
-        <v>-58500</v>
+        <v>-36800</v>
       </c>
       <c r="G96" s="3">
-        <v>-35500</v>
+        <v>-33400</v>
       </c>
       <c r="H96" s="3">
-        <v>-32200</v>
+        <v>-24700</v>
       </c>
       <c r="I96" s="3">
-        <v>-23900</v>
+        <v>-18600</v>
       </c>
       <c r="J96" s="3">
-        <v>-17900</v>
+        <v>-14600</v>
       </c>
       <c r="K96" s="3">
         <v>-15100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-150700</v>
+        <v>193900</v>
       </c>
       <c r="E100" s="3">
-        <v>187100</v>
+        <v>-212900</v>
       </c>
       <c r="F100" s="3">
-        <v>-205400</v>
+        <v>-120300</v>
       </c>
       <c r="G100" s="3">
-        <v>-116100</v>
+        <v>-127200</v>
       </c>
       <c r="H100" s="3">
-        <v>-122700</v>
+        <v>-168400</v>
       </c>
       <c r="I100" s="3">
-        <v>-162400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-251200</v>
+        <v>-260300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>-2800</v>
       </c>
       <c r="E101" s="3">
-        <v>-2700</v>
+        <v>1300</v>
       </c>
       <c r="F101" s="3">
-        <v>1300</v>
+        <v>-200</v>
       </c>
       <c r="G101" s="3">
-        <v>-200</v>
+        <v>-1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1200</v>
+        <v>-1500</v>
       </c>
       <c r="I101" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>700</v>
+        <v>800</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-308100</v>
+        <v>568600</v>
       </c>
       <c r="E102" s="3">
-        <v>548600</v>
+        <v>-36300</v>
       </c>
       <c r="F102" s="3">
-        <v>-35000</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>-6300</v>
+        <v>-29400</v>
       </c>
       <c r="H102" s="3">
-        <v>-28300</v>
+        <v>44600</v>
       </c>
       <c r="I102" s="3">
-        <v>43000</v>
+        <v>-127300</v>
       </c>
       <c r="J102" s="3">
-        <v>-122800</v>
+        <v>-234300</v>
       </c>
       <c r="K102" s="3">
         <v>-241600</v>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>WBRBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4201600</v>
+        <v>5359400</v>
       </c>
       <c r="E8" s="3">
-        <v>3549200</v>
+        <v>4276700</v>
       </c>
       <c r="F8" s="3">
-        <v>3667300</v>
+        <v>3612600</v>
       </c>
       <c r="G8" s="3">
-        <v>3496800</v>
+        <v>3732800</v>
       </c>
       <c r="H8" s="3">
-        <v>3300700</v>
+        <v>3559200</v>
       </c>
       <c r="I8" s="3">
-        <v>3146300</v>
+        <v>3359600</v>
       </c>
       <c r="J8" s="3">
+        <v>3202500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3144800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3092200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3132700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2586400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2248300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2679000</v>
+        <v>3262400</v>
       </c>
       <c r="E9" s="3">
-        <v>2291800</v>
+        <v>2726800</v>
       </c>
       <c r="F9" s="3">
-        <v>2339800</v>
+        <v>2332700</v>
       </c>
       <c r="G9" s="3">
-        <v>2270800</v>
+        <v>2381600</v>
       </c>
       <c r="H9" s="3">
-        <v>2215100</v>
+        <v>2311400</v>
       </c>
       <c r="I9" s="3">
-        <v>2127900</v>
+        <v>2254700</v>
       </c>
       <c r="J9" s="3">
+        <v>2165900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2145400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2164100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2220300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1823800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1527600</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1522700</v>
+        <v>2097000</v>
       </c>
       <c r="E10" s="3">
-        <v>1257400</v>
+        <v>1549900</v>
       </c>
       <c r="F10" s="3">
-        <v>1327500</v>
+        <v>1279900</v>
       </c>
       <c r="G10" s="3">
-        <v>1226000</v>
+        <v>1351200</v>
       </c>
       <c r="H10" s="3">
-        <v>1085500</v>
+        <v>1247900</v>
       </c>
       <c r="I10" s="3">
-        <v>1018400</v>
+        <v>1104900</v>
       </c>
       <c r="J10" s="3">
+        <v>1036600</v>
+      </c>
+      <c r="K10" s="3">
         <v>999300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>928100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>912400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>762600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>720700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="E14" s="3">
-        <v>124300</v>
+        <v>21000</v>
       </c>
       <c r="F14" s="3">
+        <v>126500</v>
+      </c>
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
-        <v>11300</v>
-      </c>
       <c r="H14" s="3">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="I14" s="3">
-        <v>7600</v>
+        <v>16800</v>
       </c>
       <c r="J14" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K14" s="3">
         <v>5600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>291300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>57900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-36000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>110900</v>
+        <v>132200</v>
       </c>
       <c r="E15" s="3">
-        <v>208000</v>
+        <v>112900</v>
       </c>
       <c r="F15" s="3">
-        <v>82200</v>
+        <v>211700</v>
       </c>
       <c r="G15" s="3">
-        <v>63500</v>
+        <v>83700</v>
       </c>
       <c r="H15" s="3">
-        <v>92700</v>
+        <v>64700</v>
       </c>
       <c r="I15" s="3">
-        <v>67800</v>
+        <v>94400</v>
       </c>
       <c r="J15" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K15" s="3">
         <v>56600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>59100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>67600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>68100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>58000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3766100</v>
+        <v>4583800</v>
       </c>
       <c r="E17" s="3">
-        <v>3350600</v>
+        <v>3833400</v>
       </c>
       <c r="F17" s="3">
-        <v>3285300</v>
+        <v>3410500</v>
       </c>
       <c r="G17" s="3">
-        <v>3245500</v>
+        <v>3344000</v>
       </c>
       <c r="H17" s="3">
-        <v>3111700</v>
+        <v>3303500</v>
       </c>
       <c r="I17" s="3">
-        <v>2944700</v>
+        <v>3167300</v>
       </c>
       <c r="J17" s="3">
+        <v>2997300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2973000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3274100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3056600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2610200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2204300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>435500</v>
+        <v>775600</v>
       </c>
       <c r="E18" s="3">
-        <v>198500</v>
+        <v>443300</v>
       </c>
       <c r="F18" s="3">
-        <v>382000</v>
+        <v>202100</v>
       </c>
       <c r="G18" s="3">
-        <v>251300</v>
+        <v>388800</v>
       </c>
       <c r="H18" s="3">
-        <v>189000</v>
+        <v>255800</v>
       </c>
       <c r="I18" s="3">
-        <v>201600</v>
+        <v>192300</v>
       </c>
       <c r="J18" s="3">
+        <v>205200</v>
+      </c>
+      <c r="K18" s="3">
         <v>171700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-181900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,70 +1148,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-7200</v>
-      </c>
       <c r="G20" s="3">
-        <v>-1700</v>
+        <v>-7300</v>
       </c>
       <c r="H20" s="3">
-        <v>5300</v>
+        <v>-1800</v>
       </c>
       <c r="I20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>51500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>71500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>694700</v>
+        <v>1091600</v>
       </c>
       <c r="E21" s="3">
-        <v>447500</v>
+        <v>717200</v>
       </c>
       <c r="F21" s="3">
-        <v>571400</v>
+        <v>463800</v>
       </c>
       <c r="G21" s="3">
-        <v>449500</v>
+        <v>640500</v>
       </c>
       <c r="H21" s="3">
-        <v>396000</v>
+        <v>456100</v>
       </c>
       <c r="I21" s="3">
-        <v>417900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>403200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>416800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1187,132 +1223,144 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>241700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>331500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41100</v>
+        <v>50800</v>
       </c>
       <c r="E22" s="3">
-        <v>38100</v>
+        <v>41800</v>
       </c>
       <c r="F22" s="3">
-        <v>41200</v>
+        <v>38800</v>
       </c>
       <c r="G22" s="3">
-        <v>42900</v>
+        <v>42000</v>
       </c>
       <c r="H22" s="3">
-        <v>41000</v>
+        <v>43600</v>
       </c>
       <c r="I22" s="3">
-        <v>38000</v>
+        <v>41700</v>
       </c>
       <c r="J22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K22" s="3">
         <v>51900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>66600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>75100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>67400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>396000</v>
+        <v>741300</v>
       </c>
       <c r="E23" s="3">
-        <v>157400</v>
+        <v>403100</v>
       </c>
       <c r="F23" s="3">
-        <v>333600</v>
+        <v>160200</v>
       </c>
       <c r="G23" s="3">
-        <v>206700</v>
+        <v>339500</v>
       </c>
       <c r="H23" s="3">
-        <v>153300</v>
+        <v>210400</v>
       </c>
       <c r="I23" s="3">
-        <v>167700</v>
+        <v>156000</v>
       </c>
       <c r="J23" s="3">
+        <v>170700</v>
+      </c>
+      <c r="K23" s="3">
         <v>113200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-234900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-39700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55700</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65800</v>
+        <v>129000</v>
       </c>
       <c r="E24" s="3">
-        <v>51700</v>
+        <v>67000</v>
       </c>
       <c r="F24" s="3">
-        <v>55600</v>
+        <v>52600</v>
       </c>
       <c r="G24" s="3">
-        <v>51300</v>
+        <v>56500</v>
       </c>
       <c r="H24" s="3">
-        <v>4500</v>
+        <v>52200</v>
       </c>
       <c r="I24" s="3">
-        <v>45700</v>
+        <v>4600</v>
       </c>
       <c r="J24" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K24" s="3">
         <v>39400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>330200</v>
+        <v>612300</v>
       </c>
       <c r="E26" s="3">
-        <v>105700</v>
+        <v>336100</v>
       </c>
       <c r="F26" s="3">
-        <v>278000</v>
+        <v>107600</v>
       </c>
       <c r="G26" s="3">
-        <v>155400</v>
+        <v>283000</v>
       </c>
       <c r="H26" s="3">
-        <v>148800</v>
+        <v>158200</v>
       </c>
       <c r="I26" s="3">
-        <v>122000</v>
+        <v>151400</v>
       </c>
       <c r="J26" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K26" s="3">
         <v>73900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-250500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-44500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46300</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>328700</v>
+        <v>611600</v>
       </c>
       <c r="E27" s="3">
-        <v>93700</v>
+        <v>334600</v>
       </c>
       <c r="F27" s="3">
-        <v>263500</v>
+        <v>95300</v>
       </c>
       <c r="G27" s="3">
-        <v>141200</v>
+        <v>268300</v>
       </c>
       <c r="H27" s="3">
-        <v>130300</v>
+        <v>143800</v>
       </c>
       <c r="I27" s="3">
-        <v>86700</v>
+        <v>132600</v>
       </c>
       <c r="J27" s="3">
+        <v>88300</v>
+      </c>
+      <c r="K27" s="3">
         <v>38700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-285500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-77200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3100</v>
       </c>
-      <c r="F32" s="3">
-        <v>7200</v>
-      </c>
       <c r="G32" s="3">
-        <v>1700</v>
+        <v>7300</v>
       </c>
       <c r="H32" s="3">
-        <v>-5300</v>
+        <v>1800</v>
       </c>
       <c r="I32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-51500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-71500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>328700</v>
+        <v>611600</v>
       </c>
       <c r="E33" s="3">
-        <v>93700</v>
+        <v>334600</v>
       </c>
       <c r="F33" s="3">
-        <v>263500</v>
+        <v>95300</v>
       </c>
       <c r="G33" s="3">
-        <v>141200</v>
+        <v>268300</v>
       </c>
       <c r="H33" s="3">
-        <v>130300</v>
+        <v>143800</v>
       </c>
       <c r="I33" s="3">
-        <v>86700</v>
+        <v>132600</v>
       </c>
       <c r="J33" s="3">
+        <v>88300</v>
+      </c>
+      <c r="K33" s="3">
         <v>38700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-285500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-77200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>328700</v>
+        <v>611600</v>
       </c>
       <c r="E35" s="3">
-        <v>93700</v>
+        <v>334600</v>
       </c>
       <c r="F35" s="3">
-        <v>263500</v>
+        <v>95300</v>
       </c>
       <c r="G35" s="3">
-        <v>141200</v>
+        <v>268300</v>
       </c>
       <c r="H35" s="3">
-        <v>130300</v>
+        <v>143800</v>
       </c>
       <c r="I35" s="3">
-        <v>86700</v>
+        <v>132600</v>
       </c>
       <c r="J35" s="3">
+        <v>88300</v>
+      </c>
+      <c r="K35" s="3">
         <v>38700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-285500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-77200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>385400</v>
+        <v>323100</v>
       </c>
       <c r="E41" s="3">
-        <v>704800</v>
+        <v>392300</v>
       </c>
       <c r="F41" s="3">
-        <v>136200</v>
+        <v>717400</v>
       </c>
       <c r="G41" s="3">
-        <v>172500</v>
+        <v>138700</v>
       </c>
       <c r="H41" s="3">
-        <v>179100</v>
+        <v>175600</v>
       </c>
       <c r="I41" s="3">
-        <v>208400</v>
+        <v>182300</v>
       </c>
       <c r="J41" s="3">
+        <v>212200</v>
+      </c>
+      <c r="K41" s="3">
         <v>163900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>169000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>584300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>266000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1167700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H42" s="3">
         <v>6600</v>
       </c>
-      <c r="E42" s="3">
-        <v>6900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>83600</v>
-      </c>
       <c r="I42" s="3">
-        <v>55800</v>
+        <v>85100</v>
       </c>
       <c r="J42" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K42" s="3">
         <v>61800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>63700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>107600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>79600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>100300</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>531300</v>
+        <v>576700</v>
       </c>
       <c r="E43" s="3">
-        <v>358500</v>
+        <v>540800</v>
       </c>
       <c r="F43" s="3">
-        <v>372100</v>
+        <v>364900</v>
       </c>
       <c r="G43" s="3">
-        <v>359200</v>
+        <v>378800</v>
       </c>
       <c r="H43" s="3">
-        <v>313900</v>
+        <v>365600</v>
       </c>
       <c r="I43" s="3">
-        <v>278200</v>
+        <v>319500</v>
       </c>
       <c r="J43" s="3">
+        <v>283200</v>
+      </c>
+      <c r="K43" s="3">
         <v>277000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>285600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>331300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>296800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>203800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>934500</v>
+        <v>1115900</v>
       </c>
       <c r="E44" s="3">
-        <v>771300</v>
+        <v>951200</v>
       </c>
       <c r="F44" s="3">
-        <v>875600</v>
+        <v>785100</v>
       </c>
       <c r="G44" s="3">
-        <v>805800</v>
+        <v>891200</v>
       </c>
       <c r="H44" s="3">
-        <v>784600</v>
+        <v>820200</v>
       </c>
       <c r="I44" s="3">
-        <v>760000</v>
+        <v>798600</v>
       </c>
       <c r="J44" s="3">
+        <v>773600</v>
+      </c>
+      <c r="K44" s="3">
         <v>797000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>821800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>783500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>766600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>674800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4800</v>
+        <v>42800</v>
       </c>
       <c r="E45" s="3">
-        <v>12600</v>
+        <v>4900</v>
       </c>
       <c r="F45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
-        <v>10100</v>
-      </c>
       <c r="H45" s="3">
-        <v>24100</v>
+        <v>10300</v>
       </c>
       <c r="I45" s="3">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="J45" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K45" s="3">
         <v>14500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1862700</v>
+        <v>2064400</v>
       </c>
       <c r="E46" s="3">
-        <v>1854100</v>
+        <v>1896000</v>
       </c>
       <c r="F46" s="3">
-        <v>1394400</v>
+        <v>1887300</v>
       </c>
       <c r="G46" s="3">
-        <v>1354200</v>
+        <v>1419300</v>
       </c>
       <c r="H46" s="3">
-        <v>1385300</v>
+        <v>1378400</v>
       </c>
       <c r="I46" s="3">
-        <v>1324000</v>
+        <v>1410000</v>
       </c>
       <c r="J46" s="3">
+        <v>1347700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1314100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1355000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1822100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1426800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1570600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42600</v>
+        <v>47200</v>
       </c>
       <c r="E47" s="3">
-        <v>66000</v>
+        <v>43400</v>
       </c>
       <c r="F47" s="3">
-        <v>55100</v>
+        <v>67200</v>
       </c>
       <c r="G47" s="3">
-        <v>55600</v>
+        <v>56100</v>
       </c>
       <c r="H47" s="3">
-        <v>29700</v>
+        <v>56600</v>
       </c>
       <c r="I47" s="3">
-        <v>29100</v>
+        <v>30200</v>
       </c>
       <c r="J47" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K47" s="3">
         <v>24500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>37700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>161400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2285300</v>
+        <v>2484200</v>
       </c>
       <c r="E48" s="3">
-        <v>1910400</v>
+        <v>2326200</v>
       </c>
       <c r="F48" s="3">
-        <v>2053000</v>
+        <v>1944500</v>
       </c>
       <c r="G48" s="3">
-        <v>1737500</v>
+        <v>2089700</v>
       </c>
       <c r="H48" s="3">
-        <v>1679600</v>
+        <v>1768600</v>
       </c>
       <c r="I48" s="3">
-        <v>1746200</v>
+        <v>1709600</v>
       </c>
       <c r="J48" s="3">
+        <v>1777400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1805500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1861600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2048900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2069000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4133600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>907100</v>
+        <v>911900</v>
       </c>
       <c r="E49" s="3">
-        <v>683000</v>
+        <v>923300</v>
       </c>
       <c r="F49" s="3">
-        <v>804500</v>
+        <v>695200</v>
       </c>
       <c r="G49" s="3">
-        <v>754100</v>
+        <v>818900</v>
       </c>
       <c r="H49" s="3">
-        <v>731000</v>
+        <v>767500</v>
       </c>
       <c r="I49" s="3">
-        <v>730500</v>
+        <v>744000</v>
       </c>
       <c r="J49" s="3">
+        <v>743500</v>
+      </c>
+      <c r="K49" s="3">
         <v>742100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>765200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>991600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>968500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1595300</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>90400</v>
+        <v>91400</v>
       </c>
       <c r="E52" s="3">
-        <v>64400</v>
+        <v>92000</v>
       </c>
       <c r="F52" s="3">
-        <v>65300</v>
+        <v>65600</v>
       </c>
       <c r="G52" s="3">
-        <v>58600</v>
+        <v>66400</v>
       </c>
       <c r="H52" s="3">
-        <v>46600</v>
+        <v>59700</v>
       </c>
       <c r="I52" s="3">
-        <v>18400</v>
+        <v>47400</v>
       </c>
       <c r="J52" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K52" s="3">
         <v>19600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>49300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5188200</v>
+        <v>5599100</v>
       </c>
       <c r="E54" s="3">
-        <v>4578000</v>
+        <v>5280900</v>
       </c>
       <c r="F54" s="3">
-        <v>4372300</v>
+        <v>4659800</v>
       </c>
       <c r="G54" s="3">
-        <v>3960000</v>
+        <v>4450400</v>
       </c>
       <c r="H54" s="3">
-        <v>3872100</v>
+        <v>4030700</v>
       </c>
       <c r="I54" s="3">
-        <v>3848100</v>
+        <v>3941300</v>
       </c>
       <c r="J54" s="3">
+        <v>3916900</v>
+      </c>
+      <c r="K54" s="3">
         <v>3905800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4027200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4954200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4545400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4685100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>447600</v>
+        <v>473400</v>
       </c>
       <c r="E57" s="3">
-        <v>317300</v>
+        <v>455600</v>
       </c>
       <c r="F57" s="3">
-        <v>355900</v>
+        <v>322900</v>
       </c>
       <c r="G57" s="3">
-        <v>345800</v>
+        <v>362300</v>
       </c>
       <c r="H57" s="3">
-        <v>340200</v>
+        <v>352000</v>
       </c>
       <c r="I57" s="3">
-        <v>320300</v>
+        <v>346300</v>
       </c>
       <c r="J57" s="3">
+        <v>326000</v>
+      </c>
+      <c r="K57" s="3">
         <v>292300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>301400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>315700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>278000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>442200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>225300</v>
+        <v>223100</v>
       </c>
       <c r="E58" s="3">
-        <v>463100</v>
+        <v>229400</v>
       </c>
       <c r="F58" s="3">
-        <v>486900</v>
+        <v>471400</v>
       </c>
       <c r="G58" s="3">
-        <v>134300</v>
+        <v>495600</v>
       </c>
       <c r="H58" s="3">
-        <v>339300</v>
+        <v>136700</v>
       </c>
       <c r="I58" s="3">
-        <v>423100</v>
+        <v>345400</v>
       </c>
       <c r="J58" s="3">
+        <v>430700</v>
+      </c>
+      <c r="K58" s="3">
         <v>253800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>261700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>342200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>63800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>987600</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>483400</v>
+        <v>591200</v>
       </c>
       <c r="E59" s="3">
-        <v>400400</v>
+        <v>492000</v>
       </c>
       <c r="F59" s="3">
-        <v>382300</v>
+        <v>407600</v>
       </c>
       <c r="G59" s="3">
-        <v>361400</v>
+        <v>389100</v>
       </c>
       <c r="H59" s="3">
-        <v>320900</v>
+        <v>367800</v>
       </c>
       <c r="I59" s="3">
-        <v>292800</v>
+        <v>326600</v>
       </c>
       <c r="J59" s="3">
+        <v>298000</v>
+      </c>
+      <c r="K59" s="3">
         <v>309600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>319300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>332400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>335000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>231300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1156300</v>
+        <v>1287600</v>
       </c>
       <c r="E60" s="3">
-        <v>1180800</v>
+        <v>1177000</v>
       </c>
       <c r="F60" s="3">
-        <v>1225100</v>
+        <v>1201900</v>
       </c>
       <c r="G60" s="3">
-        <v>841500</v>
+        <v>1247000</v>
       </c>
       <c r="H60" s="3">
-        <v>1000400</v>
+        <v>856500</v>
       </c>
       <c r="I60" s="3">
-        <v>1036200</v>
+        <v>1018300</v>
       </c>
       <c r="J60" s="3">
+        <v>1054700</v>
+      </c>
+      <c r="K60" s="3">
         <v>855800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>882400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>990300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>676700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>946200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1403000</v>
+        <v>1340800</v>
       </c>
       <c r="E61" s="3">
-        <v>1227100</v>
+        <v>1428100</v>
       </c>
       <c r="F61" s="3">
-        <v>609700</v>
+        <v>1249000</v>
       </c>
       <c r="G61" s="3">
-        <v>751800</v>
+        <v>620600</v>
       </c>
       <c r="H61" s="3">
-        <v>522600</v>
+        <v>765200</v>
       </c>
       <c r="I61" s="3">
-        <v>509400</v>
+        <v>531900</v>
       </c>
       <c r="J61" s="3">
+        <v>518500</v>
+      </c>
+      <c r="K61" s="3">
         <v>537000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>553700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>983600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>942900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>603200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>355200</v>
+        <v>315900</v>
       </c>
       <c r="E62" s="3">
-        <v>319700</v>
+        <v>361500</v>
       </c>
       <c r="F62" s="3">
-        <v>340200</v>
+        <v>325400</v>
       </c>
       <c r="G62" s="3">
-        <v>315100</v>
+        <v>346300</v>
       </c>
       <c r="H62" s="3">
-        <v>327000</v>
+        <v>320800</v>
       </c>
       <c r="I62" s="3">
-        <v>346400</v>
+        <v>332900</v>
       </c>
       <c r="J62" s="3">
+        <v>352600</v>
+      </c>
+      <c r="K62" s="3">
         <v>339700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>350200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>328600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>330500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>387900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2915400</v>
+        <v>2961900</v>
       </c>
       <c r="E66" s="3">
-        <v>2728300</v>
+        <v>2967500</v>
       </c>
       <c r="F66" s="3">
-        <v>2175900</v>
+        <v>2777000</v>
       </c>
       <c r="G66" s="3">
-        <v>1909100</v>
+        <v>2214700</v>
       </c>
       <c r="H66" s="3">
-        <v>1874900</v>
+        <v>1943200</v>
       </c>
       <c r="I66" s="3">
-        <v>1912900</v>
+        <v>1908400</v>
       </c>
       <c r="J66" s="3">
+        <v>1947100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1751500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1806000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2304700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1953800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1835600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1258700</v>
+        <v>1806900</v>
       </c>
       <c r="E72" s="3">
-        <v>1001100</v>
+        <v>1281200</v>
       </c>
       <c r="F72" s="3">
-        <v>998600</v>
+        <v>1018900</v>
       </c>
       <c r="G72" s="3">
-        <v>804500</v>
+        <v>1016400</v>
       </c>
       <c r="H72" s="3">
-        <v>713000</v>
+        <v>818900</v>
       </c>
       <c r="I72" s="3">
-        <v>620800</v>
+        <v>725800</v>
       </c>
       <c r="J72" s="3">
+        <v>631800</v>
+      </c>
+      <c r="K72" s="3">
         <v>578700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1781500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1960100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2183900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2222600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2272800</v>
+        <v>2637200</v>
       </c>
       <c r="E76" s="3">
-        <v>1849700</v>
+        <v>2313400</v>
       </c>
       <c r="F76" s="3">
-        <v>2196400</v>
+        <v>1882700</v>
       </c>
       <c r="G76" s="3">
-        <v>2050900</v>
+        <v>2235600</v>
       </c>
       <c r="H76" s="3">
-        <v>1997200</v>
+        <v>2087600</v>
       </c>
       <c r="I76" s="3">
-        <v>1935200</v>
+        <v>2032900</v>
       </c>
       <c r="J76" s="3">
+        <v>1969800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2154200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2221200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2649600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2591600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2849500</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>328700</v>
+        <v>611600</v>
       </c>
       <c r="E81" s="3">
-        <v>93700</v>
+        <v>334600</v>
       </c>
       <c r="F81" s="3">
-        <v>263500</v>
+        <v>95300</v>
       </c>
       <c r="G81" s="3">
-        <v>141200</v>
+        <v>268300</v>
       </c>
       <c r="H81" s="3">
-        <v>130300</v>
+        <v>143800</v>
       </c>
       <c r="I81" s="3">
-        <v>86700</v>
+        <v>132600</v>
       </c>
       <c r="J81" s="3">
+        <v>88300</v>
+      </c>
+      <c r="K81" s="3">
         <v>38700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-285500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-77200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,31 +3492,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>258500</v>
+        <v>297500</v>
       </c>
       <c r="E83" s="3">
-        <v>252800</v>
+        <v>270600</v>
       </c>
       <c r="F83" s="3">
-        <v>197300</v>
+        <v>263100</v>
       </c>
       <c r="G83" s="3">
-        <v>200600</v>
+        <v>257400</v>
       </c>
       <c r="H83" s="3">
-        <v>202400</v>
+        <v>200800</v>
       </c>
       <c r="I83" s="3">
-        <v>212900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>204200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>206000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3327,15 +3525,18 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>213700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>215900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>533900</v>
+        <v>779500</v>
       </c>
       <c r="E89" s="3">
-        <v>454700</v>
+        <v>549800</v>
       </c>
       <c r="F89" s="3">
-        <v>338000</v>
+        <v>543500</v>
       </c>
       <c r="G89" s="3">
-        <v>288100</v>
+        <v>462800</v>
       </c>
       <c r="H89" s="3">
-        <v>353100</v>
+        <v>344000</v>
       </c>
       <c r="I89" s="3">
-        <v>275400</v>
+        <v>293300</v>
       </c>
       <c r="J89" s="3">
+        <v>359400</v>
+      </c>
+      <c r="K89" s="3">
         <v>228000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>235100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>224600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>252000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>192500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-212700</v>
+        <v>-379700</v>
       </c>
       <c r="E91" s="3">
-        <v>-270300</v>
+        <v>-301300</v>
       </c>
       <c r="F91" s="3">
-        <v>-228400</v>
+        <v>-216500</v>
       </c>
       <c r="G91" s="3">
-        <v>-172700</v>
+        <v>-275100</v>
       </c>
       <c r="H91" s="3">
-        <v>-173100</v>
+        <v>-232400</v>
       </c>
       <c r="I91" s="3">
-        <v>-156400</v>
+        <v>-175700</v>
       </c>
       <c r="J91" s="3">
+        <v>-176200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-134900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-139000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-125400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-133900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-135200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,32 +3927,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-156400</v>
+        <v>-358400</v>
       </c>
       <c r="E94" s="3">
-        <v>-279400</v>
+        <v>-718000</v>
       </c>
       <c r="F94" s="3">
-        <v>-223900</v>
+        <v>-159200</v>
       </c>
       <c r="G94" s="3">
-        <v>-189100</v>
+        <v>-284400</v>
       </c>
       <c r="H94" s="3">
-        <v>-138700</v>
+        <v>-227900</v>
       </c>
       <c r="I94" s="3">
-        <v>-143200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-192500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-141200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3734,15 +3963,18 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-251800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-99600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-71300</v>
+        <v>-90300</v>
       </c>
       <c r="E96" s="3">
-        <v>-60600</v>
+        <v>-72500</v>
       </c>
       <c r="F96" s="3">
-        <v>-36800</v>
+        <v>-72500</v>
       </c>
       <c r="G96" s="3">
-        <v>-33400</v>
+        <v>-61700</v>
       </c>
       <c r="H96" s="3">
-        <v>-24700</v>
+        <v>-37500</v>
       </c>
       <c r="I96" s="3">
-        <v>-18600</v>
+        <v>-34000</v>
       </c>
       <c r="J96" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-15200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-13800</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,32 +4155,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>193900</v>
+        <v>-483300</v>
       </c>
       <c r="E100" s="3">
-        <v>-212900</v>
+        <v>-159000</v>
       </c>
       <c r="F100" s="3">
-        <v>-120300</v>
+        <v>197300</v>
       </c>
       <c r="G100" s="3">
-        <v>-127200</v>
+        <v>-216700</v>
       </c>
       <c r="H100" s="3">
-        <v>-168400</v>
+        <v>-122500</v>
       </c>
       <c r="I100" s="3">
-        <v>-260300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-129400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-171400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3946,38 +4191,41 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-273000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2800</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3985,52 +4233,58 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>568600</v>
+        <v>-62300</v>
       </c>
       <c r="E102" s="3">
-        <v>-36300</v>
+        <v>-325100</v>
       </c>
       <c r="F102" s="3">
-        <v>-6500</v>
+        <v>578700</v>
       </c>
       <c r="G102" s="3">
-        <v>-29400</v>
+        <v>-37000</v>
       </c>
       <c r="H102" s="3">
-        <v>44600</v>
+        <v>-6700</v>
       </c>
       <c r="I102" s="3">
-        <v>-127300</v>
+        <v>-29900</v>
       </c>
       <c r="J102" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-234300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-241600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>299300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-272400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>61400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5359400</v>
+        <v>5395300</v>
       </c>
       <c r="E8" s="3">
-        <v>4276700</v>
+        <v>4305300</v>
       </c>
       <c r="F8" s="3">
-        <v>3612600</v>
+        <v>3636700</v>
       </c>
       <c r="G8" s="3">
-        <v>3732800</v>
+        <v>3757800</v>
       </c>
       <c r="H8" s="3">
-        <v>3559200</v>
+        <v>3583000</v>
       </c>
       <c r="I8" s="3">
-        <v>3359600</v>
+        <v>3382100</v>
       </c>
       <c r="J8" s="3">
-        <v>3202500</v>
+        <v>3223900</v>
       </c>
       <c r="K8" s="3">
         <v>3144800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3262400</v>
+        <v>3284200</v>
       </c>
       <c r="E9" s="3">
-        <v>2726800</v>
+        <v>2745100</v>
       </c>
       <c r="F9" s="3">
-        <v>2332700</v>
+        <v>2348300</v>
       </c>
       <c r="G9" s="3">
-        <v>2381600</v>
+        <v>2397500</v>
       </c>
       <c r="H9" s="3">
-        <v>2311400</v>
+        <v>2326800</v>
       </c>
       <c r="I9" s="3">
-        <v>2254700</v>
+        <v>2269800</v>
       </c>
       <c r="J9" s="3">
-        <v>2165900</v>
+        <v>2180400</v>
       </c>
       <c r="K9" s="3">
         <v>2145400</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2097000</v>
+        <v>2111100</v>
       </c>
       <c r="E10" s="3">
-        <v>1549900</v>
+        <v>1560200</v>
       </c>
       <c r="F10" s="3">
-        <v>1279900</v>
+        <v>1288400</v>
       </c>
       <c r="G10" s="3">
-        <v>1351200</v>
+        <v>1360300</v>
       </c>
       <c r="H10" s="3">
-        <v>1247900</v>
+        <v>1256200</v>
       </c>
       <c r="I10" s="3">
-        <v>1104900</v>
+        <v>1112300</v>
       </c>
       <c r="J10" s="3">
-        <v>1036600</v>
+        <v>1043500</v>
       </c>
       <c r="K10" s="3">
         <v>999300</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="E14" s="3">
-        <v>21000</v>
+        <v>21200</v>
       </c>
       <c r="F14" s="3">
-        <v>126500</v>
+        <v>127400</v>
       </c>
       <c r="G14" s="3">
         <v>1700</v>
       </c>
       <c r="H14" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="I14" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="J14" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="K14" s="3">
         <v>5600</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>132200</v>
+        <v>133100</v>
       </c>
       <c r="E15" s="3">
-        <v>112900</v>
+        <v>113600</v>
       </c>
       <c r="F15" s="3">
-        <v>211700</v>
+        <v>213100</v>
       </c>
       <c r="G15" s="3">
-        <v>83700</v>
+        <v>84300</v>
       </c>
       <c r="H15" s="3">
-        <v>64700</v>
+        <v>65100</v>
       </c>
       <c r="I15" s="3">
-        <v>94400</v>
+        <v>95000</v>
       </c>
       <c r="J15" s="3">
-        <v>69000</v>
+        <v>69500</v>
       </c>
       <c r="K15" s="3">
         <v>56600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4583800</v>
+        <v>4614400</v>
       </c>
       <c r="E17" s="3">
-        <v>3833400</v>
+        <v>3859000</v>
       </c>
       <c r="F17" s="3">
-        <v>3410500</v>
+        <v>3433300</v>
       </c>
       <c r="G17" s="3">
-        <v>3344000</v>
+        <v>3366400</v>
       </c>
       <c r="H17" s="3">
-        <v>3303500</v>
+        <v>3325500</v>
       </c>
       <c r="I17" s="3">
-        <v>3167300</v>
+        <v>3188400</v>
       </c>
       <c r="J17" s="3">
-        <v>2997300</v>
+        <v>3017400</v>
       </c>
       <c r="K17" s="3">
         <v>2973000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>775600</v>
+        <v>780800</v>
       </c>
       <c r="E18" s="3">
-        <v>443300</v>
+        <v>446300</v>
       </c>
       <c r="F18" s="3">
-        <v>202100</v>
+        <v>203400</v>
       </c>
       <c r="G18" s="3">
-        <v>388800</v>
+        <v>391400</v>
       </c>
       <c r="H18" s="3">
-        <v>255800</v>
+        <v>257500</v>
       </c>
       <c r="I18" s="3">
-        <v>192300</v>
+        <v>193600</v>
       </c>
       <c r="J18" s="3">
-        <v>205200</v>
+        <v>206600</v>
       </c>
       <c r="K18" s="3">
         <v>171700</v>
@@ -1155,16 +1155,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="E20" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G20" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="H20" s="3">
         <v>-1800</v>
@@ -1173,7 +1173,7 @@
         <v>5400</v>
       </c>
       <c r="J20" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K20" s="3">
         <v>-6600</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1091600</v>
+        <v>1096900</v>
       </c>
       <c r="E21" s="3">
-        <v>717200</v>
+        <v>720200</v>
       </c>
       <c r="F21" s="3">
-        <v>463800</v>
+        <v>465100</v>
       </c>
       <c r="G21" s="3">
-        <v>640500</v>
+        <v>643100</v>
       </c>
       <c r="H21" s="3">
-        <v>456100</v>
+        <v>457900</v>
       </c>
       <c r="I21" s="3">
-        <v>403200</v>
+        <v>404600</v>
       </c>
       <c r="J21" s="3">
-        <v>416800</v>
+        <v>418200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50800</v>
+        <v>51200</v>
       </c>
       <c r="E22" s="3">
-        <v>41800</v>
+        <v>42100</v>
       </c>
       <c r="F22" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
       <c r="G22" s="3">
+        <v>42300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>43900</v>
+      </c>
+      <c r="I22" s="3">
         <v>42000</v>
       </c>
-      <c r="H22" s="3">
-        <v>43600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>41700</v>
-      </c>
       <c r="J22" s="3">
-        <v>38700</v>
+        <v>39000</v>
       </c>
       <c r="K22" s="3">
         <v>51900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>741300</v>
+        <v>746200</v>
       </c>
       <c r="E23" s="3">
-        <v>403100</v>
+        <v>405700</v>
       </c>
       <c r="F23" s="3">
-        <v>160200</v>
+        <v>161300</v>
       </c>
       <c r="G23" s="3">
-        <v>339500</v>
+        <v>341800</v>
       </c>
       <c r="H23" s="3">
-        <v>210400</v>
+        <v>211800</v>
       </c>
       <c r="I23" s="3">
-        <v>156000</v>
+        <v>157100</v>
       </c>
       <c r="J23" s="3">
-        <v>170700</v>
+        <v>171900</v>
       </c>
       <c r="K23" s="3">
         <v>113200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>129000</v>
+        <v>129900</v>
       </c>
       <c r="E24" s="3">
-        <v>67000</v>
+        <v>67400</v>
       </c>
       <c r="F24" s="3">
+        <v>52900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>56900</v>
+      </c>
+      <c r="H24" s="3">
         <v>52600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>56500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>52200</v>
       </c>
       <c r="I24" s="3">
         <v>4600</v>
       </c>
       <c r="J24" s="3">
-        <v>46500</v>
+        <v>46900</v>
       </c>
       <c r="K24" s="3">
         <v>39400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>612300</v>
+        <v>616400</v>
       </c>
       <c r="E26" s="3">
-        <v>336100</v>
+        <v>338300</v>
       </c>
       <c r="F26" s="3">
-        <v>107600</v>
+        <v>108300</v>
       </c>
       <c r="G26" s="3">
-        <v>283000</v>
+        <v>284900</v>
       </c>
       <c r="H26" s="3">
-        <v>158200</v>
+        <v>159200</v>
       </c>
       <c r="I26" s="3">
-        <v>151400</v>
+        <v>152500</v>
       </c>
       <c r="J26" s="3">
-        <v>124200</v>
+        <v>125000</v>
       </c>
       <c r="K26" s="3">
         <v>73900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>611600</v>
+        <v>615700</v>
       </c>
       <c r="E27" s="3">
-        <v>334600</v>
+        <v>336800</v>
       </c>
       <c r="F27" s="3">
-        <v>95300</v>
+        <v>96000</v>
       </c>
       <c r="G27" s="3">
-        <v>268300</v>
+        <v>270000</v>
       </c>
       <c r="H27" s="3">
-        <v>143800</v>
+        <v>144700</v>
       </c>
       <c r="I27" s="3">
-        <v>132600</v>
+        <v>133500</v>
       </c>
       <c r="J27" s="3">
-        <v>88300</v>
+        <v>88900</v>
       </c>
       <c r="K27" s="3">
         <v>38700</v>
@@ -1659,16 +1659,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F32" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G32" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="H32" s="3">
         <v>1800</v>
@@ -1677,7 +1677,7 @@
         <v>-5400</v>
       </c>
       <c r="J32" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K32" s="3">
         <v>6600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>611600</v>
+        <v>615700</v>
       </c>
       <c r="E33" s="3">
-        <v>334600</v>
+        <v>336800</v>
       </c>
       <c r="F33" s="3">
-        <v>95300</v>
+        <v>96000</v>
       </c>
       <c r="G33" s="3">
-        <v>268300</v>
+        <v>270000</v>
       </c>
       <c r="H33" s="3">
-        <v>143800</v>
+        <v>144700</v>
       </c>
       <c r="I33" s="3">
-        <v>132600</v>
+        <v>133500</v>
       </c>
       <c r="J33" s="3">
-        <v>88300</v>
+        <v>88900</v>
       </c>
       <c r="K33" s="3">
         <v>38700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>611600</v>
+        <v>615700</v>
       </c>
       <c r="E35" s="3">
-        <v>334600</v>
+        <v>336800</v>
       </c>
       <c r="F35" s="3">
-        <v>95300</v>
+        <v>96000</v>
       </c>
       <c r="G35" s="3">
-        <v>268300</v>
+        <v>270000</v>
       </c>
       <c r="H35" s="3">
-        <v>143800</v>
+        <v>144700</v>
       </c>
       <c r="I35" s="3">
-        <v>132600</v>
+        <v>133500</v>
       </c>
       <c r="J35" s="3">
-        <v>88300</v>
+        <v>88900</v>
       </c>
       <c r="K35" s="3">
         <v>38700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>323100</v>
+        <v>325300</v>
       </c>
       <c r="E41" s="3">
-        <v>392300</v>
+        <v>394900</v>
       </c>
       <c r="F41" s="3">
-        <v>717400</v>
+        <v>722200</v>
       </c>
       <c r="G41" s="3">
-        <v>138700</v>
+        <v>139600</v>
       </c>
       <c r="H41" s="3">
-        <v>175600</v>
+        <v>176800</v>
       </c>
       <c r="I41" s="3">
-        <v>182300</v>
+        <v>183500</v>
       </c>
       <c r="J41" s="3">
-        <v>212200</v>
+        <v>213600</v>
       </c>
       <c r="K41" s="3">
         <v>163900</v>
@@ -1958,19 +1958,19 @@
         <v>6800</v>
       </c>
       <c r="F42" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G42" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="H42" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="I42" s="3">
-        <v>85100</v>
+        <v>85700</v>
       </c>
       <c r="J42" s="3">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="K42" s="3">
         <v>61800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>576700</v>
+        <v>580500</v>
       </c>
       <c r="E43" s="3">
-        <v>540800</v>
+        <v>544400</v>
       </c>
       <c r="F43" s="3">
-        <v>364900</v>
+        <v>367300</v>
       </c>
       <c r="G43" s="3">
-        <v>378800</v>
+        <v>381300</v>
       </c>
       <c r="H43" s="3">
-        <v>365600</v>
+        <v>368100</v>
       </c>
       <c r="I43" s="3">
-        <v>319500</v>
+        <v>321700</v>
       </c>
       <c r="J43" s="3">
-        <v>283200</v>
+        <v>285100</v>
       </c>
       <c r="K43" s="3">
         <v>277000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1115900</v>
+        <v>1123400</v>
       </c>
       <c r="E44" s="3">
-        <v>951200</v>
+        <v>957600</v>
       </c>
       <c r="F44" s="3">
-        <v>785100</v>
+        <v>790400</v>
       </c>
       <c r="G44" s="3">
-        <v>891200</v>
+        <v>897200</v>
       </c>
       <c r="H44" s="3">
-        <v>820200</v>
+        <v>825700</v>
       </c>
       <c r="I44" s="3">
-        <v>798600</v>
+        <v>804000</v>
       </c>
       <c r="J44" s="3">
-        <v>773600</v>
+        <v>778800</v>
       </c>
       <c r="K44" s="3">
         <v>797000</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42800</v>
+        <v>43100</v>
       </c>
       <c r="E45" s="3">
         <v>4900</v>
       </c>
       <c r="F45" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="G45" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H45" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I45" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="J45" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="K45" s="3">
         <v>14500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2064400</v>
+        <v>2078200</v>
       </c>
       <c r="E46" s="3">
-        <v>1896000</v>
+        <v>1908700</v>
       </c>
       <c r="F46" s="3">
-        <v>1887300</v>
+        <v>1899900</v>
       </c>
       <c r="G46" s="3">
-        <v>1419300</v>
+        <v>1428700</v>
       </c>
       <c r="H46" s="3">
-        <v>1378400</v>
+        <v>1387600</v>
       </c>
       <c r="I46" s="3">
-        <v>1410000</v>
+        <v>1419500</v>
       </c>
       <c r="J46" s="3">
-        <v>1347700</v>
+        <v>1356700</v>
       </c>
       <c r="K46" s="3">
         <v>1314100</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47200</v>
+        <v>47500</v>
       </c>
       <c r="E47" s="3">
-        <v>43400</v>
+        <v>43700</v>
       </c>
       <c r="F47" s="3">
-        <v>67200</v>
+        <v>67600</v>
       </c>
       <c r="G47" s="3">
-        <v>56100</v>
+        <v>56500</v>
       </c>
       <c r="H47" s="3">
-        <v>56600</v>
+        <v>56900</v>
       </c>
       <c r="I47" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="J47" s="3">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="K47" s="3">
         <v>24500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2484200</v>
+        <v>2500800</v>
       </c>
       <c r="E48" s="3">
-        <v>2326200</v>
+        <v>2341700</v>
       </c>
       <c r="F48" s="3">
-        <v>1944500</v>
+        <v>1957500</v>
       </c>
       <c r="G48" s="3">
-        <v>2089700</v>
+        <v>2103700</v>
       </c>
       <c r="H48" s="3">
-        <v>1768600</v>
+        <v>1780400</v>
       </c>
       <c r="I48" s="3">
-        <v>1709600</v>
+        <v>1721000</v>
       </c>
       <c r="J48" s="3">
-        <v>1777400</v>
+        <v>1789300</v>
       </c>
       <c r="K48" s="3">
         <v>1805500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>911900</v>
+        <v>918000</v>
       </c>
       <c r="E49" s="3">
-        <v>923300</v>
+        <v>929500</v>
       </c>
       <c r="F49" s="3">
-        <v>695200</v>
+        <v>699900</v>
       </c>
       <c r="G49" s="3">
-        <v>818900</v>
+        <v>824300</v>
       </c>
       <c r="H49" s="3">
-        <v>767500</v>
+        <v>772700</v>
       </c>
       <c r="I49" s="3">
-        <v>744000</v>
+        <v>749000</v>
       </c>
       <c r="J49" s="3">
-        <v>743500</v>
+        <v>748500</v>
       </c>
       <c r="K49" s="3">
         <v>742100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>91400</v>
+        <v>92000</v>
       </c>
       <c r="E52" s="3">
-        <v>92000</v>
+        <v>92600</v>
       </c>
       <c r="F52" s="3">
-        <v>65600</v>
+        <v>66000</v>
       </c>
       <c r="G52" s="3">
-        <v>66400</v>
+        <v>66900</v>
       </c>
       <c r="H52" s="3">
-        <v>59700</v>
+        <v>60100</v>
       </c>
       <c r="I52" s="3">
-        <v>47400</v>
+        <v>47800</v>
       </c>
       <c r="J52" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="K52" s="3">
         <v>19600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5599100</v>
+        <v>5636500</v>
       </c>
       <c r="E54" s="3">
-        <v>5280900</v>
+        <v>5316200</v>
       </c>
       <c r="F54" s="3">
-        <v>4659800</v>
+        <v>4690900</v>
       </c>
       <c r="G54" s="3">
-        <v>4450400</v>
+        <v>4480100</v>
       </c>
       <c r="H54" s="3">
-        <v>4030700</v>
+        <v>4057700</v>
       </c>
       <c r="I54" s="3">
-        <v>3941300</v>
+        <v>3967700</v>
       </c>
       <c r="J54" s="3">
-        <v>3916900</v>
+        <v>3943100</v>
       </c>
       <c r="K54" s="3">
         <v>3905800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>473400</v>
+        <v>476500</v>
       </c>
       <c r="E57" s="3">
-        <v>455600</v>
+        <v>458700</v>
       </c>
       <c r="F57" s="3">
-        <v>322900</v>
+        <v>325100</v>
       </c>
       <c r="G57" s="3">
-        <v>362300</v>
+        <v>364700</v>
       </c>
       <c r="H57" s="3">
-        <v>352000</v>
+        <v>354400</v>
       </c>
       <c r="I57" s="3">
-        <v>346300</v>
+        <v>348600</v>
       </c>
       <c r="J57" s="3">
-        <v>326000</v>
+        <v>328200</v>
       </c>
       <c r="K57" s="3">
         <v>292300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>223100</v>
+        <v>224500</v>
       </c>
       <c r="E58" s="3">
-        <v>229400</v>
+        <v>230900</v>
       </c>
       <c r="F58" s="3">
-        <v>471400</v>
+        <v>474500</v>
       </c>
       <c r="G58" s="3">
-        <v>495600</v>
+        <v>498900</v>
       </c>
       <c r="H58" s="3">
-        <v>136700</v>
+        <v>137600</v>
       </c>
       <c r="I58" s="3">
-        <v>345400</v>
+        <v>347700</v>
       </c>
       <c r="J58" s="3">
-        <v>430700</v>
+        <v>433600</v>
       </c>
       <c r="K58" s="3">
         <v>253800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>591200</v>
+        <v>595200</v>
       </c>
       <c r="E59" s="3">
-        <v>492000</v>
+        <v>495300</v>
       </c>
       <c r="F59" s="3">
-        <v>407600</v>
+        <v>410300</v>
       </c>
       <c r="G59" s="3">
-        <v>389100</v>
+        <v>391700</v>
       </c>
       <c r="H59" s="3">
-        <v>367800</v>
+        <v>370300</v>
       </c>
       <c r="I59" s="3">
-        <v>326600</v>
+        <v>328800</v>
       </c>
       <c r="J59" s="3">
-        <v>298000</v>
+        <v>300000</v>
       </c>
       <c r="K59" s="3">
         <v>309600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1287600</v>
+        <v>1296300</v>
       </c>
       <c r="E60" s="3">
-        <v>1177000</v>
+        <v>1184800</v>
       </c>
       <c r="F60" s="3">
-        <v>1201900</v>
+        <v>1209900</v>
       </c>
       <c r="G60" s="3">
-        <v>1247000</v>
+        <v>1255300</v>
       </c>
       <c r="H60" s="3">
-        <v>856500</v>
+        <v>862300</v>
       </c>
       <c r="I60" s="3">
-        <v>1018300</v>
+        <v>1025100</v>
       </c>
       <c r="J60" s="3">
-        <v>1054700</v>
+        <v>1061700</v>
       </c>
       <c r="K60" s="3">
         <v>855800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1340800</v>
+        <v>1349800</v>
       </c>
       <c r="E61" s="3">
-        <v>1428100</v>
+        <v>1437600</v>
       </c>
       <c r="F61" s="3">
-        <v>1249000</v>
+        <v>1257300</v>
       </c>
       <c r="G61" s="3">
-        <v>620600</v>
+        <v>624700</v>
       </c>
       <c r="H61" s="3">
-        <v>765200</v>
+        <v>770400</v>
       </c>
       <c r="I61" s="3">
-        <v>531900</v>
+        <v>535500</v>
       </c>
       <c r="J61" s="3">
-        <v>518500</v>
+        <v>521900</v>
       </c>
       <c r="K61" s="3">
         <v>537000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>315900</v>
+        <v>318000</v>
       </c>
       <c r="E62" s="3">
-        <v>361500</v>
+        <v>363900</v>
       </c>
       <c r="F62" s="3">
-        <v>325400</v>
+        <v>327600</v>
       </c>
       <c r="G62" s="3">
-        <v>346300</v>
+        <v>348600</v>
       </c>
       <c r="H62" s="3">
-        <v>320800</v>
+        <v>322900</v>
       </c>
       <c r="I62" s="3">
-        <v>332900</v>
+        <v>335100</v>
       </c>
       <c r="J62" s="3">
-        <v>352600</v>
+        <v>355000</v>
       </c>
       <c r="K62" s="3">
         <v>339700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2961900</v>
+        <v>2981700</v>
       </c>
       <c r="E66" s="3">
-        <v>2967500</v>
+        <v>2987400</v>
       </c>
       <c r="F66" s="3">
-        <v>2777000</v>
+        <v>2795600</v>
       </c>
       <c r="G66" s="3">
-        <v>2214700</v>
+        <v>2229600</v>
       </c>
       <c r="H66" s="3">
-        <v>1943200</v>
+        <v>1956200</v>
       </c>
       <c r="I66" s="3">
-        <v>1908400</v>
+        <v>1921200</v>
       </c>
       <c r="J66" s="3">
-        <v>1947100</v>
+        <v>1960100</v>
       </c>
       <c r="K66" s="3">
         <v>1751500</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1806900</v>
+        <v>1819000</v>
       </c>
       <c r="E72" s="3">
-        <v>1281200</v>
+        <v>1289800</v>
       </c>
       <c r="F72" s="3">
-        <v>1018900</v>
+        <v>1025700</v>
       </c>
       <c r="G72" s="3">
-        <v>1016400</v>
+        <v>1023200</v>
       </c>
       <c r="H72" s="3">
-        <v>818900</v>
+        <v>824300</v>
       </c>
       <c r="I72" s="3">
-        <v>725800</v>
+        <v>730600</v>
       </c>
       <c r="J72" s="3">
-        <v>631800</v>
+        <v>636100</v>
       </c>
       <c r="K72" s="3">
         <v>578700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2637200</v>
+        <v>2654800</v>
       </c>
       <c r="E76" s="3">
-        <v>2313400</v>
+        <v>2328800</v>
       </c>
       <c r="F76" s="3">
-        <v>1882700</v>
+        <v>1895300</v>
       </c>
       <c r="G76" s="3">
-        <v>2235600</v>
+        <v>2250600</v>
       </c>
       <c r="H76" s="3">
-        <v>2087600</v>
+        <v>2101500</v>
       </c>
       <c r="I76" s="3">
-        <v>2032900</v>
+        <v>2046500</v>
       </c>
       <c r="J76" s="3">
-        <v>1969800</v>
+        <v>1983000</v>
       </c>
       <c r="K76" s="3">
         <v>2154200</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>611600</v>
+        <v>615700</v>
       </c>
       <c r="E81" s="3">
-        <v>334600</v>
+        <v>336800</v>
       </c>
       <c r="F81" s="3">
-        <v>95300</v>
+        <v>96000</v>
       </c>
       <c r="G81" s="3">
-        <v>268300</v>
+        <v>270000</v>
       </c>
       <c r="H81" s="3">
-        <v>143800</v>
+        <v>144700</v>
       </c>
       <c r="I81" s="3">
-        <v>132600</v>
+        <v>133500</v>
       </c>
       <c r="J81" s="3">
-        <v>88300</v>
+        <v>88900</v>
       </c>
       <c r="K81" s="3">
         <v>38700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>297500</v>
+        <v>299500</v>
       </c>
       <c r="E83" s="3">
-        <v>270600</v>
+        <v>272400</v>
       </c>
       <c r="F83" s="3">
-        <v>263100</v>
+        <v>264900</v>
       </c>
       <c r="G83" s="3">
-        <v>257400</v>
+        <v>259100</v>
       </c>
       <c r="H83" s="3">
-        <v>200800</v>
+        <v>202100</v>
       </c>
       <c r="I83" s="3">
-        <v>204200</v>
+        <v>205600</v>
       </c>
       <c r="J83" s="3">
-        <v>206000</v>
+        <v>207400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>779500</v>
+        <v>784700</v>
       </c>
       <c r="E89" s="3">
-        <v>549800</v>
+        <v>553500</v>
       </c>
       <c r="F89" s="3">
-        <v>543500</v>
+        <v>547100</v>
       </c>
       <c r="G89" s="3">
-        <v>462800</v>
+        <v>465900</v>
       </c>
       <c r="H89" s="3">
-        <v>344000</v>
+        <v>346300</v>
       </c>
       <c r="I89" s="3">
-        <v>293300</v>
+        <v>295200</v>
       </c>
       <c r="J89" s="3">
-        <v>359400</v>
+        <v>361800</v>
       </c>
       <c r="K89" s="3">
         <v>228000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-379700</v>
+        <v>-382200</v>
       </c>
       <c r="E91" s="3">
-        <v>-301300</v>
+        <v>-303300</v>
       </c>
       <c r="F91" s="3">
-        <v>-216500</v>
+        <v>-218000</v>
       </c>
       <c r="G91" s="3">
-        <v>-275100</v>
+        <v>-276900</v>
       </c>
       <c r="H91" s="3">
-        <v>-232400</v>
+        <v>-234000</v>
       </c>
       <c r="I91" s="3">
-        <v>-175700</v>
+        <v>-176900</v>
       </c>
       <c r="J91" s="3">
-        <v>-176200</v>
+        <v>-177300</v>
       </c>
       <c r="K91" s="3">
         <v>-134900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-358400</v>
+        <v>-360800</v>
       </c>
       <c r="E94" s="3">
-        <v>-718000</v>
+        <v>-722800</v>
       </c>
       <c r="F94" s="3">
-        <v>-159200</v>
+        <v>-160300</v>
       </c>
       <c r="G94" s="3">
-        <v>-284400</v>
+        <v>-286300</v>
       </c>
       <c r="H94" s="3">
-        <v>-227900</v>
+        <v>-229500</v>
       </c>
       <c r="I94" s="3">
-        <v>-192500</v>
+        <v>-193700</v>
       </c>
       <c r="J94" s="3">
-        <v>-141200</v>
+        <v>-142100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-90300</v>
+        <v>-90900</v>
       </c>
       <c r="E96" s="3">
-        <v>-72500</v>
+        <v>-73000</v>
       </c>
       <c r="F96" s="3">
-        <v>-72500</v>
+        <v>-73000</v>
       </c>
       <c r="G96" s="3">
-        <v>-61700</v>
+        <v>-62100</v>
       </c>
       <c r="H96" s="3">
-        <v>-37500</v>
+        <v>-37700</v>
       </c>
       <c r="I96" s="3">
-        <v>-34000</v>
+        <v>-34200</v>
       </c>
       <c r="J96" s="3">
-        <v>-25200</v>
+        <v>-25400</v>
       </c>
       <c r="K96" s="3">
         <v>-14600</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-483300</v>
+        <v>-486500</v>
       </c>
       <c r="E100" s="3">
-        <v>-159000</v>
+        <v>-160000</v>
       </c>
       <c r="F100" s="3">
-        <v>197300</v>
+        <v>198700</v>
       </c>
       <c r="G100" s="3">
-        <v>-216700</v>
+        <v>-218200</v>
       </c>
       <c r="H100" s="3">
-        <v>-122500</v>
+        <v>-123300</v>
       </c>
       <c r="I100" s="3">
-        <v>-129400</v>
+        <v>-130300</v>
       </c>
       <c r="J100" s="3">
-        <v>-171400</v>
+        <v>-172500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62300</v>
+        <v>-62700</v>
       </c>
       <c r="E102" s="3">
-        <v>-325100</v>
+        <v>-327200</v>
       </c>
       <c r="F102" s="3">
-        <v>578700</v>
+        <v>582600</v>
       </c>
       <c r="G102" s="3">
-        <v>-37000</v>
+        <v>-37200</v>
       </c>
       <c r="H102" s="3">
         <v>-6700</v>
       </c>
       <c r="I102" s="3">
-        <v>-29900</v>
+        <v>-30100</v>
       </c>
       <c r="J102" s="3">
-        <v>45400</v>
+        <v>45700</v>
       </c>
       <c r="K102" s="3">
         <v>-234300</v>

--- a/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/WBRBY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5395300</v>
+        <v>5399800</v>
       </c>
       <c r="E8" s="3">
-        <v>4305300</v>
+        <v>4308900</v>
       </c>
       <c r="F8" s="3">
-        <v>3636700</v>
+        <v>3639700</v>
       </c>
       <c r="G8" s="3">
-        <v>3757800</v>
+        <v>3760900</v>
       </c>
       <c r="H8" s="3">
-        <v>3583000</v>
+        <v>3586000</v>
       </c>
       <c r="I8" s="3">
-        <v>3382100</v>
+        <v>3384900</v>
       </c>
       <c r="J8" s="3">
-        <v>3223900</v>
+        <v>3226600</v>
       </c>
       <c r="K8" s="3">
         <v>3144800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3284200</v>
+        <v>3286900</v>
       </c>
       <c r="E9" s="3">
-        <v>2745100</v>
+        <v>2747300</v>
       </c>
       <c r="F9" s="3">
-        <v>2348300</v>
+        <v>2350300</v>
       </c>
       <c r="G9" s="3">
-        <v>2397500</v>
+        <v>2399500</v>
       </c>
       <c r="H9" s="3">
-        <v>2326800</v>
+        <v>2328800</v>
       </c>
       <c r="I9" s="3">
-        <v>2269800</v>
+        <v>2271700</v>
       </c>
       <c r="J9" s="3">
-        <v>2180400</v>
+        <v>2182200</v>
       </c>
       <c r="K9" s="3">
         <v>2145400</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2111100</v>
+        <v>2112800</v>
       </c>
       <c r="E10" s="3">
-        <v>1560200</v>
+        <v>1561500</v>
       </c>
       <c r="F10" s="3">
-        <v>1288400</v>
+        <v>1289500</v>
       </c>
       <c r="G10" s="3">
-        <v>1360300</v>
+        <v>1361400</v>
       </c>
       <c r="H10" s="3">
-        <v>1256200</v>
+        <v>1257300</v>
       </c>
       <c r="I10" s="3">
-        <v>1112300</v>
+        <v>1113200</v>
       </c>
       <c r="J10" s="3">
-        <v>1043500</v>
+        <v>1044400</v>
       </c>
       <c r="K10" s="3">
         <v>999300</v>
@@ -960,7 +960,7 @@
         <v>21200</v>
       </c>
       <c r="F14" s="3">
-        <v>127400</v>
+        <v>127500</v>
       </c>
       <c r="G14" s="3">
         <v>1700</v>
@@ -996,13 +996,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>133100</v>
+        <v>133200</v>
       </c>
       <c r="E15" s="3">
-        <v>113600</v>
+        <v>113700</v>
       </c>
       <c r="F15" s="3">
-        <v>213100</v>
+        <v>213300</v>
       </c>
       <c r="G15" s="3">
         <v>84300</v>
@@ -1011,7 +1011,7 @@
         <v>65100</v>
       </c>
       <c r="I15" s="3">
-        <v>95000</v>
+        <v>95100</v>
       </c>
       <c r="J15" s="3">
         <v>69500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4614400</v>
+        <v>4618300</v>
       </c>
       <c r="E17" s="3">
-        <v>3859000</v>
+        <v>3862200</v>
       </c>
       <c r="F17" s="3">
-        <v>3433300</v>
+        <v>3436100</v>
       </c>
       <c r="G17" s="3">
-        <v>3366400</v>
+        <v>3369200</v>
       </c>
       <c r="H17" s="3">
-        <v>3325500</v>
+        <v>3328300</v>
       </c>
       <c r="I17" s="3">
-        <v>3188400</v>
+        <v>3191100</v>
       </c>
       <c r="J17" s="3">
-        <v>3017400</v>
+        <v>3019900</v>
       </c>
       <c r="K17" s="3">
         <v>2973000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>780800</v>
+        <v>781500</v>
       </c>
       <c r="E18" s="3">
-        <v>446300</v>
+        <v>446600</v>
       </c>
       <c r="F18" s="3">
-        <v>203400</v>
+        <v>203600</v>
       </c>
       <c r="G18" s="3">
-        <v>391400</v>
+        <v>391800</v>
       </c>
       <c r="H18" s="3">
-        <v>257500</v>
+        <v>257700</v>
       </c>
       <c r="I18" s="3">
-        <v>193600</v>
+        <v>193800</v>
       </c>
       <c r="J18" s="3">
-        <v>206600</v>
+        <v>206700</v>
       </c>
       <c r="K18" s="3">
         <v>171700</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1096900</v>
+        <v>1097700</v>
       </c>
       <c r="E21" s="3">
-        <v>720200</v>
+        <v>720700</v>
       </c>
       <c r="F21" s="3">
-        <v>465100</v>
+        <v>465400</v>
       </c>
       <c r="G21" s="3">
-        <v>643100</v>
+        <v>643600</v>
       </c>
       <c r="H21" s="3">
-        <v>457900</v>
+        <v>458200</v>
       </c>
       <c r="I21" s="3">
-        <v>404600</v>
+        <v>404800</v>
       </c>
       <c r="J21" s="3">
-        <v>418200</v>
+        <v>418500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1245,13 +1245,13 @@
         <v>42100</v>
       </c>
       <c r="F22" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="G22" s="3">
         <v>42300</v>
       </c>
       <c r="H22" s="3">
-        <v>43900</v>
+        <v>44000</v>
       </c>
       <c r="I22" s="3">
         <v>42000</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>746200</v>
+        <v>746900</v>
       </c>
       <c r="E23" s="3">
-        <v>405700</v>
+        <v>406100</v>
       </c>
       <c r="F23" s="3">
-        <v>161300</v>
+        <v>161400</v>
       </c>
       <c r="G23" s="3">
-        <v>341800</v>
+        <v>342100</v>
       </c>
       <c r="H23" s="3">
-        <v>211800</v>
+        <v>211900</v>
       </c>
       <c r="I23" s="3">
-        <v>157100</v>
+        <v>157200</v>
       </c>
       <c r="J23" s="3">
-        <v>171900</v>
+        <v>172000</v>
       </c>
       <c r="K23" s="3">
         <v>113200</v>
@@ -1323,16 +1323,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>129900</v>
+        <v>130000</v>
       </c>
       <c r="E24" s="3">
-        <v>67400</v>
+        <v>67500</v>
       </c>
       <c r="F24" s="3">
-        <v>52900</v>
+        <v>53000</v>
       </c>
       <c r="G24" s="3">
-        <v>56900</v>
+        <v>57000</v>
       </c>
       <c r="H24" s="3">
         <v>52600</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>616400</v>
+        <v>616900</v>
       </c>
       <c r="E26" s="3">
-        <v>338300</v>
+        <v>338600</v>
       </c>
       <c r="F26" s="3">
-        <v>108300</v>
+        <v>108400</v>
       </c>
       <c r="G26" s="3">
-        <v>284900</v>
+        <v>285100</v>
       </c>
       <c r="H26" s="3">
-        <v>159200</v>
+        <v>159400</v>
       </c>
       <c r="I26" s="3">
-        <v>152500</v>
+        <v>152600</v>
       </c>
       <c r="J26" s="3">
-        <v>125000</v>
+        <v>125100</v>
       </c>
       <c r="K26" s="3">
         <v>73900</v>
@@ -1449,22 +1449,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>615700</v>
+        <v>616200</v>
       </c>
       <c r="E27" s="3">
-        <v>336800</v>
+        <v>337100</v>
       </c>
       <c r="F27" s="3">
-        <v>96000</v>
+        <v>96100</v>
       </c>
       <c r="G27" s="3">
-        <v>270000</v>
+        <v>270300</v>
       </c>
       <c r="H27" s="3">
-        <v>144700</v>
+        <v>144800</v>
       </c>
       <c r="I27" s="3">
-        <v>133500</v>
+        <v>133600</v>
       </c>
       <c r="J27" s="3">
         <v>88900</v>
@@ -1701,22 +1701,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>615700</v>
+        <v>616200</v>
       </c>
       <c r="E33" s="3">
-        <v>336800</v>
+        <v>337100</v>
       </c>
       <c r="F33" s="3">
-        <v>96000</v>
+        <v>96100</v>
       </c>
       <c r="G33" s="3">
-        <v>270000</v>
+        <v>270300</v>
       </c>
       <c r="H33" s="3">
-        <v>144700</v>
+        <v>144800</v>
       </c>
       <c r="I33" s="3">
-        <v>133500</v>
+        <v>133600</v>
       </c>
       <c r="J33" s="3">
         <v>88900</v>
@@ -1785,22 +1785,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>615700</v>
+        <v>616200</v>
       </c>
       <c r="E35" s="3">
-        <v>336800</v>
+        <v>337100</v>
       </c>
       <c r="F35" s="3">
-        <v>96000</v>
+        <v>96100</v>
       </c>
       <c r="G35" s="3">
-        <v>270000</v>
+        <v>270300</v>
       </c>
       <c r="H35" s="3">
-        <v>144700</v>
+        <v>144800</v>
       </c>
       <c r="I35" s="3">
-        <v>133500</v>
+        <v>133600</v>
       </c>
       <c r="J35" s="3">
         <v>88900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>325300</v>
+        <v>325500</v>
       </c>
       <c r="E41" s="3">
-        <v>394900</v>
+        <v>395300</v>
       </c>
       <c r="F41" s="3">
-        <v>722200</v>
+        <v>722800</v>
       </c>
       <c r="G41" s="3">
-        <v>139600</v>
+        <v>139700</v>
       </c>
       <c r="H41" s="3">
-        <v>176800</v>
+        <v>176900</v>
       </c>
       <c r="I41" s="3">
-        <v>183500</v>
+        <v>183600</v>
       </c>
       <c r="J41" s="3">
-        <v>213600</v>
+        <v>213800</v>
       </c>
       <c r="K41" s="3">
         <v>163900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>580500</v>
+        <v>581000</v>
       </c>
       <c r="E43" s="3">
-        <v>544400</v>
+        <v>544900</v>
       </c>
       <c r="F43" s="3">
-        <v>367300</v>
+        <v>367700</v>
       </c>
       <c r="G43" s="3">
-        <v>381300</v>
+        <v>381600</v>
       </c>
       <c r="H43" s="3">
-        <v>368100</v>
+        <v>368400</v>
       </c>
       <c r="I43" s="3">
-        <v>321700</v>
+        <v>321900</v>
       </c>
       <c r="J43" s="3">
-        <v>285100</v>
+        <v>285300</v>
       </c>
       <c r="K43" s="3">
         <v>277000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1123400</v>
+        <v>1124300</v>
       </c>
       <c r="E44" s="3">
-        <v>957600</v>
+        <v>958400</v>
       </c>
       <c r="F44" s="3">
-        <v>790400</v>
+        <v>791000</v>
       </c>
       <c r="G44" s="3">
-        <v>897200</v>
+        <v>897900</v>
       </c>
       <c r="H44" s="3">
-        <v>825700</v>
+        <v>826400</v>
       </c>
       <c r="I44" s="3">
-        <v>804000</v>
+        <v>804600</v>
       </c>
       <c r="J44" s="3">
-        <v>778800</v>
+        <v>779400</v>
       </c>
       <c r="K44" s="3">
         <v>797000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2078200</v>
+        <v>2080000</v>
       </c>
       <c r="E46" s="3">
-        <v>1908700</v>
+        <v>1910300</v>
       </c>
       <c r="F46" s="3">
-        <v>1899900</v>
+        <v>1901500</v>
       </c>
       <c r="G46" s="3">
-        <v>1428700</v>
+        <v>1429900</v>
       </c>
       <c r="H46" s="3">
-        <v>1387600</v>
+        <v>1388800</v>
       </c>
       <c r="I46" s="3">
-        <v>1419500</v>
+        <v>1420600</v>
       </c>
       <c r="J46" s="3">
-        <v>1356700</v>
+        <v>1357800</v>
       </c>
       <c r="K46" s="3">
         <v>1314100</v>
@@ -2168,16 +2168,16 @@
         <v>43700</v>
       </c>
       <c r="F47" s="3">
-        <v>67600</v>
+        <v>67700</v>
       </c>
       <c r="G47" s="3">
-        <v>56500</v>
+        <v>56600</v>
       </c>
       <c r="H47" s="3">
-        <v>56900</v>
+        <v>57000</v>
       </c>
       <c r="I47" s="3">
-        <v>30400</v>
+        <v>30500</v>
       </c>
       <c r="J47" s="3">
         <v>29800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2500800</v>
+        <v>2502900</v>
       </c>
       <c r="E48" s="3">
-        <v>2341700</v>
+        <v>2343700</v>
       </c>
       <c r="F48" s="3">
-        <v>1957500</v>
+        <v>1959200</v>
       </c>
       <c r="G48" s="3">
-        <v>2103700</v>
+        <v>2105400</v>
       </c>
       <c r="H48" s="3">
-        <v>1780400</v>
+        <v>1781900</v>
       </c>
       <c r="I48" s="3">
-        <v>1721000</v>
+        <v>1722400</v>
       </c>
       <c r="J48" s="3">
-        <v>1789300</v>
+        <v>1790700</v>
       </c>
       <c r="K48" s="3">
         <v>1805500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>918000</v>
+        <v>918700</v>
       </c>
       <c r="E49" s="3">
-        <v>929500</v>
+        <v>930200</v>
       </c>
       <c r="F49" s="3">
-        <v>699900</v>
+        <v>700400</v>
       </c>
       <c r="G49" s="3">
-        <v>824300</v>
+        <v>825000</v>
       </c>
       <c r="H49" s="3">
-        <v>772700</v>
+        <v>773300</v>
       </c>
       <c r="I49" s="3">
-        <v>749000</v>
+        <v>749600</v>
       </c>
       <c r="J49" s="3">
-        <v>748500</v>
+        <v>749100</v>
       </c>
       <c r="K49" s="3">
         <v>742100</v>
@@ -2372,13 +2372,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>92000</v>
+        <v>92100</v>
       </c>
       <c r="E52" s="3">
-        <v>92600</v>
+        <v>92700</v>
       </c>
       <c r="F52" s="3">
-        <v>66000</v>
+        <v>66100</v>
       </c>
       <c r="G52" s="3">
         <v>66900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5636500</v>
+        <v>5641200</v>
       </c>
       <c r="E54" s="3">
-        <v>5316200</v>
+        <v>5320600</v>
       </c>
       <c r="F54" s="3">
-        <v>4690900</v>
+        <v>4694800</v>
       </c>
       <c r="G54" s="3">
-        <v>4480100</v>
+        <v>4483900</v>
       </c>
       <c r="H54" s="3">
-        <v>4057700</v>
+        <v>4061100</v>
       </c>
       <c r="I54" s="3">
-        <v>3967700</v>
+        <v>3971000</v>
       </c>
       <c r="J54" s="3">
-        <v>3943100</v>
+        <v>3946300</v>
       </c>
       <c r="K54" s="3">
         <v>3905800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>476500</v>
+        <v>476900</v>
       </c>
       <c r="E57" s="3">
-        <v>458700</v>
+        <v>459000</v>
       </c>
       <c r="F57" s="3">
-        <v>325100</v>
+        <v>325400</v>
       </c>
       <c r="G57" s="3">
-        <v>364700</v>
+        <v>365000</v>
       </c>
       <c r="H57" s="3">
-        <v>354400</v>
+        <v>354700</v>
       </c>
       <c r="I57" s="3">
-        <v>348600</v>
+        <v>348900</v>
       </c>
       <c r="J57" s="3">
-        <v>328200</v>
+        <v>328400</v>
       </c>
       <c r="K57" s="3">
         <v>292300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>224500</v>
+        <v>224700</v>
       </c>
       <c r="E58" s="3">
-        <v>230900</v>
+        <v>231100</v>
       </c>
       <c r="F58" s="3">
-        <v>474500</v>
+        <v>474900</v>
       </c>
       <c r="G58" s="3">
-        <v>498900</v>
+        <v>499300</v>
       </c>
       <c r="H58" s="3">
-        <v>137600</v>
+        <v>137700</v>
       </c>
       <c r="I58" s="3">
-        <v>347700</v>
+        <v>348000</v>
       </c>
       <c r="J58" s="3">
-        <v>433600</v>
+        <v>433900</v>
       </c>
       <c r="K58" s="3">
         <v>253800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>595200</v>
+        <v>595700</v>
       </c>
       <c r="E59" s="3">
-        <v>495300</v>
+        <v>495700</v>
       </c>
       <c r="F59" s="3">
-        <v>410300</v>
+        <v>410600</v>
       </c>
       <c r="G59" s="3">
-        <v>391700</v>
+        <v>392000</v>
       </c>
       <c r="H59" s="3">
-        <v>370300</v>
+        <v>370600</v>
       </c>
       <c r="I59" s="3">
-        <v>328800</v>
+        <v>329100</v>
       </c>
       <c r="J59" s="3">
-        <v>300000</v>
+        <v>300200</v>
       </c>
       <c r="K59" s="3">
         <v>309600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1296300</v>
+        <v>1297300</v>
       </c>
       <c r="E60" s="3">
-        <v>1184800</v>
+        <v>1185800</v>
       </c>
       <c r="F60" s="3">
-        <v>1209900</v>
+        <v>1210900</v>
       </c>
       <c r="G60" s="3">
-        <v>1255300</v>
+        <v>1256400</v>
       </c>
       <c r="H60" s="3">
-        <v>862300</v>
+        <v>863000</v>
       </c>
       <c r="I60" s="3">
-        <v>1025100</v>
+        <v>1026000</v>
       </c>
       <c r="J60" s="3">
-        <v>1061700</v>
+        <v>1062600</v>
       </c>
       <c r="K60" s="3">
         <v>855800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1349800</v>
+        <v>1350900</v>
       </c>
       <c r="E61" s="3">
-        <v>1437600</v>
+        <v>1438800</v>
       </c>
       <c r="F61" s="3">
-        <v>1257300</v>
+        <v>1258400</v>
       </c>
       <c r="G61" s="3">
-        <v>624700</v>
+        <v>625200</v>
       </c>
       <c r="H61" s="3">
-        <v>770400</v>
+        <v>771000</v>
       </c>
       <c r="I61" s="3">
-        <v>535500</v>
+        <v>535900</v>
       </c>
       <c r="J61" s="3">
-        <v>521900</v>
+        <v>522400</v>
       </c>
       <c r="K61" s="3">
         <v>537000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>318000</v>
+        <v>318200</v>
       </c>
       <c r="E62" s="3">
-        <v>363900</v>
+        <v>364200</v>
       </c>
       <c r="F62" s="3">
-        <v>327600</v>
+        <v>327900</v>
       </c>
       <c r="G62" s="3">
-        <v>348600</v>
+        <v>348900</v>
       </c>
       <c r="H62" s="3">
-        <v>322900</v>
+        <v>323200</v>
       </c>
       <c r="I62" s="3">
-        <v>335100</v>
+        <v>335400</v>
       </c>
       <c r="J62" s="3">
-        <v>355000</v>
+        <v>355300</v>
       </c>
       <c r="K62" s="3">
         <v>339700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2981700</v>
+        <v>2984200</v>
       </c>
       <c r="E66" s="3">
-        <v>2987400</v>
+        <v>2989800</v>
       </c>
       <c r="F66" s="3">
-        <v>2795600</v>
+        <v>2797900</v>
       </c>
       <c r="G66" s="3">
-        <v>2229600</v>
+        <v>2231400</v>
       </c>
       <c r="H66" s="3">
-        <v>1956200</v>
+        <v>1957800</v>
       </c>
       <c r="I66" s="3">
-        <v>1921200</v>
+        <v>1922700</v>
       </c>
       <c r="J66" s="3">
-        <v>1960100</v>
+        <v>1961700</v>
       </c>
       <c r="K66" s="3">
         <v>1751500</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1819000</v>
+        <v>1820500</v>
       </c>
       <c r="E72" s="3">
-        <v>1289800</v>
+        <v>1290800</v>
       </c>
       <c r="F72" s="3">
-        <v>1025700</v>
+        <v>1026600</v>
       </c>
       <c r="G72" s="3">
-        <v>1023200</v>
+        <v>1024100</v>
       </c>
       <c r="H72" s="3">
-        <v>824300</v>
+        <v>825000</v>
       </c>
       <c r="I72" s="3">
-        <v>730600</v>
+        <v>731200</v>
       </c>
       <c r="J72" s="3">
-        <v>636100</v>
+        <v>636600</v>
       </c>
       <c r="K72" s="3">
         <v>578700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2654800</v>
+        <v>2657000</v>
       </c>
       <c r="E76" s="3">
-        <v>2328800</v>
+        <v>2330800</v>
       </c>
       <c r="F76" s="3">
-        <v>1895300</v>
+        <v>1896900</v>
       </c>
       <c r="G76" s="3">
-        <v>2250600</v>
+        <v>2252500</v>
       </c>
       <c r="H76" s="3">
-        <v>2101500</v>
+        <v>2103300</v>
       </c>
       <c r="I76" s="3">
-        <v>2046500</v>
+        <v>2048200</v>
       </c>
       <c r="J76" s="3">
-        <v>1983000</v>
+        <v>1984600</v>
       </c>
       <c r="K76" s="3">
         <v>2154200</v>
@@ -3439,22 +3439,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>615700</v>
+        <v>616200</v>
       </c>
       <c r="E81" s="3">
-        <v>336800</v>
+        <v>337100</v>
       </c>
       <c r="F81" s="3">
-        <v>96000</v>
+        <v>96100</v>
       </c>
       <c r="G81" s="3">
-        <v>270000</v>
+        <v>270300</v>
       </c>
       <c r="H81" s="3">
-        <v>144700</v>
+        <v>144800</v>
       </c>
       <c r="I81" s="3">
-        <v>133500</v>
+        <v>133600</v>
       </c>
       <c r="J81" s="3">
         <v>88900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>299500</v>
+        <v>299700</v>
       </c>
       <c r="E83" s="3">
-        <v>272400</v>
+        <v>272600</v>
       </c>
       <c r="F83" s="3">
-        <v>264900</v>
+        <v>265100</v>
       </c>
       <c r="G83" s="3">
-        <v>259100</v>
+        <v>259300</v>
       </c>
       <c r="H83" s="3">
-        <v>202100</v>
+        <v>202300</v>
       </c>
       <c r="I83" s="3">
-        <v>205600</v>
+        <v>205700</v>
       </c>
       <c r="J83" s="3">
-        <v>207400</v>
+        <v>207600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>784700</v>
+        <v>785300</v>
       </c>
       <c r="E89" s="3">
-        <v>553500</v>
+        <v>554000</v>
       </c>
       <c r="F89" s="3">
-        <v>547100</v>
+        <v>547600</v>
       </c>
       <c r="G89" s="3">
-        <v>465900</v>
+        <v>466300</v>
       </c>
       <c r="H89" s="3">
-        <v>346300</v>
+        <v>346600</v>
       </c>
       <c r="I89" s="3">
-        <v>295200</v>
+        <v>295500</v>
       </c>
       <c r="J89" s="3">
-        <v>361800</v>
+        <v>362100</v>
       </c>
       <c r="K89" s="3">
         <v>228000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-382200</v>
+        <v>-382500</v>
       </c>
       <c r="E91" s="3">
-        <v>-303300</v>
+        <v>-303500</v>
       </c>
       <c r="F91" s="3">
-        <v>-218000</v>
+        <v>-218200</v>
       </c>
       <c r="G91" s="3">
-        <v>-276900</v>
+        <v>-277200</v>
       </c>
       <c r="H91" s="3">
-        <v>-234000</v>
+        <v>-234200</v>
       </c>
       <c r="I91" s="3">
-        <v>-176900</v>
+        <v>-177100</v>
       </c>
       <c r="J91" s="3">
-        <v>-177300</v>
+        <v>-177500</v>
       </c>
       <c r="K91" s="3">
         <v>-134900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-360800</v>
+        <v>-361100</v>
       </c>
       <c r="E94" s="3">
-        <v>-722800</v>
+        <v>-723400</v>
       </c>
       <c r="F94" s="3">
-        <v>-160300</v>
+        <v>-160400</v>
       </c>
       <c r="G94" s="3">
-        <v>-286300</v>
+        <v>-286500</v>
       </c>
       <c r="H94" s="3">
-        <v>-229500</v>
+        <v>-229700</v>
       </c>
       <c r="I94" s="3">
-        <v>-193700</v>
+        <v>-193900</v>
       </c>
       <c r="J94" s="3">
-        <v>-142100</v>
+        <v>-142300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,22 +3997,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-90900</v>
+        <v>-91000</v>
       </c>
       <c r="E96" s="3">
-        <v>-73000</v>
+        <v>-73100</v>
       </c>
       <c r="F96" s="3">
-        <v>-73000</v>
+        <v>-73100</v>
       </c>
       <c r="G96" s="3">
-        <v>-62100</v>
+        <v>-62200</v>
       </c>
       <c r="H96" s="3">
-        <v>-37700</v>
+        <v>-37800</v>
       </c>
       <c r="I96" s="3">
-        <v>-34200</v>
+        <v>-34300</v>
       </c>
       <c r="J96" s="3">
         <v>-25400</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-486500</v>
+        <v>-486900</v>
       </c>
       <c r="E100" s="3">
-        <v>-160000</v>
+        <v>-160200</v>
       </c>
       <c r="F100" s="3">
-        <v>198700</v>
+        <v>198800</v>
       </c>
       <c r="G100" s="3">
-        <v>-218200</v>
+        <v>-218400</v>
       </c>
       <c r="H100" s="3">
-        <v>-123300</v>
+        <v>-123400</v>
       </c>
       <c r="I100" s="3">
-        <v>-130300</v>
+        <v>-130400</v>
       </c>
       <c r="J100" s="3">
-        <v>-172500</v>
+        <v>-172700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4249,13 +4249,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62700</v>
+        <v>-62800</v>
       </c>
       <c r="E102" s="3">
-        <v>-327200</v>
+        <v>-327500</v>
       </c>
       <c r="F102" s="3">
-        <v>582600</v>
+        <v>583100</v>
       </c>
       <c r="G102" s="3">
         <v>-37200</v>
